--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,15 +250,15 @@
     <t>Bačka Topola</t>
   </si>
   <si>
+    <t>Jedinstvo Ub</t>
+  </si>
+  <si>
     <t>Železničar Pančevo</t>
   </si>
   <si>
     <t>Partizan</t>
   </si>
   <si>
-    <t>Jedinstvo Ub</t>
-  </si>
-  <si>
     <t>OFK Beograd</t>
   </si>
   <si>
@@ -298,6 +298,12 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['85', '90+1']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -311,6 +317,15 @@
   </si>
   <si>
     <t>['28', '51', '88']</t>
+  </si>
+  <si>
+    <t>['2', '27', '52', '65']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['19', '38']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +922,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -931,7 +946,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1113,7 +1128,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1137,7 +1152,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1319,7 +1334,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1421,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1549,7 +1564,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1961,7 +1976,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2167,7 +2182,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2530,6 +2545,624 @@
       </c>
       <c r="BP9">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7453694</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45500.625</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>2.5</v>
+      </c>
+      <c r="S10">
+        <v>1.73</v>
+      </c>
+      <c r="T10">
+        <v>1.29</v>
+      </c>
+      <c r="U10">
+        <v>3.25</v>
+      </c>
+      <c r="V10">
+        <v>2.5</v>
+      </c>
+      <c r="W10">
+        <v>1.5</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>1.11</v>
+      </c>
+      <c r="Z10">
+        <v>5.25</v>
+      </c>
+      <c r="AA10">
+        <v>4.1</v>
+      </c>
+      <c r="AB10">
+        <v>1.47</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>1.14</v>
+      </c>
+      <c r="AF10">
+        <v>4.8</v>
+      </c>
+      <c r="AG10">
+        <v>1.7</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>1.73</v>
+      </c>
+      <c r="AJ10">
+        <v>2.05</v>
+      </c>
+      <c r="AK10">
+        <v>3.4</v>
+      </c>
+      <c r="AL10">
+        <v>1.08</v>
+      </c>
+      <c r="AM10">
+        <v>1.06</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1.67</v>
+      </c>
+      <c r="AT10">
+        <v>1.67</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>7</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>5</v>
+      </c>
+      <c r="AZ10">
+        <v>13</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>6</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>3.01</v>
+      </c>
+      <c r="BE10">
+        <v>6.7</v>
+      </c>
+      <c r="BF10">
+        <v>1.64</v>
+      </c>
+      <c r="BG10">
+        <v>1.38</v>
+      </c>
+      <c r="BH10">
+        <v>2.8</v>
+      </c>
+      <c r="BI10">
+        <v>1.65</v>
+      </c>
+      <c r="BJ10">
+        <v>2.1</v>
+      </c>
+      <c r="BK10">
+        <v>2.07</v>
+      </c>
+      <c r="BL10">
+        <v>1.67</v>
+      </c>
+      <c r="BM10">
+        <v>2.65</v>
+      </c>
+      <c r="BN10">
+        <v>1.42</v>
+      </c>
+      <c r="BO10">
+        <v>3.6</v>
+      </c>
+      <c r="BP10">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7453695</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45500.625</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11">
+        <v>2.75</v>
+      </c>
+      <c r="R11">
+        <v>2.1</v>
+      </c>
+      <c r="S11">
+        <v>3.6</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>2.88</v>
+      </c>
+      <c r="V11">
+        <v>2.88</v>
+      </c>
+      <c r="W11">
+        <v>1.36</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.07</v>
+      </c>
+      <c r="Z11">
+        <v>1.82</v>
+      </c>
+      <c r="AA11">
+        <v>3.25</v>
+      </c>
+      <c r="AB11">
+        <v>3.75</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>1.25</v>
+      </c>
+      <c r="AF11">
+        <v>3.6</v>
+      </c>
+      <c r="AG11">
+        <v>1.9</v>
+      </c>
+      <c r="AH11">
+        <v>1.9</v>
+      </c>
+      <c r="AI11">
+        <v>1.65</v>
+      </c>
+      <c r="AJ11">
+        <v>2.18</v>
+      </c>
+      <c r="AK11">
+        <v>1.3</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.6</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>11</v>
+      </c>
+      <c r="AZ11">
+        <v>4</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>5</v>
+      </c>
+      <c r="BD11">
+        <v>1.51</v>
+      </c>
+      <c r="BE11">
+        <v>6.8</v>
+      </c>
+      <c r="BF11">
+        <v>3.56</v>
+      </c>
+      <c r="BG11">
+        <v>1.39</v>
+      </c>
+      <c r="BH11">
+        <v>2.75</v>
+      </c>
+      <c r="BI11">
+        <v>1.67</v>
+      </c>
+      <c r="BJ11">
+        <v>2.08</v>
+      </c>
+      <c r="BK11">
+        <v>2.1</v>
+      </c>
+      <c r="BL11">
+        <v>1.65</v>
+      </c>
+      <c r="BM11">
+        <v>2.7</v>
+      </c>
+      <c r="BN11">
+        <v>1.41</v>
+      </c>
+      <c r="BO11">
+        <v>3.7</v>
+      </c>
+      <c r="BP11">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7453700</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45500.625</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1.1</v>
+      </c>
+      <c r="AA12">
+        <v>8.25</v>
+      </c>
+      <c r="AB12">
+        <v>16.5</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1.36</v>
+      </c>
+      <c r="AH12">
+        <v>2.9</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>2.33</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>2.33</v>
+      </c>
+      <c r="AU12">
+        <v>9</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>11</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>20</v>
+      </c>
+      <c r="AZ12">
+        <v>2</v>
+      </c>
+      <c r="BA12">
+        <v>11</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>11</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,18 +256,18 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
     <t>Partizan</t>
   </si>
   <si>
     <t>OFK Beograd</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
-    <t>Spartak Subotica</t>
-  </si>
-  <si>
     <t>Vojvodina</t>
   </si>
   <si>
@@ -304,6 +304,12 @@
     <t>['85', '90+1']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -325,7 +331,10 @@
     <t>['71']</t>
   </si>
   <si>
-    <t>['19', '38']</t>
+    <t>['19', '37']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +955,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1128,7 +1137,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1152,7 +1161,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1540,7 +1549,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1564,7 +1573,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1746,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1952,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1976,7 +1985,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2182,7 +2191,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2570,7 +2579,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2594,7 +2603,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2800,7 +2809,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3006,7 +3015,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3099,70 +3108,482 @@
         <v>2.33</v>
       </c>
       <c r="AU12">
+        <v>12</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>17</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>29</v>
+      </c>
+      <c r="AZ12">
+        <v>2</v>
+      </c>
+      <c r="BA12">
+        <v>19</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>19</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7453697</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45501.66666666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>2.6</v>
+      </c>
+      <c r="T13">
+        <v>1.36</v>
+      </c>
+      <c r="U13">
+        <v>2.88</v>
+      </c>
+      <c r="V13">
+        <v>2.88</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>7.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.06</v>
+      </c>
+      <c r="Z13">
+        <v>3.27</v>
+      </c>
+      <c r="AA13">
+        <v>2.97</v>
+      </c>
+      <c r="AB13">
+        <v>1.9</v>
+      </c>
+      <c r="AC13">
+        <v>1.03</v>
+      </c>
+      <c r="AD13">
         <v>9</v>
       </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
+      <c r="AE13">
+        <v>1.29</v>
+      </c>
+      <c r="AF13">
+        <v>3.3</v>
+      </c>
+      <c r="AG13">
+        <v>1.96</v>
+      </c>
+      <c r="AH13">
+        <v>1.75</v>
+      </c>
+      <c r="AI13">
+        <v>1.75</v>
+      </c>
+      <c r="AJ13">
+        <v>2.03</v>
+      </c>
+      <c r="AK13">
+        <v>1.73</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>1.22</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>6</v>
+      </c>
+      <c r="AY13">
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <v>12</v>
+      </c>
+      <c r="BA13">
+        <v>4</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>8</v>
+      </c>
+      <c r="BD13">
+        <v>2.94</v>
+      </c>
+      <c r="BE13">
+        <v>6.4</v>
+      </c>
+      <c r="BF13">
+        <v>1.64</v>
+      </c>
+      <c r="BG13">
+        <v>1.32</v>
+      </c>
+      <c r="BH13">
+        <v>2.98</v>
+      </c>
+      <c r="BI13">
+        <v>1.59</v>
+      </c>
+      <c r="BJ13">
+        <v>2.16</v>
+      </c>
+      <c r="BK13">
+        <v>2</v>
+      </c>
+      <c r="BL13">
+        <v>1.69</v>
+      </c>
+      <c r="BM13">
+        <v>2.67</v>
+      </c>
+      <c r="BN13">
+        <v>1.39</v>
+      </c>
+      <c r="BO13">
+        <v>3.65</v>
+      </c>
+      <c r="BP13">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7454210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45501.66666666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14">
+        <v>3.5</v>
+      </c>
+      <c r="R14">
+        <v>2.05</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>1.4</v>
+      </c>
+      <c r="U14">
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1.33</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>1.06</v>
+      </c>
+      <c r="Z14">
+        <v>3.28</v>
+      </c>
+      <c r="AA14">
+        <v>2.98</v>
+      </c>
+      <c r="AB14">
+        <v>1.89</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>1.3</v>
+      </c>
+      <c r="AF14">
+        <v>3.2</v>
+      </c>
+      <c r="AG14">
+        <v>2.06</v>
+      </c>
+      <c r="AH14">
+        <v>1.68</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.96</v>
+      </c>
+      <c r="AK14">
+        <v>1.53</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>1.36</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>8</v>
+      </c>
+      <c r="AY14">
         <v>11</v>
       </c>
-      <c r="AX12">
-        <v>2</v>
-      </c>
-      <c r="AY12">
-        <v>20</v>
-      </c>
-      <c r="AZ12">
-        <v>2</v>
-      </c>
-      <c r="BA12">
-        <v>11</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>11</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
+      <c r="AZ14">
+        <v>10</v>
+      </c>
+      <c r="BA14">
+        <v>9</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>13</v>
+      </c>
+      <c r="BD14">
+        <v>2.46</v>
+      </c>
+      <c r="BE14">
+        <v>6.1</v>
+      </c>
+      <c r="BF14">
+        <v>1.87</v>
+      </c>
+      <c r="BG14">
+        <v>1.39</v>
+      </c>
+      <c r="BH14">
+        <v>2.67</v>
+      </c>
+      <c r="BI14">
+        <v>1.7</v>
+      </c>
+      <c r="BJ14">
+        <v>1.98</v>
+      </c>
+      <c r="BK14">
+        <v>2.19</v>
+      </c>
+      <c r="BL14">
+        <v>1.57</v>
+      </c>
+      <c r="BM14">
+        <v>2.98</v>
+      </c>
+      <c r="BN14">
+        <v>1.32</v>
+      </c>
+      <c r="BO14">
+        <v>3.9</v>
+      </c>
+      <c r="BP14">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,12 +262,12 @@
     <t>Radnički Niš</t>
   </si>
   <si>
+    <t>OFK Beograd</t>
+  </si>
+  <si>
     <t>Partizan</t>
   </si>
   <si>
-    <t>OFK Beograd</t>
-  </si>
-  <si>
     <t>Vojvodina</t>
   </si>
   <si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
   <si>
     <t>['3', '15', '45+3']</t>
@@ -696,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +958,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1137,7 +1140,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1161,7 +1164,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1549,7 +1552,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1573,7 +1576,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1985,7 +1988,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2191,7 +2194,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2579,7 +2582,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2603,7 +2606,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2809,7 +2812,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3015,7 +3018,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3221,7 +3224,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3584,6 +3587,212 @@
       </c>
       <c r="BP14">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7453699</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45502.625</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15">
+        <v>2.38</v>
+      </c>
+      <c r="R15">
+        <v>2.1</v>
+      </c>
+      <c r="S15">
+        <v>4.75</v>
+      </c>
+      <c r="T15">
+        <v>1.41</v>
+      </c>
+      <c r="U15">
+        <v>2.77</v>
+      </c>
+      <c r="V15">
+        <v>2.9</v>
+      </c>
+      <c r="W15">
+        <v>1.38</v>
+      </c>
+      <c r="X15">
+        <v>7.4</v>
+      </c>
+      <c r="Y15">
+        <v>1.07</v>
+      </c>
+      <c r="Z15">
+        <v>1.53</v>
+      </c>
+      <c r="AA15">
+        <v>3.55</v>
+      </c>
+      <c r="AB15">
+        <v>5.25</v>
+      </c>
+      <c r="AC15">
+        <v>1.03</v>
+      </c>
+      <c r="AD15">
+        <v>9</v>
+      </c>
+      <c r="AE15">
+        <v>1.3</v>
+      </c>
+      <c r="AF15">
+        <v>3.2</v>
+      </c>
+      <c r="AG15">
+        <v>2.04</v>
+      </c>
+      <c r="AH15">
+        <v>1.7</v>
+      </c>
+      <c r="AI15">
+        <v>1.86</v>
+      </c>
+      <c r="AJ15">
+        <v>1.9</v>
+      </c>
+      <c r="AK15">
+        <v>1.16</v>
+      </c>
+      <c r="AL15">
+        <v>1.24</v>
+      </c>
+      <c r="AM15">
+        <v>2.01</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>3</v>
+      </c>
+      <c r="AV15">
+        <v>6</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <v>6</v>
+      </c>
+      <c r="AY15">
+        <v>6</v>
+      </c>
+      <c r="AZ15">
+        <v>12</v>
+      </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>9</v>
+      </c>
+      <c r="BD15">
+        <v>1.76</v>
+      </c>
+      <c r="BE15">
+        <v>6.2</v>
+      </c>
+      <c r="BF15">
+        <v>2.66</v>
+      </c>
+      <c r="BG15">
+        <v>1.38</v>
+      </c>
+      <c r="BH15">
+        <v>2.71</v>
+      </c>
+      <c r="BI15">
+        <v>1.68</v>
+      </c>
+      <c r="BJ15">
+        <v>2.01</v>
+      </c>
+      <c r="BK15">
+        <v>2.15</v>
+      </c>
+      <c r="BL15">
+        <v>1.59</v>
+      </c>
+      <c r="BM15">
+        <v>2.93</v>
+      </c>
+      <c r="BN15">
+        <v>1.33</v>
+      </c>
+      <c r="BO15">
+        <v>3.8</v>
+      </c>
+      <c r="BP15">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -2481,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3793,6 +3796,212 @@
       </c>
       <c r="BP15">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7453707</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45506.625</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16">
+        <v>2.88</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>3.75</v>
+      </c>
+      <c r="T16">
+        <v>1.5</v>
+      </c>
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>3.4</v>
+      </c>
+      <c r="W16">
+        <v>1.3</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>1.06</v>
+      </c>
+      <c r="Z16">
+        <v>2.8</v>
+      </c>
+      <c r="AA16">
+        <v>3.3</v>
+      </c>
+      <c r="AB16">
+        <v>2.2</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>7.6</v>
+      </c>
+      <c r="AE16">
+        <v>1.36</v>
+      </c>
+      <c r="AF16">
+        <v>2.79</v>
+      </c>
+      <c r="AG16">
+        <v>1.9</v>
+      </c>
+      <c r="AH16">
+        <v>1.8</v>
+      </c>
+      <c r="AI16">
+        <v>1.91</v>
+      </c>
+      <c r="AJ16">
+        <v>1.8</v>
+      </c>
+      <c r="AK16">
+        <v>1.31</v>
+      </c>
+      <c r="AL16">
+        <v>1.3</v>
+      </c>
+      <c r="AM16">
+        <v>1.59</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16">
+        <v>0.5</v>
+      </c>
+      <c r="AR16">
+        <v>1.02</v>
+      </c>
+      <c r="AS16">
+        <v>1.43</v>
+      </c>
+      <c r="AT16">
+        <v>2.45</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AV16">
+        <v>3</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>8</v>
+      </c>
+      <c r="BA16">
+        <v>3</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>4</v>
+      </c>
+      <c r="BD16">
+        <v>2</v>
+      </c>
+      <c r="BE16">
+        <v>7.5</v>
+      </c>
+      <c r="BF16">
+        <v>2.05</v>
+      </c>
+      <c r="BG16">
+        <v>1.36</v>
+      </c>
+      <c r="BH16">
+        <v>2.9</v>
+      </c>
+      <c r="BI16">
+        <v>1.67</v>
+      </c>
+      <c r="BJ16">
+        <v>2.07</v>
+      </c>
+      <c r="BK16">
+        <v>2.15</v>
+      </c>
+      <c r="BL16">
+        <v>1.62</v>
+      </c>
+      <c r="BM16">
+        <v>2.9</v>
+      </c>
+      <c r="BN16">
+        <v>1.36</v>
+      </c>
+      <c r="BO16">
+        <v>3.7</v>
+      </c>
+      <c r="BP16">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,18 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['52', '71']</t>
+  </si>
+  <si>
+    <t>['19', '30', '38']</t>
+  </si>
+  <si>
+    <t>['13', '39']</t>
+  </si>
+  <si>
+    <t>['33', '45+13', '83', '85']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -341,6 +353,15 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['53', '63', '68', '83']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +982,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1039,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1167,7 +1188,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1579,7 +1600,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1657,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1991,7 +2012,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2069,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2197,7 +2218,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2278,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2481,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2609,7 +2630,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2815,7 +2836,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3021,7 +3042,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3227,7 +3248,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3845,7 +3866,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3938,22 +3959,22 @@
         <v>2.45</v>
       </c>
       <c r="AU16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16">
         <v>7</v>
       </c>
       <c r="AX16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4002,6 +4023,1448 @@
       </c>
       <c r="BP16">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7453703</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45507.52083333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17">
+        <v>2.75</v>
+      </c>
+      <c r="R17">
+        <v>2.05</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>1.44</v>
+      </c>
+      <c r="U17">
+        <v>2.63</v>
+      </c>
+      <c r="V17">
+        <v>3.25</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>7.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.07</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>3.2</v>
+      </c>
+      <c r="AB17">
+        <v>3.5</v>
+      </c>
+      <c r="AC17">
+        <v>1.04</v>
+      </c>
+      <c r="AD17">
+        <v>9</v>
+      </c>
+      <c r="AE17">
+        <v>1.33</v>
+      </c>
+      <c r="AF17">
+        <v>3.25</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>1.67</v>
+      </c>
+      <c r="AI17">
+        <v>1.83</v>
+      </c>
+      <c r="AJ17">
+        <v>1.83</v>
+      </c>
+      <c r="AK17">
+        <v>1.25</v>
+      </c>
+      <c r="AL17">
+        <v>1.29</v>
+      </c>
+      <c r="AM17">
+        <v>1.67</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>1.59</v>
+      </c>
+      <c r="AS17">
+        <v>1.49</v>
+      </c>
+      <c r="AT17">
+        <v>3.08</v>
+      </c>
+      <c r="AU17">
+        <v>10</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
+        <v>4</v>
+      </c>
+      <c r="AY17">
+        <v>13</v>
+      </c>
+      <c r="AZ17">
+        <v>6</v>
+      </c>
+      <c r="BA17">
+        <v>9</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>10</v>
+      </c>
+      <c r="BD17">
+        <v>1.69</v>
+      </c>
+      <c r="BE17">
+        <v>8</v>
+      </c>
+      <c r="BF17">
+        <v>2.54</v>
+      </c>
+      <c r="BG17">
+        <v>1.34</v>
+      </c>
+      <c r="BH17">
+        <v>3</v>
+      </c>
+      <c r="BI17">
+        <v>1.65</v>
+      </c>
+      <c r="BJ17">
+        <v>2.1</v>
+      </c>
+      <c r="BK17">
+        <v>2.1</v>
+      </c>
+      <c r="BL17">
+        <v>1.65</v>
+      </c>
+      <c r="BM17">
+        <v>2.85</v>
+      </c>
+      <c r="BN17">
+        <v>1.37</v>
+      </c>
+      <c r="BO17">
+        <v>3.86</v>
+      </c>
+      <c r="BP17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7453702</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45507.625</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>3.25</v>
+      </c>
+      <c r="S18">
+        <v>1.36</v>
+      </c>
+      <c r="T18">
+        <v>1.2</v>
+      </c>
+      <c r="U18">
+        <v>4.33</v>
+      </c>
+      <c r="V18">
+        <v>1.91</v>
+      </c>
+      <c r="W18">
+        <v>1.8</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>1.22</v>
+      </c>
+      <c r="Z18">
+        <v>17</v>
+      </c>
+      <c r="AA18">
+        <v>9</v>
+      </c>
+      <c r="AB18">
+        <v>1.08</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>19</v>
+      </c>
+      <c r="AE18">
+        <v>1.1</v>
+      </c>
+      <c r="AF18">
+        <v>6.5</v>
+      </c>
+      <c r="AG18">
+        <v>1.36</v>
+      </c>
+      <c r="AH18">
+        <v>3</v>
+      </c>
+      <c r="AI18">
+        <v>2.63</v>
+      </c>
+      <c r="AJ18">
+        <v>1.44</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>1.04</v>
+      </c>
+      <c r="AM18">
+        <v>1.02</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>1.24</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>1.24</v>
+      </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>8</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>11</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>6</v>
+      </c>
+      <c r="BD18">
+        <v>8.1</v>
+      </c>
+      <c r="BE18">
+        <v>12</v>
+      </c>
+      <c r="BF18">
+        <v>1.12</v>
+      </c>
+      <c r="BG18">
+        <v>1.38</v>
+      </c>
+      <c r="BH18">
+        <v>2.8</v>
+      </c>
+      <c r="BI18">
+        <v>1.67</v>
+      </c>
+      <c r="BJ18">
+        <v>2.07</v>
+      </c>
+      <c r="BK18">
+        <v>2.15</v>
+      </c>
+      <c r="BL18">
+        <v>1.62</v>
+      </c>
+      <c r="BM18">
+        <v>2.9</v>
+      </c>
+      <c r="BN18">
+        <v>1.36</v>
+      </c>
+      <c r="BO18">
+        <v>3.7</v>
+      </c>
+      <c r="BP18">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7453701</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45507.625</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1.65</v>
+      </c>
+      <c r="AA19">
+        <v>3.6</v>
+      </c>
+      <c r="AB19">
+        <v>4.6</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1.8</v>
+      </c>
+      <c r="AH19">
+        <v>1.83</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1.5</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0.87</v>
+      </c>
+      <c r="AS19">
+        <v>0.52</v>
+      </c>
+      <c r="AT19">
+        <v>1.39</v>
+      </c>
+      <c r="AU19">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>7</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>9</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>11</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7453705</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45508.52083333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20">
+        <v>1.95</v>
+      </c>
+      <c r="R20">
+        <v>2.38</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>1.33</v>
+      </c>
+      <c r="U20">
+        <v>3.25</v>
+      </c>
+      <c r="V20">
+        <v>2.5</v>
+      </c>
+      <c r="W20">
+        <v>1.5</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>1.11</v>
+      </c>
+      <c r="Z20">
+        <v>1.58</v>
+      </c>
+      <c r="AA20">
+        <v>3.63</v>
+      </c>
+      <c r="AB20">
+        <v>5.02</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>12</v>
+      </c>
+      <c r="AE20">
+        <v>1.22</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+      <c r="AG20">
+        <v>1.93</v>
+      </c>
+      <c r="AH20">
+        <v>1.82</v>
+      </c>
+      <c r="AI20">
+        <v>1.91</v>
+      </c>
+      <c r="AJ20">
+        <v>1.8</v>
+      </c>
+      <c r="AK20">
+        <v>1.1</v>
+      </c>
+      <c r="AL20">
+        <v>1.17</v>
+      </c>
+      <c r="AM20">
+        <v>2.4</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.78</v>
+      </c>
+      <c r="AS20">
+        <v>1.49</v>
+      </c>
+      <c r="AT20">
+        <v>3.27</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>7</v>
+      </c>
+      <c r="AZ20">
+        <v>8</v>
+      </c>
+      <c r="BA20">
+        <v>5</v>
+      </c>
+      <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
+        <v>9</v>
+      </c>
+      <c r="BD20">
+        <v>1.45</v>
+      </c>
+      <c r="BE20">
+        <v>8.5</v>
+      </c>
+      <c r="BF20">
+        <v>3.46</v>
+      </c>
+      <c r="BG20">
+        <v>1.43</v>
+      </c>
+      <c r="BH20">
+        <v>2.54</v>
+      </c>
+      <c r="BI20">
+        <v>1.78</v>
+      </c>
+      <c r="BJ20">
+        <v>1.88</v>
+      </c>
+      <c r="BK20">
+        <v>2.32</v>
+      </c>
+      <c r="BL20">
+        <v>1.51</v>
+      </c>
+      <c r="BM20">
+        <v>3.2</v>
+      </c>
+      <c r="BN20">
+        <v>1.28</v>
+      </c>
+      <c r="BO20">
+        <v>4</v>
+      </c>
+      <c r="BP20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7453704</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45508.625</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2.05</v>
+      </c>
+      <c r="S21">
+        <v>3.4</v>
+      </c>
+      <c r="T21">
+        <v>1.44</v>
+      </c>
+      <c r="U21">
+        <v>2.63</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>7.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>2.35</v>
+      </c>
+      <c r="AA21">
+        <v>3.15</v>
+      </c>
+      <c r="AB21">
+        <v>2.76</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>1.33</v>
+      </c>
+      <c r="AF21">
+        <v>3.25</v>
+      </c>
+      <c r="AG21">
+        <v>1.91</v>
+      </c>
+      <c r="AH21">
+        <v>1.83</v>
+      </c>
+      <c r="AI21">
+        <v>1.83</v>
+      </c>
+      <c r="AJ21">
+        <v>1.83</v>
+      </c>
+      <c r="AK21">
+        <v>1.33</v>
+      </c>
+      <c r="AL21">
+        <v>1.29</v>
+      </c>
+      <c r="AM21">
+        <v>1.5</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.59</v>
+      </c>
+      <c r="AT21">
+        <v>1.59</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>5</v>
+      </c>
+      <c r="AZ21">
+        <v>10</v>
+      </c>
+      <c r="BA21">
+        <v>2</v>
+      </c>
+      <c r="BB21">
+        <v>7</v>
+      </c>
+      <c r="BC21">
+        <v>9</v>
+      </c>
+      <c r="BD21">
+        <v>1.95</v>
+      </c>
+      <c r="BE21">
+        <v>7.5</v>
+      </c>
+      <c r="BF21">
+        <v>2.1</v>
+      </c>
+      <c r="BG21">
+        <v>1.32</v>
+      </c>
+      <c r="BH21">
+        <v>2.98</v>
+      </c>
+      <c r="BI21">
+        <v>1.59</v>
+      </c>
+      <c r="BJ21">
+        <v>2.16</v>
+      </c>
+      <c r="BK21">
+        <v>2</v>
+      </c>
+      <c r="BL21">
+        <v>1.69</v>
+      </c>
+      <c r="BM21">
+        <v>2.67</v>
+      </c>
+      <c r="BN21">
+        <v>1.39</v>
+      </c>
+      <c r="BO21">
+        <v>3.65</v>
+      </c>
+      <c r="BP21">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7453708</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45508.625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22">
+        <v>1.8</v>
+      </c>
+      <c r="R22">
+        <v>2.4</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>5.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>1.4</v>
+      </c>
+      <c r="AA22">
+        <v>4.41</v>
+      </c>
+      <c r="AB22">
+        <v>6.01</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>12</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>4.33</v>
+      </c>
+      <c r="AG22">
+        <v>1.57</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>2</v>
+      </c>
+      <c r="AJ22">
+        <v>1.73</v>
+      </c>
+      <c r="AK22">
+        <v>1.06</v>
+      </c>
+      <c r="AL22">
+        <v>1.14</v>
+      </c>
+      <c r="AM22">
+        <v>2.88</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>1.5</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.25</v>
+      </c>
+      <c r="AT22">
+        <v>1.25</v>
+      </c>
+      <c r="AU22">
+        <v>3</v>
+      </c>
+      <c r="AV22">
+        <v>3</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <v>7</v>
+      </c>
+      <c r="AZ22">
+        <v>7</v>
+      </c>
+      <c r="BA22">
+        <v>8</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.26</v>
+      </c>
+      <c r="BE22">
+        <v>10</v>
+      </c>
+      <c r="BF22">
+        <v>4.86</v>
+      </c>
+      <c r="BG22">
+        <v>1.28</v>
+      </c>
+      <c r="BH22">
+        <v>3.2</v>
+      </c>
+      <c r="BI22">
+        <v>1.52</v>
+      </c>
+      <c r="BJ22">
+        <v>2.3</v>
+      </c>
+      <c r="BK22">
+        <v>1.98</v>
+      </c>
+      <c r="BL22">
+        <v>1.82</v>
+      </c>
+      <c r="BM22">
+        <v>2.5</v>
+      </c>
+      <c r="BN22">
+        <v>1.44</v>
+      </c>
+      <c r="BO22">
+        <v>3.42</v>
+      </c>
+      <c r="BP22">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7453706</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>2.1</v>
+      </c>
+      <c r="S23">
+        <v>3.4</v>
+      </c>
+      <c r="T23">
+        <v>1.4</v>
+      </c>
+      <c r="U23">
+        <v>2.75</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>1.36</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>1.86</v>
+      </c>
+      <c r="AA23">
+        <v>3.32</v>
+      </c>
+      <c r="AB23">
+        <v>3.4</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>9.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.3</v>
+      </c>
+      <c r="AF23">
+        <v>3.4</v>
+      </c>
+      <c r="AG23">
+        <v>1.77</v>
+      </c>
+      <c r="AH23">
+        <v>1.92</v>
+      </c>
+      <c r="AI23">
+        <v>1.8</v>
+      </c>
+      <c r="AJ23">
+        <v>1.91</v>
+      </c>
+      <c r="AK23">
+        <v>1.33</v>
+      </c>
+      <c r="AL23">
+        <v>1.29</v>
+      </c>
+      <c r="AM23">
+        <v>1.5</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1.76</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>1.76</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>6</v>
+      </c>
+      <c r="AZ23">
+        <v>9</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>7</v>
+      </c>
+      <c r="BC23">
+        <v>10</v>
+      </c>
+      <c r="BD23">
+        <v>2</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>2.1</v>
+      </c>
+      <c r="BG23">
+        <v>1.41</v>
+      </c>
+      <c r="BH23">
+        <v>2.7</v>
+      </c>
+      <c r="BI23">
+        <v>1.7</v>
+      </c>
+      <c r="BJ23">
+        <v>2.03</v>
+      </c>
+      <c r="BK23">
+        <v>2.15</v>
+      </c>
+      <c r="BL23">
+        <v>1.63</v>
+      </c>
+      <c r="BM23">
+        <v>2.75</v>
+      </c>
+      <c r="BN23">
+        <v>1.39</v>
+      </c>
+      <c r="BO23">
+        <v>3.8</v>
+      </c>
+      <c r="BP23">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -316,12 +316,12 @@
     <t>['52', '71']</t>
   </si>
   <si>
+    <t>['13', '39']</t>
+  </si>
+  <si>
     <t>['19', '30', '38']</t>
   </si>
   <si>
-    <t>['13', '39']</t>
-  </si>
-  <si>
     <t>['33', '45+13', '83', '85']</t>
   </si>
   <si>
@@ -355,10 +355,10 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['53', '63', '68', '83']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['37']</t>
@@ -3959,22 +3959,22 @@
         <v>2.45</v>
       </c>
       <c r="AU16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW16">
         <v>7</v>
       </c>
       <c r="AX16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4171,16 +4171,16 @@
         <v>2</v>
       </c>
       <c r="AW17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA17">
         <v>9</v>
@@ -4236,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7453702</v>
+        <v>7453701</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4251,190 +4251,190 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
         <v>113</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1.65</v>
+      </c>
+      <c r="AA18">
+        <v>3.6</v>
+      </c>
+      <c r="AB18">
+        <v>4.6</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>1.8</v>
       </c>
-      <c r="X18">
+      <c r="AH18">
+        <v>1.83</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0.87</v>
+      </c>
+      <c r="AS18">
+        <v>0.52</v>
+      </c>
+      <c r="AT18">
+        <v>1.39</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
         <v>4</v>
       </c>
-      <c r="Y18">
-        <v>1.22</v>
-      </c>
-      <c r="Z18">
-        <v>17</v>
-      </c>
-      <c r="AA18">
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>7</v>
+      </c>
+      <c r="AZ18">
+        <v>7</v>
+      </c>
+      <c r="BA18">
         <v>9</v>
       </c>
-      <c r="AB18">
-        <v>1.08</v>
-      </c>
-      <c r="AC18">
-        <v>1.01</v>
-      </c>
-      <c r="AD18">
-        <v>19</v>
-      </c>
-      <c r="AE18">
-        <v>1.1</v>
-      </c>
-      <c r="AF18">
-        <v>6.5</v>
-      </c>
-      <c r="AG18">
-        <v>1.36</v>
-      </c>
-      <c r="AH18">
-        <v>3</v>
-      </c>
-      <c r="AI18">
-        <v>2.63</v>
-      </c>
-      <c r="AJ18">
-        <v>1.44</v>
-      </c>
-      <c r="AK18">
-        <v>7</v>
-      </c>
-      <c r="AL18">
-        <v>1.04</v>
-      </c>
-      <c r="AM18">
-        <v>1.02</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>3</v>
-      </c>
-      <c r="AR18">
-        <v>1.24</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>1.24</v>
-      </c>
-      <c r="AU18">
-        <v>3</v>
-      </c>
-      <c r="AV18">
-        <v>3</v>
-      </c>
-      <c r="AW18">
-        <v>3</v>
-      </c>
-      <c r="AX18">
-        <v>8</v>
-      </c>
-      <c r="AY18">
-        <v>6</v>
-      </c>
-      <c r="AZ18">
-        <v>11</v>
-      </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
       <c r="BB18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD18">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="BE18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BF18">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="BG18">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BH18">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BI18">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BJ18">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="BK18">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL18">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BM18">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BN18">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BO18">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BP18">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4442,7 +4442,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7453701</v>
+        <v>7453702</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4457,103 +4457,103 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s">
         <v>114</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z19">
-        <v>1.65</v>
+        <v>17</v>
       </c>
       <c r="AA19">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="AB19">
-        <v>4.6</v>
+        <v>1.08</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AG19">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="AH19">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -4562,85 +4562,85 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR19">
-        <v>0.87</v>
+        <v>1.24</v>
       </c>
       <c r="AS19">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>7</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>8</v>
+      </c>
+      <c r="AY19">
+        <v>6</v>
+      </c>
+      <c r="AZ19">
+        <v>15</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
         <v>5</v>
       </c>
-      <c r="AV19">
-        <v>4</v>
-      </c>
-      <c r="AW19">
-        <v>2</v>
-      </c>
-      <c r="AX19">
-        <v>3</v>
-      </c>
-      <c r="AY19">
-        <v>7</v>
-      </c>
-      <c r="AZ19">
-        <v>7</v>
-      </c>
-      <c r="BA19">
-        <v>9</v>
-      </c>
-      <c r="BB19">
-        <v>2</v>
-      </c>
       <c r="BC19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BF19">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BG19">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BH19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BI19">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BK19">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL19">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BM19">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BN19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BO19">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BP19">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4783,22 +4783,22 @@
         <v>3.27</v>
       </c>
       <c r="AU20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20">
         <v>4</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -4854,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7453704</v>
+        <v>7453708</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4869,106 +4869,106 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
         <v>3.4</v>
       </c>
-      <c r="T21">
-        <v>1.44</v>
-      </c>
-      <c r="U21">
-        <v>2.63</v>
-      </c>
       <c r="V21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W21">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y21">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z21">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA21">
-        <v>3.15</v>
+        <v>4.41</v>
       </c>
       <c r="AB21">
-        <v>2.76</v>
+        <v>6.01</v>
       </c>
       <c r="AC21">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF21">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="AG21">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AH21">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AI21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ21">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK21">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="AL21">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AM21">
-        <v>1.5</v>
+        <v>2.88</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>3</v>
@@ -4983,76 +4983,76 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AT21">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
         <v>5</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
+        <v>9</v>
+      </c>
+      <c r="AZ21">
+        <v>9</v>
+      </c>
+      <c r="BA21">
+        <v>8</v>
+      </c>
+      <c r="BB21">
         <v>4</v>
       </c>
-      <c r="AY21">
-        <v>5</v>
-      </c>
-      <c r="AZ21">
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>1.26</v>
+      </c>
+      <c r="BE21">
         <v>10</v>
       </c>
-      <c r="BA21">
-        <v>2</v>
-      </c>
-      <c r="BB21">
-        <v>7</v>
-      </c>
-      <c r="BC21">
-        <v>9</v>
-      </c>
-      <c r="BD21">
-        <v>1.95</v>
-      </c>
-      <c r="BE21">
-        <v>7.5</v>
-      </c>
       <c r="BF21">
-        <v>2.1</v>
+        <v>4.86</v>
       </c>
       <c r="BG21">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BH21">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="BI21">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="BJ21">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="BK21">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL21">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="BM21">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="BN21">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="BO21">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="BP21">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5060,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7453708</v>
+        <v>7453704</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5075,106 +5075,106 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O22" t="s">
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="Q22">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="T22">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U22">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>7.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>2.35</v>
+      </c>
+      <c r="AA22">
+        <v>3.15</v>
+      </c>
+      <c r="AB22">
+        <v>2.76</v>
+      </c>
+      <c r="AC22">
+        <v>1.04</v>
+      </c>
+      <c r="AD22">
+        <v>9</v>
+      </c>
+      <c r="AE22">
+        <v>1.33</v>
+      </c>
+      <c r="AF22">
+        <v>3.25</v>
+      </c>
+      <c r="AG22">
+        <v>1.91</v>
+      </c>
+      <c r="AH22">
+        <v>1.83</v>
+      </c>
+      <c r="AI22">
+        <v>1.83</v>
+      </c>
+      <c r="AJ22">
+        <v>1.83</v>
+      </c>
+      <c r="AK22">
+        <v>1.33</v>
+      </c>
+      <c r="AL22">
+        <v>1.29</v>
+      </c>
+      <c r="AM22">
         <v>1.5</v>
       </c>
-      <c r="X22">
-        <v>5.5</v>
-      </c>
-      <c r="Y22">
-        <v>1.13</v>
-      </c>
-      <c r="Z22">
-        <v>1.4</v>
-      </c>
-      <c r="AA22">
-        <v>4.41</v>
-      </c>
-      <c r="AB22">
-        <v>6.01</v>
-      </c>
-      <c r="AC22">
-        <v>1.01</v>
-      </c>
-      <c r="AD22">
-        <v>12</v>
-      </c>
-      <c r="AE22">
-        <v>1.2</v>
-      </c>
-      <c r="AF22">
-        <v>4.33</v>
-      </c>
-      <c r="AG22">
-        <v>1.57</v>
-      </c>
-      <c r="AH22">
-        <v>2.25</v>
-      </c>
-      <c r="AI22">
-        <v>2</v>
-      </c>
-      <c r="AJ22">
-        <v>1.73</v>
-      </c>
-      <c r="AK22">
-        <v>1.06</v>
-      </c>
-      <c r="AL22">
-        <v>1.14</v>
-      </c>
-      <c r="AM22">
-        <v>2.88</v>
-      </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
         <v>3</v>
@@ -5189,76 +5189,76 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="AU22">
         <v>3</v>
       </c>
       <c r="AV22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>16</v>
+      </c>
+      <c r="BA22">
+        <v>2</v>
+      </c>
+      <c r="BB22">
         <v>7</v>
       </c>
-      <c r="AZ22">
-        <v>7</v>
-      </c>
-      <c r="BA22">
-        <v>8</v>
-      </c>
-      <c r="BB22">
-        <v>4</v>
-      </c>
       <c r="BC22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD22">
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="BE22">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF22">
-        <v>4.86</v>
+        <v>2.1</v>
       </c>
       <c r="BG22">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH22">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="BI22">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="BJ22">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="BK22">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL22">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="BM22">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="BN22">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BO22">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="BP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5401,19 +5401,19 @@
         <v>1.76</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,12 @@
     <t>['33', '45+13', '83', '85']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['27', '45', '67']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -362,6 +368,12 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['11', '90+6']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +994,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1188,7 +1200,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1600,7 +1612,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2012,7 +2024,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2218,7 +2230,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2630,7 +2642,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2836,7 +2848,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -2917,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3042,7 +3054,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3248,7 +3260,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3329,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3738,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3866,7 +3878,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4278,7 +4290,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4484,7 +4496,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5102,7 +5114,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5464,6 +5476,418 @@
         <v>3.8</v>
       </c>
       <c r="BP23">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7453714</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45513.54166666666</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24">
+        <v>3.75</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>2.88</v>
+      </c>
+      <c r="T24">
+        <v>1.44</v>
+      </c>
+      <c r="U24">
+        <v>2.63</v>
+      </c>
+      <c r="V24">
+        <v>3.25</v>
+      </c>
+      <c r="W24">
+        <v>1.33</v>
+      </c>
+      <c r="X24">
+        <v>7.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.07</v>
+      </c>
+      <c r="Z24">
+        <v>3.5</v>
+      </c>
+      <c r="AA24">
+        <v>3.19</v>
+      </c>
+      <c r="AB24">
+        <v>2.06</v>
+      </c>
+      <c r="AC24">
+        <v>1.06</v>
+      </c>
+      <c r="AD24">
+        <v>8</v>
+      </c>
+      <c r="AE24">
+        <v>1.36</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>2.05</v>
+      </c>
+      <c r="AH24">
+        <v>1.65</v>
+      </c>
+      <c r="AI24">
+        <v>1.91</v>
+      </c>
+      <c r="AJ24">
+        <v>1.8</v>
+      </c>
+      <c r="AK24">
+        <v>1.62</v>
+      </c>
+      <c r="AL24">
+        <v>1.28</v>
+      </c>
+      <c r="AM24">
+        <v>1.35</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1.5</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>0.98</v>
+      </c>
+      <c r="AS24">
+        <v>1.72</v>
+      </c>
+      <c r="AT24">
+        <v>2.7</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>8</v>
+      </c>
+      <c r="AW24">
+        <v>11</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>17</v>
+      </c>
+      <c r="AZ24">
+        <v>12</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>5</v>
+      </c>
+      <c r="BC24">
+        <v>10</v>
+      </c>
+      <c r="BD24">
+        <v>2.4</v>
+      </c>
+      <c r="BE24">
+        <v>7.5</v>
+      </c>
+      <c r="BF24">
+        <v>1.82</v>
+      </c>
+      <c r="BG24">
+        <v>1.35</v>
+      </c>
+      <c r="BH24">
+        <v>2.84</v>
+      </c>
+      <c r="BI24">
+        <v>1.63</v>
+      </c>
+      <c r="BJ24">
+        <v>2.09</v>
+      </c>
+      <c r="BK24">
+        <v>2.09</v>
+      </c>
+      <c r="BL24">
+        <v>1.63</v>
+      </c>
+      <c r="BM24">
+        <v>2.79</v>
+      </c>
+      <c r="BN24">
+        <v>1.36</v>
+      </c>
+      <c r="BO24">
+        <v>3.7</v>
+      </c>
+      <c r="BP24">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7453711</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>2.75</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>1.5</v>
+      </c>
+      <c r="U25">
+        <v>2.5</v>
+      </c>
+      <c r="V25">
+        <v>3.4</v>
+      </c>
+      <c r="W25">
+        <v>1.3</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>1.06</v>
+      </c>
+      <c r="Z25">
+        <v>1.76</v>
+      </c>
+      <c r="AA25">
+        <v>3.61</v>
+      </c>
+      <c r="AB25">
+        <v>3.77</v>
+      </c>
+      <c r="AC25">
+        <v>1.06</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>1.38</v>
+      </c>
+      <c r="AF25">
+        <v>2.9</v>
+      </c>
+      <c r="AG25">
+        <v>1.83</v>
+      </c>
+      <c r="AH25">
+        <v>1.89</v>
+      </c>
+      <c r="AI25">
+        <v>1.91</v>
+      </c>
+      <c r="AJ25">
+        <v>1.8</v>
+      </c>
+      <c r="AK25">
+        <v>1.28</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.7</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>1.68</v>
+      </c>
+      <c r="AS25">
+        <v>0.46</v>
+      </c>
+      <c r="AT25">
+        <v>2.14</v>
+      </c>
+      <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <v>16</v>
+      </c>
+      <c r="AZ25">
+        <v>5</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>6</v>
+      </c>
+      <c r="BD25">
+        <v>1.51</v>
+      </c>
+      <c r="BE25">
+        <v>8.5</v>
+      </c>
+      <c r="BF25">
+        <v>3.16</v>
+      </c>
+      <c r="BG25">
+        <v>1.31</v>
+      </c>
+      <c r="BH25">
+        <v>3.04</v>
+      </c>
+      <c r="BI25">
+        <v>1.57</v>
+      </c>
+      <c r="BJ25">
+        <v>2.19</v>
+      </c>
+      <c r="BK25">
+        <v>1.98</v>
+      </c>
+      <c r="BL25">
+        <v>1.7</v>
+      </c>
+      <c r="BM25">
+        <v>2.6</v>
+      </c>
+      <c r="BN25">
+        <v>1.41</v>
+      </c>
+      <c r="BO25">
+        <v>3.65</v>
+      </c>
+      <c r="BP25">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['9', '60', '80', '86']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -374,6 +383,12 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['4', '55']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1009,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1200,7 +1215,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1484,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1612,7 +1627,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1690,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2024,7 +2039,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2230,7 +2245,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2642,7 +2657,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2848,7 +2863,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3054,7 +3069,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3132,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3260,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3338,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3753,7 +3768,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3878,7 +3893,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4290,7 +4305,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4368,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4496,7 +4511,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5114,7 +5129,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5526,7 +5541,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5732,7 +5747,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5889,6 +5904,624 @@
       </c>
       <c r="BP25">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7453712</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45514.625</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26">
+        <v>3.1</v>
+      </c>
+      <c r="R26">
+        <v>2.1</v>
+      </c>
+      <c r="S26">
+        <v>3.1</v>
+      </c>
+      <c r="T26">
+        <v>1.36</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>2.75</v>
+      </c>
+      <c r="W26">
+        <v>1.4</v>
+      </c>
+      <c r="X26">
+        <v>6.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.1</v>
+      </c>
+      <c r="Z26">
+        <v>2.55</v>
+      </c>
+      <c r="AA26">
+        <v>3.3</v>
+      </c>
+      <c r="AB26">
+        <v>2.63</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>10.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.25</v>
+      </c>
+      <c r="AF26">
+        <v>3.6</v>
+      </c>
+      <c r="AG26">
+        <v>1.73</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.5</v>
+      </c>
+      <c r="AL26">
+        <v>1.33</v>
+      </c>
+      <c r="AM26">
+        <v>1.5</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0.95</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0.95</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>9</v>
+      </c>
+      <c r="AY26">
+        <v>9</v>
+      </c>
+      <c r="AZ26">
+        <v>13</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>6</v>
+      </c>
+      <c r="BD26">
+        <v>2.05</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1.41</v>
+      </c>
+      <c r="BH26">
+        <v>2.7</v>
+      </c>
+      <c r="BI26">
+        <v>1.73</v>
+      </c>
+      <c r="BJ26">
+        <v>2</v>
+      </c>
+      <c r="BK26">
+        <v>2.15</v>
+      </c>
+      <c r="BL26">
+        <v>1.63</v>
+      </c>
+      <c r="BM26">
+        <v>2.75</v>
+      </c>
+      <c r="BN26">
+        <v>1.39</v>
+      </c>
+      <c r="BO26">
+        <v>3.8</v>
+      </c>
+      <c r="BP26">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7453715</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45514.625</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27">
+        <v>1.44</v>
+      </c>
+      <c r="R27">
+        <v>3.1</v>
+      </c>
+      <c r="S27">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>1.22</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1.73</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>1.22</v>
+      </c>
+      <c r="Z27">
+        <v>1.1</v>
+      </c>
+      <c r="AA27">
+        <v>9.18</v>
+      </c>
+      <c r="AB27">
+        <v>15.42</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>19</v>
+      </c>
+      <c r="AE27">
+        <v>1.09</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>1.4</v>
+      </c>
+      <c r="AH27">
+        <v>2.75</v>
+      </c>
+      <c r="AI27">
+        <v>2.5</v>
+      </c>
+      <c r="AJ27">
+        <v>1.5</v>
+      </c>
+      <c r="AK27">
+        <v>1.03</v>
+      </c>
+      <c r="AL27">
+        <v>1.04</v>
+      </c>
+      <c r="AM27">
+        <v>5.5</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>2.97</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>2.97</v>
+      </c>
+      <c r="AU27">
+        <v>11</v>
+      </c>
+      <c r="AV27">
+        <v>3</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>3</v>
+      </c>
+      <c r="AY27">
+        <v>16</v>
+      </c>
+      <c r="AZ27">
+        <v>6</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>13</v>
+      </c>
+      <c r="BD27">
+        <v>1.07</v>
+      </c>
+      <c r="BE27">
+        <v>13</v>
+      </c>
+      <c r="BF27">
+        <v>10.2</v>
+      </c>
+      <c r="BG27">
+        <v>1.22</v>
+      </c>
+      <c r="BH27">
+        <v>3.8</v>
+      </c>
+      <c r="BI27">
+        <v>1.41</v>
+      </c>
+      <c r="BJ27">
+        <v>2.65</v>
+      </c>
+      <c r="BK27">
+        <v>1.9</v>
+      </c>
+      <c r="BL27">
+        <v>1.9</v>
+      </c>
+      <c r="BM27">
+        <v>2.1</v>
+      </c>
+      <c r="BN27">
+        <v>1.65</v>
+      </c>
+      <c r="BO27">
+        <v>2.65</v>
+      </c>
+      <c r="BP27">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7453716</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45514.625</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1.62</v>
+      </c>
+      <c r="AA28">
+        <v>3.8</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1.75</v>
+      </c>
+      <c r="AH28">
+        <v>1.95</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.2</v>
+      </c>
+      <c r="AS28">
+        <v>1.64</v>
+      </c>
+      <c r="AT28">
+        <v>2.84</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>12</v>
+      </c>
+      <c r="AZ28">
+        <v>3</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>7</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>['4', '55']</t>
+  </si>
+  <si>
+    <t>['36', '45', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1015,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1090,7 +1096,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1215,7 +1221,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1296,7 +1302,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1627,7 +1633,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2039,7 +2045,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2245,7 +2251,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2657,7 +2663,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2863,7 +2869,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3069,7 +3075,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3275,7 +3281,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3562,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3893,7 +3899,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4305,7 +4311,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4511,7 +4517,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5004,7 +5010,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5129,7 +5135,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5541,7 +5547,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5747,7 +5753,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6159,7 +6165,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6365,7 +6371,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6458,7 +6464,7 @@
         <v>2.84</v>
       </c>
       <c r="AU28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28">
         <v>2</v>
@@ -6470,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="AY28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28">
         <v>3</v>
@@ -6522,6 +6528,624 @@
       </c>
       <c r="BP28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7453709</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45515.54166666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29">
+        <v>3.2</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.25</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>2.72</v>
+      </c>
+      <c r="AA29">
+        <v>3.37</v>
+      </c>
+      <c r="AB29">
+        <v>2.47</v>
+      </c>
+      <c r="AC29">
+        <v>1.04</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>1.22</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>1.76</v>
+      </c>
+      <c r="AH29">
+        <v>2.04</v>
+      </c>
+      <c r="AI29">
+        <v>1.62</v>
+      </c>
+      <c r="AJ29">
+        <v>2.2</v>
+      </c>
+      <c r="AK29">
+        <v>1.5</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>1.45</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>1.5</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>0.53</v>
+      </c>
+      <c r="AS29">
+        <v>1.22</v>
+      </c>
+      <c r="AT29">
+        <v>1.75</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>5</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>5</v>
+      </c>
+      <c r="AZ29">
+        <v>10</v>
+      </c>
+      <c r="BA29">
+        <v>2</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
+        <v>5</v>
+      </c>
+      <c r="BD29">
+        <v>2</v>
+      </c>
+      <c r="BE29">
+        <v>7.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.1</v>
+      </c>
+      <c r="BG29">
+        <v>1.33</v>
+      </c>
+      <c r="BH29">
+        <v>2.91</v>
+      </c>
+      <c r="BI29">
+        <v>1.62</v>
+      </c>
+      <c r="BJ29">
+        <v>2.11</v>
+      </c>
+      <c r="BK29">
+        <v>2.05</v>
+      </c>
+      <c r="BL29">
+        <v>1.65</v>
+      </c>
+      <c r="BM29">
+        <v>2.75</v>
+      </c>
+      <c r="BN29">
+        <v>1.37</v>
+      </c>
+      <c r="BO29">
+        <v>3.84</v>
+      </c>
+      <c r="BP29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7453713</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30">
+        <v>3.2</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2.63</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
+        <v>6.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.1</v>
+      </c>
+      <c r="Z30">
+        <v>2.75</v>
+      </c>
+      <c r="AA30">
+        <v>3.25</v>
+      </c>
+      <c r="AB30">
+        <v>2.4</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>1.22</v>
+      </c>
+      <c r="AF30">
+        <v>3.64</v>
+      </c>
+      <c r="AG30">
+        <v>1.8</v>
+      </c>
+      <c r="AH30">
+        <v>1.98</v>
+      </c>
+      <c r="AI30">
+        <v>1.67</v>
+      </c>
+      <c r="AJ30">
+        <v>2.1</v>
+      </c>
+      <c r="AK30">
+        <v>1.53</v>
+      </c>
+      <c r="AL30">
+        <v>1.26</v>
+      </c>
+      <c r="AM30">
+        <v>1.4</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.21</v>
+      </c>
+      <c r="AT30">
+        <v>1.21</v>
+      </c>
+      <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>8</v>
+      </c>
+      <c r="AX30">
+        <v>7</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>13</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>9</v>
+      </c>
+      <c r="BD30">
+        <v>1.82</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>2.34</v>
+      </c>
+      <c r="BG30">
+        <v>1.36</v>
+      </c>
+      <c r="BH30">
+        <v>2.79</v>
+      </c>
+      <c r="BI30">
+        <v>1.65</v>
+      </c>
+      <c r="BJ30">
+        <v>2.05</v>
+      </c>
+      <c r="BK30">
+        <v>2.11</v>
+      </c>
+      <c r="BL30">
+        <v>1.62</v>
+      </c>
+      <c r="BM30">
+        <v>2.84</v>
+      </c>
+      <c r="BN30">
+        <v>1.35</v>
+      </c>
+      <c r="BO30">
+        <v>3.7</v>
+      </c>
+      <c r="BP30">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7453710</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q31">
+        <v>6.5</v>
+      </c>
+      <c r="R31">
+        <v>2.4</v>
+      </c>
+      <c r="S31">
+        <v>1.83</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>3.4</v>
+      </c>
+      <c r="V31">
+        <v>2.38</v>
+      </c>
+      <c r="W31">
+        <v>1.53</v>
+      </c>
+      <c r="X31">
+        <v>5.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.13</v>
+      </c>
+      <c r="Z31">
+        <v>4.6</v>
+      </c>
+      <c r="AA31">
+        <v>3.8</v>
+      </c>
+      <c r="AB31">
+        <v>1.57</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <v>1.2</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.81</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>3.3</v>
+      </c>
+      <c r="AL31">
+        <v>1.11</v>
+      </c>
+      <c r="AM31">
+        <v>1.02</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>2.33</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.54</v>
+      </c>
+      <c r="AT31">
+        <v>1.54</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>9</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>4</v>
+      </c>
+      <c r="BD31">
+        <v>4.41</v>
+      </c>
+      <c r="BE31">
+        <v>9.5</v>
+      </c>
+      <c r="BF31">
+        <v>1.31</v>
+      </c>
+      <c r="BG31">
+        <v>1.31</v>
+      </c>
+      <c r="BH31">
+        <v>3.04</v>
+      </c>
+      <c r="BI31">
+        <v>1.57</v>
+      </c>
+      <c r="BJ31">
+        <v>2.19</v>
+      </c>
+      <c r="BK31">
+        <v>1.98</v>
+      </c>
+      <c r="BL31">
+        <v>1.7</v>
+      </c>
+      <c r="BM31">
+        <v>2.6</v>
+      </c>
+      <c r="BN31">
+        <v>1.41</v>
+      </c>
+      <c r="BO31">
+        <v>3.65</v>
+      </c>
+      <c r="BP31">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
   </si>
   <si>
     <t>['36', '45', '90+6']</t>
+  </si>
+  <si>
+    <t>['15', '17', '77', '89']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1021,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1221,7 +1227,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1633,7 +1639,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1917,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2045,7 +2051,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2251,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2663,7 +2669,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2869,7 +2875,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3075,7 +3081,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3281,7 +3287,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3899,7 +3905,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4311,7 +4317,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4517,7 +4523,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5135,7 +5141,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5213,7 +5219,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5547,7 +5553,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5753,7 +5759,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6165,7 +6171,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6371,7 +6377,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6577,7 +6583,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6783,7 +6789,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7146,6 +7152,212 @@
       </c>
       <c r="BP31">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7453719</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45519.625</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>2.45</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>1.3</v>
+      </c>
+      <c r="U32">
+        <v>3.4</v>
+      </c>
+      <c r="V32">
+        <v>2.3</v>
+      </c>
+      <c r="W32">
+        <v>1.57</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>1.14</v>
+      </c>
+      <c r="Z32">
+        <v>7.5</v>
+      </c>
+      <c r="AA32">
+        <v>4.22</v>
+      </c>
+      <c r="AB32">
+        <v>1.35</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>1.22</v>
+      </c>
+      <c r="AF32">
+        <v>4</v>
+      </c>
+      <c r="AG32">
+        <v>1.57</v>
+      </c>
+      <c r="AH32">
+        <v>2.15</v>
+      </c>
+      <c r="AI32">
+        <v>1.91</v>
+      </c>
+      <c r="AJ32">
+        <v>1.8</v>
+      </c>
+      <c r="AK32">
+        <v>2.95</v>
+      </c>
+      <c r="AL32">
+        <v>1.18</v>
+      </c>
+      <c r="AM32">
+        <v>1.07</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>2.18</v>
+      </c>
+      <c r="AT32">
+        <v>3.18</v>
+      </c>
+      <c r="AU32">
+        <v>3</v>
+      </c>
+      <c r="AV32">
+        <v>7</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>17</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>3</v>
+      </c>
+      <c r="BD32">
+        <v>3.66</v>
+      </c>
+      <c r="BE32">
+        <v>9</v>
+      </c>
+      <c r="BF32">
+        <v>1.41</v>
+      </c>
+      <c r="BG32">
+        <v>1.32</v>
+      </c>
+      <c r="BH32">
+        <v>3.1</v>
+      </c>
+      <c r="BI32">
+        <v>1.57</v>
+      </c>
+      <c r="BJ32">
+        <v>2.26</v>
+      </c>
+      <c r="BK32">
+        <v>2</v>
+      </c>
+      <c r="BL32">
+        <v>1.8</v>
+      </c>
+      <c r="BM32">
+        <v>2.46</v>
+      </c>
+      <c r="BN32">
+        <v>1.48</v>
+      </c>
+      <c r="BO32">
+        <v>3.2</v>
+      </c>
+      <c r="BP32">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>['15', '17', '77', '89']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2541,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -4192,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4807,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -7358,6 +7361,212 @@
       </c>
       <c r="BP32">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7453720</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45520.57986111111</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q33">
+        <v>1.9</v>
+      </c>
+      <c r="R33">
+        <v>2.3</v>
+      </c>
+      <c r="S33">
+        <v>6.5</v>
+      </c>
+      <c r="T33">
+        <v>1.36</v>
+      </c>
+      <c r="U33">
+        <v>2.88</v>
+      </c>
+      <c r="V33">
+        <v>2.65</v>
+      </c>
+      <c r="W33">
+        <v>1.42</v>
+      </c>
+      <c r="X33">
+        <v>6.75</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>1.35</v>
+      </c>
+      <c r="AA33">
+        <v>4.85</v>
+      </c>
+      <c r="AB33">
+        <v>7.65</v>
+      </c>
+      <c r="AC33">
+        <v>1.05</v>
+      </c>
+      <c r="AD33">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AE33">
+        <v>1.28</v>
+      </c>
+      <c r="AF33">
+        <v>3.58</v>
+      </c>
+      <c r="AG33">
+        <v>1.6</v>
+      </c>
+      <c r="AH33">
+        <v>2.25</v>
+      </c>
+      <c r="AI33">
+        <v>2.05</v>
+      </c>
+      <c r="AJ33">
+        <v>1.65</v>
+      </c>
+      <c r="AK33">
+        <v>1.04</v>
+      </c>
+      <c r="AL33">
+        <v>1.15</v>
+      </c>
+      <c r="AM33">
+        <v>2.9</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33">
+        <v>2.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.82</v>
+      </c>
+      <c r="AS33">
+        <v>1.26</v>
+      </c>
+      <c r="AT33">
+        <v>3.08</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>6</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
+        <v>11</v>
+      </c>
+      <c r="BD33">
+        <v>1.28</v>
+      </c>
+      <c r="BE33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF33">
+        <v>4.96</v>
+      </c>
+      <c r="BG33">
+        <v>1.39</v>
+      </c>
+      <c r="BH33">
+        <v>2.75</v>
+      </c>
+      <c r="BI33">
+        <v>1.67</v>
+      </c>
+      <c r="BJ33">
+        <v>2.07</v>
+      </c>
+      <c r="BK33">
+        <v>2.1</v>
+      </c>
+      <c r="BL33">
+        <v>1.65</v>
+      </c>
+      <c r="BM33">
+        <v>2.7</v>
+      </c>
+      <c r="BN33">
+        <v>1.41</v>
+      </c>
+      <c r="BO33">
+        <v>3.7</v>
+      </c>
+      <c r="BP33">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['35', '85']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1036,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1230,7 +1242,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1308,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2.33</v>
@@ -1517,7 +1529,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1642,7 +1654,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2054,7 +2066,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2132,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2260,7 +2272,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2338,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2672,7 +2684,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2878,7 +2890,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3084,7 +3096,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3165,7 +3177,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3290,7 +3302,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3908,7 +3920,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3986,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4192,7 +4204,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>2.33</v>
@@ -4320,7 +4332,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4401,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR18">
         <v>0.87</v>
@@ -4526,7 +4538,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4604,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -4813,7 +4825,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5144,7 +5156,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5556,7 +5568,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5762,7 +5774,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6174,7 +6186,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6380,7 +6392,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6586,7 +6598,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6792,7 +6804,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7204,7 +7216,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7410,7 +7422,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7567,6 +7579,624 @@
       </c>
       <c r="BP33">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7453718</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45521.52083333334</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1.95</v>
+      </c>
+      <c r="AA34">
+        <v>3.3</v>
+      </c>
+      <c r="AB34">
+        <v>3.25</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1.8</v>
+      </c>
+      <c r="AH34">
+        <v>1.85</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>1.89</v>
+      </c>
+      <c r="AS34">
+        <v>0.3</v>
+      </c>
+      <c r="AT34">
+        <v>2.19</v>
+      </c>
+      <c r="AU34">
+        <v>7</v>
+      </c>
+      <c r="AV34">
+        <v>5</v>
+      </c>
+      <c r="AW34">
+        <v>2</v>
+      </c>
+      <c r="AX34">
+        <v>3</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>8</v>
+      </c>
+      <c r="BA34">
+        <v>8</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7453717</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45521.60416666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35">
+        <v>2.55</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>4.33</v>
+      </c>
+      <c r="T35">
+        <v>1.45</v>
+      </c>
+      <c r="U35">
+        <v>2.55</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>6.85</v>
+      </c>
+      <c r="Y35">
+        <v>1.07</v>
+      </c>
+      <c r="Z35">
+        <v>1.95</v>
+      </c>
+      <c r="AA35">
+        <v>3.2</v>
+      </c>
+      <c r="AB35">
+        <v>3.4</v>
+      </c>
+      <c r="AC35">
+        <v>1.07</v>
+      </c>
+      <c r="AD35">
+        <v>7.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.36</v>
+      </c>
+      <c r="AF35">
+        <v>2.95</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>1.67</v>
+      </c>
+      <c r="AI35">
+        <v>1.83</v>
+      </c>
+      <c r="AJ35">
+        <v>1.8</v>
+      </c>
+      <c r="AK35">
+        <v>1.2</v>
+      </c>
+      <c r="AL35">
+        <v>1.28</v>
+      </c>
+      <c r="AM35">
+        <v>1.73</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0.33</v>
+      </c>
+      <c r="AQ35">
+        <v>0.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.01</v>
+      </c>
+      <c r="AS35">
+        <v>0.8</v>
+      </c>
+      <c r="AT35">
+        <v>1.81</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>7</v>
+      </c>
+      <c r="AZ35">
+        <v>10</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>4</v>
+      </c>
+      <c r="BD35">
+        <v>1.59</v>
+      </c>
+      <c r="BE35">
+        <v>8</v>
+      </c>
+      <c r="BF35">
+        <v>2.8</v>
+      </c>
+      <c r="BG35">
+        <v>1.49</v>
+      </c>
+      <c r="BH35">
+        <v>2.43</v>
+      </c>
+      <c r="BI35">
+        <v>1.9</v>
+      </c>
+      <c r="BJ35">
+        <v>1.9</v>
+      </c>
+      <c r="BK35">
+        <v>2.36</v>
+      </c>
+      <c r="BL35">
+        <v>1.52</v>
+      </c>
+      <c r="BM35">
+        <v>3.1</v>
+      </c>
+      <c r="BN35">
+        <v>1.31</v>
+      </c>
+      <c r="BO35">
+        <v>4.4</v>
+      </c>
+      <c r="BP35">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7453722</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45521.60416666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
+        <v>3.65</v>
+      </c>
+      <c r="T36">
+        <v>1.48</v>
+      </c>
+      <c r="U36">
+        <v>2.45</v>
+      </c>
+      <c r="V36">
+        <v>3.2</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>7.3</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.5</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2.6</v>
+      </c>
+      <c r="AC36">
+        <v>1.09</v>
+      </c>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.42</v>
+      </c>
+      <c r="AF36">
+        <v>2.75</v>
+      </c>
+      <c r="AG36">
+        <v>1.95</v>
+      </c>
+      <c r="AH36">
+        <v>1.7</v>
+      </c>
+      <c r="AI36">
+        <v>1.83</v>
+      </c>
+      <c r="AJ36">
+        <v>1.8</v>
+      </c>
+      <c r="AK36">
+        <v>1.3</v>
+      </c>
+      <c r="AL36">
+        <v>1.33</v>
+      </c>
+      <c r="AM36">
+        <v>1.48</v>
+      </c>
+      <c r="AN36">
+        <v>0.5</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+      <c r="AP36">
+        <v>1.33</v>
+      </c>
+      <c r="AQ36">
+        <v>0.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.22</v>
+      </c>
+      <c r="AS36">
+        <v>1.35</v>
+      </c>
+      <c r="AT36">
+        <v>2.57</v>
+      </c>
+      <c r="AU36">
+        <v>3</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36">
+        <v>7</v>
+      </c>
+      <c r="AY36">
+        <v>5</v>
+      </c>
+      <c r="AZ36">
+        <v>13</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>7</v>
+      </c>
+      <c r="BC36">
+        <v>8</v>
+      </c>
+      <c r="BD36">
+        <v>2.29</v>
+      </c>
+      <c r="BE36">
+        <v>7.5</v>
+      </c>
+      <c r="BF36">
+        <v>1.85</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['35', '85']</t>
   </si>
   <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -416,6 +419,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1042,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1242,7 +1248,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1654,7 +1660,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2066,7 +2072,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2272,7 +2278,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2559,7 +2565,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2684,7 +2690,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2890,7 +2896,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -2968,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3096,7 +3102,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3302,7 +3308,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3920,7 +3926,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4001,7 +4007,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4332,7 +4338,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4538,7 +4544,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5156,7 +5162,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5568,7 +5574,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5774,7 +5780,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6186,7 +6192,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6392,7 +6398,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6598,7 +6604,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6804,7 +6810,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7216,7 +7222,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7422,7 +7428,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7628,7 +7634,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7834,7 +7840,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8196,6 +8202,212 @@
         <v>0</v>
       </c>
       <c r="BP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7453724</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45522.60416666666</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37">
+        <v>2.38</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+      <c r="S37">
+        <v>4.5</v>
+      </c>
+      <c r="T37">
+        <v>1.36</v>
+      </c>
+      <c r="U37">
+        <v>2.93</v>
+      </c>
+      <c r="V37">
+        <v>2.69</v>
+      </c>
+      <c r="W37">
+        <v>1.41</v>
+      </c>
+      <c r="X37">
+        <v>6.3</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>2.02</v>
+      </c>
+      <c r="AA37">
+        <v>3.06</v>
+      </c>
+      <c r="AB37">
+        <v>3.26</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
+        <v>8.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.28</v>
+      </c>
+      <c r="AF37">
+        <v>3.4</v>
+      </c>
+      <c r="AG37">
+        <v>1.84</v>
+      </c>
+      <c r="AH37">
+        <v>1.87</v>
+      </c>
+      <c r="AI37">
+        <v>1.7</v>
+      </c>
+      <c r="AJ37">
+        <v>1.95</v>
+      </c>
+      <c r="AK37">
+        <v>1.25</v>
+      </c>
+      <c r="AL37">
+        <v>1.28</v>
+      </c>
+      <c r="AM37">
+        <v>1.62</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>0.5</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>0.33</v>
+      </c>
+      <c r="AR37">
+        <v>1.6</v>
+      </c>
+      <c r="AS37">
+        <v>1.28</v>
+      </c>
+      <c r="AT37">
+        <v>2.88</v>
+      </c>
+      <c r="AU37">
+        <v>5</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>3</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>5</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>1.92</v>
+      </c>
+      <c r="BL37">
+        <v>1.88</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,15 +346,18 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['35', '85']</t>
+  </si>
+  <si>
     <t>['3']</t>
   </si>
   <si>
-    <t>['35', '85']</t>
-  </si>
-  <si>
     <t>['12', '71']</t>
   </si>
   <si>
+    <t>['40', '84']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['4', '23']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1048,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1120,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1248,7 +1254,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1660,7 +1666,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2072,7 +2078,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2278,7 +2284,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2359,7 +2365,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2690,7 +2696,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2896,7 +2902,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3102,7 +3108,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3308,7 +3314,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3926,7 +3932,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4338,7 +4344,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4544,7 +4550,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5162,7 +5168,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5243,7 +5249,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5446,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5574,7 +5580,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5780,7 +5786,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6192,7 +6198,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6398,7 +6404,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6604,7 +6610,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6810,7 +6816,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7222,7 +7228,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7428,7 +7434,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7634,7 +7640,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7798,7 +7804,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7453717</v>
+        <v>7453722</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7813,10 +7819,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -7828,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -7840,61 +7846,61 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="Q35">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T35">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U35">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W35">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
-        <v>6.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y35">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z35">
+        <v>2.5</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>2.6</v>
+      </c>
+      <c r="AC35">
+        <v>1.09</v>
+      </c>
+      <c r="AD35">
+        <v>6.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.42</v>
+      </c>
+      <c r="AF35">
+        <v>2.75</v>
+      </c>
+      <c r="AG35">
         <v>1.95</v>
       </c>
-      <c r="AA35">
-        <v>3.2</v>
-      </c>
-      <c r="AB35">
-        <v>3.4</v>
-      </c>
-      <c r="AC35">
-        <v>1.07</v>
-      </c>
-      <c r="AD35">
-        <v>7.5</v>
-      </c>
-      <c r="AE35">
-        <v>1.36</v>
-      </c>
-      <c r="AF35">
-        <v>2.95</v>
-      </c>
-      <c r="AG35">
-        <v>2</v>
-      </c>
       <c r="AH35">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI35">
         <v>1.83</v>
@@ -7903,100 +7909,100 @@
         <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL35">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM35">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
       </c>
       <c r="AR35">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="AS35">
-        <v>0.8</v>
+        <v>1.35</v>
       </c>
       <c r="AT35">
-        <v>1.81</v>
+        <v>2.57</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY35">
+        <v>5</v>
+      </c>
+      <c r="AZ35">
+        <v>13</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
         <v>7</v>
       </c>
-      <c r="AZ35">
-        <v>10</v>
-      </c>
-      <c r="BA35">
-        <v>2</v>
-      </c>
-      <c r="BB35">
-        <v>2</v>
-      </c>
       <c r="BC35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD35">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="BE35">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF35">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="BG35">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH35">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BI35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BK35">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BL35">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BM35">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BN35">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO35">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8004,7 +8010,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7453722</v>
+        <v>7453717</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8019,10 +8025,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8034,10 +8040,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8046,61 +8052,61 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.45</v>
+      </c>
+      <c r="U36">
+        <v>2.55</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>6.85</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>3.65</v>
-      </c>
-      <c r="T36">
-        <v>1.48</v>
-      </c>
-      <c r="U36">
-        <v>2.45</v>
-      </c>
-      <c r="V36">
+      <c r="AA36">
         <v>3.2</v>
       </c>
-      <c r="W36">
-        <v>1.3</v>
-      </c>
-      <c r="X36">
-        <v>7.3</v>
-      </c>
-      <c r="Y36">
-        <v>1.06</v>
-      </c>
-      <c r="Z36">
-        <v>2.5</v>
-      </c>
-      <c r="AA36">
-        <v>3</v>
-      </c>
       <c r="AB36">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC36">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD36">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE36">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF36">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH36">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI36">
         <v>1.83</v>
@@ -8109,100 +8115,100 @@
         <v>1.8</v>
       </c>
       <c r="AK36">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL36">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM36">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
       </c>
       <c r="AR36">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>0.8</v>
       </c>
       <c r="AT36">
-        <v>2.57</v>
+        <v>1.81</v>
       </c>
       <c r="AU36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
         <v>6</v>
       </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
+      <c r="AY36">
         <v>7</v>
       </c>
-      <c r="AY36">
-        <v>5</v>
-      </c>
       <c r="AZ36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC36">
+        <v>4</v>
+      </c>
+      <c r="BD36">
+        <v>1.59</v>
+      </c>
+      <c r="BE36">
         <v>8</v>
       </c>
-      <c r="BD36">
-        <v>2.29</v>
-      </c>
-      <c r="BE36">
-        <v>7.5</v>
-      </c>
       <c r="BF36">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BI36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK36">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BL36">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BM36">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BN36">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO36">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP36">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8252,7 +8258,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8408,6 +8414,212 @@
         <v>0</v>
       </c>
       <c r="BP37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7453721</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>3.2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>3.25</v>
+      </c>
+      <c r="T38">
+        <v>1.42</v>
+      </c>
+      <c r="U38">
+        <v>2.65</v>
+      </c>
+      <c r="V38">
+        <v>2.88</v>
+      </c>
+      <c r="W38">
+        <v>1.36</v>
+      </c>
+      <c r="X38">
+        <v>7.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.06</v>
+      </c>
+      <c r="Z38">
+        <v>2.55</v>
+      </c>
+      <c r="AA38">
+        <v>3.05</v>
+      </c>
+      <c r="AB38">
+        <v>2.65</v>
+      </c>
+      <c r="AC38">
+        <v>1.06</v>
+      </c>
+      <c r="AD38">
+        <v>8.35</v>
+      </c>
+      <c r="AE38">
+        <v>1.32</v>
+      </c>
+      <c r="AF38">
+        <v>3.3</v>
+      </c>
+      <c r="AG38">
+        <v>1.98</v>
+      </c>
+      <c r="AH38">
+        <v>1.74</v>
+      </c>
+      <c r="AI38">
+        <v>1.7</v>
+      </c>
+      <c r="AJ38">
+        <v>1.95</v>
+      </c>
+      <c r="AK38">
+        <v>1.4</v>
+      </c>
+      <c r="AL38">
+        <v>1.3</v>
+      </c>
+      <c r="AM38">
+        <v>1.4</v>
+      </c>
+      <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AO38">
+        <v>1.5</v>
+      </c>
+      <c r="AP38">
+        <v>1.33</v>
+      </c>
+      <c r="AQ38">
+        <v>1.33</v>
+      </c>
+      <c r="AR38">
+        <v>1.63</v>
+      </c>
+      <c r="AS38">
+        <v>1.81</v>
+      </c>
+      <c r="AT38">
+        <v>3.44</v>
+      </c>
+      <c r="AU38">
+        <v>11</v>
+      </c>
+      <c r="AV38">
+        <v>7</v>
+      </c>
+      <c r="AW38">
+        <v>8</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>19</v>
+      </c>
+      <c r="AZ38">
+        <v>14</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>5</v>
+      </c>
+      <c r="BC38">
+        <v>10</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>1.82</v>
+      </c>
+      <c r="BJ38">
+        <v>1.98</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,18 +346,21 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['35', '85']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['12', '71']</t>
   </si>
   <si>
     <t>['40', '84']</t>
   </si>
   <si>
+    <t>['25', '35', '90+1']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>['4', '23']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1054,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1254,7 +1260,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1666,7 +1672,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1744,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>2.33</v>
@@ -2078,7 +2084,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2284,7 +2290,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2696,7 +2702,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2902,7 +2908,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3108,7 +3114,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3314,7 +3320,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3395,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3932,7 +3938,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4344,7 +4350,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4422,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -4550,7 +4556,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5168,7 +5174,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5580,7 +5586,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5661,7 +5667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -5786,7 +5792,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6198,7 +6204,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6404,7 +6410,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6482,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6610,7 +6616,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6816,7 +6822,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7228,7 +7234,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7434,7 +7440,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7640,7 +7646,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7804,7 +7810,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7453722</v>
+        <v>7453717</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7819,10 +7825,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -7834,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -7846,61 +7852,61 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>4.33</v>
+      </c>
+      <c r="T35">
+        <v>1.45</v>
+      </c>
+      <c r="U35">
+        <v>2.55</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>6.85</v>
+      </c>
+      <c r="Y35">
+        <v>1.07</v>
+      </c>
+      <c r="Z35">
         <v>1.95</v>
       </c>
-      <c r="S35">
-        <v>3.65</v>
-      </c>
-      <c r="T35">
-        <v>1.48</v>
-      </c>
-      <c r="U35">
-        <v>2.45</v>
-      </c>
-      <c r="V35">
+      <c r="AA35">
         <v>3.2</v>
       </c>
-      <c r="W35">
-        <v>1.3</v>
-      </c>
-      <c r="X35">
-        <v>7.3</v>
-      </c>
-      <c r="Y35">
-        <v>1.06</v>
-      </c>
-      <c r="Z35">
-        <v>2.5</v>
-      </c>
-      <c r="AA35">
-        <v>3</v>
-      </c>
       <c r="AB35">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC35">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD35">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE35">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF35">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH35">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI35">
         <v>1.83</v>
@@ -7909,100 +7915,100 @@
         <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL35">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM35">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
       </c>
       <c r="AR35">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AS35">
-        <v>1.35</v>
+        <v>0.8</v>
       </c>
       <c r="AT35">
-        <v>2.57</v>
+        <v>1.81</v>
       </c>
       <c r="AU35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
         <v>6</v>
       </c>
-      <c r="AW35">
-        <v>2</v>
-      </c>
-      <c r="AX35">
+      <c r="AY35">
         <v>7</v>
       </c>
-      <c r="AY35">
-        <v>5</v>
-      </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>2</v>
       </c>
       <c r="BB35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD35">
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
       <c r="BE35">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF35">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BL35">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BM35">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BN35">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO35">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP35">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8010,7 +8016,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7453717</v>
+        <v>7453722</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8025,10 +8031,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8040,10 +8046,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8052,61 +8058,61 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="Q36">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T36">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U36">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
-        <v>6.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y36">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z36">
+        <v>2.5</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2.6</v>
+      </c>
+      <c r="AC36">
+        <v>1.09</v>
+      </c>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.42</v>
+      </c>
+      <c r="AF36">
+        <v>2.75</v>
+      </c>
+      <c r="AG36">
         <v>1.95</v>
       </c>
-      <c r="AA36">
-        <v>3.2</v>
-      </c>
-      <c r="AB36">
-        <v>3.4</v>
-      </c>
-      <c r="AC36">
-        <v>1.07</v>
-      </c>
-      <c r="AD36">
-        <v>7.5</v>
-      </c>
-      <c r="AE36">
-        <v>1.36</v>
-      </c>
-      <c r="AF36">
-        <v>2.95</v>
-      </c>
-      <c r="AG36">
-        <v>2</v>
-      </c>
       <c r="AH36">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI36">
         <v>1.83</v>
@@ -8115,100 +8121,100 @@
         <v>1.8</v>
       </c>
       <c r="AK36">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL36">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM36">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
       </c>
       <c r="AR36">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="AS36">
-        <v>0.8</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>1.81</v>
+        <v>2.57</v>
       </c>
       <c r="AU36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY36">
+        <v>5</v>
+      </c>
+      <c r="AZ36">
+        <v>13</v>
+      </c>
+      <c r="BA36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
         <v>7</v>
       </c>
-      <c r="AZ36">
-        <v>10</v>
-      </c>
-      <c r="BA36">
-        <v>2</v>
-      </c>
-      <c r="BB36">
-        <v>2</v>
-      </c>
       <c r="BC36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="BE36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF36">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="BG36">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH36">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BI36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BJ36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BK36">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BL36">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BM36">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BN36">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO36">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP36">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8258,7 +8264,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8464,7 +8470,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8620,6 +8626,212 @@
         <v>0</v>
       </c>
       <c r="BP38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7453730</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45527.66666666666</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>3.23</v>
+      </c>
+      <c r="AA39">
+        <v>3.35</v>
+      </c>
+      <c r="AB39">
+        <v>2.17</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1.83</v>
+      </c>
+      <c r="AH39">
+        <v>1.95</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>1.5</v>
+      </c>
+      <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.42</v>
+      </c>
+      <c r="AS39">
+        <v>1.68</v>
+      </c>
+      <c r="AT39">
+        <v>3.1</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <v>3</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+      <c r="BB39">
+        <v>5</v>
+      </c>
+      <c r="BC39">
+        <v>7</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,15 @@
     <t>['25', '35', '90+1']</t>
   </si>
   <si>
+    <t>['10', '83']</t>
+  </si>
+  <si>
+    <t>['10', '85']</t>
+  </si>
+  <si>
+    <t>['17', '58']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['8', '27', '38']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1135,7 +1153,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1260,7 +1278,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1672,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2084,7 +2102,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2290,7 +2308,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2368,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2577,7 +2595,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2702,7 +2720,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2908,7 +2926,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3114,7 +3132,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3320,7 +3338,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3938,7 +3956,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4019,7 +4037,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4350,7 +4368,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4556,7 +4574,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4634,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5049,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5174,7 +5192,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5586,7 +5604,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5792,7 +5810,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6204,7 +6222,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6410,7 +6428,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6616,7 +6634,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6697,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -6822,7 +6840,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7234,7 +7252,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7440,7 +7458,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7646,7 +7664,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7852,7 +7870,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -7930,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8264,7 +8282,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8345,7 +8363,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8470,7 +8488,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8676,7 +8694,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8833,6 +8851,624 @@
       </c>
       <c r="BP39">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7454211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45528.58333333334</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q40">
+        <v>2.88</v>
+      </c>
+      <c r="R40">
+        <v>2.1</v>
+      </c>
+      <c r="S40">
+        <v>3.5</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40">
+        <v>2.75</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1.36</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.08</v>
+      </c>
+      <c r="Z40">
+        <v>2.3</v>
+      </c>
+      <c r="AA40">
+        <v>3.1</v>
+      </c>
+      <c r="AB40">
+        <v>2.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.06</v>
+      </c>
+      <c r="AD40">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <v>1.33</v>
+      </c>
+      <c r="AF40">
+        <v>3.2</v>
+      </c>
+      <c r="AG40">
+        <v>2.05</v>
+      </c>
+      <c r="AH40">
+        <v>1.61</v>
+      </c>
+      <c r="AI40">
+        <v>1.8</v>
+      </c>
+      <c r="AJ40">
+        <v>1.91</v>
+      </c>
+      <c r="AK40">
+        <v>1.36</v>
+      </c>
+      <c r="AL40">
+        <v>1.28</v>
+      </c>
+      <c r="AM40">
+        <v>1.6</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.91</v>
+      </c>
+      <c r="AS40">
+        <v>1.29</v>
+      </c>
+      <c r="AT40">
+        <v>3.2</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>2</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>6</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>9</v>
+      </c>
+      <c r="BC40">
+        <v>14</v>
+      </c>
+      <c r="BD40">
+        <v>1.69</v>
+      </c>
+      <c r="BE40">
+        <v>8</v>
+      </c>
+      <c r="BF40">
+        <v>2.54</v>
+      </c>
+      <c r="BG40">
+        <v>1.32</v>
+      </c>
+      <c r="BH40">
+        <v>2.98</v>
+      </c>
+      <c r="BI40">
+        <v>1.59</v>
+      </c>
+      <c r="BJ40">
+        <v>2.16</v>
+      </c>
+      <c r="BK40">
+        <v>2</v>
+      </c>
+      <c r="BL40">
+        <v>1.69</v>
+      </c>
+      <c r="BM40">
+        <v>2.67</v>
+      </c>
+      <c r="BN40">
+        <v>1.39</v>
+      </c>
+      <c r="BO40">
+        <v>3.65</v>
+      </c>
+      <c r="BP40">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7453731</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45528.58333333334</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q41">
+        <v>3.2</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>3.25</v>
+      </c>
+      <c r="T41">
+        <v>1.44</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>3.25</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>7.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.07</v>
+      </c>
+      <c r="Z41">
+        <v>2.52</v>
+      </c>
+      <c r="AA41">
+        <v>2.98</v>
+      </c>
+      <c r="AB41">
+        <v>2.59</v>
+      </c>
+      <c r="AC41">
+        <v>1.06</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.33</v>
+      </c>
+      <c r="AF41">
+        <v>3.25</v>
+      </c>
+      <c r="AG41">
+        <v>1.83</v>
+      </c>
+      <c r="AH41">
+        <v>1.8</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.44</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.48</v>
+      </c>
+      <c r="AN41">
+        <v>0.33</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1.05</v>
+      </c>
+      <c r="AS41">
+        <v>0.93</v>
+      </c>
+      <c r="AT41">
+        <v>1.98</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>7</v>
+      </c>
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>1.82</v>
+      </c>
+      <c r="BE41">
+        <v>7.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.4</v>
+      </c>
+      <c r="BG41">
+        <v>1.42</v>
+      </c>
+      <c r="BH41">
+        <v>2.57</v>
+      </c>
+      <c r="BI41">
+        <v>1.82</v>
+      </c>
+      <c r="BJ41">
+        <v>1.98</v>
+      </c>
+      <c r="BK41">
+        <v>2.3</v>
+      </c>
+      <c r="BL41">
+        <v>1.52</v>
+      </c>
+      <c r="BM41">
+        <v>3.18</v>
+      </c>
+      <c r="BN41">
+        <v>1.28</v>
+      </c>
+      <c r="BO41">
+        <v>4.2</v>
+      </c>
+      <c r="BP41">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7453725</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45528.66666666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q42">
+        <v>3.4</v>
+      </c>
+      <c r="R42">
+        <v>2.05</v>
+      </c>
+      <c r="S42">
+        <v>3.1</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.63</v>
+      </c>
+      <c r="V42">
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>7.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>2.63</v>
+      </c>
+      <c r="AA42">
+        <v>3.05</v>
+      </c>
+      <c r="AB42">
+        <v>2.43</v>
+      </c>
+      <c r="AC42">
+        <v>1.07</v>
+      </c>
+      <c r="AD42">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <v>1.36</v>
+      </c>
+      <c r="AF42">
+        <v>3.1</v>
+      </c>
+      <c r="AG42">
+        <v>2.05</v>
+      </c>
+      <c r="AH42">
+        <v>1.65</v>
+      </c>
+      <c r="AI42">
+        <v>1.83</v>
+      </c>
+      <c r="AJ42">
+        <v>1.83</v>
+      </c>
+      <c r="AK42">
+        <v>1.53</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.38</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>0.6</v>
+      </c>
+      <c r="AS42">
+        <v>1.25</v>
+      </c>
+      <c r="AT42">
+        <v>1.85</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>9</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>5</v>
+      </c>
+      <c r="AY42">
+        <v>10</v>
+      </c>
+      <c r="AZ42">
+        <v>14</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BD42">
+        <v>2.1</v>
+      </c>
+      <c r="BE42">
+        <v>7.5</v>
+      </c>
+      <c r="BF42">
+        <v>1.95</v>
+      </c>
+      <c r="BG42">
+        <v>1.39</v>
+      </c>
+      <c r="BH42">
+        <v>2.67</v>
+      </c>
+      <c r="BI42">
+        <v>1.7</v>
+      </c>
+      <c r="BJ42">
+        <v>1.98</v>
+      </c>
+      <c r="BK42">
+        <v>2.19</v>
+      </c>
+      <c r="BL42">
+        <v>1.57</v>
+      </c>
+      <c r="BM42">
+        <v>2.98</v>
+      </c>
+      <c r="BN42">
+        <v>1.32</v>
+      </c>
+      <c r="BO42">
+        <v>3.9</v>
+      </c>
+      <c r="BP42">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,12 @@
     <t>['17', '58']</t>
   </si>
   <si>
+    <t>['7', '44', '61']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -452,6 +458,12 @@
   </si>
   <si>
     <t>['8', '27', '38']</t>
+  </si>
+  <si>
+    <t>['10', '28', '31', '55', '71']</t>
+  </si>
+  <si>
+    <t>['59', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1084,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1278,7 +1290,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1690,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2102,7 +2114,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2308,7 +2320,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2720,7 +2732,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2926,7 +2938,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3007,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3132,7 +3144,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3338,7 +3350,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3828,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -3956,7 +3968,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4368,7 +4380,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4574,7 +4586,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5192,7 +5204,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5604,7 +5616,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5682,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5810,7 +5822,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5891,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6097,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6222,7 +6234,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6428,7 +6440,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6634,7 +6646,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6840,7 +6852,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7252,7 +7264,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7458,7 +7470,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7664,7 +7676,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7870,7 +7882,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8282,7 +8294,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8488,7 +8500,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8694,7 +8706,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8900,7 +8912,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9106,7 +9118,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9312,7 +9324,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9468,6 +9480,418 @@
         <v>3.9</v>
       </c>
       <c r="BP42">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7453728</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="O43" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q43">
+        <v>2.88</v>
+      </c>
+      <c r="R43">
+        <v>2.05</v>
+      </c>
+      <c r="S43">
+        <v>3.6</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.63</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>7.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>2.35</v>
+      </c>
+      <c r="AA43">
+        <v>3.1</v>
+      </c>
+      <c r="AB43">
+        <v>2.7</v>
+      </c>
+      <c r="AC43">
+        <v>1.06</v>
+      </c>
+      <c r="AD43">
+        <v>8</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>3.1</v>
+      </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43">
+        <v>1.72</v>
+      </c>
+      <c r="AI43">
+        <v>1.83</v>
+      </c>
+      <c r="AJ43">
+        <v>1.83</v>
+      </c>
+      <c r="AK43">
+        <v>1.35</v>
+      </c>
+      <c r="AL43">
+        <v>1.28</v>
+      </c>
+      <c r="AM43">
+        <v>1.62</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.47</v>
+      </c>
+      <c r="AS43">
+        <v>1.76</v>
+      </c>
+      <c r="AT43">
+        <v>3.23</v>
+      </c>
+      <c r="AU43">
+        <v>7</v>
+      </c>
+      <c r="AV43">
+        <v>9</v>
+      </c>
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>15</v>
+      </c>
+      <c r="AZ43">
+        <v>12</v>
+      </c>
+      <c r="BA43">
+        <v>7</v>
+      </c>
+      <c r="BB43">
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <v>10</v>
+      </c>
+      <c r="BD43">
+        <v>1.95</v>
+      </c>
+      <c r="BE43">
+        <v>7.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.41</v>
+      </c>
+      <c r="BH43">
+        <v>2.6</v>
+      </c>
+      <c r="BI43">
+        <v>1.8</v>
+      </c>
+      <c r="BJ43">
+        <v>2</v>
+      </c>
+      <c r="BK43">
+        <v>2.27</v>
+      </c>
+      <c r="BL43">
+        <v>1.53</v>
+      </c>
+      <c r="BM43">
+        <v>3.08</v>
+      </c>
+      <c r="BN43">
+        <v>1.3</v>
+      </c>
+      <c r="BO43">
+        <v>4.1</v>
+      </c>
+      <c r="BP43">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7453727</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45529.60416666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44">
+        <v>2.2</v>
+      </c>
+      <c r="R44">
+        <v>2.3</v>
+      </c>
+      <c r="S44">
+        <v>4.5</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>1.49</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>5.25</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>3.85</v>
+      </c>
+      <c r="AG44">
+        <v>1.68</v>
+      </c>
+      <c r="AH44">
+        <v>2.06</v>
+      </c>
+      <c r="AI44">
+        <v>1.73</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>1.13</v>
+      </c>
+      <c r="AL44">
+        <v>1.2</v>
+      </c>
+      <c r="AM44">
+        <v>2.15</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>1.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.19</v>
+      </c>
+      <c r="AS44">
+        <v>0.65</v>
+      </c>
+      <c r="AT44">
+        <v>1.84</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>8</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
+        <v>8</v>
+      </c>
+      <c r="BA44">
+        <v>10</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>15</v>
+      </c>
+      <c r="BD44">
+        <v>1.31</v>
+      </c>
+      <c r="BE44">
+        <v>9.5</v>
+      </c>
+      <c r="BF44">
+        <v>4.41</v>
+      </c>
+      <c r="BG44">
+        <v>1.34</v>
+      </c>
+      <c r="BH44">
+        <v>2.88</v>
+      </c>
+      <c r="BI44">
+        <v>1.7</v>
+      </c>
+      <c r="BJ44">
+        <v>2.05</v>
+      </c>
+      <c r="BK44">
+        <v>2.05</v>
+      </c>
+      <c r="BL44">
+        <v>1.65</v>
+      </c>
+      <c r="BM44">
+        <v>2.75</v>
+      </c>
+      <c r="BN44">
+        <v>1.37</v>
+      </c>
+      <c r="BO44">
+        <v>3.74</v>
+      </c>
+      <c r="BP44">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -9005,22 +9005,22 @@
         <v>3.2</v>
       </c>
       <c r="AU40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV40">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW40">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY40">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9438,10 +9438,10 @@
         <v>2</v>
       </c>
       <c r="BB42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD42">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,12 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['31', '61', '66']</t>
+  </si>
+  <si>
+    <t>['6', '31', '90+3']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -464,6 +470,9 @@
   </si>
   <si>
     <t>['59', '90+6']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1290,7 +1299,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1702,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1986,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2114,7 +2123,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2320,7 +2329,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2732,7 +2741,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2938,7 +2947,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3144,7 +3153,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3350,7 +3359,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3843,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3968,7 +3977,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4380,7 +4389,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4586,7 +4595,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5204,7 +5213,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5282,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5616,7 +5625,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5822,7 +5831,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6234,7 +6243,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6440,7 +6449,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6521,7 +6530,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.2</v>
@@ -6646,7 +6655,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6852,7 +6861,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7136,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>2.33</v>
@@ -7264,7 +7273,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7342,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7470,7 +7479,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7676,7 +7685,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7882,7 +7891,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8294,7 +8303,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8500,7 +8509,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8706,7 +8715,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8912,7 +8921,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9118,7 +9127,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9324,7 +9333,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9530,7 +9539,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9736,7 +9745,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9893,6 +9902,418 @@
       </c>
       <c r="BP44">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7453739</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>2.1</v>
+      </c>
+      <c r="S45">
+        <v>3.5</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>1.36</v>
+      </c>
+      <c r="X45">
+        <v>7</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>2.4</v>
+      </c>
+      <c r="AA45">
+        <v>3.05</v>
+      </c>
+      <c r="AB45">
+        <v>2.75</v>
+      </c>
+      <c r="AC45">
+        <v>1.06</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>1.3</v>
+      </c>
+      <c r="AF45">
+        <v>3.4</v>
+      </c>
+      <c r="AG45">
+        <v>2.05</v>
+      </c>
+      <c r="AH45">
+        <v>1.68</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.91</v>
+      </c>
+      <c r="AK45">
+        <v>1.4</v>
+      </c>
+      <c r="AL45">
+        <v>1.35</v>
+      </c>
+      <c r="AM45">
+        <v>1.5</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>1.22</v>
+      </c>
+      <c r="AS45">
+        <v>1.49</v>
+      </c>
+      <c r="AT45">
+        <v>2.71</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>7</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>11</v>
+      </c>
+      <c r="BD45">
+        <v>1.95</v>
+      </c>
+      <c r="BE45">
+        <v>7.5</v>
+      </c>
+      <c r="BF45">
+        <v>2.1</v>
+      </c>
+      <c r="BG45">
+        <v>1.41</v>
+      </c>
+      <c r="BH45">
+        <v>2.7</v>
+      </c>
+      <c r="BI45">
+        <v>1.7</v>
+      </c>
+      <c r="BJ45">
+        <v>2.03</v>
+      </c>
+      <c r="BK45">
+        <v>2.15</v>
+      </c>
+      <c r="BL45">
+        <v>1.63</v>
+      </c>
+      <c r="BM45">
+        <v>2.75</v>
+      </c>
+      <c r="BN45">
+        <v>1.39</v>
+      </c>
+      <c r="BO45">
+        <v>3.8</v>
+      </c>
+      <c r="BP45">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7453733</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.11</v>
+      </c>
+      <c r="Z46">
+        <v>1.33</v>
+      </c>
+      <c r="AA46">
+        <v>4.7</v>
+      </c>
+      <c r="AB46">
+        <v>8</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>9</v>
+      </c>
+      <c r="AE46">
+        <v>1.25</v>
+      </c>
+      <c r="AF46">
+        <v>3.8</v>
+      </c>
+      <c r="AG46">
+        <v>1.66</v>
+      </c>
+      <c r="AH46">
+        <v>2.1</v>
+      </c>
+      <c r="AI46">
+        <v>1.83</v>
+      </c>
+      <c r="AJ46">
+        <v>1.83</v>
+      </c>
+      <c r="AK46">
+        <v>1.09</v>
+      </c>
+      <c r="AL46">
+        <v>1.18</v>
+      </c>
+      <c r="AM46">
+        <v>2.45</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2.25</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>0.99</v>
+      </c>
+      <c r="AS46">
+        <v>1.12</v>
+      </c>
+      <c r="AT46">
+        <v>2.11</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>9</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>2</v>
+      </c>
+      <c r="BC46">
+        <v>4</v>
+      </c>
+      <c r="BD46">
+        <v>1.45</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>3.33</v>
+      </c>
+      <c r="BG46">
+        <v>1.47</v>
+      </c>
+      <c r="BH46">
+        <v>2.5</v>
+      </c>
+      <c r="BI46">
+        <v>1.82</v>
+      </c>
+      <c r="BJ46">
+        <v>1.98</v>
+      </c>
+      <c r="BK46">
+        <v>2.3</v>
+      </c>
+      <c r="BL46">
+        <v>1.55</v>
+      </c>
+      <c r="BM46">
+        <v>3</v>
+      </c>
+      <c r="BN46">
+        <v>1.34</v>
+      </c>
+      <c r="BO46">
+        <v>4.2</v>
+      </c>
+      <c r="BP46">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,15 @@
     <t>['6', '31', '90+3']</t>
   </si>
   <si>
+    <t>['26', '48', '80']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['19', '65']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -448,9 +457,6 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['4', '23']</t>
   </si>
   <si>
@@ -473,6 +479,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['61', '90', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1102,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1299,7 +1308,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1377,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>2.33</v>
@@ -1586,7 +1595,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1711,7 +1720,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1792,7 +1801,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2123,7 +2132,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2201,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2329,7 +2338,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2741,7 +2750,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2947,7 +2956,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3025,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3153,7 +3162,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3359,7 +3368,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3977,7 +3986,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4055,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4261,10 +4270,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4389,7 +4398,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4470,7 +4479,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR18">
         <v>0.87</v>
@@ -4595,7 +4604,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4882,7 +4891,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5213,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5625,7 +5634,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5831,7 +5840,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6243,7 +6252,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6449,7 +6458,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6655,7 +6664,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6861,7 +6870,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7273,7 +7282,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7479,7 +7488,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7560,7 +7569,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -7685,7 +7694,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7763,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -7891,7 +7900,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -7972,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -8175,10 +8184,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -8303,7 +8312,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8381,7 +8390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8509,7 +8518,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8715,7 +8724,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8921,7 +8930,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9127,7 +9136,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9333,7 +9342,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9539,7 +9548,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9745,7 +9754,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9951,7 +9960,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10062,13 +10071,13 @@
         <v>12</v>
       </c>
       <c r="BA45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB45">
         <v>4</v>
       </c>
       <c r="BC45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD45">
         <v>1.95</v>
@@ -10313,6 +10322,624 @@
         <v>4.2</v>
       </c>
       <c r="BP46">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7453732</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q47">
+        <v>2.1</v>
+      </c>
+      <c r="R47">
+        <v>2.25</v>
+      </c>
+      <c r="S47">
+        <v>5.5</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>6.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>2.7</v>
+      </c>
+      <c r="AA47">
+        <v>3.75</v>
+      </c>
+      <c r="AB47">
+        <v>2.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.05</v>
+      </c>
+      <c r="AD47">
+        <v>8.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.28</v>
+      </c>
+      <c r="AF47">
+        <v>3.55</v>
+      </c>
+      <c r="AG47">
+        <v>1.85</v>
+      </c>
+      <c r="AH47">
+        <v>1.93</v>
+      </c>
+      <c r="AI47">
+        <v>1.91</v>
+      </c>
+      <c r="AJ47">
+        <v>1.8</v>
+      </c>
+      <c r="AK47">
+        <v>1.15</v>
+      </c>
+      <c r="AL47">
+        <v>1.24</v>
+      </c>
+      <c r="AM47">
+        <v>2.25</v>
+      </c>
+      <c r="AN47">
+        <v>1.33</v>
+      </c>
+      <c r="AO47">
+        <v>0.33</v>
+      </c>
+      <c r="AP47">
+        <v>1.75</v>
+      </c>
+      <c r="AQ47">
+        <v>0.25</v>
+      </c>
+      <c r="AR47">
+        <v>1.82</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>2.82</v>
+      </c>
+      <c r="AU47">
+        <v>10</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>9</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>19</v>
+      </c>
+      <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
+        <v>9</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>9</v>
+      </c>
+      <c r="BD47">
+        <v>1.37</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>3.72</v>
+      </c>
+      <c r="BG47">
+        <v>1.41</v>
+      </c>
+      <c r="BH47">
+        <v>2.6</v>
+      </c>
+      <c r="BI47">
+        <v>1.8</v>
+      </c>
+      <c r="BJ47">
+        <v>2</v>
+      </c>
+      <c r="BK47">
+        <v>2.25</v>
+      </c>
+      <c r="BL47">
+        <v>1.54</v>
+      </c>
+      <c r="BM47">
+        <v>3.08</v>
+      </c>
+      <c r="BN47">
+        <v>1.3</v>
+      </c>
+      <c r="BO47">
+        <v>4.1</v>
+      </c>
+      <c r="BP47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7453736</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>123</v>
+      </c>
+      <c r="P48" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q48">
+        <v>3.2</v>
+      </c>
+      <c r="R48">
+        <v>2.05</v>
+      </c>
+      <c r="S48">
+        <v>3.2</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
+        <v>1.33</v>
+      </c>
+      <c r="X48">
+        <v>7.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>2.9</v>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>2.9</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>1.3</v>
+      </c>
+      <c r="AF48">
+        <v>3.4</v>
+      </c>
+      <c r="AG48">
+        <v>1.94</v>
+      </c>
+      <c r="AH48">
+        <v>1.8</v>
+      </c>
+      <c r="AI48">
+        <v>1.83</v>
+      </c>
+      <c r="AJ48">
+        <v>1.83</v>
+      </c>
+      <c r="AK48">
+        <v>1.45</v>
+      </c>
+      <c r="AL48">
+        <v>1.32</v>
+      </c>
+      <c r="AM48">
+        <v>1.45</v>
+      </c>
+      <c r="AN48">
+        <v>1.33</v>
+      </c>
+      <c r="AO48">
+        <v>2.33</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>2.5</v>
+      </c>
+      <c r="AR48">
+        <v>1.07</v>
+      </c>
+      <c r="AS48">
+        <v>1.23</v>
+      </c>
+      <c r="AT48">
+        <v>2.3</v>
+      </c>
+      <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>8</v>
+      </c>
+      <c r="AY48">
+        <v>9</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>4</v>
+      </c>
+      <c r="BB48">
+        <v>4</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>2</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.1</v>
+      </c>
+      <c r="BG48">
+        <v>1.38</v>
+      </c>
+      <c r="BH48">
+        <v>2.71</v>
+      </c>
+      <c r="BI48">
+        <v>1.68</v>
+      </c>
+      <c r="BJ48">
+        <v>2.01</v>
+      </c>
+      <c r="BK48">
+        <v>2.15</v>
+      </c>
+      <c r="BL48">
+        <v>1.59</v>
+      </c>
+      <c r="BM48">
+        <v>2.93</v>
+      </c>
+      <c r="BN48">
+        <v>1.33</v>
+      </c>
+      <c r="BO48">
+        <v>3.8</v>
+      </c>
+      <c r="BP48">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7453738</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.44</v>
+      </c>
+      <c r="U49">
+        <v>2.63</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>2.7</v>
+      </c>
+      <c r="AA49">
+        <v>3.75</v>
+      </c>
+      <c r="AB49">
+        <v>2.7</v>
+      </c>
+      <c r="AC49">
+        <v>1.06</v>
+      </c>
+      <c r="AD49">
+        <v>8</v>
+      </c>
+      <c r="AE49">
+        <v>1.33</v>
+      </c>
+      <c r="AF49">
+        <v>3.2</v>
+      </c>
+      <c r="AG49">
+        <v>1.93</v>
+      </c>
+      <c r="AH49">
+        <v>1.75</v>
+      </c>
+      <c r="AI49">
+        <v>1.83</v>
+      </c>
+      <c r="AJ49">
+        <v>1.83</v>
+      </c>
+      <c r="AK49">
+        <v>1.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.28</v>
+      </c>
+      <c r="AM49">
+        <v>1.67</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>0.33</v>
+      </c>
+      <c r="AP49">
+        <v>2.33</v>
+      </c>
+      <c r="AQ49">
+        <v>0.25</v>
+      </c>
+      <c r="AR49">
+        <v>1.36</v>
+      </c>
+      <c r="AS49">
+        <v>1.52</v>
+      </c>
+      <c r="AT49">
+        <v>2.88</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>10</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>7</v>
+      </c>
+      <c r="BD49">
+        <v>1.82</v>
+      </c>
+      <c r="BE49">
+        <v>7.5</v>
+      </c>
+      <c r="BF49">
+        <v>2.34</v>
+      </c>
+      <c r="BG49">
+        <v>1.44</v>
+      </c>
+      <c r="BH49">
+        <v>2.51</v>
+      </c>
+      <c r="BI49">
+        <v>1.85</v>
+      </c>
+      <c r="BJ49">
+        <v>1.95</v>
+      </c>
+      <c r="BK49">
+        <v>2.32</v>
+      </c>
+      <c r="BL49">
+        <v>1.51</v>
+      </c>
+      <c r="BM49">
+        <v>3.2</v>
+      </c>
+      <c r="BN49">
+        <v>1.28</v>
+      </c>
+      <c r="BO49">
+        <v>4.2</v>
+      </c>
+      <c r="BP49">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['19', '65']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -433,9 +436,6 @@
     <t>['11', '90+6']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['51']</t>
   </si>
   <si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>['61', '90', '90+9']</t>
+  </si>
+  <si>
+    <t>['29', '41']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1180,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1308,7 +1314,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1720,7 +1726,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2132,7 +2138,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2338,7 +2344,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2419,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2622,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2750,7 +2756,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2956,7 +2962,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3162,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3243,7 +3249,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3368,7 +3374,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3986,7 +3992,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4398,7 +4404,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4604,7 +4610,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4888,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5094,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5222,7 +5228,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5303,7 +5309,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5506,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5634,7 +5640,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5840,7 +5846,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6664,7 +6670,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7566,7 +7572,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>2.5</v>
@@ -7775,7 +7781,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8596,10 +8602,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -10941,6 +10947,624 @@
       </c>
       <c r="BP49">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7453734</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1.36</v>
+      </c>
+      <c r="AA50">
+        <v>4.33</v>
+      </c>
+      <c r="AB50">
+        <v>7</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>1.62</v>
+      </c>
+      <c r="AH50">
+        <v>2.15</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1.33</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.81</v>
+      </c>
+      <c r="AS50">
+        <v>0.83</v>
+      </c>
+      <c r="AT50">
+        <v>2.64</v>
+      </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>5</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7453735</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q51">
+        <v>7.5</v>
+      </c>
+      <c r="R51">
+        <v>2.6</v>
+      </c>
+      <c r="S51">
+        <v>1.73</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.25</v>
+      </c>
+      <c r="W51">
+        <v>1.57</v>
+      </c>
+      <c r="X51">
+        <v>5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>5.8</v>
+      </c>
+      <c r="AA51">
+        <v>4.8</v>
+      </c>
+      <c r="AB51">
+        <v>1.36</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>17</v>
+      </c>
+      <c r="AE51">
+        <v>1.13</v>
+      </c>
+      <c r="AF51">
+        <v>5.2</v>
+      </c>
+      <c r="AG51">
+        <v>1.45</v>
+      </c>
+      <c r="AH51">
+        <v>2.55</v>
+      </c>
+      <c r="AI51">
+        <v>2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.73</v>
+      </c>
+      <c r="AK51">
+        <v>3.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.1</v>
+      </c>
+      <c r="AM51">
+        <v>1.05</v>
+      </c>
+      <c r="AN51">
+        <v>1.33</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>3</v>
+      </c>
+      <c r="AR51">
+        <v>1.93</v>
+      </c>
+      <c r="AS51">
+        <v>2.12</v>
+      </c>
+      <c r="AT51">
+        <v>4.05</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>7</v>
+      </c>
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>7</v>
+      </c>
+      <c r="AY51">
+        <v>2</v>
+      </c>
+      <c r="AZ51">
+        <v>14</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>9</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>4.86</v>
+      </c>
+      <c r="BE51">
+        <v>10</v>
+      </c>
+      <c r="BF51">
+        <v>1.26</v>
+      </c>
+      <c r="BG51">
+        <v>1.41</v>
+      </c>
+      <c r="BH51">
+        <v>2.7</v>
+      </c>
+      <c r="BI51">
+        <v>1.7</v>
+      </c>
+      <c r="BJ51">
+        <v>2.03</v>
+      </c>
+      <c r="BK51">
+        <v>2.15</v>
+      </c>
+      <c r="BL51">
+        <v>1.63</v>
+      </c>
+      <c r="BM51">
+        <v>2.75</v>
+      </c>
+      <c r="BN51">
+        <v>1.39</v>
+      </c>
+      <c r="BO51">
+        <v>3.8</v>
+      </c>
+      <c r="BP51">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7453737</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45536.67013888889</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q52">
+        <v>2.1</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
+        <v>5.5</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>6.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>1.62</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>4.2</v>
+      </c>
+      <c r="AC52">
+        <v>1.05</v>
+      </c>
+      <c r="AD52">
+        <v>8.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.28</v>
+      </c>
+      <c r="AF52">
+        <v>3.55</v>
+      </c>
+      <c r="AG52">
+        <v>1.57</v>
+      </c>
+      <c r="AH52">
+        <v>2.25</v>
+      </c>
+      <c r="AI52">
+        <v>1.83</v>
+      </c>
+      <c r="AJ52">
+        <v>1.83</v>
+      </c>
+      <c r="AK52">
+        <v>1.08</v>
+      </c>
+      <c r="AL52">
+        <v>1.2</v>
+      </c>
+      <c r="AM52">
+        <v>2.4</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>1.25</v>
+      </c>
+      <c r="AR52">
+        <v>1.32</v>
+      </c>
+      <c r="AS52">
+        <v>1.77</v>
+      </c>
+      <c r="AT52">
+        <v>3.09</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>11</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>9</v>
+      </c>
+      <c r="AY52">
+        <v>8</v>
+      </c>
+      <c r="AZ52">
+        <v>20</v>
+      </c>
+      <c r="BA52">
+        <v>7</v>
+      </c>
+      <c r="BB52">
+        <v>5</v>
+      </c>
+      <c r="BC52">
+        <v>12</v>
+      </c>
+      <c r="BD52">
+        <v>1.45</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>3.33</v>
+      </c>
+      <c r="BG52">
+        <v>1.35</v>
+      </c>
+      <c r="BH52">
+        <v>2.9</v>
+      </c>
+      <c r="BI52">
+        <v>1.6</v>
+      </c>
+      <c r="BJ52">
+        <v>2.2</v>
+      </c>
+      <c r="BK52">
+        <v>1.97</v>
+      </c>
+      <c r="BL52">
+        <v>1.71</v>
+      </c>
+      <c r="BM52">
+        <v>2.55</v>
+      </c>
+      <c r="BN52">
+        <v>1.45</v>
+      </c>
+      <c r="BO52">
+        <v>3.56</v>
+      </c>
+      <c r="BP52">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -10489,13 +10489,13 @@
         <v>10</v>
       </c>
       <c r="BA47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB47">
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD47">
         <v>1.37</v>
@@ -11089,31 +11089,31 @@
         <v>2.64</v>
       </c>
       <c r="AU50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV50">
         <v>3</v>
       </c>
       <c r="AW50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX50">
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ50">
         <v>5</v>
       </c>
       <c r="BA50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB50">
         <v>2</v>
       </c>
       <c r="BC50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD50">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -256,24 +256,24 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
     <t>OFK Beograd</t>
   </si>
   <si>
     <t>Partizan</t>
   </si>
   <si>
+    <t>IMT Novi Beograd</t>
+  </si>
+  <si>
     <t>Vojvodina</t>
   </si>
   <si>
-    <t>IMT Novi Beograd</t>
-  </si>
-  <si>
     <t>['29', '53']</t>
   </si>
   <si>
@@ -304,24 +304,24 @@
     <t>['85', '90+1']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['5']</t>
   </si>
   <si>
     <t>['52', '71']</t>
   </si>
   <si>
+    <t>['19', '30', '38']</t>
+  </si>
+  <si>
     <t>['13', '39']</t>
   </si>
   <si>
-    <t>['19', '30', '38']</t>
-  </si>
-  <si>
     <t>['33', '45+13', '83', '85']</t>
   </si>
   <si>
@@ -331,13 +331,13 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
+    <t>['9', '60', '80', '86']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['2']</t>
-  </si>
-  <si>
-    <t>['9', '60', '80', '86']</t>
-  </si>
-  <si>
-    <t>['84']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2320,7 +2320,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7453697</v>
+        <v>7454210</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3350,100 +3350,100 @@
         <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U13">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="V13">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y13">
         <v>1.06</v>
       </c>
       <c r="Z13">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AA13">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AB13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AC13">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG13">
+        <v>2.06</v>
+      </c>
+      <c r="AH13">
+        <v>1.68</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
         <v>1.96</v>
       </c>
-      <c r="AH13">
-        <v>1.75</v>
-      </c>
-      <c r="AI13">
-        <v>1.75</v>
-      </c>
-      <c r="AJ13">
-        <v>2.03</v>
-      </c>
       <c r="AK13">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AL13">
         <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3452,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3467,70 +3467,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB13">
         <v>4</v>
       </c>
       <c r="BC13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD13">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="BE13">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF13">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BG13">
+        <v>1.39</v>
+      </c>
+      <c r="BH13">
+        <v>2.67</v>
+      </c>
+      <c r="BI13">
+        <v>1.7</v>
+      </c>
+      <c r="BJ13">
+        <v>1.98</v>
+      </c>
+      <c r="BK13">
+        <v>2.19</v>
+      </c>
+      <c r="BL13">
+        <v>1.57</v>
+      </c>
+      <c r="BM13">
+        <v>2.98</v>
+      </c>
+      <c r="BN13">
         <v>1.32</v>
       </c>
-      <c r="BH13">
-        <v>2.98</v>
-      </c>
-      <c r="BI13">
-        <v>1.59</v>
-      </c>
-      <c r="BJ13">
-        <v>2.16</v>
-      </c>
-      <c r="BK13">
-        <v>2</v>
-      </c>
-      <c r="BL13">
-        <v>1.69</v>
-      </c>
-      <c r="BM13">
-        <v>2.67</v>
-      </c>
-      <c r="BN13">
-        <v>1.39</v>
-      </c>
       <c r="BO13">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BP13">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3538,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7454210</v>
+        <v>7453697</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3556,100 +3556,100 @@
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="Q14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U14">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y14">
         <v>1.06</v>
       </c>
       <c r="Z14">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AA14">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="AB14">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AC14">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF14">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG14">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AH14">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AI14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ14">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AK14">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AL14">
         <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3673,70 +3673,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>6</v>
+      </c>
+      <c r="AY14">
+        <v>5</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
         <v>4</v>
-      </c>
-      <c r="AX14">
-        <v>8</v>
-      </c>
-      <c r="AY14">
-        <v>11</v>
-      </c>
-      <c r="AZ14">
-        <v>10</v>
-      </c>
-      <c r="BA14">
-        <v>9</v>
       </c>
       <c r="BB14">
         <v>4</v>
       </c>
       <c r="BC14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD14">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="BE14">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF14">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BG14">
+        <v>1.32</v>
+      </c>
+      <c r="BH14">
+        <v>2.98</v>
+      </c>
+      <c r="BI14">
+        <v>1.59</v>
+      </c>
+      <c r="BJ14">
+        <v>2.16</v>
+      </c>
+      <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>1.69</v>
+      </c>
+      <c r="BM14">
+        <v>2.67</v>
+      </c>
+      <c r="BN14">
         <v>1.39</v>
       </c>
-      <c r="BH14">
-        <v>2.67</v>
-      </c>
-      <c r="BI14">
-        <v>1.7</v>
-      </c>
-      <c r="BJ14">
-        <v>1.98</v>
-      </c>
-      <c r="BK14">
-        <v>2.19</v>
-      </c>
-      <c r="BL14">
-        <v>1.57</v>
-      </c>
-      <c r="BM14">
-        <v>2.98</v>
-      </c>
-      <c r="BN14">
-        <v>1.32</v>
-      </c>
       <c r="BO14">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BP14">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3968,7 +3968,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7453708</v>
+        <v>7453704</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4995,190 +4995,190 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" t="s">
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="Q21">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
+        <v>3.4</v>
+      </c>
+      <c r="T21">
+        <v>1.44</v>
+      </c>
+      <c r="U21">
+        <v>2.63</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>7.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>2.35</v>
+      </c>
+      <c r="AA21">
+        <v>3.15</v>
+      </c>
+      <c r="AB21">
+        <v>2.76</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>1.33</v>
+      </c>
+      <c r="AF21">
+        <v>3.25</v>
+      </c>
+      <c r="AG21">
+        <v>1.91</v>
+      </c>
+      <c r="AH21">
+        <v>1.83</v>
+      </c>
+      <c r="AI21">
+        <v>1.83</v>
+      </c>
+      <c r="AJ21">
+        <v>1.83</v>
+      </c>
+      <c r="AK21">
+        <v>1.33</v>
+      </c>
+      <c r="AL21">
+        <v>1.29</v>
+      </c>
+      <c r="AM21">
+        <v>1.5</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>2.25</v>
+      </c>
+      <c r="AQ21">
+        <v>1.25</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.59</v>
+      </c>
+      <c r="AT21">
+        <v>1.59</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
         <v>7</v>
       </c>
-      <c r="T21">
-        <v>1.3</v>
-      </c>
-      <c r="U21">
-        <v>3.4</v>
-      </c>
-      <c r="V21">
-        <v>2.5</v>
-      </c>
-      <c r="W21">
-        <v>1.5</v>
-      </c>
-      <c r="X21">
-        <v>5.5</v>
-      </c>
-      <c r="Y21">
-        <v>1.13</v>
-      </c>
-      <c r="Z21">
-        <v>1.4</v>
-      </c>
-      <c r="AA21">
-        <v>4.41</v>
-      </c>
-      <c r="AB21">
-        <v>6.01</v>
-      </c>
-      <c r="AC21">
-        <v>1.01</v>
-      </c>
-      <c r="AD21">
-        <v>12</v>
-      </c>
-      <c r="AE21">
-        <v>1.2</v>
-      </c>
-      <c r="AF21">
-        <v>4.33</v>
-      </c>
-      <c r="AG21">
-        <v>1.57</v>
-      </c>
-      <c r="AH21">
-        <v>2.25</v>
-      </c>
-      <c r="AI21">
-        <v>2</v>
-      </c>
-      <c r="AJ21">
-        <v>1.73</v>
-      </c>
-      <c r="AK21">
-        <v>1.06</v>
-      </c>
-      <c r="AL21">
-        <v>1.14</v>
-      </c>
-      <c r="AM21">
-        <v>2.88</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>2</v>
-      </c>
-      <c r="AQ21">
-        <v>1.5</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>1.25</v>
-      </c>
-      <c r="AT21">
-        <v>1.25</v>
-      </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>5</v>
       </c>
-      <c r="AV21">
-        <v>4</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
       <c r="AX21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY21">
+        <v>8</v>
+      </c>
+      <c r="AZ21">
+        <v>16</v>
+      </c>
+      <c r="BA21">
+        <v>2</v>
+      </c>
+      <c r="BB21">
+        <v>7</v>
+      </c>
+      <c r="BC21">
         <v>9</v>
       </c>
-      <c r="AZ21">
-        <v>9</v>
-      </c>
-      <c r="BA21">
-        <v>8</v>
-      </c>
-      <c r="BB21">
-        <v>4</v>
-      </c>
-      <c r="BC21">
-        <v>12</v>
-      </c>
       <c r="BD21">
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="BE21">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF21">
-        <v>4.86</v>
+        <v>2.1</v>
       </c>
       <c r="BG21">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH21">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="BI21">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="BJ21">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="BK21">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL21">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="BM21">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="BN21">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BO21">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="BP21">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5186,7 +5186,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7453704</v>
+        <v>7453708</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5201,190 +5201,190 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
         <v>3.4</v>
       </c>
-      <c r="T22">
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>5.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>1.4</v>
+      </c>
+      <c r="AA22">
+        <v>4.41</v>
+      </c>
+      <c r="AB22">
+        <v>6.01</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>12</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>4.33</v>
+      </c>
+      <c r="AG22">
+        <v>1.57</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>2</v>
+      </c>
+      <c r="AJ22">
+        <v>1.73</v>
+      </c>
+      <c r="AK22">
+        <v>1.06</v>
+      </c>
+      <c r="AL22">
+        <v>1.14</v>
+      </c>
+      <c r="AM22">
+        <v>2.88</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>1.5</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.25</v>
+      </c>
+      <c r="AT22">
+        <v>1.25</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>9</v>
+      </c>
+      <c r="AZ22">
+        <v>9</v>
+      </c>
+      <c r="BA22">
+        <v>8</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.26</v>
+      </c>
+      <c r="BE22">
+        <v>10</v>
+      </c>
+      <c r="BF22">
+        <v>4.86</v>
+      </c>
+      <c r="BG22">
+        <v>1.28</v>
+      </c>
+      <c r="BH22">
+        <v>3.2</v>
+      </c>
+      <c r="BI22">
+        <v>1.52</v>
+      </c>
+      <c r="BJ22">
+        <v>2.3</v>
+      </c>
+      <c r="BK22">
+        <v>1.98</v>
+      </c>
+      <c r="BL22">
+        <v>1.82</v>
+      </c>
+      <c r="BM22">
+        <v>2.5</v>
+      </c>
+      <c r="BN22">
         <v>1.44</v>
       </c>
-      <c r="U22">
-        <v>2.63</v>
-      </c>
-      <c r="V22">
-        <v>3</v>
-      </c>
-      <c r="W22">
-        <v>1.36</v>
-      </c>
-      <c r="X22">
-        <v>7.5</v>
-      </c>
-      <c r="Y22">
-        <v>1.07</v>
-      </c>
-      <c r="Z22">
-        <v>2.35</v>
-      </c>
-      <c r="AA22">
-        <v>3.15</v>
-      </c>
-      <c r="AB22">
-        <v>2.76</v>
-      </c>
-      <c r="AC22">
-        <v>1.04</v>
-      </c>
-      <c r="AD22">
-        <v>9</v>
-      </c>
-      <c r="AE22">
-        <v>1.33</v>
-      </c>
-      <c r="AF22">
-        <v>3.25</v>
-      </c>
-      <c r="AG22">
-        <v>1.91</v>
-      </c>
-      <c r="AH22">
-        <v>1.83</v>
-      </c>
-      <c r="AI22">
-        <v>1.83</v>
-      </c>
-      <c r="AJ22">
-        <v>1.83</v>
-      </c>
-      <c r="AK22">
-        <v>1.33</v>
-      </c>
-      <c r="AL22">
-        <v>1.29</v>
-      </c>
-      <c r="AM22">
-        <v>1.5</v>
-      </c>
-      <c r="AN22">
-        <v>3</v>
-      </c>
-      <c r="AO22">
-        <v>3</v>
-      </c>
-      <c r="AP22">
-        <v>2.25</v>
-      </c>
-      <c r="AQ22">
+      <c r="BO22">
+        <v>3.42</v>
+      </c>
+      <c r="BP22">
         <v>1.25</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>1.59</v>
-      </c>
-      <c r="AT22">
-        <v>1.59</v>
-      </c>
-      <c r="AU22">
-        <v>3</v>
-      </c>
-      <c r="AV22">
-        <v>7</v>
-      </c>
-      <c r="AW22">
-        <v>5</v>
-      </c>
-      <c r="AX22">
-        <v>9</v>
-      </c>
-      <c r="AY22">
-        <v>8</v>
-      </c>
-      <c r="AZ22">
-        <v>16</v>
-      </c>
-      <c r="BA22">
-        <v>2</v>
-      </c>
-      <c r="BB22">
-        <v>7</v>
-      </c>
-      <c r="BC22">
-        <v>9</v>
-      </c>
-      <c r="BD22">
-        <v>1.95</v>
-      </c>
-      <c r="BE22">
-        <v>7.5</v>
-      </c>
-      <c r="BF22">
-        <v>2.1</v>
-      </c>
-      <c r="BG22">
-        <v>1.32</v>
-      </c>
-      <c r="BH22">
-        <v>2.98</v>
-      </c>
-      <c r="BI22">
-        <v>1.59</v>
-      </c>
-      <c r="BJ22">
-        <v>2.16</v>
-      </c>
-      <c r="BK22">
-        <v>2</v>
-      </c>
-      <c r="BL22">
-        <v>1.69</v>
-      </c>
-      <c r="BM22">
-        <v>2.67</v>
-      </c>
-      <c r="BN22">
-        <v>1.39</v>
-      </c>
-      <c r="BO22">
-        <v>3.65</v>
-      </c>
-      <c r="BP22">
-        <v>1.22</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5410,7 +5410,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5819,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -6010,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453712</v>
+        <v>7453715</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6025,10 +6025,10 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -6040,175 +6040,175 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="Q26">
+        <v>1.44</v>
+      </c>
+      <c r="R26">
         <v>3.1</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>12</v>
+      </c>
+      <c r="T26">
+        <v>1.22</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>1.73</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>1.22</v>
+      </c>
+      <c r="Z26">
+        <v>1.1</v>
+      </c>
+      <c r="AA26">
+        <v>9.18</v>
+      </c>
+      <c r="AB26">
+        <v>15.42</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>19</v>
+      </c>
+      <c r="AE26">
+        <v>1.09</v>
+      </c>
+      <c r="AF26">
+        <v>6</v>
+      </c>
+      <c r="AG26">
+        <v>1.4</v>
+      </c>
+      <c r="AH26">
+        <v>2.75</v>
+      </c>
+      <c r="AI26">
+        <v>2.5</v>
+      </c>
+      <c r="AJ26">
+        <v>1.5</v>
+      </c>
+      <c r="AK26">
+        <v>1.03</v>
+      </c>
+      <c r="AL26">
+        <v>1.04</v>
+      </c>
+      <c r="AM26">
+        <v>5.5</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2.33</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>2.97</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>2.97</v>
+      </c>
+      <c r="AU26">
+        <v>11</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>16</v>
+      </c>
+      <c r="AZ26">
+        <v>6</v>
+      </c>
+      <c r="BA26">
+        <v>10</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>13</v>
+      </c>
+      <c r="BD26">
+        <v>1.07</v>
+      </c>
+      <c r="BE26">
+        <v>13</v>
+      </c>
+      <c r="BF26">
+        <v>10.2</v>
+      </c>
+      <c r="BG26">
+        <v>1.22</v>
+      </c>
+      <c r="BH26">
+        <v>3.8</v>
+      </c>
+      <c r="BI26">
+        <v>1.41</v>
+      </c>
+      <c r="BJ26">
+        <v>2.65</v>
+      </c>
+      <c r="BK26">
+        <v>1.9</v>
+      </c>
+      <c r="BL26">
+        <v>1.9</v>
+      </c>
+      <c r="BM26">
         <v>2.1</v>
       </c>
-      <c r="S26">
-        <v>3.1</v>
-      </c>
-      <c r="T26">
-        <v>1.36</v>
-      </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>2.75</v>
-      </c>
-      <c r="W26">
-        <v>1.4</v>
-      </c>
-      <c r="X26">
-        <v>6.5</v>
-      </c>
-      <c r="Y26">
-        <v>1.1</v>
-      </c>
-      <c r="Z26">
-        <v>2.55</v>
-      </c>
-      <c r="AA26">
-        <v>3.3</v>
-      </c>
-      <c r="AB26">
-        <v>2.63</v>
-      </c>
-      <c r="AC26">
-        <v>1.02</v>
-      </c>
-      <c r="AD26">
-        <v>10.5</v>
-      </c>
-      <c r="AE26">
-        <v>1.25</v>
-      </c>
-      <c r="AF26">
-        <v>3.6</v>
-      </c>
-      <c r="AG26">
-        <v>1.73</v>
-      </c>
-      <c r="AH26">
-        <v>2</v>
-      </c>
-      <c r="AI26">
-        <v>1.67</v>
-      </c>
-      <c r="AJ26">
-        <v>2.1</v>
-      </c>
-      <c r="AK26">
-        <v>1.5</v>
-      </c>
-      <c r="AL26">
-        <v>1.33</v>
-      </c>
-      <c r="AM26">
-        <v>1.5</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>2</v>
-      </c>
-      <c r="AQ26">
-        <v>1.5</v>
-      </c>
-      <c r="AR26">
-        <v>0.95</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0.95</v>
-      </c>
-      <c r="AU26">
-        <v>5</v>
-      </c>
-      <c r="AV26">
-        <v>4</v>
-      </c>
-      <c r="AW26">
-        <v>4</v>
-      </c>
-      <c r="AX26">
-        <v>9</v>
-      </c>
-      <c r="AY26">
-        <v>9</v>
-      </c>
-      <c r="AZ26">
-        <v>13</v>
-      </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
-      <c r="BB26">
-        <v>3</v>
-      </c>
-      <c r="BC26">
-        <v>6</v>
-      </c>
-      <c r="BD26">
-        <v>2.05</v>
-      </c>
-      <c r="BE26">
-        <v>7.5</v>
-      </c>
-      <c r="BF26">
-        <v>2</v>
-      </c>
-      <c r="BG26">
-        <v>1.41</v>
-      </c>
-      <c r="BH26">
-        <v>2.7</v>
-      </c>
-      <c r="BI26">
-        <v>1.73</v>
-      </c>
-      <c r="BJ26">
-        <v>2</v>
-      </c>
-      <c r="BK26">
-        <v>2.15</v>
-      </c>
-      <c r="BL26">
-        <v>1.63</v>
-      </c>
-      <c r="BM26">
-        <v>2.75</v>
-      </c>
       <c r="BN26">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="BO26">
-        <v>3.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP26">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6216,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453715</v>
+        <v>7453716</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6231,190 +6231,190 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1.62</v>
+      </c>
+      <c r="AA27">
+        <v>3.8</v>
+      </c>
+      <c r="AB27">
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1.75</v>
+      </c>
+      <c r="AH27">
+        <v>1.95</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1.5</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1.2</v>
+      </c>
+      <c r="AS27">
+        <v>1.64</v>
+      </c>
+      <c r="AT27">
+        <v>2.84</v>
+      </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
+        <v>3</v>
+      </c>
+      <c r="BA27">
         <v>4</v>
       </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>1.73</v>
-      </c>
-      <c r="X27">
-        <v>4</v>
-      </c>
-      <c r="Y27">
-        <v>1.22</v>
-      </c>
-      <c r="Z27">
-        <v>1.1</v>
-      </c>
-      <c r="AA27">
-        <v>9.18</v>
-      </c>
-      <c r="AB27">
-        <v>15.42</v>
-      </c>
-      <c r="AC27">
-        <v>1.01</v>
-      </c>
-      <c r="AD27">
-        <v>19</v>
-      </c>
-      <c r="AE27">
-        <v>1.09</v>
-      </c>
-      <c r="AF27">
-        <v>6</v>
-      </c>
-      <c r="AG27">
-        <v>1.4</v>
-      </c>
-      <c r="AH27">
-        <v>2.75</v>
-      </c>
-      <c r="AI27">
-        <v>2.5</v>
-      </c>
-      <c r="AJ27">
-        <v>1.5</v>
-      </c>
-      <c r="AK27">
-        <v>1.03</v>
-      </c>
-      <c r="AL27">
-        <v>1.04</v>
-      </c>
-      <c r="AM27">
-        <v>5.5</v>
-      </c>
-      <c r="AN27">
-        <v>2</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>2.33</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>2.97</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>2.97</v>
-      </c>
-      <c r="AU27">
-        <v>11</v>
-      </c>
-      <c r="AV27">
-        <v>3</v>
-      </c>
-      <c r="AW27">
-        <v>5</v>
-      </c>
-      <c r="AX27">
-        <v>3</v>
-      </c>
-      <c r="AY27">
-        <v>16</v>
-      </c>
-      <c r="AZ27">
-        <v>6</v>
-      </c>
-      <c r="BA27">
-        <v>10</v>
-      </c>
       <c r="BB27">
         <v>3</v>
       </c>
       <c r="BC27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD27">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BE27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF27">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="BG27">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BK27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BL27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BM27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BO27">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BP27">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6422,7 +6422,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7453716</v>
+        <v>7453712</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6437,16 +6437,16 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -6455,172 +6455,172 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AA28">
+        <v>3.3</v>
+      </c>
+      <c r="AB28">
+        <v>2.63</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>10.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.25</v>
+      </c>
+      <c r="AF28">
+        <v>3.6</v>
+      </c>
+      <c r="AG28">
+        <v>1.73</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28">
+        <v>1.67</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1</v>
+      </c>
+      <c r="AK28">
+        <v>1.5</v>
+      </c>
+      <c r="AL28">
+        <v>1.33</v>
+      </c>
+      <c r="AM28">
+        <v>1.5</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>0.95</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0.95</v>
+      </c>
+      <c r="AU28">
+        <v>5</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>9</v>
+      </c>
+      <c r="AY28">
+        <v>9</v>
+      </c>
+      <c r="AZ28">
+        <v>13</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>6</v>
+      </c>
+      <c r="BD28">
+        <v>2.05</v>
+      </c>
+      <c r="BE28">
+        <v>7.5</v>
+      </c>
+      <c r="BF28">
+        <v>2</v>
+      </c>
+      <c r="BG28">
+        <v>1.41</v>
+      </c>
+      <c r="BH28">
+        <v>2.7</v>
+      </c>
+      <c r="BI28">
+        <v>1.73</v>
+      </c>
+      <c r="BJ28">
+        <v>2</v>
+      </c>
+      <c r="BK28">
+        <v>2.15</v>
+      </c>
+      <c r="BL28">
+        <v>1.63</v>
+      </c>
+      <c r="BM28">
+        <v>2.75</v>
+      </c>
+      <c r="BN28">
+        <v>1.39</v>
+      </c>
+      <c r="BO28">
         <v>3.8</v>
       </c>
-      <c r="AB28">
-        <v>5</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>1.75</v>
-      </c>
-      <c r="AH28">
-        <v>1.95</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>1.5</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1.5</v>
-      </c>
-      <c r="AQ28">
-        <v>1</v>
-      </c>
-      <c r="AR28">
-        <v>1.2</v>
-      </c>
-      <c r="AS28">
-        <v>1.64</v>
-      </c>
-      <c r="AT28">
-        <v>2.84</v>
-      </c>
-      <c r="AU28">
-        <v>7</v>
-      </c>
-      <c r="AV28">
-        <v>2</v>
-      </c>
-      <c r="AW28">
-        <v>6</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>13</v>
-      </c>
-      <c r="AZ28">
-        <v>3</v>
-      </c>
-      <c r="BA28">
-        <v>4</v>
-      </c>
-      <c r="BB28">
-        <v>3</v>
-      </c>
-      <c r="BC28">
-        <v>7</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
       <c r="BP28">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6834,7 +6834,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7453713</v>
+        <v>7453710</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6852,187 +6852,187 @@
         <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="Q30">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="T30">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z30">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="AA30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB30">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AC30">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
+        <v>1.2</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
+      </c>
+      <c r="AG30">
+        <v>1.81</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>1.91</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>3.3</v>
+      </c>
+      <c r="AL30">
+        <v>1.11</v>
+      </c>
+      <c r="AM30">
+        <v>1.02</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>2.33</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.54</v>
+      </c>
+      <c r="AT30">
+        <v>1.54</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>9</v>
+      </c>
+      <c r="AZ30">
+        <v>8</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>4</v>
+      </c>
+      <c r="BD30">
+        <v>4.41</v>
+      </c>
+      <c r="BE30">
+        <v>9.5</v>
+      </c>
+      <c r="BF30">
+        <v>1.31</v>
+      </c>
+      <c r="BG30">
+        <v>1.31</v>
+      </c>
+      <c r="BH30">
+        <v>3.04</v>
+      </c>
+      <c r="BI30">
+        <v>1.57</v>
+      </c>
+      <c r="BJ30">
+        <v>2.19</v>
+      </c>
+      <c r="BK30">
+        <v>1.98</v>
+      </c>
+      <c r="BL30">
+        <v>1.7</v>
+      </c>
+      <c r="BM30">
+        <v>2.6</v>
+      </c>
+      <c r="BN30">
+        <v>1.41</v>
+      </c>
+      <c r="BO30">
+        <v>3.65</v>
+      </c>
+      <c r="BP30">
         <v>1.22</v>
-      </c>
-      <c r="AF30">
-        <v>3.64</v>
-      </c>
-      <c r="AG30">
-        <v>1.8</v>
-      </c>
-      <c r="AH30">
-        <v>1.98</v>
-      </c>
-      <c r="AI30">
-        <v>1.67</v>
-      </c>
-      <c r="AJ30">
-        <v>2.1</v>
-      </c>
-      <c r="AK30">
-        <v>1.53</v>
-      </c>
-      <c r="AL30">
-        <v>1.26</v>
-      </c>
-      <c r="AM30">
-        <v>1.4</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>1.5</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>1.21</v>
-      </c>
-      <c r="AT30">
-        <v>1.21</v>
-      </c>
-      <c r="AU30">
-        <v>3</v>
-      </c>
-      <c r="AV30">
-        <v>6</v>
-      </c>
-      <c r="AW30">
-        <v>8</v>
-      </c>
-      <c r="AX30">
-        <v>7</v>
-      </c>
-      <c r="AY30">
-        <v>11</v>
-      </c>
-      <c r="AZ30">
-        <v>13</v>
-      </c>
-      <c r="BA30">
-        <v>4</v>
-      </c>
-      <c r="BB30">
-        <v>5</v>
-      </c>
-      <c r="BC30">
-        <v>9</v>
-      </c>
-      <c r="BD30">
-        <v>1.82</v>
-      </c>
-      <c r="BE30">
-        <v>7.5</v>
-      </c>
-      <c r="BF30">
-        <v>2.34</v>
-      </c>
-      <c r="BG30">
-        <v>1.36</v>
-      </c>
-      <c r="BH30">
-        <v>2.79</v>
-      </c>
-      <c r="BI30">
-        <v>1.65</v>
-      </c>
-      <c r="BJ30">
-        <v>2.05</v>
-      </c>
-      <c r="BK30">
-        <v>2.11</v>
-      </c>
-      <c r="BL30">
-        <v>1.62</v>
-      </c>
-      <c r="BM30">
-        <v>2.84</v>
-      </c>
-      <c r="BN30">
-        <v>1.35</v>
-      </c>
-      <c r="BO30">
-        <v>3.7</v>
-      </c>
-      <c r="BP30">
-        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7040,7 +7040,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7453710</v>
+        <v>7453713</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7058,187 +7058,187 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="Q31">
+        <v>3.2</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
         <v>6.5</v>
       </c>
-      <c r="R31">
+      <c r="Y31">
+        <v>1.1</v>
+      </c>
+      <c r="Z31">
+        <v>2.75</v>
+      </c>
+      <c r="AA31">
+        <v>3.25</v>
+      </c>
+      <c r="AB31">
         <v>2.4</v>
       </c>
-      <c r="S31">
-        <v>1.83</v>
-      </c>
-      <c r="T31">
-        <v>1.3</v>
-      </c>
-      <c r="U31">
-        <v>3.4</v>
-      </c>
-      <c r="V31">
-        <v>2.38</v>
-      </c>
-      <c r="W31">
-        <v>1.53</v>
-      </c>
-      <c r="X31">
-        <v>5.5</v>
-      </c>
-      <c r="Y31">
-        <v>1.13</v>
-      </c>
-      <c r="Z31">
-        <v>4.6</v>
-      </c>
-      <c r="AA31">
-        <v>3.8</v>
-      </c>
-      <c r="AB31">
-        <v>1.57</v>
-      </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF31">
-        <v>4.2</v>
+        <v>3.64</v>
       </c>
       <c r="AG31">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AH31">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AI31">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ31">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK31">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="AL31">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AM31">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AT31">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>13</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
         <v>5</v>
       </c>
-      <c r="AV31">
-        <v>3</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>5</v>
-      </c>
-      <c r="AY31">
+      <c r="BC31">
         <v>9</v>
       </c>
-      <c r="AZ31">
-        <v>8</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>3</v>
-      </c>
-      <c r="BC31">
-        <v>4</v>
-      </c>
       <c r="BD31">
-        <v>4.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE31">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF31">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="BG31">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH31">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="BI31">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BK31">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL31">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BM31">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="BN31">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO31">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP31">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -8088,7 +8088,7 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8500,7 +8500,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8909,7 +8909,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
         <v>79</v>
@@ -9324,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9733,7 +9733,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -9939,10 +9939,10 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -10766,7 +10766,7 @@
         <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -11384,7 +11384,7 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -268,12 +268,12 @@
     <t>Partizan</t>
   </si>
   <si>
+    <t>Vojvodina</t>
+  </si>
+  <si>
     <t>IMT Novi Beograd</t>
   </si>
   <si>
-    <t>Vojvodina</t>
-  </si>
-  <si>
     <t>['29', '53']</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['9', '60', '80', '86']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['2']</t>
   </si>
   <si>
@@ -385,12 +385,12 @@
     <t>['26', '48', '80']</t>
   </si>
   <si>
+    <t>['19', '65']</t>
+  </si>
+  <si>
     <t>['41']</t>
   </si>
   <si>
-    <t>['19', '65']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>['11', '90+6']</t>
   </si>
   <si>
+    <t>['4', '55']</t>
+  </si>
+  <si>
     <t>['51']</t>
   </si>
   <si>
-    <t>['4', '55']</t>
-  </si>
-  <si>
     <t>['36', '45', '90+6']</t>
   </si>
   <si>
@@ -484,10 +484,10 @@
     <t>['61', '90', '90+9']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['29', '41']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2320,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -6010,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453715</v>
+        <v>7453716</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6025,28 +6025,28 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
@@ -6055,160 +6055,160 @@
         <v>140</v>
       </c>
       <c r="Q26">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>1.62</v>
+      </c>
+      <c r="AA26">
+        <v>3.8</v>
+      </c>
+      <c r="AB26">
+        <v>5</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1.75</v>
+      </c>
+      <c r="AH26">
+        <v>1.95</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1.5</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1.2</v>
+      </c>
+      <c r="AS26">
+        <v>1.64</v>
+      </c>
+      <c r="AT26">
+        <v>2.84</v>
+      </c>
+      <c r="AU26">
+        <v>7</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>6</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>13</v>
+      </c>
+      <c r="AZ26">
+        <v>3</v>
+      </c>
+      <c r="BA26">
         <v>4</v>
       </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>1.73</v>
-      </c>
-      <c r="X26">
-        <v>4</v>
-      </c>
-      <c r="Y26">
-        <v>1.22</v>
-      </c>
-      <c r="Z26">
-        <v>1.1</v>
-      </c>
-      <c r="AA26">
-        <v>9.18</v>
-      </c>
-      <c r="AB26">
-        <v>15.42</v>
-      </c>
-      <c r="AC26">
-        <v>1.01</v>
-      </c>
-      <c r="AD26">
-        <v>19</v>
-      </c>
-      <c r="AE26">
-        <v>1.09</v>
-      </c>
-      <c r="AF26">
-        <v>6</v>
-      </c>
-      <c r="AG26">
-        <v>1.4</v>
-      </c>
-      <c r="AH26">
-        <v>2.75</v>
-      </c>
-      <c r="AI26">
-        <v>2.5</v>
-      </c>
-      <c r="AJ26">
-        <v>1.5</v>
-      </c>
-      <c r="AK26">
-        <v>1.03</v>
-      </c>
-      <c r="AL26">
-        <v>1.04</v>
-      </c>
-      <c r="AM26">
-        <v>5.5</v>
-      </c>
-      <c r="AN26">
-        <v>2</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>2.33</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>2.97</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>2.97</v>
-      </c>
-      <c r="AU26">
-        <v>11</v>
-      </c>
-      <c r="AV26">
-        <v>3</v>
-      </c>
-      <c r="AW26">
-        <v>5</v>
-      </c>
-      <c r="AX26">
-        <v>3</v>
-      </c>
-      <c r="AY26">
-        <v>16</v>
-      </c>
-      <c r="AZ26">
-        <v>6</v>
-      </c>
-      <c r="BA26">
-        <v>10</v>
-      </c>
       <c r="BB26">
         <v>3</v>
       </c>
       <c r="BC26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD26">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BE26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF26">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="BG26">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH26">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BI26">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BK26">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BL26">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BM26">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BN26">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BO26">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BP26">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6216,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453716</v>
+        <v>7453715</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6231,28 +6231,28 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
@@ -6261,160 +6261,160 @@
         <v>141</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z27">
-        <v>1.62</v>
+        <v>1.1</v>
       </c>
       <c r="AA27">
+        <v>9.18</v>
+      </c>
+      <c r="AB27">
+        <v>15.42</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>19</v>
+      </c>
+      <c r="AE27">
+        <v>1.09</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>1.4</v>
+      </c>
+      <c r="AH27">
+        <v>2.75</v>
+      </c>
+      <c r="AI27">
+        <v>2.5</v>
+      </c>
+      <c r="AJ27">
+        <v>1.5</v>
+      </c>
+      <c r="AK27">
+        <v>1.03</v>
+      </c>
+      <c r="AL27">
+        <v>1.04</v>
+      </c>
+      <c r="AM27">
+        <v>5.5</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>2.97</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>2.97</v>
+      </c>
+      <c r="AU27">
+        <v>11</v>
+      </c>
+      <c r="AV27">
+        <v>3</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>3</v>
+      </c>
+      <c r="AY27">
+        <v>16</v>
+      </c>
+      <c r="AZ27">
+        <v>6</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>13</v>
+      </c>
+      <c r="BD27">
+        <v>1.07</v>
+      </c>
+      <c r="BE27">
+        <v>13</v>
+      </c>
+      <c r="BF27">
+        <v>10.2</v>
+      </c>
+      <c r="BG27">
+        <v>1.22</v>
+      </c>
+      <c r="BH27">
         <v>3.8</v>
       </c>
-      <c r="AB27">
-        <v>5</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>1.75</v>
-      </c>
-      <c r="AH27">
-        <v>1.95</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>1.5</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1.5</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-      <c r="AR27">
-        <v>1.2</v>
-      </c>
-      <c r="AS27">
-        <v>1.64</v>
-      </c>
-      <c r="AT27">
-        <v>2.84</v>
-      </c>
-      <c r="AU27">
-        <v>7</v>
-      </c>
-      <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
-        <v>6</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>13</v>
-      </c>
-      <c r="AZ27">
-        <v>3</v>
-      </c>
-      <c r="BA27">
-        <v>4</v>
-      </c>
-      <c r="BB27">
-        <v>3</v>
-      </c>
-      <c r="BC27">
-        <v>7</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
       <c r="BI27">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BJ27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BK27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BL27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BM27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BN27">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BO27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BP27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6834,7 +6834,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7453710</v>
+        <v>7453713</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6852,187 +6852,187 @@
         <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="Q30">
+        <v>3.2</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2.63</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
         <v>6.5</v>
       </c>
-      <c r="R30">
+      <c r="Y30">
+        <v>1.1</v>
+      </c>
+      <c r="Z30">
+        <v>2.75</v>
+      </c>
+      <c r="AA30">
+        <v>3.25</v>
+      </c>
+      <c r="AB30">
         <v>2.4</v>
       </c>
-      <c r="S30">
-        <v>1.83</v>
-      </c>
-      <c r="T30">
-        <v>1.3</v>
-      </c>
-      <c r="U30">
-        <v>3.4</v>
-      </c>
-      <c r="V30">
-        <v>2.38</v>
-      </c>
-      <c r="W30">
-        <v>1.53</v>
-      </c>
-      <c r="X30">
-        <v>5.5</v>
-      </c>
-      <c r="Y30">
-        <v>1.13</v>
-      </c>
-      <c r="Z30">
-        <v>4.6</v>
-      </c>
-      <c r="AA30">
-        <v>3.8</v>
-      </c>
-      <c r="AB30">
-        <v>1.57</v>
-      </c>
       <c r="AC30">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF30">
-        <v>4.2</v>
+        <v>3.64</v>
       </c>
       <c r="AG30">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AH30">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AI30">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ30">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK30">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="AL30">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AM30">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AT30">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>8</v>
+      </c>
+      <c r="AX30">
+        <v>7</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>13</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
         <v>5</v>
       </c>
-      <c r="AV30">
-        <v>3</v>
-      </c>
-      <c r="AW30">
-        <v>4</v>
-      </c>
-      <c r="AX30">
-        <v>5</v>
-      </c>
-      <c r="AY30">
+      <c r="BC30">
         <v>9</v>
       </c>
-      <c r="AZ30">
-        <v>8</v>
-      </c>
-      <c r="BA30">
-        <v>1</v>
-      </c>
-      <c r="BB30">
-        <v>3</v>
-      </c>
-      <c r="BC30">
-        <v>4</v>
-      </c>
       <c r="BD30">
-        <v>4.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE30">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF30">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="BG30">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH30">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="BI30">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BJ30">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BK30">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL30">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BM30">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="BN30">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO30">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP30">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7040,7 +7040,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7453713</v>
+        <v>7453710</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7058,187 +7058,187 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="Q31">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R31">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="T31">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V31">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X31">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z31">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="AA31">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB31">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AC31">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
+        <v>1.2</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.81</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>3.3</v>
+      </c>
+      <c r="AL31">
+        <v>1.11</v>
+      </c>
+      <c r="AM31">
+        <v>1.02</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>2.33</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.54</v>
+      </c>
+      <c r="AT31">
+        <v>1.54</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>9</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>4</v>
+      </c>
+      <c r="BD31">
+        <v>4.41</v>
+      </c>
+      <c r="BE31">
+        <v>9.5</v>
+      </c>
+      <c r="BF31">
+        <v>1.31</v>
+      </c>
+      <c r="BG31">
+        <v>1.31</v>
+      </c>
+      <c r="BH31">
+        <v>3.04</v>
+      </c>
+      <c r="BI31">
+        <v>1.57</v>
+      </c>
+      <c r="BJ31">
+        <v>2.19</v>
+      </c>
+      <c r="BK31">
+        <v>1.98</v>
+      </c>
+      <c r="BL31">
+        <v>1.7</v>
+      </c>
+      <c r="BM31">
+        <v>2.6</v>
+      </c>
+      <c r="BN31">
+        <v>1.41</v>
+      </c>
+      <c r="BO31">
+        <v>3.65</v>
+      </c>
+      <c r="BP31">
         <v>1.22</v>
-      </c>
-      <c r="AF31">
-        <v>3.64</v>
-      </c>
-      <c r="AG31">
-        <v>1.8</v>
-      </c>
-      <c r="AH31">
-        <v>1.98</v>
-      </c>
-      <c r="AI31">
-        <v>1.67</v>
-      </c>
-      <c r="AJ31">
-        <v>2.1</v>
-      </c>
-      <c r="AK31">
-        <v>1.53</v>
-      </c>
-      <c r="AL31">
-        <v>1.26</v>
-      </c>
-      <c r="AM31">
-        <v>1.4</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>1.5</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>1.21</v>
-      </c>
-      <c r="AT31">
-        <v>1.21</v>
-      </c>
-      <c r="AU31">
-        <v>3</v>
-      </c>
-      <c r="AV31">
-        <v>6</v>
-      </c>
-      <c r="AW31">
-        <v>8</v>
-      </c>
-      <c r="AX31">
-        <v>7</v>
-      </c>
-      <c r="AY31">
-        <v>11</v>
-      </c>
-      <c r="AZ31">
-        <v>13</v>
-      </c>
-      <c r="BA31">
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BC31">
-        <v>9</v>
-      </c>
-      <c r="BD31">
-        <v>1.82</v>
-      </c>
-      <c r="BE31">
-        <v>7.5</v>
-      </c>
-      <c r="BF31">
-        <v>2.34</v>
-      </c>
-      <c r="BG31">
-        <v>1.36</v>
-      </c>
-      <c r="BH31">
-        <v>2.79</v>
-      </c>
-      <c r="BI31">
-        <v>1.65</v>
-      </c>
-      <c r="BJ31">
-        <v>2.05</v>
-      </c>
-      <c r="BK31">
-        <v>2.11</v>
-      </c>
-      <c r="BL31">
-        <v>1.62</v>
-      </c>
-      <c r="BM31">
-        <v>2.84</v>
-      </c>
-      <c r="BN31">
-        <v>1.35</v>
-      </c>
-      <c r="BO31">
-        <v>3.7</v>
-      </c>
-      <c r="BP31">
-        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -8294,7 +8294,7 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8318,7 +8318,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8500,7 +8500,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -9324,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9733,7 +9733,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -9939,7 +9939,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
@@ -10542,7 +10542,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7453736</v>
+        <v>7453738</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10557,10 +10557,10 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -10572,28 +10572,28 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O48" t="s">
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="Q48">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S48">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T48">
         <v>1.44</v>
@@ -10602,43 +10602,43 @@
         <v>2.63</v>
       </c>
       <c r="V48">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W48">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X48">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y48">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z48">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AA48">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AB48">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC48">
         <v>1.06</v>
       </c>
       <c r="AD48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AG48">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AH48">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AI48">
         <v>1.83</v>
@@ -10647,100 +10647,100 @@
         <v>1.83</v>
       </c>
       <c r="AK48">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AL48">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM48">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AN48">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO48">
+        <v>0.33</v>
+      </c>
+      <c r="AP48">
         <v>2.33</v>
       </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
       <c r="AQ48">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR48">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AS48">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="AT48">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>6</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>4</v>
+      </c>
+      <c r="AY48">
+        <v>10</v>
+      </c>
+      <c r="AZ48">
+        <v>10</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
+      <c r="BC48">
         <v>7</v>
       </c>
-      <c r="AV48">
-        <v>5</v>
-      </c>
-      <c r="AW48">
-        <v>2</v>
-      </c>
-      <c r="AX48">
-        <v>8</v>
-      </c>
-      <c r="AY48">
-        <v>9</v>
-      </c>
-      <c r="AZ48">
-        <v>13</v>
-      </c>
-      <c r="BA48">
-        <v>4</v>
-      </c>
-      <c r="BB48">
-        <v>4</v>
-      </c>
-      <c r="BC48">
-        <v>8</v>
-      </c>
       <c r="BD48">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BE48">
         <v>7.5</v>
       </c>
       <c r="BF48">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="BG48">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BH48">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="BI48">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BJ48">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="BK48">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BL48">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="BM48">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BN48">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BO48">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="BP48">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10748,7 +10748,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7453738</v>
+        <v>7453736</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10763,10 +10763,10 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10778,28 +10778,28 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49" t="s">
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="Q49">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R49">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T49">
         <v>1.44</v>
@@ -10808,43 +10808,43 @@
         <v>2.63</v>
       </c>
       <c r="V49">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W49">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X49">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y49">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z49">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AA49">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AB49">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC49">
         <v>1.06</v>
       </c>
       <c r="AD49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE49">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF49">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG49">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AH49">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AI49">
         <v>1.83</v>
@@ -10853,100 +10853,100 @@
         <v>1.83</v>
       </c>
       <c r="AK49">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AL49">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM49">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="AR49">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AS49">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="AT49">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>2</v>
+      </c>
+      <c r="AX49">
+        <v>8</v>
+      </c>
+      <c r="AY49">
+        <v>9</v>
+      </c>
+      <c r="AZ49">
+        <v>13</v>
+      </c>
+      <c r="BA49">
         <v>4</v>
       </c>
-      <c r="AV49">
-        <v>6</v>
-      </c>
-      <c r="AW49">
-        <v>6</v>
-      </c>
-      <c r="AX49">
+      <c r="BB49">
         <v>4</v>
       </c>
-      <c r="AY49">
-        <v>10</v>
-      </c>
-      <c r="AZ49">
-        <v>10</v>
-      </c>
-      <c r="BA49">
-        <v>2</v>
-      </c>
-      <c r="BB49">
-        <v>5</v>
-      </c>
       <c r="BC49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD49">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BE49">
         <v>7.5</v>
       </c>
       <c r="BF49">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="BG49">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="BH49">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="BI49">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ49">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="BK49">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="BL49">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="BM49">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BN49">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BO49">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="BP49">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10954,7 +10954,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7453734</v>
+        <v>7453735</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10969,190 +10969,190 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="P50" t="s">
         <v>156</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z50">
+        <v>5.8</v>
+      </c>
+      <c r="AA50">
+        <v>4.8</v>
+      </c>
+      <c r="AB50">
         <v>1.36</v>
       </c>
-      <c r="AA50">
-        <v>4.33</v>
-      </c>
-      <c r="AB50">
-        <v>7</v>
-      </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AG50">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AH50">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AN50">
         <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP50">
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AR50">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AS50">
-        <v>0.83</v>
+        <v>2.12</v>
       </c>
       <c r="AT50">
-        <v>2.64</v>
+        <v>4.05</v>
       </c>
       <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>7</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>2</v>
+      </c>
+      <c r="AZ50">
+        <v>14</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>9</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>4.86</v>
+      </c>
+      <c r="BE50">
         <v>10</v>
       </c>
-      <c r="AV50">
-        <v>3</v>
-      </c>
-      <c r="AW50">
-        <v>6</v>
-      </c>
-      <c r="AX50">
-        <v>2</v>
-      </c>
-      <c r="AY50">
-        <v>16</v>
-      </c>
-      <c r="AZ50">
-        <v>5</v>
-      </c>
-      <c r="BA50">
-        <v>6</v>
-      </c>
-      <c r="BB50">
-        <v>2</v>
-      </c>
-      <c r="BC50">
-        <v>8</v>
-      </c>
-      <c r="BD50">
-        <v>0</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
-      </c>
       <c r="BF50">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BG50">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BH50">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BI50">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BJ50">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="BK50">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL50">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BM50">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BN50">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BO50">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11160,7 +11160,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7453735</v>
+        <v>7453734</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11175,190 +11175,190 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="P51" t="s">
         <v>157</v>
       </c>
       <c r="Q51">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>5.8</v>
+        <v>1.36</v>
       </c>
       <c r="AA51">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="AB51">
-        <v>1.36</v>
+        <v>7</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AH51">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AI51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AK51">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AL51">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AN51">
         <v>1.33</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP51">
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR51">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AS51">
-        <v>2.12</v>
+        <v>0.83</v>
       </c>
       <c r="AT51">
-        <v>4.05</v>
+        <v>2.64</v>
       </c>
       <c r="AU51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY51">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AZ51">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BA51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD51">
-        <v>4.86</v>
+        <v>0</v>
       </c>
       <c r="BE51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF51">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BG51">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BH51">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI51">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BJ51">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="BK51">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL51">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BM51">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BN51">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BO51">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP51">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11384,7 +11384,7 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['15', '57']</t>
   </si>
   <si>
     <t>['3', '15', '45+3']</t>
@@ -849,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1111,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1314,7 +1317,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1726,7 +1729,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2138,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2344,7 +2347,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2631,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2756,7 +2759,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2962,7 +2965,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3168,7 +3171,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3580,7 +3583,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3658,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3992,7 +3995,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4073,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4404,7 +4407,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4610,7 +4613,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5022,7 +5025,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5640,7 +5643,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6052,7 +6055,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6258,7 +6261,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6542,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6670,7 +6673,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6876,7 +6879,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7288,7 +7291,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7494,7 +7497,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7700,7 +7703,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7906,7 +7909,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8399,7 +8402,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8524,7 +8527,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8730,7 +8733,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8936,7 +8939,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9142,7 +9145,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9348,7 +9351,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9429,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -9554,7 +9557,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9760,7 +9763,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9966,7 +9969,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10790,7 +10793,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10996,7 +10999,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11202,7 +11205,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11565,6 +11568,212 @@
       </c>
       <c r="BP52">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7453741</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>3.4</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.25</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>7.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>2.3</v>
+      </c>
+      <c r="AA53">
+        <v>2.85</v>
+      </c>
+      <c r="AB53">
+        <v>3.15</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>8.4</v>
+      </c>
+      <c r="AE53">
+        <v>1.31</v>
+      </c>
+      <c r="AF53">
+        <v>3.04</v>
+      </c>
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53">
+        <v>1.72</v>
+      </c>
+      <c r="AI53">
+        <v>1.83</v>
+      </c>
+      <c r="AJ53">
+        <v>1.83</v>
+      </c>
+      <c r="AK53">
+        <v>1.38</v>
+      </c>
+      <c r="AL53">
+        <v>1.29</v>
+      </c>
+      <c r="AM53">
+        <v>1.51</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0.8</v>
+      </c>
+      <c r="AR53">
+        <v>1.1</v>
+      </c>
+      <c r="AS53">
+        <v>1.33</v>
+      </c>
+      <c r="AT53">
+        <v>2.43</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>6</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>7</v>
+      </c>
+      <c r="AZ53">
+        <v>11</v>
+      </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>8</v>
+      </c>
+      <c r="BD53">
+        <v>2</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
+        <v>2.05</v>
+      </c>
+      <c r="BG53">
+        <v>1.4</v>
+      </c>
+      <c r="BH53">
+        <v>2.64</v>
+      </c>
+      <c r="BI53">
+        <v>1.72</v>
+      </c>
+      <c r="BJ53">
+        <v>1.95</v>
+      </c>
+      <c r="BK53">
+        <v>2.21</v>
+      </c>
+      <c r="BL53">
+        <v>1.56</v>
+      </c>
+      <c r="BM53">
+        <v>3.04</v>
+      </c>
+      <c r="BN53">
+        <v>1.31</v>
+      </c>
+      <c r="BO53">
+        <v>4</v>
+      </c>
+      <c r="BP53">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,15 @@
     <t>['15', '57']</t>
   </si>
   <si>
+    <t>['9', '43']</t>
+  </si>
+  <si>
+    <t>['29', '47']</t>
+  </si>
+  <si>
+    <t>['48', '55']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -491,6 +500,9 @@
   </si>
   <si>
     <t>['29', '41']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1123,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1192,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1317,7 +1329,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1601,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>0.25</v>
@@ -1729,7 +1741,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1807,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>2.5</v>
@@ -2141,7 +2153,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2347,7 +2359,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2759,7 +2771,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2965,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3046,7 +3058,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3171,7 +3183,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3249,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3583,7 +3595,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3995,7 +4007,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4407,7 +4419,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4485,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>0.25</v>
@@ -4613,7 +4625,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5025,7 +5037,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5312,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5643,7 +5655,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5930,7 +5942,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6055,7 +6067,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6133,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6261,7 +6273,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6339,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6548,7 +6560,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.95</v>
@@ -6673,7 +6685,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6754,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -6879,7 +6891,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6957,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7291,7 +7303,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7497,7 +7509,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7703,7 +7715,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7909,7 +7921,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8527,7 +8539,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8733,7 +8745,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8811,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -8939,7 +8951,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9020,7 +9032,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.91</v>
@@ -9145,7 +9157,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9351,7 +9363,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9557,7 +9569,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9638,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -9763,7 +9775,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9841,10 +9853,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -9969,7 +9981,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10793,7 +10805,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10999,7 +11011,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11205,7 +11217,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11774,6 +11786,624 @@
       </c>
       <c r="BP53">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7453742</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45549.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P54" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q54">
+        <v>2.3</v>
+      </c>
+      <c r="R54">
+        <v>2.2</v>
+      </c>
+      <c r="S54">
+        <v>4.5</v>
+      </c>
+      <c r="T54">
+        <v>1.36</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2.63</v>
+      </c>
+      <c r="W54">
+        <v>1.44</v>
+      </c>
+      <c r="X54">
+        <v>6.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.1</v>
+      </c>
+      <c r="Z54">
+        <v>1.57</v>
+      </c>
+      <c r="AA54">
+        <v>3.95</v>
+      </c>
+      <c r="AB54">
+        <v>5.25</v>
+      </c>
+      <c r="AC54">
+        <v>1.02</v>
+      </c>
+      <c r="AD54">
+        <v>10</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>3.8</v>
+      </c>
+      <c r="AG54">
+        <v>1.7</v>
+      </c>
+      <c r="AH54">
+        <v>2</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.91</v>
+      </c>
+      <c r="AK54">
+        <v>1.18</v>
+      </c>
+      <c r="AL54">
+        <v>1.24</v>
+      </c>
+      <c r="AM54">
+        <v>1.97</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>1.5</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1.2</v>
+      </c>
+      <c r="AR54">
+        <v>1.46</v>
+      </c>
+      <c r="AS54">
+        <v>1.29</v>
+      </c>
+      <c r="AT54">
+        <v>2.75</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <v>7</v>
+      </c>
+      <c r="AY54">
+        <v>7</v>
+      </c>
+      <c r="AZ54">
+        <v>12</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>11</v>
+      </c>
+      <c r="BD54">
+        <v>1.45</v>
+      </c>
+      <c r="BE54">
+        <v>8.5</v>
+      </c>
+      <c r="BF54">
+        <v>3.29</v>
+      </c>
+      <c r="BG54">
+        <v>1.28</v>
+      </c>
+      <c r="BH54">
+        <v>3.2</v>
+      </c>
+      <c r="BI54">
+        <v>1.52</v>
+      </c>
+      <c r="BJ54">
+        <v>2.3</v>
+      </c>
+      <c r="BK54">
+        <v>1.98</v>
+      </c>
+      <c r="BL54">
+        <v>1.82</v>
+      </c>
+      <c r="BM54">
+        <v>2.5</v>
+      </c>
+      <c r="BN54">
+        <v>1.44</v>
+      </c>
+      <c r="BO54">
+        <v>3.42</v>
+      </c>
+      <c r="BP54">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7453744</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45549.625</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q55">
+        <v>1.5</v>
+      </c>
+      <c r="R55">
+        <v>3.1</v>
+      </c>
+      <c r="S55">
+        <v>8.5</v>
+      </c>
+      <c r="T55">
+        <v>1.17</v>
+      </c>
+      <c r="U55">
+        <v>4.5</v>
+      </c>
+      <c r="V55">
+        <v>1.8</v>
+      </c>
+      <c r="W55">
+        <v>1.91</v>
+      </c>
+      <c r="X55">
+        <v>3.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.29</v>
+      </c>
+      <c r="Z55">
+        <v>1.06</v>
+      </c>
+      <c r="AA55">
+        <v>10</v>
+      </c>
+      <c r="AB55">
+        <v>21</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>29</v>
+      </c>
+      <c r="AE55">
+        <v>1.05</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AG55">
+        <v>1.27</v>
+      </c>
+      <c r="AH55">
+        <v>3.41</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.91</v>
+      </c>
+      <c r="AK55">
+        <v>1.01</v>
+      </c>
+      <c r="AL55">
+        <v>1.07</v>
+      </c>
+      <c r="AM55">
+        <v>5</v>
+      </c>
+      <c r="AN55">
+        <v>2.33</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>2.5</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>2.77</v>
+      </c>
+      <c r="AS55">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT55">
+        <v>3.58</v>
+      </c>
+      <c r="AU55">
+        <v>11</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>5</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>16</v>
+      </c>
+      <c r="AZ55">
+        <v>4</v>
+      </c>
+      <c r="BA55">
+        <v>14</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>16</v>
+      </c>
+      <c r="BD55">
+        <v>1.07</v>
+      </c>
+      <c r="BE55">
+        <v>13</v>
+      </c>
+      <c r="BF55">
+        <v>10.2</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>1.92</v>
+      </c>
+      <c r="BL55">
+        <v>1.88</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7453745</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45549.625</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2.7</v>
+      </c>
+      <c r="AA56">
+        <v>3.5</v>
+      </c>
+      <c r="AB56">
+        <v>2.25</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>1.67</v>
+      </c>
+      <c r="AH56">
+        <v>2.1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.8</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.24</v>
+      </c>
+      <c r="AS56">
+        <v>1.77</v>
+      </c>
+      <c r="AT56">
+        <v>3.01</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>5</v>
+      </c>
+      <c r="AZ56">
+        <v>6</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,15 @@
     <t>['48', '55']</t>
   </si>
   <si>
+    <t>['19', '40']</t>
+  </si>
+  <si>
+    <t>['48', '54']</t>
+  </si>
+  <si>
+    <t>['18', '86', '90+6']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -503,6 +512,18 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['16', '68']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['15', '40']</t>
+  </si>
+  <si>
+    <t>['50', '62']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1144,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1329,7 +1350,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1410,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1741,7 +1762,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2028,7 +2049,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2153,7 +2174,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2231,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7">
         <v>0.25</v>
@@ -2359,7 +2380,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2437,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1.25</v>
@@ -2771,7 +2792,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2852,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2977,7 +2998,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3183,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3470,7 +3491,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3595,7 +3616,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3676,7 +3697,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3879,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4007,7 +4028,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4291,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>2.5</v>
@@ -4419,7 +4440,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4625,7 +4646,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4703,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5037,7 +5058,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5530,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5655,7 +5676,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5733,10 +5754,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6067,7 +6088,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6273,7 +6294,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6685,7 +6706,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6891,7 +6912,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6972,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7178,7 +7199,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7303,7 +7324,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7509,7 +7530,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7715,7 +7736,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7793,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>2.33</v>
@@ -7921,7 +7942,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -7999,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
         <v>0.25</v>
@@ -8539,7 +8560,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8745,7 +8766,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8826,7 +8847,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.42</v>
@@ -8951,7 +8972,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9157,7 +9178,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9235,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9363,7 +9384,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9569,7 +9590,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9647,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9775,7 +9796,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9981,7 +10002,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10062,7 +10083,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10471,7 +10492,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -10805,7 +10826,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11011,7 +11032,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11217,7 +11238,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -12247,7 +12268,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12343,66 +12364,890 @@
         <v>2</v>
       </c>
       <c r="AV56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW56">
         <v>3</v>
       </c>
       <c r="AX56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY56">
         <v>5</v>
       </c>
       <c r="AZ56">
+        <v>8</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
+        <v>14</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7453747</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45550.5</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q57">
+        <v>3.4</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>2.95</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.75</v>
+      </c>
+      <c r="V57">
+        <v>2.85</v>
+      </c>
+      <c r="W57">
+        <v>1.36</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>2.98</v>
+      </c>
+      <c r="AA57">
+        <v>3.2</v>
+      </c>
+      <c r="AB57">
+        <v>2.16</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.28</v>
+      </c>
+      <c r="AF57">
+        <v>3.4</v>
+      </c>
+      <c r="AG57">
+        <v>1.9</v>
+      </c>
+      <c r="AH57">
+        <v>1.86</v>
+      </c>
+      <c r="AI57">
+        <v>1.67</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.57</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.4</v>
+      </c>
+      <c r="AN57">
+        <v>1.75</v>
+      </c>
+      <c r="AO57">
+        <v>1.33</v>
+      </c>
+      <c r="AP57">
+        <v>1.6</v>
+      </c>
+      <c r="AQ57">
+        <v>1.25</v>
+      </c>
+      <c r="AR57">
+        <v>1.87</v>
+      </c>
+      <c r="AS57">
+        <v>1.63</v>
+      </c>
+      <c r="AT57">
+        <v>3.5</v>
+      </c>
+      <c r="AU57">
+        <v>10</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>8</v>
+      </c>
+      <c r="AY57">
+        <v>15</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
         <v>6</v>
       </c>
-      <c r="BA56">
+      <c r="BB57">
         <v>4</v>
       </c>
-      <c r="BB56">
+      <c r="BC57">
+        <v>10</v>
+      </c>
+      <c r="BD57">
+        <v>2.05</v>
+      </c>
+      <c r="BE57">
+        <v>7.5</v>
+      </c>
+      <c r="BF57">
+        <v>2</v>
+      </c>
+      <c r="BG57">
+        <v>1.39</v>
+      </c>
+      <c r="BH57">
+        <v>2.67</v>
+      </c>
+      <c r="BI57">
+        <v>1.7</v>
+      </c>
+      <c r="BJ57">
+        <v>1.98</v>
+      </c>
+      <c r="BK57">
+        <v>2.19</v>
+      </c>
+      <c r="BL57">
+        <v>1.57</v>
+      </c>
+      <c r="BM57">
+        <v>2.98</v>
+      </c>
+      <c r="BN57">
+        <v>1.32</v>
+      </c>
+      <c r="BO57">
+        <v>3.9</v>
+      </c>
+      <c r="BP57">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7453746</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45550.58333333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>2.2</v>
+      </c>
+      <c r="T58">
+        <v>1.36</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>5.7</v>
+      </c>
+      <c r="AA58">
+        <v>3.6</v>
+      </c>
+      <c r="AB58">
+        <v>1.5</v>
+      </c>
+      <c r="AC58">
+        <v>1.02</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>3.8</v>
+      </c>
+      <c r="AG58">
+        <v>1.78</v>
+      </c>
+      <c r="AH58">
+        <v>1.93</v>
+      </c>
+      <c r="AI58">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>2.25</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.14</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.22</v>
+      </c>
+      <c r="AS58">
+        <v>1.44</v>
+      </c>
+      <c r="AT58">
+        <v>2.66</v>
+      </c>
+      <c r="AU58">
         <v>6</v>
       </c>
-      <c r="BC56">
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>2.78</v>
+      </c>
+      <c r="BE58">
+        <v>7.5</v>
+      </c>
+      <c r="BF58">
+        <v>1.64</v>
+      </c>
+      <c r="BG58">
+        <v>1.49</v>
+      </c>
+      <c r="BH58">
+        <v>2.38</v>
+      </c>
+      <c r="BI58">
+        <v>1.95</v>
+      </c>
+      <c r="BJ58">
+        <v>1.85</v>
+      </c>
+      <c r="BK58">
+        <v>2.5</v>
+      </c>
+      <c r="BL58">
+        <v>1.44</v>
+      </c>
+      <c r="BM58">
+        <v>3.48</v>
+      </c>
+      <c r="BN58">
+        <v>1.24</v>
+      </c>
+      <c r="BO58">
+        <v>4.6</v>
+      </c>
+      <c r="BP58">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7453743</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45550.58333333334</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q59">
+        <v>4.5</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>2.25</v>
+      </c>
+      <c r="T59">
+        <v>1.33</v>
+      </c>
+      <c r="U59">
+        <v>3.25</v>
+      </c>
+      <c r="V59">
+        <v>2.5</v>
+      </c>
+      <c r="W59">
+        <v>1.5</v>
+      </c>
+      <c r="X59">
+        <v>6</v>
+      </c>
+      <c r="Y59">
+        <v>1.11</v>
+      </c>
+      <c r="Z59">
+        <v>3.45</v>
+      </c>
+      <c r="AA59">
+        <v>3.3</v>
+      </c>
+      <c r="AB59">
+        <v>1.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>11</v>
+      </c>
+      <c r="AE59">
+        <v>1.2</v>
+      </c>
+      <c r="AF59">
+        <v>4</v>
+      </c>
+      <c r="AG59">
+        <v>1.7</v>
+      </c>
+      <c r="AH59">
+        <v>2.03</v>
+      </c>
+      <c r="AI59">
+        <v>1.67</v>
+      </c>
+      <c r="AJ59">
+        <v>2.15</v>
+      </c>
+      <c r="AK59">
+        <v>2.1</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.2</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>2.33</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>1.75</v>
+      </c>
+      <c r="AR59">
+        <v>1.68</v>
+      </c>
+      <c r="AS59">
+        <v>1.42</v>
+      </c>
+      <c r="AT59">
+        <v>3.1</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
         <v>10</v>
       </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>0</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>0</v>
-      </c>
-      <c r="BJ56">
-        <v>0</v>
-      </c>
-      <c r="BK56">
-        <v>0</v>
-      </c>
-      <c r="BL56">
-        <v>0</v>
-      </c>
-      <c r="BM56">
-        <v>0</v>
-      </c>
-      <c r="BN56">
-        <v>0</v>
-      </c>
-      <c r="BO56">
-        <v>0</v>
-      </c>
-      <c r="BP56">
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>11</v>
+      </c>
+      <c r="AZ59">
+        <v>14</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>3.07</v>
+      </c>
+      <c r="BE59">
+        <v>8.5</v>
+      </c>
+      <c r="BF59">
+        <v>1.51</v>
+      </c>
+      <c r="BG59">
+        <v>1.33</v>
+      </c>
+      <c r="BH59">
+        <v>2.91</v>
+      </c>
+      <c r="BI59">
+        <v>1.62</v>
+      </c>
+      <c r="BJ59">
+        <v>2.11</v>
+      </c>
+      <c r="BK59">
+        <v>2.05</v>
+      </c>
+      <c r="BL59">
+        <v>1.65</v>
+      </c>
+      <c r="BM59">
+        <v>2.75</v>
+      </c>
+      <c r="BN59">
+        <v>1.37</v>
+      </c>
+      <c r="BO59">
+        <v>3.84</v>
+      </c>
+      <c r="BP59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7453740</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>87</v>
+      </c>
+      <c r="P60" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>2.5</v>
+      </c>
+      <c r="T60">
+        <v>1.36</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>3.5</v>
+      </c>
+      <c r="AA60">
+        <v>3.54</v>
+      </c>
+      <c r="AB60">
+        <v>1.78</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.83</v>
+      </c>
+      <c r="AG60">
+        <v>1.72</v>
+      </c>
+      <c r="AH60">
+        <v>1.9</v>
+      </c>
+      <c r="AI60">
+        <v>1.73</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.85</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.22</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0.75</v>
+      </c>
+      <c r="AR60">
+        <v>0.73</v>
+      </c>
+      <c r="AS60">
+        <v>1.47</v>
+      </c>
+      <c r="AT60">
+        <v>2.2</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>8</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>11</v>
+      </c>
+      <c r="AZ60">
+        <v>13</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>2.8</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>1.59</v>
+      </c>
+      <c r="BG60">
+        <v>1.39</v>
+      </c>
+      <c r="BH60">
+        <v>2.67</v>
+      </c>
+      <c r="BI60">
+        <v>1.7</v>
+      </c>
+      <c r="BJ60">
+        <v>1.98</v>
+      </c>
+      <c r="BK60">
+        <v>2.19</v>
+      </c>
+      <c r="BL60">
+        <v>1.57</v>
+      </c>
+      <c r="BM60">
+        <v>2.98</v>
+      </c>
+      <c r="BN60">
+        <v>1.32</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>['50', '62']</t>
+  </si>
+  <si>
+    <t>['13', '18', '53', '59']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6581,7 +6584,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>0.95</v>
@@ -7196,7 +7199,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -9671,7 +9674,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10080,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -12349,7 +12352,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -13249,6 +13252,212 @@
       </c>
       <c r="BP60">
         <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7453696</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45553.54166666666</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2.1</v>
+      </c>
+      <c r="S61">
+        <v>3.2</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>2.55</v>
+      </c>
+      <c r="W61">
+        <v>1.45</v>
+      </c>
+      <c r="X61">
+        <v>5.4</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2.5</v>
+      </c>
+      <c r="AA61">
+        <v>3.3</v>
+      </c>
+      <c r="AB61">
+        <v>2.7</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.24</v>
+      </c>
+      <c r="AF61">
+        <v>3.95</v>
+      </c>
+      <c r="AG61">
+        <v>1.7</v>
+      </c>
+      <c r="AH61">
+        <v>2</v>
+      </c>
+      <c r="AI61">
+        <v>1.57</v>
+      </c>
+      <c r="AJ61">
+        <v>2.15</v>
+      </c>
+      <c r="AK61">
+        <v>1.45</v>
+      </c>
+      <c r="AL61">
+        <v>1.3</v>
+      </c>
+      <c r="AM61">
+        <v>1.5</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1.33</v>
+      </c>
+      <c r="AQ61">
+        <v>1.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.36</v>
+      </c>
+      <c r="AS61">
+        <v>1.66</v>
+      </c>
+      <c r="AT61">
+        <v>3.02</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>11</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>8</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>19</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>6</v>
+      </c>
+      <c r="BD61">
+        <v>1.82</v>
+      </c>
+      <c r="BE61">
+        <v>7.5</v>
+      </c>
+      <c r="BF61">
+        <v>2.4</v>
+      </c>
+      <c r="BG61">
+        <v>1.64</v>
+      </c>
+      <c r="BH61">
+        <v>2.07</v>
+      </c>
+      <c r="BI61">
+        <v>2.08</v>
+      </c>
+      <c r="BJ61">
+        <v>1.57</v>
+      </c>
+      <c r="BK61">
+        <v>2.82</v>
+      </c>
+      <c r="BL61">
+        <v>1.31</v>
+      </c>
+      <c r="BM61">
+        <v>3.8</v>
+      </c>
+      <c r="BN61">
+        <v>1.22</v>
+      </c>
+      <c r="BO61">
+        <v>5.4</v>
+      </c>
+      <c r="BP61">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,15 @@
     <t>['18', '86', '90+6']</t>
   </si>
   <si>
+    <t>['48', '52', '63', '67', '68']</t>
+  </si>
+  <si>
+    <t>['51', '55']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -445,9 +454,6 @@
     <t>['65']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['53', '63', '68', '83']</t>
   </si>
   <si>
@@ -527,6 +533,15 @@
   </si>
   <si>
     <t>['13', '18', '53', '59']</t>
+  </si>
+  <si>
+    <t>['65', '83']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['7', '24']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1162,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1353,7 +1368,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1431,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1640,7 +1655,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1765,7 +1780,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2049,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2177,7 +2192,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2383,7 +2398,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2667,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
         <v>0.8</v>
@@ -2795,7 +2810,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3001,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3207,7 +3222,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3288,7 +3303,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3619,7 +3634,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4031,7 +4046,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4109,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4443,7 +4458,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4524,7 +4539,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR18">
         <v>0.87</v>
@@ -4649,7 +4664,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4933,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5061,7 +5076,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5139,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5679,7 +5694,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6091,7 +6106,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6297,7 +6312,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6709,7 +6724,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6915,7 +6930,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7327,7 +7342,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7405,7 +7420,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7533,7 +7548,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7611,7 +7626,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>2.5</v>
@@ -7739,7 +7754,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7820,7 +7835,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -7945,7 +7960,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8026,7 +8041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -8229,7 +8244,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>0.25</v>
@@ -8563,7 +8578,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8769,7 +8784,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8975,7 +8990,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9181,7 +9196,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9387,7 +9402,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9593,7 +9608,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9799,7 +9814,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10005,7 +10020,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10289,7 +10304,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10498,7 +10513,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR47">
         <v>1.82</v>
@@ -10829,7 +10844,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10907,7 +10922,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49">
         <v>2.5</v>
@@ -11035,7 +11050,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11241,7 +11256,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11319,10 +11334,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR51">
         <v>1.81</v>
@@ -12271,7 +12286,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12477,7 +12492,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12683,7 +12698,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12889,7 +12904,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13095,7 +13110,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13301,7 +13316,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13458,6 +13473,624 @@
       </c>
       <c r="BP61">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7453749</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>7</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q62">
+        <v>2.3</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>4.5</v>
+      </c>
+      <c r="T62">
+        <v>1.36</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62">
+        <v>2.75</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.1</v>
+      </c>
+      <c r="Z62">
+        <v>1.75</v>
+      </c>
+      <c r="AA62">
+        <v>3.6</v>
+      </c>
+      <c r="AB62">
+        <v>3.91</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>11</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>4.1</v>
+      </c>
+      <c r="AG62">
+        <v>1.8</v>
+      </c>
+      <c r="AH62">
+        <v>1.9</v>
+      </c>
+      <c r="AI62">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62">
+        <v>1.83</v>
+      </c>
+      <c r="AK62">
+        <v>1.2</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>2.05</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>1.4</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>1.91</v>
+      </c>
+      <c r="AS62">
+        <v>1.25</v>
+      </c>
+      <c r="AT62">
+        <v>3.16</v>
+      </c>
+      <c r="AU62">
+        <v>10</v>
+      </c>
+      <c r="AV62">
+        <v>7</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>16</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>7</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.64</v>
+      </c>
+      <c r="BE62">
+        <v>8</v>
+      </c>
+      <c r="BF62">
+        <v>2.77</v>
+      </c>
+      <c r="BG62">
+        <v>1.32</v>
+      </c>
+      <c r="BH62">
+        <v>2.78</v>
+      </c>
+      <c r="BI62">
+        <v>1.6</v>
+      </c>
+      <c r="BJ62">
+        <v>2.03</v>
+      </c>
+      <c r="BK62">
+        <v>2.09</v>
+      </c>
+      <c r="BL62">
+        <v>1.63</v>
+      </c>
+      <c r="BM62">
+        <v>2.72</v>
+      </c>
+      <c r="BN62">
+        <v>1.33</v>
+      </c>
+      <c r="BO62">
+        <v>3.78</v>
+      </c>
+      <c r="BP62">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7453748</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q63">
+        <v>1.62</v>
+      </c>
+      <c r="R63">
+        <v>2.63</v>
+      </c>
+      <c r="S63">
+        <v>8.5</v>
+      </c>
+      <c r="T63">
+        <v>1.29</v>
+      </c>
+      <c r="U63">
+        <v>3.5</v>
+      </c>
+      <c r="V63">
+        <v>2.25</v>
+      </c>
+      <c r="W63">
+        <v>1.57</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>1.14</v>
+      </c>
+      <c r="Z63">
+        <v>1.3</v>
+      </c>
+      <c r="AA63">
+        <v>5.5</v>
+      </c>
+      <c r="AB63">
+        <v>6</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>15</v>
+      </c>
+      <c r="AE63">
+        <v>1.17</v>
+      </c>
+      <c r="AF63">
+        <v>5</v>
+      </c>
+      <c r="AG63">
+        <v>1.44</v>
+      </c>
+      <c r="AH63">
+        <v>2.59</v>
+      </c>
+      <c r="AI63">
+        <v>2.1</v>
+      </c>
+      <c r="AJ63">
+        <v>1.67</v>
+      </c>
+      <c r="AK63">
+        <v>1.05</v>
+      </c>
+      <c r="AL63">
+        <v>1.12</v>
+      </c>
+      <c r="AM63">
+        <v>4.3</v>
+      </c>
+      <c r="AN63">
+        <v>2.25</v>
+      </c>
+      <c r="AO63">
+        <v>0.25</v>
+      </c>
+      <c r="AP63">
+        <v>2.4</v>
+      </c>
+      <c r="AQ63">
+        <v>0.2</v>
+      </c>
+      <c r="AR63">
+        <v>1.13</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
+      <c r="AT63">
+        <v>2.13</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>16</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>21</v>
+      </c>
+      <c r="AZ63">
+        <v>8</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.23</v>
+      </c>
+      <c r="BE63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF63">
+        <v>6.39</v>
+      </c>
+      <c r="BG63">
+        <v>1.43</v>
+      </c>
+      <c r="BH63">
+        <v>2.65</v>
+      </c>
+      <c r="BI63">
+        <v>1.73</v>
+      </c>
+      <c r="BJ63">
+        <v>2</v>
+      </c>
+      <c r="BK63">
+        <v>2.2</v>
+      </c>
+      <c r="BL63">
+        <v>1.6</v>
+      </c>
+      <c r="BM63">
+        <v>2.8</v>
+      </c>
+      <c r="BN63">
+        <v>1.38</v>
+      </c>
+      <c r="BO63">
+        <v>3.9</v>
+      </c>
+      <c r="BP63">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7454212</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45556.625</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>2.5</v>
+      </c>
+      <c r="AA64">
+        <v>3.1</v>
+      </c>
+      <c r="AB64">
+        <v>2.63</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>1.91</v>
+      </c>
+      <c r="AH64">
+        <v>1.8</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>2.33</v>
+      </c>
+      <c r="AP64">
+        <v>0.8</v>
+      </c>
+      <c r="AQ64">
+        <v>2.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.12</v>
+      </c>
+      <c r="AS64">
+        <v>0.74</v>
+      </c>
+      <c r="AT64">
+        <v>1.86</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>14</v>
+      </c>
+      <c r="AZ64">
+        <v>3</v>
+      </c>
+      <c r="BA64">
+        <v>13</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>15</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['7', '11', '86']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -542,6 +545,12 @@
   </si>
   <si>
     <t>['7', '24']</t>
+  </si>
+  <si>
+    <t>['52', '65', '69']</t>
+  </si>
+  <si>
+    <t>['57', '82']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1171,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1368,7 +1377,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1780,7 +1789,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2192,7 +2201,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2273,7 +2282,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2398,7 +2407,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2479,7 +2488,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2810,7 +2819,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3016,7 +3025,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3222,7 +3231,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3634,7 +3643,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4046,7 +4055,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4664,7 +4673,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4951,7 +4960,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5076,7 +5085,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5157,7 +5166,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5694,7 +5703,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6106,7 +6115,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6312,7 +6321,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6724,7 +6733,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6930,7 +6939,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7214,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7342,7 +7351,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7548,7 +7557,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7754,7 +7763,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7960,7 +7969,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8247,7 +8256,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -8578,7 +8587,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8659,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -8784,7 +8793,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8990,7 +8999,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9196,7 +9205,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9402,7 +9411,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9608,7 +9617,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9814,7 +9823,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10020,7 +10029,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10098,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10719,7 +10728,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR48">
         <v>1.36</v>
@@ -10844,7 +10853,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11050,7 +11059,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11256,7 +11265,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11543,7 +11552,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12286,7 +12295,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12492,7 +12501,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12698,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12904,7 +12913,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13110,7 +13119,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13316,7 +13325,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13394,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13489,7 +13498,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45556.54166666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -13522,7 +13531,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13615,22 +13624,22 @@
         <v>3.16</v>
       </c>
       <c r="AU62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX62">
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -13728,7 +13737,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>1.62</v>
@@ -13934,7 +13943,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14091,6 +14100,418 @@
       </c>
       <c r="BP64">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7453753</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45557.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q65">
+        <v>3.75</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>2.5</v>
+      </c>
+      <c r="T65">
+        <v>1.33</v>
+      </c>
+      <c r="U65">
+        <v>3.25</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1.11</v>
+      </c>
+      <c r="Z65">
+        <v>3.75</v>
+      </c>
+      <c r="AA65">
+        <v>3.4</v>
+      </c>
+      <c r="AB65">
+        <v>1.85</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>12</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1.91</v>
+      </c>
+      <c r="AH65">
+        <v>1.8</v>
+      </c>
+      <c r="AI65">
+        <v>1.67</v>
+      </c>
+      <c r="AJ65">
+        <v>2.1</v>
+      </c>
+      <c r="AK65">
+        <v>1.7</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>1.25</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>1.25</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1.6</v>
+      </c>
+      <c r="AR65">
+        <v>1.31</v>
+      </c>
+      <c r="AS65">
+        <v>1.97</v>
+      </c>
+      <c r="AT65">
+        <v>3.28</v>
+      </c>
+      <c r="AU65">
+        <v>2</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>6</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
+        <v>9</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>2.65</v>
+      </c>
+      <c r="BE65">
+        <v>6.25</v>
+      </c>
+      <c r="BF65">
+        <v>1.76</v>
+      </c>
+      <c r="BG65">
+        <v>1.31</v>
+      </c>
+      <c r="BH65">
+        <v>2.82</v>
+      </c>
+      <c r="BI65">
+        <v>1.59</v>
+      </c>
+      <c r="BJ65">
+        <v>2.05</v>
+      </c>
+      <c r="BK65">
+        <v>2.05</v>
+      </c>
+      <c r="BL65">
+        <v>1.65</v>
+      </c>
+      <c r="BM65">
+        <v>2.65</v>
+      </c>
+      <c r="BN65">
+        <v>1.35</v>
+      </c>
+      <c r="BO65">
+        <v>3.72</v>
+      </c>
+      <c r="BP65">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7453754</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45557.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>3.4</v>
+      </c>
+      <c r="T66">
+        <v>1.33</v>
+      </c>
+      <c r="U66">
+        <v>3.25</v>
+      </c>
+      <c r="V66">
+        <v>2.63</v>
+      </c>
+      <c r="W66">
+        <v>1.44</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1.11</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
+        <v>3.6</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>9</v>
+      </c>
+      <c r="AE66">
+        <v>1.25</v>
+      </c>
+      <c r="AF66">
+        <v>3.75</v>
+      </c>
+      <c r="AG66">
+        <v>2.25</v>
+      </c>
+      <c r="AH66">
+        <v>1.57</v>
+      </c>
+      <c r="AI66">
+        <v>1.67</v>
+      </c>
+      <c r="AJ66">
+        <v>2.1</v>
+      </c>
+      <c r="AK66">
+        <v>1.38</v>
+      </c>
+      <c r="AL66">
+        <v>1.22</v>
+      </c>
+      <c r="AM66">
+        <v>1.65</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>0.25</v>
+      </c>
+      <c r="AP66">
+        <v>3</v>
+      </c>
+      <c r="AQ66">
+        <v>0.2</v>
+      </c>
+      <c r="AR66">
+        <v>1.91</v>
+      </c>
+      <c r="AS66">
+        <v>1.52</v>
+      </c>
+      <c r="AT66">
+        <v>3.43</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>2</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>7</v>
+      </c>
+      <c r="AZ66">
+        <v>10</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>7</v>
+      </c>
+      <c r="BC66">
+        <v>11</v>
+      </c>
+      <c r="BD66">
+        <v>1.83</v>
+      </c>
+      <c r="BE66">
+        <v>6.15</v>
+      </c>
+      <c r="BF66">
+        <v>2.52</v>
+      </c>
+      <c r="BG66">
+        <v>1.3</v>
+      </c>
+      <c r="BH66">
+        <v>2.88</v>
+      </c>
+      <c r="BI66">
+        <v>1.57</v>
+      </c>
+      <c r="BJ66">
+        <v>2.08</v>
+      </c>
+      <c r="BK66">
+        <v>2.03</v>
+      </c>
+      <c r="BL66">
+        <v>1.67</v>
+      </c>
+      <c r="BM66">
+        <v>2.61</v>
+      </c>
+      <c r="BN66">
+        <v>1.36</v>
+      </c>
+      <c r="BO66">
+        <v>3.65</v>
+      </c>
+      <c r="BP66">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['7', '11', '86']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -551,6 +554,12 @@
   </si>
   <si>
     <t>['57', '82']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['24', '45+3', '55', '65']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1180,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1249,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1.2</v>
@@ -1377,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1789,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1870,7 +1879,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2201,7 +2210,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2407,7 +2416,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2819,7 +2828,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3025,7 +3034,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3103,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3231,7 +3240,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3643,7 +3652,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3930,7 +3939,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4055,7 +4064,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4342,7 +4351,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4673,7 +4682,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5085,7 +5094,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5369,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5575,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5703,7 +5712,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6115,7 +6124,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6196,7 +6205,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6321,7 +6330,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6733,7 +6742,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6939,7 +6948,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7351,7 +7360,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7557,7 +7566,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7638,7 +7647,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -7763,7 +7772,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7969,7 +7978,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8459,7 +8468,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8587,7 +8596,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8665,7 +8674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -8793,7 +8802,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8999,7 +9008,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9205,7 +9214,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9411,7 +9420,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9617,7 +9626,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9823,7 +9832,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10029,7 +10038,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10316,7 +10325,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10725,7 +10734,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>0.2</v>
@@ -10853,7 +10862,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10934,7 +10943,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11059,7 +11068,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11137,7 +11146,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>3</v>
@@ -11265,7 +11274,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11549,7 +11558,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.6</v>
@@ -12295,7 +12304,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12501,7 +12510,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12707,7 +12716,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12913,7 +12922,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13119,7 +13128,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13325,7 +13334,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13531,7 +13540,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13737,7 +13746,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>1.62</v>
@@ -13943,7 +13952,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14149,7 +14158,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14355,7 +14364,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14512,6 +14521,624 @@
       </c>
       <c r="BP66">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7453752</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45557.625</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q67">
+        <v>2.88</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>3.2</v>
+      </c>
+      <c r="T67">
+        <v>1.33</v>
+      </c>
+      <c r="U67">
+        <v>3.25</v>
+      </c>
+      <c r="V67">
+        <v>2.63</v>
+      </c>
+      <c r="W67">
+        <v>1.44</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.11</v>
+      </c>
+      <c r="Z67">
+        <v>2.3</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>2.7</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>8.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.25</v>
+      </c>
+      <c r="AF67">
+        <v>3.65</v>
+      </c>
+      <c r="AG67">
+        <v>1.75</v>
+      </c>
+      <c r="AH67">
+        <v>1.95</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.2</v>
+      </c>
+      <c r="AK67">
+        <v>1.42</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.55</v>
+      </c>
+      <c r="AN67">
+        <v>2.33</v>
+      </c>
+      <c r="AO67">
+        <v>2.5</v>
+      </c>
+      <c r="AP67">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67">
+        <v>2.6</v>
+      </c>
+      <c r="AR67">
+        <v>1.33</v>
+      </c>
+      <c r="AS67">
+        <v>1.26</v>
+      </c>
+      <c r="AT67">
+        <v>2.59</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+      <c r="BB67">
+        <v>9</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>1.76</v>
+      </c>
+      <c r="BE67">
+        <v>6.2</v>
+      </c>
+      <c r="BF67">
+        <v>2.66</v>
+      </c>
+      <c r="BG67">
+        <v>1.34</v>
+      </c>
+      <c r="BH67">
+        <v>2.69</v>
+      </c>
+      <c r="BI67">
+        <v>1.67</v>
+      </c>
+      <c r="BJ67">
+        <v>2.03</v>
+      </c>
+      <c r="BK67">
+        <v>2.08</v>
+      </c>
+      <c r="BL67">
+        <v>1.57</v>
+      </c>
+      <c r="BM67">
+        <v>2.78</v>
+      </c>
+      <c r="BN67">
+        <v>1.32</v>
+      </c>
+      <c r="BO67">
+        <v>3.8</v>
+      </c>
+      <c r="BP67">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7453750</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45558.5</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q68">
+        <v>2.2</v>
+      </c>
+      <c r="R68">
+        <v>2.3</v>
+      </c>
+      <c r="S68">
+        <v>4.5</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.5</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>5.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.33</v>
+      </c>
+      <c r="AA68">
+        <v>4.5</v>
+      </c>
+      <c r="AB68">
+        <v>7.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>11</v>
+      </c>
+      <c r="AE68">
+        <v>1.17</v>
+      </c>
+      <c r="AF68">
+        <v>4.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.65</v>
+      </c>
+      <c r="AH68">
+        <v>2.1</v>
+      </c>
+      <c r="AI68">
+        <v>1.73</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>1.17</v>
+      </c>
+      <c r="AL68">
+        <v>1.17</v>
+      </c>
+      <c r="AM68">
+        <v>2.1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1.4</v>
+      </c>
+      <c r="AQ68">
+        <v>0.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.54</v>
+      </c>
+      <c r="AS68">
+        <v>1.27</v>
+      </c>
+      <c r="AT68">
+        <v>2.81</v>
+      </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>4</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>1.78</v>
+      </c>
+      <c r="BE68">
+        <v>6.1</v>
+      </c>
+      <c r="BF68">
+        <v>2.63</v>
+      </c>
+      <c r="BG68">
+        <v>1.41</v>
+      </c>
+      <c r="BH68">
+        <v>2.45</v>
+      </c>
+      <c r="BI68">
+        <v>1.79</v>
+      </c>
+      <c r="BJ68">
+        <v>1.87</v>
+      </c>
+      <c r="BK68">
+        <v>2.26</v>
+      </c>
+      <c r="BL68">
+        <v>1.48</v>
+      </c>
+      <c r="BM68">
+        <v>3.08</v>
+      </c>
+      <c r="BN68">
+        <v>1.26</v>
+      </c>
+      <c r="BO68">
+        <v>4.2</v>
+      </c>
+      <c r="BP68">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7453751</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45558.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q69">
+        <v>4.33</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.3</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.63</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>5</v>
+      </c>
+      <c r="AA69">
+        <v>3.85</v>
+      </c>
+      <c r="AB69">
+        <v>1.55</v>
+      </c>
+      <c r="AC69">
+        <v>1.02</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.2</v>
+      </c>
+      <c r="AF69">
+        <v>4</v>
+      </c>
+      <c r="AG69">
+        <v>1.55</v>
+      </c>
+      <c r="AH69">
+        <v>2.2</v>
+      </c>
+      <c r="AI69">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.91</v>
+      </c>
+      <c r="AL69">
+        <v>1.2</v>
+      </c>
+      <c r="AM69">
+        <v>1.2</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>3</v>
+      </c>
+      <c r="AP69">
+        <v>1.33</v>
+      </c>
+      <c r="AQ69">
+        <v>3</v>
+      </c>
+      <c r="AR69">
+        <v>1.36</v>
+      </c>
+      <c r="AS69">
+        <v>2.09</v>
+      </c>
+      <c r="AT69">
+        <v>3.45</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>6</v>
+      </c>
+      <c r="AZ69">
+        <v>12</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>2.62</v>
+      </c>
+      <c r="BE69">
+        <v>8</v>
+      </c>
+      <c r="BF69">
+        <v>1.69</v>
+      </c>
+      <c r="BG69">
+        <v>1.27</v>
+      </c>
+      <c r="BH69">
+        <v>3.04</v>
+      </c>
+      <c r="BI69">
+        <v>1.51</v>
+      </c>
+      <c r="BJ69">
+        <v>2.2</v>
+      </c>
+      <c r="BK69">
+        <v>2</v>
+      </c>
+      <c r="BL69">
+        <v>1.8</v>
+      </c>
+      <c r="BM69">
+        <v>2.45</v>
+      </c>
+      <c r="BN69">
+        <v>1.41</v>
+      </c>
+      <c r="BO69">
+        <v>3.35</v>
+      </c>
+      <c r="BP69">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['33', '70']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['24', '45+3', '55', '65']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1186,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1261,7 +1267,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1386,7 +1392,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>0.2</v>
@@ -1798,7 +1804,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2210,7 +2216,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2416,7 +2422,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2828,7 +2834,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3034,7 +3040,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3240,7 +3246,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3318,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ12">
         <v>2.5</v>
@@ -3652,7 +3658,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4064,7 +4070,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4682,7 +4688,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5094,7 +5100,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5381,7 +5387,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5712,7 +5718,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6124,7 +6130,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6330,7 +6336,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6408,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6742,7 +6748,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6823,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -6948,7 +6954,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7360,7 +7366,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7566,7 +7572,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7772,7 +7778,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7978,7 +7984,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8596,7 +8602,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8802,7 +8808,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9008,7 +9014,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9089,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.91</v>
@@ -9214,7 +9220,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9420,7 +9426,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9626,7 +9632,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9832,7 +9838,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10038,7 +10044,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10862,7 +10868,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11068,7 +11074,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11274,7 +11280,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11973,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12176,7 +12182,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12304,7 +12310,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12510,7 +12516,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12716,7 +12722,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12922,7 +12928,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13128,7 +13134,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13334,7 +13340,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13540,7 +13546,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13746,7 +13752,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>1.62</v>
@@ -13952,7 +13958,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14158,7 +14164,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14364,7 +14370,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14570,7 +14576,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14982,7 +14988,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15139,6 +15145,212 @@
       </c>
       <c r="BP69">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7453758</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45562.79166666666</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1.05</v>
+      </c>
+      <c r="AA70">
+        <v>10.5</v>
+      </c>
+      <c r="AB70">
+        <v>29</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>1.35</v>
+      </c>
+      <c r="AH70">
+        <v>2.94</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>2.5</v>
+      </c>
+      <c r="AO70">
+        <v>1.2</v>
+      </c>
+      <c r="AP70">
+        <v>2.6</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>2.77</v>
+      </c>
+      <c r="AS70">
+        <v>1.35</v>
+      </c>
+      <c r="AT70">
+        <v>4.12</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>4</v>
+      </c>
+      <c r="BA70">
+        <v>11</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,24 @@
     <t>['33', '70']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['37', '45+3', '58', '69']</t>
+  </si>
+  <si>
+    <t>['52', '87', '90']</t>
+  </si>
+  <si>
+    <t>['29', '90+7']</t>
+  </si>
+  <si>
+    <t>['63', '90+2']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -466,9 +484,6 @@
     <t>['53', '63', '68', '83']</t>
   </si>
   <si>
-    <t>['37']</t>
-  </si>
-  <si>
     <t>['11', '90+6']</t>
   </si>
   <si>
@@ -553,19 +568,31 @@
     <t>['7', '24']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['52', '65', '69']</t>
   </si>
   <si>
     <t>['57', '82']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
     <t>['24', '45+3', '55', '65']</t>
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['5', '56']</t>
+  </si>
+  <si>
+    <t>['16', '73', '76']</t>
+  </si>
+  <si>
+    <t>['57', '61', '90+5']</t>
+  </si>
+  <si>
+    <t>['12', '26', '57']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1213,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1392,7 +1419,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1473,7 +1500,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1804,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1882,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>2.6</v>
@@ -2088,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2216,7 +2243,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2294,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2422,7 +2449,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2500,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.6</v>
@@ -2709,7 +2736,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2834,7 +2861,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2912,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3040,7 +3067,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3246,7 +3273,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3533,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3658,7 +3685,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3942,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4070,7 +4097,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4151,7 +4178,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4354,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>2.6</v>
@@ -4560,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0.2</v>
@@ -4688,7 +4715,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4766,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -4975,7 +5002,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5100,7 +5127,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5178,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -5593,7 +5620,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5718,7 +5745,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5796,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6130,7 +6157,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6208,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -6336,7 +6363,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>1.44</v>
@@ -6623,7 +6650,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>0.95</v>
@@ -6748,7 +6775,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6826,7 +6853,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6954,7 +6981,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7035,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7241,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7366,7 +7393,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7444,7 +7471,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7572,7 +7599,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7778,7 +7805,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7856,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>2.5</v>
@@ -7984,7 +8011,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8062,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>0.2</v>
@@ -8271,7 +8298,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -8477,7 +8504,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8602,7 +8629,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8808,7 +8835,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8886,7 +8913,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9014,7 +9041,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9220,7 +9247,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9298,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9426,7 +9453,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9504,10 +9531,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -9632,7 +9659,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9710,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -9838,7 +9865,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10044,7 +10071,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10125,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10328,7 +10355,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10534,7 +10561,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
         <v>0.2</v>
@@ -10743,7 +10770,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR48">
         <v>1.36</v>
@@ -10868,7 +10895,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11074,7 +11101,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>7.5</v>
@@ -11280,7 +11307,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11773,7 +11800,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12310,7 +12337,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12388,10 +12415,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -12516,7 +12543,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12594,7 +12621,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -12722,7 +12749,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12800,10 +12827,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -12928,7 +12955,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13006,10 +13033,10 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13134,7 +13161,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13212,10 +13239,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13340,7 +13367,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13421,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -13546,7 +13573,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13752,7 +13779,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>1.62</v>
@@ -13830,7 +13857,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.2</v>
@@ -13958,7 +13985,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14122,7 +14149,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7453753</v>
+        <v>7453752</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14131,49 +14158,49 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45557.58333333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F65">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65" t="s">
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q65">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="R65">
         <v>2.2</v>
       </c>
       <c r="S65">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="T65">
         <v>1.33</v>
@@ -14194,133 +14221,133 @@
         <v>1.11</v>
       </c>
       <c r="Z65">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="AA65">
         <v>3.4</v>
       </c>
       <c r="AB65">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="AC65">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD65">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AE65">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF65">
+        <v>3.65</v>
+      </c>
+      <c r="AG65">
+        <v>1.75</v>
+      </c>
+      <c r="AH65">
+        <v>1.95</v>
+      </c>
+      <c r="AI65">
+        <v>1.62</v>
+      </c>
+      <c r="AJ65">
+        <v>2.2</v>
+      </c>
+      <c r="AK65">
+        <v>1.42</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.55</v>
+      </c>
+      <c r="AN65">
+        <v>2.33</v>
+      </c>
+      <c r="AO65">
+        <v>2.5</v>
+      </c>
+      <c r="AP65">
+        <v>1.75</v>
+      </c>
+      <c r="AQ65">
+        <v>2.6</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>1.26</v>
+      </c>
+      <c r="AT65">
+        <v>2.59</v>
+      </c>
+      <c r="AU65">
         <v>4</v>
       </c>
-      <c r="AG65">
-        <v>1.91</v>
-      </c>
-      <c r="AH65">
-        <v>1.8</v>
-      </c>
-      <c r="AI65">
-        <v>1.67</v>
-      </c>
-      <c r="AJ65">
-        <v>2.1</v>
-      </c>
-      <c r="AK65">
-        <v>1.7</v>
-      </c>
-      <c r="AL65">
-        <v>1.22</v>
-      </c>
-      <c r="AM65">
-        <v>1.25</v>
-      </c>
-      <c r="AN65">
-        <v>1.33</v>
-      </c>
-      <c r="AO65">
-        <v>1.25</v>
-      </c>
-      <c r="AP65">
-        <v>1</v>
-      </c>
-      <c r="AQ65">
-        <v>1.6</v>
-      </c>
-      <c r="AR65">
-        <v>1.31</v>
-      </c>
-      <c r="AS65">
-        <v>1.97</v>
-      </c>
-      <c r="AT65">
-        <v>3.28</v>
-      </c>
-      <c r="AU65">
-        <v>2</v>
-      </c>
       <c r="AV65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY65">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ65">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB65">
         <v>9</v>
       </c>
       <c r="BC65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD65">
-        <v>2.65</v>
+        <v>1.76</v>
       </c>
       <c r="BE65">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="BF65">
-        <v>1.76</v>
+        <v>2.66</v>
       </c>
       <c r="BG65">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="BH65">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="BI65">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BJ65">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="BK65">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BL65">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="BM65">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="BN65">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BO65">
-        <v>3.72</v>
+        <v>3.8</v>
       </c>
       <c r="BP65">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14328,7 +14355,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7453754</v>
+        <v>7453753</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14337,49 +14364,49 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45557.58333333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F66">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q66">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R66">
         <v>2.2</v>
       </c>
       <c r="S66">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T66">
         <v>1.33</v>
@@ -14400,31 +14427,31 @@
         <v>1.11</v>
       </c>
       <c r="Z66">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AA66">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="AC66">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AG66">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AH66">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AI66">
         <v>1.67</v>
@@ -14433,97 +14460,97 @@
         <v>2.1</v>
       </c>
       <c r="AK66">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AL66">
         <v>1.22</v>
       </c>
       <c r="AM66">
+        <v>1.25</v>
+      </c>
+      <c r="AN66">
+        <v>1.33</v>
+      </c>
+      <c r="AO66">
+        <v>1.25</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>1.6</v>
+      </c>
+      <c r="AR66">
+        <v>1.31</v>
+      </c>
+      <c r="AS66">
+        <v>1.97</v>
+      </c>
+      <c r="AT66">
+        <v>3.28</v>
+      </c>
+      <c r="AU66">
+        <v>-1</v>
+      </c>
+      <c r="AV66">
+        <v>-1</v>
+      </c>
+      <c r="AW66">
+        <v>-1</v>
+      </c>
+      <c r="AX66">
+        <v>-1</v>
+      </c>
+      <c r="AY66">
+        <v>-1</v>
+      </c>
+      <c r="AZ66">
+        <v>-1</v>
+      </c>
+      <c r="BA66">
+        <v>-1</v>
+      </c>
+      <c r="BB66">
+        <v>-1</v>
+      </c>
+      <c r="BC66">
+        <v>-1</v>
+      </c>
+      <c r="BD66">
+        <v>2.65</v>
+      </c>
+      <c r="BE66">
+        <v>6.25</v>
+      </c>
+      <c r="BF66">
+        <v>1.76</v>
+      </c>
+      <c r="BG66">
+        <v>1.31</v>
+      </c>
+      <c r="BH66">
+        <v>2.82</v>
+      </c>
+      <c r="BI66">
+        <v>1.59</v>
+      </c>
+      <c r="BJ66">
+        <v>2.05</v>
+      </c>
+      <c r="BK66">
+        <v>2.05</v>
+      </c>
+      <c r="BL66">
         <v>1.65</v>
       </c>
-      <c r="AN66">
-        <v>3</v>
-      </c>
-      <c r="AO66">
-        <v>0.25</v>
-      </c>
-      <c r="AP66">
-        <v>3</v>
-      </c>
-      <c r="AQ66">
-        <v>0.2</v>
-      </c>
-      <c r="AR66">
-        <v>1.91</v>
-      </c>
-      <c r="AS66">
-        <v>1.52</v>
-      </c>
-      <c r="AT66">
-        <v>3.43</v>
-      </c>
-      <c r="AU66">
-        <v>5</v>
-      </c>
-      <c r="AV66">
-        <v>6</v>
-      </c>
-      <c r="AW66">
-        <v>2</v>
-      </c>
-      <c r="AX66">
-        <v>4</v>
-      </c>
-      <c r="AY66">
-        <v>7</v>
-      </c>
-      <c r="AZ66">
-        <v>10</v>
-      </c>
-      <c r="BA66">
-        <v>4</v>
-      </c>
-      <c r="BB66">
-        <v>7</v>
-      </c>
-      <c r="BC66">
-        <v>11</v>
-      </c>
-      <c r="BD66">
-        <v>1.83</v>
-      </c>
-      <c r="BE66">
-        <v>6.15</v>
-      </c>
-      <c r="BF66">
-        <v>2.52</v>
-      </c>
-      <c r="BG66">
-        <v>1.3</v>
-      </c>
-      <c r="BH66">
-        <v>2.88</v>
-      </c>
-      <c r="BI66">
-        <v>1.57</v>
-      </c>
-      <c r="BJ66">
-        <v>2.08</v>
-      </c>
-      <c r="BK66">
-        <v>2.03</v>
-      </c>
-      <c r="BL66">
-        <v>1.67</v>
-      </c>
       <c r="BM66">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="BN66">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BO66">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="BP66">
         <v>1.18</v>
@@ -14534,7 +14561,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7453752</v>
+        <v>7453754</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14543,49 +14570,49 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45557.625</v>
+        <v>45557.58333333334</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O67" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q67">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R67">
         <v>2.2</v>
       </c>
       <c r="S67">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T67">
         <v>1.33</v>
@@ -14606,133 +14633,133 @@
         <v>1.11</v>
       </c>
       <c r="Z67">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AA67">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB67">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD67">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE67">
         <v>1.25</v>
       </c>
       <c r="AF67">
+        <v>3.75</v>
+      </c>
+      <c r="AG67">
+        <v>2.25</v>
+      </c>
+      <c r="AH67">
+        <v>1.57</v>
+      </c>
+      <c r="AI67">
+        <v>1.67</v>
+      </c>
+      <c r="AJ67">
+        <v>2.1</v>
+      </c>
+      <c r="AK67">
+        <v>1.38</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>1.65</v>
+      </c>
+      <c r="AN67">
+        <v>3</v>
+      </c>
+      <c r="AO67">
+        <v>0.25</v>
+      </c>
+      <c r="AP67">
+        <v>3</v>
+      </c>
+      <c r="AQ67">
+        <v>0.17</v>
+      </c>
+      <c r="AR67">
+        <v>1.91</v>
+      </c>
+      <c r="AS67">
+        <v>1.52</v>
+      </c>
+      <c r="AT67">
+        <v>3.43</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>7</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>7</v>
+      </c>
+      <c r="BC67">
+        <v>11</v>
+      </c>
+      <c r="BD67">
+        <v>1.83</v>
+      </c>
+      <c r="BE67">
+        <v>6.15</v>
+      </c>
+      <c r="BF67">
+        <v>2.52</v>
+      </c>
+      <c r="BG67">
+        <v>1.3</v>
+      </c>
+      <c r="BH67">
+        <v>2.88</v>
+      </c>
+      <c r="BI67">
+        <v>1.57</v>
+      </c>
+      <c r="BJ67">
+        <v>2.08</v>
+      </c>
+      <c r="BK67">
+        <v>2.03</v>
+      </c>
+      <c r="BL67">
+        <v>1.67</v>
+      </c>
+      <c r="BM67">
+        <v>2.61</v>
+      </c>
+      <c r="BN67">
+        <v>1.36</v>
+      </c>
+      <c r="BO67">
         <v>3.65</v>
       </c>
-      <c r="AG67">
-        <v>1.75</v>
-      </c>
-      <c r="AH67">
-        <v>1.95</v>
-      </c>
-      <c r="AI67">
-        <v>1.62</v>
-      </c>
-      <c r="AJ67">
-        <v>2.2</v>
-      </c>
-      <c r="AK67">
-        <v>1.42</v>
-      </c>
-      <c r="AL67">
-        <v>1.25</v>
-      </c>
-      <c r="AM67">
-        <v>1.55</v>
-      </c>
-      <c r="AN67">
-        <v>2.33</v>
-      </c>
-      <c r="AO67">
-        <v>2.5</v>
-      </c>
-      <c r="AP67">
-        <v>1.75</v>
-      </c>
-      <c r="AQ67">
-        <v>2.6</v>
-      </c>
-      <c r="AR67">
-        <v>1.33</v>
-      </c>
-      <c r="AS67">
-        <v>1.26</v>
-      </c>
-      <c r="AT67">
-        <v>2.59</v>
-      </c>
-      <c r="AU67">
-        <v>4</v>
-      </c>
-      <c r="AV67">
-        <v>3</v>
-      </c>
-      <c r="AW67">
-        <v>6</v>
-      </c>
-      <c r="AX67">
-        <v>6</v>
-      </c>
-      <c r="AY67">
-        <v>10</v>
-      </c>
-      <c r="AZ67">
-        <v>9</v>
-      </c>
-      <c r="BA67">
-        <v>1</v>
-      </c>
-      <c r="BB67">
-        <v>9</v>
-      </c>
-      <c r="BC67">
-        <v>10</v>
-      </c>
-      <c r="BD67">
-        <v>1.76</v>
-      </c>
-      <c r="BE67">
-        <v>6.2</v>
-      </c>
-      <c r="BF67">
-        <v>2.66</v>
-      </c>
-      <c r="BG67">
-        <v>1.34</v>
-      </c>
-      <c r="BH67">
-        <v>2.69</v>
-      </c>
-      <c r="BI67">
-        <v>1.67</v>
-      </c>
-      <c r="BJ67">
-        <v>2.03</v>
-      </c>
-      <c r="BK67">
-        <v>2.08</v>
-      </c>
-      <c r="BL67">
-        <v>1.57</v>
-      </c>
-      <c r="BM67">
-        <v>2.78</v>
-      </c>
-      <c r="BN67">
-        <v>1.32</v>
-      </c>
-      <c r="BO67">
-        <v>3.8</v>
-      </c>
       <c r="BP67">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14749,7 +14776,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45558.5</v>
+        <v>45557.875</v>
       </c>
       <c r="F68">
         <v>9</v>
@@ -14875,22 +14902,22 @@
         <v>2.81</v>
       </c>
       <c r="AU68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY68">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -14988,7 +15015,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15194,7 +15221,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15350,6 +15377,1448 @@
         <v>0</v>
       </c>
       <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7453762</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>2.4</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>1.5</v>
+      </c>
+      <c r="AR71">
+        <v>1.46</v>
+      </c>
+      <c r="AS71">
+        <v>1.55</v>
+      </c>
+      <c r="AT71">
+        <v>3.01</v>
+      </c>
+      <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>8</v>
+      </c>
+      <c r="AZ71">
+        <v>7</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7453757</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1.5</v>
+      </c>
+      <c r="AO72">
+        <v>0.8</v>
+      </c>
+      <c r="AP72">
+        <v>1.8</v>
+      </c>
+      <c r="AQ72">
+        <v>0.67</v>
+      </c>
+      <c r="AR72">
+        <v>1.63</v>
+      </c>
+      <c r="AS72">
+        <v>1.43</v>
+      </c>
+      <c r="AT72">
+        <v>3.06</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>2</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>2</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>7</v>
+      </c>
+      <c r="BC72">
+        <v>12</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7453756</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.75</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>0.8</v>
+      </c>
+      <c r="AR73">
+        <v>1.34</v>
+      </c>
+      <c r="AS73">
+        <v>1.64</v>
+      </c>
+      <c r="AT73">
+        <v>2.98</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>11</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>14</v>
+      </c>
+      <c r="AZ73">
+        <v>7</v>
+      </c>
+      <c r="BA73">
+        <v>9</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>13</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7453761</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1.6</v>
+      </c>
+      <c r="AO74">
+        <v>1.5</v>
+      </c>
+      <c r="AP74">
+        <v>1.83</v>
+      </c>
+      <c r="AQ74">
+        <v>1.2</v>
+      </c>
+      <c r="AR74">
+        <v>1.91</v>
+      </c>
+      <c r="AS74">
+        <v>1.83</v>
+      </c>
+      <c r="AT74">
+        <v>3.74</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>8</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>10</v>
+      </c>
+      <c r="AZ74">
+        <v>10</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7453760</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45563.875</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1.4</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1.33</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.22</v>
+      </c>
+      <c r="AS75">
+        <v>0.77</v>
+      </c>
+      <c r="AT75">
+        <v>1.99</v>
+      </c>
+      <c r="AU75">
+        <v>3</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>5</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7453755</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45563.875</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s">
+        <v>81</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0.2</v>
+      </c>
+      <c r="AP76">
+        <v>0.6</v>
+      </c>
+      <c r="AQ76">
+        <v>0.17</v>
+      </c>
+      <c r="AR76">
+        <v>0.96</v>
+      </c>
+      <c r="AS76">
+        <v>1.58</v>
+      </c>
+      <c r="AT76">
+        <v>2.54</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>5</v>
+      </c>
+      <c r="BA76">
+        <v>1</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>7</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7453759</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45563.875</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>144</v>
+      </c>
+      <c r="P77" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1.8</v>
+      </c>
+      <c r="AO77">
+        <v>1.75</v>
+      </c>
+      <c r="AP77">
+        <v>1.5</v>
+      </c>
+      <c r="AQ77">
+        <v>2</v>
+      </c>
+      <c r="AR77">
+        <v>1.16</v>
+      </c>
+      <c r="AS77">
+        <v>1.58</v>
+      </c>
+      <c r="AT77">
+        <v>2.74</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>11</v>
+      </c>
+      <c r="AZ77">
+        <v>7</v>
+      </c>
+      <c r="BA77">
+        <v>4</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>7</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -13746,7 +13746,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45556.54166666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F63">
         <v>9</v>
@@ -13875,28 +13875,28 @@
         <v>5</v>
       </c>
       <c r="AV63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB63">
         <v>3</v>
       </c>
       <c r="BC63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD63">
         <v>1.23</v>
@@ -14570,7 +14570,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45557.58333333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F67">
         <v>9</v>
@@ -14696,22 +14696,22 @@
         <v>3.43</v>
       </c>
       <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
         <v>5</v>
       </c>
-      <c r="AV67">
-        <v>6</v>
-      </c>
       <c r="AW67">
         <v>2</v>
       </c>
       <c r="AX67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY67">
+        <v>5</v>
+      </c>
+      <c r="AZ67">
         <v>7</v>
-      </c>
-      <c r="AZ67">
-        <v>10</v>
       </c>
       <c r="BA67">
         <v>4</v>
@@ -14982,7 +14982,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45558.58333333334</v>
+        <v>45557.875</v>
       </c>
       <c r="F69">
         <v>9</v>
@@ -15108,22 +15108,22 @@
         <v>3.45</v>
       </c>
       <c r="AU69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY69">
         <v>6</v>
       </c>
       <c r="AZ69">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA69">
         <v>7</v>
@@ -15511,13 +15511,13 @@
         <v>1.5</v>
       </c>
       <c r="AR71">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="AS71">
         <v>1.55</v>
       </c>
       <c r="AT71">
-        <v>3.01</v>
+        <v>2.68</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -15932,31 +15932,31 @@
         <v>2.98</v>
       </c>
       <c r="AU73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW73">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AX73">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY73">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ73">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA73">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB73">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC73">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD73">
         <v>0</v>
@@ -16544,10 +16544,10 @@
         <v>0.96</v>
       </c>
       <c r="AS76">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AT76">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="AU76">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -418,12 +418,12 @@
     <t>['48', '52', '63', '67', '68']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['51', '55']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['7', '11', '86']</t>
   </si>
   <si>
@@ -562,10 +562,10 @@
     <t>['65', '83']</t>
   </si>
   <si>
+    <t>['7', '24']</t>
+  </si>
+  <si>
     <t>['18']</t>
-  </si>
-  <si>
-    <t>['7', '24']</t>
   </si>
   <si>
     <t>['33']</t>
@@ -4509,7 +4509,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -13737,7 +13737,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7453748</v>
+        <v>7454212</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13752,25 +13752,25 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
         <v>3</v>
@@ -13782,160 +13782,160 @@
         <v>182</v>
       </c>
       <c r="Q63">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>2.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.1</v>
+      </c>
+      <c r="AB63">
         <v>2.63</v>
       </c>
-      <c r="S63">
-        <v>8.5</v>
-      </c>
-      <c r="T63">
-        <v>1.29</v>
-      </c>
-      <c r="U63">
-        <v>3.5</v>
-      </c>
-      <c r="V63">
-        <v>2.25</v>
-      </c>
-      <c r="W63">
-        <v>1.57</v>
-      </c>
-      <c r="X63">
-        <v>5</v>
-      </c>
-      <c r="Y63">
-        <v>1.14</v>
-      </c>
-      <c r="Z63">
-        <v>1.3</v>
-      </c>
-      <c r="AA63">
-        <v>5.5</v>
-      </c>
-      <c r="AB63">
-        <v>6</v>
-      </c>
       <c r="AC63">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>1.91</v>
+      </c>
+      <c r="AH63">
+        <v>1.8</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>2.33</v>
+      </c>
+      <c r="AP63">
+        <v>0.8</v>
+      </c>
+      <c r="AQ63">
+        <v>2.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.12</v>
+      </c>
+      <c r="AS63">
+        <v>0.74</v>
+      </c>
+      <c r="AT63">
+        <v>1.86</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>8</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
         <v>15</v>
       </c>
-      <c r="AE63">
-        <v>1.17</v>
-      </c>
-      <c r="AF63">
-        <v>5</v>
-      </c>
-      <c r="AG63">
-        <v>1.44</v>
-      </c>
-      <c r="AH63">
-        <v>2.59</v>
-      </c>
-      <c r="AI63">
-        <v>2.1</v>
-      </c>
-      <c r="AJ63">
-        <v>1.67</v>
-      </c>
-      <c r="AK63">
-        <v>1.05</v>
-      </c>
-      <c r="AL63">
-        <v>1.12</v>
-      </c>
-      <c r="AM63">
-        <v>4.3</v>
-      </c>
-      <c r="AN63">
-        <v>2.25</v>
-      </c>
-      <c r="AO63">
-        <v>0.25</v>
-      </c>
-      <c r="AP63">
-        <v>2</v>
-      </c>
-      <c r="AQ63">
-        <v>0.2</v>
-      </c>
-      <c r="AR63">
-        <v>1.13</v>
-      </c>
-      <c r="AS63">
-        <v>1</v>
-      </c>
-      <c r="AT63">
-        <v>2.13</v>
-      </c>
-      <c r="AU63">
-        <v>5</v>
-      </c>
-      <c r="AV63">
-        <v>4</v>
-      </c>
-      <c r="AW63">
+      <c r="AZ63">
+        <v>3</v>
+      </c>
+      <c r="BA63">
         <v>15</v>
       </c>
-      <c r="AX63">
-        <v>2</v>
-      </c>
-      <c r="AY63">
-        <v>20</v>
-      </c>
-      <c r="AZ63">
-        <v>6</v>
-      </c>
-      <c r="BA63">
-        <v>7</v>
-      </c>
       <c r="BB63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC63">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BD63">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BE63">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF63">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="BG63">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BH63">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BI63">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BJ63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK63">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BL63">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BM63">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BN63">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BO63">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BP63">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13943,7 +13943,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7454212</v>
+        <v>7453748</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13952,31 +13952,31 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45556.625</v>
+        <v>45555.875</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>3</v>
@@ -13988,160 +13988,160 @@
         <v>183</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z64">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AA64">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB64">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG64">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="AH64">
-        <v>1.8</v>
+        <v>2.59</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AO64">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR64">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS64">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>15</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>20</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
         <v>7</v>
       </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>7</v>
-      </c>
-      <c r="AX64">
-        <v>0</v>
-      </c>
-      <c r="AY64">
-        <v>14</v>
-      </c>
-      <c r="AZ64">
-        <v>3</v>
-      </c>
-      <c r="BA64">
-        <v>13</v>
-      </c>
       <c r="BB64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD64">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BE64">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF64">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="BG64">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BH64">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BI64">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BJ64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK64">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BL64">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BM64">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BN64">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BO64">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BP64">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -15188,7 +15188,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45562.79166666666</v>
+        <v>45561.875</v>
       </c>
       <c r="F70">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
     <t>Radnički Niš</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
-  </si>
-  <si>
     <t>OFK Beograd</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>['85', '90+1']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -331,15 +331,15 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
     <t>['9', '60', '80', '86']</t>
   </si>
   <si>
-    <t>['2']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -385,12 +385,12 @@
     <t>['26', '48', '80']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['19', '65']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -400,12 +400,12 @@
     <t>['9', '43']</t>
   </si>
   <si>
+    <t>['48', '55']</t>
+  </si>
+  <si>
     <t>['29', '47']</t>
   </si>
   <si>
-    <t>['48', '55']</t>
-  </si>
-  <si>
     <t>['19', '40']</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>['18', '86', '90+6']</t>
   </si>
   <si>
+    <t>['51', '55']</t>
+  </si>
+  <si>
     <t>['48', '52', '63', '67', '68']</t>
   </si>
   <si>
     <t>['39']</t>
   </si>
   <si>
-    <t>['51', '55']</t>
-  </si>
-  <si>
     <t>['7', '11', '86']</t>
   </si>
   <si>
@@ -433,24 +433,24 @@
     <t>['33', '70']</t>
   </si>
   <si>
+    <t>['37', '45+3', '58', '69']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
-    <t>['37', '45+3', '58', '69']</t>
+    <t>['29', '90+7']</t>
   </si>
   <si>
     <t>['52', '87', '90']</t>
   </si>
   <si>
-    <t>['29', '90+7']</t>
+    <t>['45+2']</t>
   </si>
   <si>
     <t>['63', '90+2']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -535,12 +535,12 @@
     <t>['61', '90', '90+9']</t>
   </si>
   <si>
+    <t>['29', '41']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
-    <t>['29', '41']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -559,40 +559,43 @@
     <t>['13', '18', '53', '59']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['65', '83']</t>
   </si>
   <si>
     <t>['7', '24']</t>
   </si>
   <si>
-    <t>['18']</t>
+    <t>['52', '65', '69']</t>
+  </si>
+  <si>
+    <t>['57', '82']</t>
   </si>
   <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['52', '65', '69']</t>
-  </si>
-  <si>
-    <t>['57', '82']</t>
-  </si>
-  <si>
     <t>['24', '45+3', '55', '65']</t>
   </si>
   <si>
     <t>['60']</t>
   </si>
   <si>
+    <t>['16', '73', '76']</t>
+  </si>
+  <si>
     <t>['5', '56']</t>
   </si>
   <si>
-    <t>['16', '73', '76']</t>
-  </si>
-  <si>
     <t>['57', '61', '90+5']</t>
   </si>
   <si>
     <t>['12', '26', '57']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1318,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -1497,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1524,10 +1527,10 @@
         <v>7</v>
       </c>
       <c r="AY3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -1703,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AQ4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1730,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA4">
         <v>10</v>
@@ -1909,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AQ5">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2013,7 +2016,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2115,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2219,7 +2222,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2321,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.17</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2348,10 +2351,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA7">
         <v>4</v>
@@ -2527,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2554,10 +2557,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA8">
         <v>1</v>
@@ -2733,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2760,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>7</v>
@@ -2939,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AS10">
         <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>2.19</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -2966,10 +2969,10 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA10">
         <v>2</v>
@@ -3139,25 +3142,25 @@
         <v>1.6</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3172,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ11">
         <v>4</v>
@@ -3351,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AT12">
-        <v>2.33</v>
+        <v>3.2</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -3437,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7454210</v>
+        <v>7453697</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3455,187 +3458,187 @@
         <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="Q13">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U13">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W13">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X13">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y13">
         <v>1.06</v>
       </c>
       <c r="Z13">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AA13">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="AB13">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AC13">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE13">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG13">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AH13">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AI13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ13">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AK13">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AL13">
         <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>0.89</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS13">
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>6</v>
+      </c>
+      <c r="AY13">
         <v>7</v>
       </c>
-      <c r="AV13">
-        <v>2</v>
-      </c>
-      <c r="AW13">
+      <c r="AZ13">
+        <v>21</v>
+      </c>
+      <c r="BA13">
         <v>4</v>
-      </c>
-      <c r="AX13">
-        <v>8</v>
-      </c>
-      <c r="AY13">
-        <v>11</v>
-      </c>
-      <c r="AZ13">
-        <v>10</v>
-      </c>
-      <c r="BA13">
-        <v>9</v>
       </c>
       <c r="BB13">
         <v>4</v>
       </c>
       <c r="BC13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD13">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="BE13">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF13">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BG13">
+        <v>1.32</v>
+      </c>
+      <c r="BH13">
+        <v>2.98</v>
+      </c>
+      <c r="BI13">
+        <v>1.59</v>
+      </c>
+      <c r="BJ13">
+        <v>2.16</v>
+      </c>
+      <c r="BK13">
+        <v>2</v>
+      </c>
+      <c r="BL13">
+        <v>1.69</v>
+      </c>
+      <c r="BM13">
+        <v>2.67</v>
+      </c>
+      <c r="BN13">
         <v>1.39</v>
       </c>
-      <c r="BH13">
-        <v>2.67</v>
-      </c>
-      <c r="BI13">
-        <v>1.7</v>
-      </c>
-      <c r="BJ13">
-        <v>1.98</v>
-      </c>
-      <c r="BK13">
-        <v>2.19</v>
-      </c>
-      <c r="BL13">
-        <v>1.57</v>
-      </c>
-      <c r="BM13">
-        <v>2.98</v>
-      </c>
-      <c r="BN13">
-        <v>1.32</v>
-      </c>
       <c r="BO13">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BP13">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3643,7 +3646,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7453697</v>
+        <v>7454210</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3661,187 +3664,187 @@
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R14">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U14">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="V14">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X14">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y14">
         <v>1.06</v>
       </c>
       <c r="Z14">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AA14">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AB14">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AC14">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE14">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF14">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG14">
+        <v>2.06</v>
+      </c>
+      <c r="AH14">
+        <v>1.68</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
         <v>1.96</v>
       </c>
-      <c r="AH14">
-        <v>1.75</v>
-      </c>
-      <c r="AI14">
-        <v>1.75</v>
-      </c>
-      <c r="AJ14">
-        <v>2.03</v>
-      </c>
       <c r="AK14">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AL14">
         <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AU14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB14">
         <v>4</v>
       </c>
       <c r="BC14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD14">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="BE14">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF14">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BG14">
+        <v>1.39</v>
+      </c>
+      <c r="BH14">
+        <v>2.67</v>
+      </c>
+      <c r="BI14">
+        <v>1.7</v>
+      </c>
+      <c r="BJ14">
+        <v>1.98</v>
+      </c>
+      <c r="BK14">
+        <v>2.19</v>
+      </c>
+      <c r="BL14">
+        <v>1.57</v>
+      </c>
+      <c r="BM14">
+        <v>2.98</v>
+      </c>
+      <c r="BN14">
         <v>1.32</v>
       </c>
-      <c r="BH14">
-        <v>2.98</v>
-      </c>
-      <c r="BI14">
-        <v>1.59</v>
-      </c>
-      <c r="BJ14">
-        <v>2.16</v>
-      </c>
-      <c r="BK14">
-        <v>2</v>
-      </c>
-      <c r="BL14">
-        <v>1.69</v>
-      </c>
-      <c r="BM14">
-        <v>2.67</v>
-      </c>
-      <c r="BN14">
-        <v>1.39</v>
-      </c>
       <c r="BO14">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BP14">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3963,25 +3966,25 @@
         <v>2.01</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -3999,7 +4002,7 @@
         <v>6</v>
       </c>
       <c r="AZ15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -4169,25 +4172,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
+        <v>0.9</v>
+      </c>
+      <c r="AQ16">
         <v>0.8</v>
       </c>
-      <c r="AQ16">
-        <v>0.67</v>
-      </c>
       <c r="AR16">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="AS16">
         <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4202,10 +4205,10 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4381,19 +4384,19 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
       </c>
       <c r="AS17">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AT17">
-        <v>3.08</v>
+        <v>2.82</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4408,10 +4411,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA17">
         <v>9</v>
@@ -4509,7 +4512,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4581,25 +4584,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AR18">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="AS18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AT18">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -4790,22 +4793,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR19">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AT19">
-        <v>1.24</v>
+        <v>4.41</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -4823,7 +4826,7 @@
         <v>6</v>
       </c>
       <c r="AZ19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA19">
         <v>1</v>
@@ -4897,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4993,25 +4996,25 @@
         <v>2.4</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>0.17</v>
+        <v>0.89</v>
       </c>
       <c r="AR20">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AS20">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>3.27</v>
+        <v>2.71</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5026,10 +5029,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -5127,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5199,25 +5202,25 @@
         <v>1.5</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AS21">
         <v>1.59</v>
       </c>
       <c r="AT21">
-        <v>1.59</v>
+        <v>3.31</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5232,10 +5235,10 @@
         <v>9</v>
       </c>
       <c r="AY21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -5405,25 +5408,25 @@
         <v>2.88</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5438,10 +5441,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA22">
         <v>8</v>
@@ -5515,7 +5518,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5614,22 +5617,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT23">
-        <v>1.76</v>
+        <v>3.44</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5644,10 +5647,10 @@
         <v>3</v>
       </c>
       <c r="AY23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -5817,25 +5820,25 @@
         <v>1.35</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AR24">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="AS24">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -5850,10 +5853,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
+        <v>22</v>
+      </c>
+      <c r="AZ24">
         <v>17</v>
-      </c>
-      <c r="AZ24">
-        <v>12</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -5924,7 +5927,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -6023,25 +6026,25 @@
         <v>1.7</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AS25">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="AT25">
-        <v>2.14</v>
+        <v>2.55</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -6056,10 +6059,10 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA25">
         <v>2</v>
@@ -6115,7 +6118,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453716</v>
+        <v>7453712</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6130,16 +6133,16 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6148,172 +6151,172 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z26">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AA26">
+        <v>3.3</v>
+      </c>
+      <c r="AB26">
+        <v>2.63</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>10.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.25</v>
+      </c>
+      <c r="AF26">
+        <v>3.6</v>
+      </c>
+      <c r="AG26">
+        <v>1.73</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.5</v>
+      </c>
+      <c r="AL26">
+        <v>1.33</v>
+      </c>
+      <c r="AM26">
+        <v>1.5</v>
+      </c>
+      <c r="AN26">
+        <v>0.67</v>
+      </c>
+      <c r="AO26">
+        <v>1.5</v>
+      </c>
+      <c r="AP26">
+        <v>0.89</v>
+      </c>
+      <c r="AQ26">
+        <v>1.3</v>
+      </c>
+      <c r="AR26">
+        <v>1.22</v>
+      </c>
+      <c r="AS26">
+        <v>1.63</v>
+      </c>
+      <c r="AT26">
+        <v>2.85</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>9</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>21</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>6</v>
+      </c>
+      <c r="BD26">
+        <v>2.05</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1.41</v>
+      </c>
+      <c r="BH26">
+        <v>2.7</v>
+      </c>
+      <c r="BI26">
+        <v>1.73</v>
+      </c>
+      <c r="BJ26">
+        <v>2</v>
+      </c>
+      <c r="BK26">
+        <v>2.15</v>
+      </c>
+      <c r="BL26">
+        <v>1.63</v>
+      </c>
+      <c r="BM26">
+        <v>2.75</v>
+      </c>
+      <c r="BN26">
+        <v>1.39</v>
+      </c>
+      <c r="BO26">
         <v>3.8</v>
       </c>
-      <c r="AB26">
-        <v>5</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1.75</v>
-      </c>
-      <c r="AH26">
-        <v>1.95</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>1.5</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1.5</v>
-      </c>
-      <c r="AQ26">
-        <v>0.75</v>
-      </c>
-      <c r="AR26">
-        <v>1.2</v>
-      </c>
-      <c r="AS26">
-        <v>1.64</v>
-      </c>
-      <c r="AT26">
-        <v>2.84</v>
-      </c>
-      <c r="AU26">
-        <v>7</v>
-      </c>
-      <c r="AV26">
-        <v>2</v>
-      </c>
-      <c r="AW26">
-        <v>6</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>13</v>
-      </c>
-      <c r="AZ26">
-        <v>3</v>
-      </c>
-      <c r="BA26">
-        <v>4</v>
-      </c>
-      <c r="BB26">
-        <v>3</v>
-      </c>
-      <c r="BC26">
-        <v>7</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
       <c r="BP26">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6321,7 +6324,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453715</v>
+        <v>7453716</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6336,190 +6339,190 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q27">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1.62</v>
+      </c>
+      <c r="AA27">
+        <v>3.8</v>
+      </c>
+      <c r="AB27">
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1.75</v>
+      </c>
+      <c r="AH27">
+        <v>1.95</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1.33</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1.9</v>
+      </c>
+      <c r="AQ27">
+        <v>1.1</v>
+      </c>
+      <c r="AR27">
+        <v>0.9</v>
+      </c>
+      <c r="AS27">
         <v>1.22</v>
       </c>
-      <c r="U27">
+      <c r="AT27">
+        <v>2.12</v>
+      </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
+        <v>3</v>
+      </c>
+      <c r="BA27">
         <v>4</v>
       </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>1.73</v>
-      </c>
-      <c r="X27">
-        <v>4</v>
-      </c>
-      <c r="Y27">
-        <v>1.22</v>
-      </c>
-      <c r="Z27">
-        <v>1.1</v>
-      </c>
-      <c r="AA27">
-        <v>9.18</v>
-      </c>
-      <c r="AB27">
-        <v>15.42</v>
-      </c>
-      <c r="AC27">
-        <v>1.01</v>
-      </c>
-      <c r="AD27">
-        <v>19</v>
-      </c>
-      <c r="AE27">
-        <v>1.09</v>
-      </c>
-      <c r="AF27">
-        <v>6</v>
-      </c>
-      <c r="AG27">
-        <v>1.4</v>
-      </c>
-      <c r="AH27">
-        <v>2.75</v>
-      </c>
-      <c r="AI27">
-        <v>2.5</v>
-      </c>
-      <c r="AJ27">
-        <v>1.5</v>
-      </c>
-      <c r="AK27">
-        <v>1.03</v>
-      </c>
-      <c r="AL27">
-        <v>1.04</v>
-      </c>
-      <c r="AM27">
-        <v>5.5</v>
-      </c>
-      <c r="AN27">
-        <v>2</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>2.6</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>2.97</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>2.97</v>
-      </c>
-      <c r="AU27">
-        <v>11</v>
-      </c>
-      <c r="AV27">
-        <v>3</v>
-      </c>
-      <c r="AW27">
-        <v>5</v>
-      </c>
-      <c r="AX27">
-        <v>3</v>
-      </c>
-      <c r="AY27">
-        <v>16</v>
-      </c>
-      <c r="AZ27">
-        <v>6</v>
-      </c>
-      <c r="BA27">
-        <v>10</v>
-      </c>
       <c r="BB27">
         <v>3</v>
       </c>
       <c r="BC27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD27">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BE27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF27">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="BG27">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BK27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BL27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BM27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BO27">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BP27">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6527,7 +6530,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7453712</v>
+        <v>7453715</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6542,10 +6545,10 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6557,175 +6560,175 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O28" t="s">
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="Q28">
+        <v>1.44</v>
+      </c>
+      <c r="R28">
         <v>3.1</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <v>1.22</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>1.73</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>1.22</v>
+      </c>
+      <c r="Z28">
+        <v>1.1</v>
+      </c>
+      <c r="AA28">
+        <v>9.18</v>
+      </c>
+      <c r="AB28">
+        <v>15.42</v>
+      </c>
+      <c r="AC28">
+        <v>1.01</v>
+      </c>
+      <c r="AD28">
+        <v>19</v>
+      </c>
+      <c r="AE28">
+        <v>1.09</v>
+      </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
+      <c r="AG28">
+        <v>1.4</v>
+      </c>
+      <c r="AH28">
+        <v>2.75</v>
+      </c>
+      <c r="AI28">
+        <v>2.5</v>
+      </c>
+      <c r="AJ28">
+        <v>1.5</v>
+      </c>
+      <c r="AK28">
+        <v>1.03</v>
+      </c>
+      <c r="AL28">
+        <v>1.04</v>
+      </c>
+      <c r="AM28">
+        <v>5.5</v>
+      </c>
+      <c r="AN28">
+        <v>2.33</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>2.78</v>
+      </c>
+      <c r="AQ28">
+        <v>1.4</v>
+      </c>
+      <c r="AR28">
+        <v>2.71</v>
+      </c>
+      <c r="AS28">
+        <v>1.89</v>
+      </c>
+      <c r="AT28">
+        <v>4.6</v>
+      </c>
+      <c r="AU28">
+        <v>11</v>
+      </c>
+      <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>3</v>
+      </c>
+      <c r="AY28">
+        <v>23</v>
+      </c>
+      <c r="AZ28">
+        <v>7</v>
+      </c>
+      <c r="BA28">
+        <v>10</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>13</v>
+      </c>
+      <c r="BD28">
+        <v>1.07</v>
+      </c>
+      <c r="BE28">
+        <v>13</v>
+      </c>
+      <c r="BF28">
+        <v>10.2</v>
+      </c>
+      <c r="BG28">
+        <v>1.22</v>
+      </c>
+      <c r="BH28">
+        <v>3.8</v>
+      </c>
+      <c r="BI28">
+        <v>1.41</v>
+      </c>
+      <c r="BJ28">
+        <v>2.65</v>
+      </c>
+      <c r="BK28">
+        <v>1.9</v>
+      </c>
+      <c r="BL28">
+        <v>1.9</v>
+      </c>
+      <c r="BM28">
         <v>2.1</v>
       </c>
-      <c r="S28">
-        <v>3.1</v>
-      </c>
-      <c r="T28">
-        <v>1.36</v>
-      </c>
-      <c r="U28">
-        <v>3</v>
-      </c>
-      <c r="V28">
-        <v>2.75</v>
-      </c>
-      <c r="W28">
-        <v>1.4</v>
-      </c>
-      <c r="X28">
-        <v>6.5</v>
-      </c>
-      <c r="Y28">
-        <v>1.1</v>
-      </c>
-      <c r="Z28">
-        <v>2.55</v>
-      </c>
-      <c r="AA28">
-        <v>3.3</v>
-      </c>
-      <c r="AB28">
-        <v>2.63</v>
-      </c>
-      <c r="AC28">
-        <v>1.02</v>
-      </c>
-      <c r="AD28">
-        <v>10.5</v>
-      </c>
-      <c r="AE28">
-        <v>1.25</v>
-      </c>
-      <c r="AF28">
-        <v>3.6</v>
-      </c>
-      <c r="AG28">
-        <v>1.73</v>
-      </c>
-      <c r="AH28">
-        <v>2</v>
-      </c>
-      <c r="AI28">
-        <v>1.67</v>
-      </c>
-      <c r="AJ28">
-        <v>2.1</v>
-      </c>
-      <c r="AK28">
-        <v>1.5</v>
-      </c>
-      <c r="AL28">
-        <v>1.33</v>
-      </c>
-      <c r="AM28">
-        <v>1.5</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>2.33</v>
-      </c>
-      <c r="AQ28">
-        <v>1.2</v>
-      </c>
-      <c r="AR28">
-        <v>0.95</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0.95</v>
-      </c>
-      <c r="AU28">
-        <v>5</v>
-      </c>
-      <c r="AV28">
-        <v>4</v>
-      </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28">
-        <v>9</v>
-      </c>
-      <c r="AY28">
-        <v>9</v>
-      </c>
-      <c r="AZ28">
-        <v>13</v>
-      </c>
-      <c r="BA28">
-        <v>3</v>
-      </c>
-      <c r="BB28">
-        <v>3</v>
-      </c>
-      <c r="BC28">
-        <v>6</v>
-      </c>
-      <c r="BD28">
-        <v>2.05</v>
-      </c>
-      <c r="BE28">
-        <v>7.5</v>
-      </c>
-      <c r="BF28">
-        <v>2</v>
-      </c>
-      <c r="BG28">
-        <v>1.41</v>
-      </c>
-      <c r="BH28">
-        <v>2.7</v>
-      </c>
-      <c r="BI28">
-        <v>1.73</v>
-      </c>
-      <c r="BJ28">
-        <v>2</v>
-      </c>
-      <c r="BK28">
-        <v>2.15</v>
-      </c>
-      <c r="BL28">
-        <v>1.63</v>
-      </c>
-      <c r="BM28">
-        <v>2.75</v>
-      </c>
       <c r="BN28">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="BO28">
-        <v>3.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP28">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6775,7 +6778,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6850,22 +6853,22 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="AS29">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT29">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6880,10 +6883,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>2</v>
@@ -7053,25 +7056,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AS30">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="AT30">
-        <v>1.21</v>
+        <v>3.43</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7086,10 +7089,10 @@
         <v>7</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>4</v>
@@ -7259,25 +7262,25 @@
         <v>1.02</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AT31">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7292,10 +7295,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA31">
         <v>1</v>
@@ -7465,25 +7468,25 @@
         <v>1.07</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ32">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AS32">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="AT32">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7498,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="AY32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA32">
         <v>1</v>
@@ -7671,25 +7674,25 @@
         <v>2.9</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR33">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AS33">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>3.08</v>
+        <v>2.99</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -7704,10 +7707,10 @@
         <v>1</v>
       </c>
       <c r="AY33">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -7877,25 +7880,25 @@
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AR34">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AS34">
-        <v>0.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT34">
-        <v>2.19</v>
+        <v>2.71</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8083,25 +8086,25 @@
         <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AQ35">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AR35">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AS35">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AT35">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8116,10 +8119,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8193,7 +8196,7 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8292,22 +8295,22 @@
         <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AQ36">
-        <v>0.17</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
+        <v>0.93</v>
+      </c>
+      <c r="AS36">
         <v>1.22</v>
       </c>
-      <c r="AS36">
-        <v>1.35</v>
-      </c>
       <c r="AT36">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8325,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="AZ36">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA36">
         <v>2</v>
@@ -8423,7 +8426,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8495,25 +8498,25 @@
         <v>1.62</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AS37">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT37">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8528,10 +8531,10 @@
         <v>2</v>
       </c>
       <c r="AY37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA37">
         <v>2</v>
@@ -8701,25 +8704,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ38">
+        <v>1.2</v>
+      </c>
+      <c r="AR38">
+        <v>1.67</v>
+      </c>
+      <c r="AS38">
         <v>1.6</v>
       </c>
-      <c r="AR38">
-        <v>1.63</v>
-      </c>
-      <c r="AS38">
-        <v>1.81</v>
-      </c>
       <c r="AT38">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="AU38">
         <v>11</v>
@@ -8734,10 +8737,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -8907,25 +8910,25 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AR39">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AS39">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9014,7 +9017,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
         <v>79</v>
@@ -9113,25 +9116,25 @@
         <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR40">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AS40">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT40">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="AU40">
         <v>-1</v>
@@ -9319,25 +9322,25 @@
         <v>1.48</v>
       </c>
       <c r="AN41">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AS41">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="AT41">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9352,10 +9355,10 @@
         <v>7</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9525,25 +9528,25 @@
         <v>1.38</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT42">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9558,10 +9561,10 @@
         <v>5</v>
       </c>
       <c r="AY42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA42">
         <v>2</v>
@@ -9731,25 +9734,25 @@
         <v>1.62</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR43">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AS43">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AT43">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9764,10 +9767,10 @@
         <v>3</v>
       </c>
       <c r="AY43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ43">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA43">
         <v>7</v>
@@ -9937,25 +9940,25 @@
         <v>2.15</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR44">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="AS44">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AT44">
-        <v>1.84</v>
+        <v>2.52</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -9970,10 +9973,10 @@
         <v>4</v>
       </c>
       <c r="AY44">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA44">
         <v>10</v>
@@ -10047,7 +10050,7 @@
         <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -10146,22 +10149,22 @@
         <v>1</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AS45">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="AT45">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10176,10 +10179,10 @@
         <v>8</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA45">
         <v>8</v>
@@ -10349,25 +10352,25 @@
         <v>2.45</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO46">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AR46">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="AS46">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT46">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10382,10 +10385,10 @@
         <v>3</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA46">
         <v>2</v>
@@ -10555,25 +10558,25 @@
         <v>2.25</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT47">
-        <v>2.82</v>
+        <v>2.45</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10588,10 +10591,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA47">
         <v>10</v>
@@ -10647,7 +10650,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7453738</v>
+        <v>7453736</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10662,10 +10665,10 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -10677,28 +10680,28 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="Q48">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T48">
         <v>1.44</v>
@@ -10707,43 +10710,43 @@
         <v>2.63</v>
       </c>
       <c r="V48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X48">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y48">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z48">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AA48">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AB48">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC48">
         <v>1.06</v>
       </c>
       <c r="AD48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE48">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF48">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG48">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AH48">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AI48">
         <v>1.83</v>
@@ -10752,100 +10755,100 @@
         <v>1.83</v>
       </c>
       <c r="AK48">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AL48">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM48">
+        <v>1.45</v>
+      </c>
+      <c r="AN48">
+        <v>1.33</v>
+      </c>
+      <c r="AO48">
         <v>1.67</v>
       </c>
-      <c r="AN48">
-        <v>2</v>
-      </c>
-      <c r="AO48">
-        <v>0.33</v>
-      </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>0.17</v>
+        <v>2.2</v>
       </c>
       <c r="AR48">
-        <v>1.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS48">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
-        <v>2.88</v>
+        <v>2.39</v>
       </c>
       <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>8</v>
+      </c>
+      <c r="AY48">
+        <v>11</v>
+      </c>
+      <c r="AZ48">
+        <v>17</v>
+      </c>
+      <c r="BA48">
         <v>4</v>
       </c>
-      <c r="AV48">
-        <v>6</v>
-      </c>
-      <c r="AW48">
-        <v>6</v>
-      </c>
-      <c r="AX48">
+      <c r="BB48">
         <v>4</v>
       </c>
-      <c r="AY48">
-        <v>10</v>
-      </c>
-      <c r="AZ48">
-        <v>10</v>
-      </c>
-      <c r="BA48">
-        <v>2</v>
-      </c>
-      <c r="BB48">
-        <v>5</v>
-      </c>
       <c r="BC48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD48">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BE48">
         <v>7.5</v>
       </c>
       <c r="BF48">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="BG48">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="BH48">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="BI48">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ48">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="BK48">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="BL48">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="BM48">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BN48">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BO48">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="BP48">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10853,7 +10856,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7453736</v>
+        <v>7453738</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10868,10 +10871,10 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -10883,28 +10886,28 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O49" t="s">
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="Q49">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S49">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T49">
         <v>1.44</v>
@@ -10913,43 +10916,43 @@
         <v>2.63</v>
       </c>
       <c r="V49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W49">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X49">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y49">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z49">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AB49">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC49">
         <v>1.06</v>
       </c>
       <c r="AD49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE49">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF49">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AG49">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AH49">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AI49">
         <v>1.83</v>
@@ -10958,100 +10961,100 @@
         <v>1.83</v>
       </c>
       <c r="AK49">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AL49">
+        <v>1.28</v>
+      </c>
+      <c r="AM49">
+        <v>1.67</v>
+      </c>
+      <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>1.3</v>
+      </c>
+      <c r="AQ49">
+        <v>0.89</v>
+      </c>
+      <c r="AR49">
         <v>1.32</v>
       </c>
-      <c r="AM49">
-        <v>1.45</v>
-      </c>
-      <c r="AN49">
-        <v>1.33</v>
-      </c>
-      <c r="AO49">
-        <v>2.33</v>
-      </c>
-      <c r="AP49">
-        <v>0.8</v>
-      </c>
-      <c r="AQ49">
-        <v>2.6</v>
-      </c>
-      <c r="AR49">
-        <v>1.07</v>
-      </c>
       <c r="AS49">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT49">
-        <v>2.3</v>
+        <v>2.67</v>
       </c>
       <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>13</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
         <v>7</v>
       </c>
-      <c r="AV49">
-        <v>5</v>
-      </c>
-      <c r="AW49">
-        <v>2</v>
-      </c>
-      <c r="AX49">
-        <v>8</v>
-      </c>
-      <c r="AY49">
-        <v>9</v>
-      </c>
-      <c r="AZ49">
-        <v>13</v>
-      </c>
-      <c r="BA49">
-        <v>4</v>
-      </c>
-      <c r="BB49">
-        <v>4</v>
-      </c>
-      <c r="BC49">
-        <v>8</v>
-      </c>
       <c r="BD49">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BE49">
         <v>7.5</v>
       </c>
       <c r="BF49">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="BG49">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BH49">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="BI49">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BJ49">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="BK49">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BL49">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="BM49">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BN49">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BO49">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="BP49">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -11059,7 +11062,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7453735</v>
+        <v>7453734</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11074,190 +11077,190 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s">
         <v>173</v>
       </c>
       <c r="Q50">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1.36</v>
+      </c>
+      <c r="AA50">
+        <v>4.33</v>
+      </c>
+      <c r="AB50">
+        <v>7</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>1.62</v>
+      </c>
+      <c r="AH50">
+        <v>2.15</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1.4</v>
+      </c>
+      <c r="AO50">
+        <v>1.67</v>
+      </c>
+      <c r="AP50">
+        <v>1.44</v>
+      </c>
+      <c r="AQ50">
+        <v>1.9</v>
+      </c>
+      <c r="AR50">
+        <v>1.67</v>
+      </c>
+      <c r="AS50">
+        <v>1.1</v>
+      </c>
+      <c r="AT50">
+        <v>2.77</v>
+      </c>
+      <c r="AU50">
+        <v>10</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>16</v>
+      </c>
+      <c r="AZ50">
         <v>5</v>
       </c>
-      <c r="Y50">
-        <v>1.14</v>
-      </c>
-      <c r="Z50">
-        <v>5.8</v>
-      </c>
-      <c r="AA50">
-        <v>4.8</v>
-      </c>
-      <c r="AB50">
-        <v>1.36</v>
-      </c>
-      <c r="AC50">
-        <v>1.01</v>
-      </c>
-      <c r="AD50">
-        <v>17</v>
-      </c>
-      <c r="AE50">
-        <v>1.13</v>
-      </c>
-      <c r="AF50">
-        <v>5.2</v>
-      </c>
-      <c r="AG50">
-        <v>1.45</v>
-      </c>
-      <c r="AH50">
-        <v>2.55</v>
-      </c>
-      <c r="AI50">
-        <v>2</v>
-      </c>
-      <c r="AJ50">
-        <v>1.73</v>
-      </c>
-      <c r="AK50">
-        <v>3.2</v>
-      </c>
-      <c r="AL50">
-        <v>1.1</v>
-      </c>
-      <c r="AM50">
-        <v>1.05</v>
-      </c>
-      <c r="AN50">
-        <v>1.33</v>
-      </c>
-      <c r="AO50">
-        <v>3</v>
-      </c>
-      <c r="AP50">
-        <v>1.4</v>
-      </c>
-      <c r="AQ50">
-        <v>3</v>
-      </c>
-      <c r="AR50">
-        <v>1.93</v>
-      </c>
-      <c r="AS50">
-        <v>2.12</v>
-      </c>
-      <c r="AT50">
-        <v>4.05</v>
-      </c>
-      <c r="AU50">
-        <v>0</v>
-      </c>
-      <c r="AV50">
-        <v>7</v>
-      </c>
-      <c r="AW50">
-        <v>2</v>
-      </c>
-      <c r="AX50">
-        <v>7</v>
-      </c>
-      <c r="AY50">
-        <v>2</v>
-      </c>
-      <c r="AZ50">
-        <v>14</v>
-      </c>
       <c r="BA50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB50">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD50">
-        <v>4.86</v>
+        <v>0</v>
       </c>
       <c r="BE50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF50">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BG50">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BH50">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI50">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BJ50">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="BK50">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL50">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BM50">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BN50">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BO50">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP50">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11265,7 +11268,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7453734</v>
+        <v>7453735</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11280,190 +11283,190 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="P51" t="s">
         <v>174</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z51">
+        <v>5.8</v>
+      </c>
+      <c r="AA51">
+        <v>4.8</v>
+      </c>
+      <c r="AB51">
         <v>1.36</v>
       </c>
-      <c r="AA51">
-        <v>4.33</v>
-      </c>
-      <c r="AB51">
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>17</v>
+      </c>
+      <c r="AE51">
+        <v>1.13</v>
+      </c>
+      <c r="AF51">
+        <v>5.2</v>
+      </c>
+      <c r="AG51">
+        <v>1.45</v>
+      </c>
+      <c r="AH51">
+        <v>2.55</v>
+      </c>
+      <c r="AI51">
+        <v>2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.73</v>
+      </c>
+      <c r="AK51">
+        <v>3.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.1</v>
+      </c>
+      <c r="AM51">
+        <v>1.05</v>
+      </c>
+      <c r="AN51">
+        <v>1.4</v>
+      </c>
+      <c r="AO51">
+        <v>2.6</v>
+      </c>
+      <c r="AP51">
+        <v>1.3</v>
+      </c>
+      <c r="AQ51">
+        <v>2.78</v>
+      </c>
+      <c r="AR51">
+        <v>1.87</v>
+      </c>
+      <c r="AS51">
+        <v>2.51</v>
+      </c>
+      <c r="AT51">
+        <v>4.38</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
         <v>7</v>
       </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>1.62</v>
-      </c>
-      <c r="AH51">
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>7</v>
+      </c>
+      <c r="AY51">
+        <v>3</v>
+      </c>
+      <c r="AZ51">
+        <v>20</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>9</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>4.86</v>
+      </c>
+      <c r="BE51">
+        <v>10</v>
+      </c>
+      <c r="BF51">
+        <v>1.26</v>
+      </c>
+      <c r="BG51">
+        <v>1.41</v>
+      </c>
+      <c r="BH51">
+        <v>2.7</v>
+      </c>
+      <c r="BI51">
+        <v>1.7</v>
+      </c>
+      <c r="BJ51">
+        <v>2.03</v>
+      </c>
+      <c r="BK51">
         <v>2.15</v>
       </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>1.33</v>
-      </c>
-      <c r="AO51">
-        <v>2</v>
-      </c>
-      <c r="AP51">
-        <v>1.4</v>
-      </c>
-      <c r="AQ51">
-        <v>2.5</v>
-      </c>
-      <c r="AR51">
-        <v>1.81</v>
-      </c>
-      <c r="AS51">
-        <v>0.83</v>
-      </c>
-      <c r="AT51">
-        <v>2.64</v>
-      </c>
-      <c r="AU51">
-        <v>10</v>
-      </c>
-      <c r="AV51">
-        <v>3</v>
-      </c>
-      <c r="AW51">
-        <v>6</v>
-      </c>
-      <c r="AX51">
-        <v>2</v>
-      </c>
-      <c r="AY51">
-        <v>16</v>
-      </c>
-      <c r="AZ51">
-        <v>5</v>
-      </c>
-      <c r="BA51">
-        <v>6</v>
-      </c>
-      <c r="BB51">
-        <v>2</v>
-      </c>
-      <c r="BC51">
-        <v>8</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>0</v>
-      </c>
-      <c r="BI51">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>0</v>
-      </c>
-      <c r="BK51">
-        <v>0</v>
-      </c>
       <c r="BL51">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BM51">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BN51">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BO51">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP51">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11585,25 +11588,25 @@
         <v>2.4</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AS52">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT52">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="AU52">
         <v>6</v>
@@ -11618,10 +11621,10 @@
         <v>9</v>
       </c>
       <c r="AY52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BA52">
         <v>7</v>
@@ -11692,7 +11695,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
         <v>85</v>
@@ -11791,25 +11794,25 @@
         <v>1.51</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT53">
-        <v>2.43</v>
+        <v>2.72</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -11824,10 +11827,10 @@
         <v>5</v>
       </c>
       <c r="AY53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ53">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA53">
         <v>1</v>
@@ -11997,25 +12000,25 @@
         <v>1.97</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR54">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT54">
-        <v>2.75</v>
+        <v>3.11</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12030,10 +12033,10 @@
         <v>7</v>
       </c>
       <c r="AY54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12089,7 +12092,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7453744</v>
+        <v>7453745</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12104,16 +12107,16 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -12122,142 +12125,142 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="Q55">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>2.7</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>2.25</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>1.67</v>
+      </c>
+      <c r="AH55">
+        <v>2.1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1.86</v>
+      </c>
+      <c r="AO55">
         <v>1.17</v>
       </c>
-      <c r="U55">
-        <v>4.5</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
-      <c r="W55">
-        <v>1.91</v>
-      </c>
-      <c r="X55">
-        <v>3.5</v>
-      </c>
-      <c r="Y55">
-        <v>1.29</v>
-      </c>
-      <c r="Z55">
-        <v>1.06</v>
-      </c>
-      <c r="AA55">
-        <v>10</v>
-      </c>
-      <c r="AB55">
-        <v>21</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>29</v>
-      </c>
-      <c r="AE55">
-        <v>1.05</v>
-      </c>
-      <c r="AF55">
+      <c r="AP55">
+        <v>1.9</v>
+      </c>
+      <c r="AQ55">
+        <v>1.3</v>
+      </c>
+      <c r="AR55">
+        <v>1.03</v>
+      </c>
+      <c r="AS55">
+        <v>1.62</v>
+      </c>
+      <c r="AT55">
+        <v>2.65</v>
+      </c>
+      <c r="AU55">
+        <v>2</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
         <v>8</v>
       </c>
-      <c r="AG55">
-        <v>1.27</v>
-      </c>
-      <c r="AH55">
-        <v>3.41</v>
-      </c>
-      <c r="AI55">
-        <v>1.8</v>
-      </c>
-      <c r="AJ55">
-        <v>1.91</v>
-      </c>
-      <c r="AK55">
-        <v>1.01</v>
-      </c>
-      <c r="AL55">
-        <v>1.07</v>
-      </c>
-      <c r="AM55">
+      <c r="BA55">
         <v>5</v>
       </c>
-      <c r="AN55">
-        <v>2.33</v>
-      </c>
-      <c r="AO55">
-        <v>1.33</v>
-      </c>
-      <c r="AP55">
-        <v>2.6</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>2.77</v>
-      </c>
-      <c r="AS55">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AT55">
-        <v>3.58</v>
-      </c>
-      <c r="AU55">
-        <v>11</v>
-      </c>
-      <c r="AV55">
-        <v>3</v>
-      </c>
-      <c r="AW55">
-        <v>5</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>16</v>
-      </c>
-      <c r="AZ55">
-        <v>4</v>
-      </c>
-      <c r="BA55">
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
         <v>14</v>
       </c>
-      <c r="BB55">
-        <v>2</v>
-      </c>
-      <c r="BC55">
-        <v>16</v>
-      </c>
       <c r="BD55">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BE55">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF55">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="BG55">
         <v>0</v>
@@ -12272,10 +12275,10 @@
         <v>0</v>
       </c>
       <c r="BK55">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BL55">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -12295,7 +12298,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7453745</v>
+        <v>7453744</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12310,16 +12313,16 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -12328,142 +12331,142 @@
         <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" t="s">
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Z56">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="AA56">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AB56">
-        <v>2.25</v>
+        <v>21</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG56">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AH56">
-        <v>2.1</v>
+        <v>3.41</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>2.67</v>
       </c>
       <c r="AO56">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>2.78</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AR56">
-        <v>1.24</v>
+        <v>2.43</v>
       </c>
       <c r="AS56">
-        <v>1.77</v>
+        <v>0.99</v>
       </c>
       <c r="AT56">
-        <v>3.01</v>
+        <v>3.42</v>
       </c>
       <c r="AU56">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
         <v>5</v>
       </c>
-      <c r="AW56">
-        <v>3</v>
-      </c>
       <c r="AX56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY56">
+        <v>32</v>
+      </c>
+      <c r="AZ56">
         <v>5</v>
       </c>
-      <c r="AZ56">
-        <v>8</v>
-      </c>
       <c r="BA56">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BB56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD56">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BE56">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF56">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="BG56">
         <v>0</v>
@@ -12478,10 +12481,10 @@
         <v>0</v>
       </c>
       <c r="BK56">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BL56">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -12615,25 +12618,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AO57">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AR57">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>3.5</v>
+        <v>3.04</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -12648,10 +12651,10 @@
         <v>8</v>
       </c>
       <c r="AY57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ57">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA57">
         <v>6</v>
@@ -12824,22 +12827,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR58">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AT58">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -12854,10 +12857,10 @@
         <v>3</v>
       </c>
       <c r="AY58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA58">
         <v>2</v>
@@ -13027,25 +13030,25 @@
         <v>1.2</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AO59">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AS59">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
-        <v>3.1</v>
+        <v>2.83</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13063,7 +13066,7 @@
         <v>11</v>
       </c>
       <c r="AZ59">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13137,7 +13140,7 @@
         <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13233,25 +13236,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR60">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AS60">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AT60">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13266,10 +13269,10 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13439,25 +13442,25 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR61">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS61">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT61">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13472,10 +13475,10 @@
         <v>8</v>
       </c>
       <c r="AY61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ61">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -13531,7 +13534,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7453749</v>
+        <v>7453748</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13540,34 +13543,34 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45555.875</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F62">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O62" t="s">
         <v>133</v>
@@ -13576,94 +13579,94 @@
         <v>181</v>
       </c>
       <c r="Q62">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R62">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="S62">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="T62">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U62">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V62">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X62">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z62">
+        <v>1.3</v>
+      </c>
+      <c r="AA62">
+        <v>5.5</v>
+      </c>
+      <c r="AB62">
+        <v>6</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>15</v>
+      </c>
+      <c r="AE62">
+        <v>1.17</v>
+      </c>
+      <c r="AF62">
+        <v>5</v>
+      </c>
+      <c r="AG62">
+        <v>1.44</v>
+      </c>
+      <c r="AH62">
+        <v>2.59</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>1.05</v>
+      </c>
+      <c r="AL62">
+        <v>1.12</v>
+      </c>
+      <c r="AM62">
+        <v>4.3</v>
+      </c>
+      <c r="AN62">
         <v>1.75</v>
       </c>
-      <c r="AA62">
-        <v>3.6</v>
-      </c>
-      <c r="AB62">
-        <v>3.91</v>
-      </c>
-      <c r="AC62">
-        <v>1.04</v>
-      </c>
-      <c r="AD62">
-        <v>11</v>
-      </c>
-      <c r="AE62">
-        <v>1.22</v>
-      </c>
-      <c r="AF62">
-        <v>4.1</v>
-      </c>
-      <c r="AG62">
-        <v>1.8</v>
-      </c>
-      <c r="AH62">
-        <v>1.9</v>
-      </c>
-      <c r="AI62">
-        <v>1.83</v>
-      </c>
-      <c r="AJ62">
-        <v>1.83</v>
-      </c>
-      <c r="AK62">
-        <v>1.2</v>
-      </c>
-      <c r="AL62">
-        <v>1.25</v>
-      </c>
-      <c r="AM62">
-        <v>2.05</v>
-      </c>
-      <c r="AN62">
-        <v>1</v>
-      </c>
       <c r="AO62">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AR62">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="AT62">
-        <v>3.16</v>
+        <v>2.39</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13672,64 +13675,64 @@
         <v>5</v>
       </c>
       <c r="AW62">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AX62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY62">
+        <v>29</v>
+      </c>
+      <c r="AZ62">
         <v>10</v>
-      </c>
-      <c r="AZ62">
-        <v>9</v>
       </c>
       <c r="BA62">
         <v>7</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD62">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="BE62">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF62">
-        <v>2.77</v>
+        <v>6.39</v>
       </c>
       <c r="BG62">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="BH62">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="BI62">
+        <v>1.73</v>
+      </c>
+      <c r="BJ62">
+        <v>2</v>
+      </c>
+      <c r="BK62">
+        <v>2.2</v>
+      </c>
+      <c r="BL62">
         <v>1.6</v>
       </c>
-      <c r="BJ62">
-        <v>2.03</v>
-      </c>
-      <c r="BK62">
-        <v>2.09</v>
-      </c>
-      <c r="BL62">
-        <v>1.63</v>
-      </c>
       <c r="BM62">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="BN62">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BO62">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="BP62">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13737,7 +13740,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7454212</v>
+        <v>7453749</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13746,34 +13749,34 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45555.875</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F63">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63">
         <v>2</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O63" t="s">
         <v>134</v>
@@ -13782,160 +13785,160 @@
         <v>182</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA63">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB63">
-        <v>2.63</v>
+        <v>3.91</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AG63">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AH63">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AJ63">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK63">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL63">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN63">
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>2.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.74</v>
+        <v>1.72</v>
       </c>
       <c r="AT63">
-        <v>1.86</v>
+        <v>3.47</v>
       </c>
       <c r="AU63">
+        <v>10</v>
+      </c>
+      <c r="AV63">
         <v>7</v>
       </c>
-      <c r="AV63">
-        <v>3</v>
-      </c>
       <c r="AW63">
+        <v>6</v>
+      </c>
+      <c r="AX63">
+        <v>4</v>
+      </c>
+      <c r="AY63">
+        <v>18</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63">
+        <v>1.64</v>
+      </c>
+      <c r="BE63">
         <v>8</v>
       </c>
-      <c r="AX63">
-        <v>0</v>
-      </c>
-      <c r="AY63">
-        <v>15</v>
-      </c>
-      <c r="AZ63">
-        <v>3</v>
-      </c>
-      <c r="BA63">
-        <v>15</v>
-      </c>
-      <c r="BB63">
-        <v>2</v>
-      </c>
-      <c r="BC63">
-        <v>17</v>
-      </c>
-      <c r="BD63">
-        <v>0</v>
-      </c>
-      <c r="BE63">
-        <v>0</v>
-      </c>
       <c r="BF63">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="BG63">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="BH63">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BJ63">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="BK63">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="BL63">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BM63">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="BN63">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BO63">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="BP63">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13943,7 +13946,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7453748</v>
+        <v>7454212</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13952,31 +13955,31 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45555.875</v>
+        <v>45556.625</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <v>3</v>
@@ -13988,160 +13991,160 @@
         <v>183</v>
       </c>
       <c r="Q64">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>2.5</v>
+      </c>
+      <c r="AA64">
+        <v>3.1</v>
+      </c>
+      <c r="AB64">
         <v>2.63</v>
       </c>
-      <c r="S64">
-        <v>8.5</v>
-      </c>
-      <c r="T64">
-        <v>1.29</v>
-      </c>
-      <c r="U64">
-        <v>3.5</v>
-      </c>
-      <c r="V64">
-        <v>2.25</v>
-      </c>
-      <c r="W64">
-        <v>1.57</v>
-      </c>
-      <c r="X64">
-        <v>5</v>
-      </c>
-      <c r="Y64">
-        <v>1.14</v>
-      </c>
-      <c r="Z64">
-        <v>1.3</v>
-      </c>
-      <c r="AA64">
-        <v>5.5</v>
-      </c>
-      <c r="AB64">
-        <v>6</v>
-      </c>
       <c r="AC64">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>1.91</v>
+      </c>
+      <c r="AH64">
+        <v>1.8</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>0.9</v>
+      </c>
+      <c r="AQ64">
+        <v>1.9</v>
+      </c>
+      <c r="AR64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>1.94</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
         <v>15</v>
       </c>
-      <c r="AE64">
-        <v>1.17</v>
-      </c>
-      <c r="AF64">
-        <v>5</v>
-      </c>
-      <c r="AG64">
-        <v>1.44</v>
-      </c>
-      <c r="AH64">
-        <v>2.59</v>
-      </c>
-      <c r="AI64">
-        <v>2.1</v>
-      </c>
-      <c r="AJ64">
-        <v>1.67</v>
-      </c>
-      <c r="AK64">
-        <v>1.05</v>
-      </c>
-      <c r="AL64">
-        <v>1.12</v>
-      </c>
-      <c r="AM64">
-        <v>4.3</v>
-      </c>
-      <c r="AN64">
-        <v>2.25</v>
-      </c>
-      <c r="AO64">
-        <v>0.25</v>
-      </c>
-      <c r="AP64">
-        <v>2</v>
-      </c>
-      <c r="AQ64">
-        <v>0.2</v>
-      </c>
-      <c r="AR64">
-        <v>1.13</v>
-      </c>
-      <c r="AS64">
-        <v>1</v>
-      </c>
-      <c r="AT64">
-        <v>2.13</v>
-      </c>
-      <c r="AU64">
-        <v>5</v>
-      </c>
-      <c r="AV64">
-        <v>4</v>
-      </c>
-      <c r="AW64">
+      <c r="AZ64">
+        <v>3</v>
+      </c>
+      <c r="BA64">
         <v>15</v>
       </c>
-      <c r="AX64">
-        <v>2</v>
-      </c>
-      <c r="AY64">
-        <v>20</v>
-      </c>
-      <c r="AZ64">
-        <v>6</v>
-      </c>
-      <c r="BA64">
-        <v>7</v>
-      </c>
       <c r="BB64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC64">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BD64">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BE64">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF64">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="BG64">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BH64">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BI64">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BJ64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK64">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BL64">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BM64">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BN64">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BO64">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BP64">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14149,7 +14152,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7453752</v>
+        <v>7453753</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14158,34 +14161,34 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45556.875</v>
+        <v>45557.58333333334</v>
       </c>
       <c r="F65">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
         <v>87</v>
@@ -14194,13 +14197,13 @@
         <v>184</v>
       </c>
       <c r="Q65">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R65">
         <v>2.2</v>
       </c>
       <c r="S65">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
         <v>1.33</v>
@@ -14221,133 +14224,133 @@
         <v>1.11</v>
       </c>
       <c r="Z65">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="AA65">
         <v>3.4</v>
       </c>
       <c r="AB65">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="AC65">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD65">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1.91</v>
+      </c>
+      <c r="AH65">
+        <v>1.8</v>
+      </c>
+      <c r="AI65">
+        <v>1.67</v>
+      </c>
+      <c r="AJ65">
+        <v>2.1</v>
+      </c>
+      <c r="AK65">
+        <v>1.7</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
         <v>1.25</v>
       </c>
-      <c r="AF65">
-        <v>3.65</v>
-      </c>
-      <c r="AG65">
-        <v>1.75</v>
-      </c>
-      <c r="AH65">
-        <v>1.95</v>
-      </c>
-      <c r="AI65">
-        <v>1.62</v>
-      </c>
-      <c r="AJ65">
-        <v>2.2</v>
-      </c>
-      <c r="AK65">
-        <v>1.42</v>
-      </c>
-      <c r="AL65">
-        <v>1.25</v>
-      </c>
-      <c r="AM65">
-        <v>1.55</v>
-      </c>
       <c r="AN65">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AS65">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="AT65">
-        <v>2.59</v>
+        <v>3.09</v>
       </c>
       <c r="AU65">
+        <v>2</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
         <v>4</v>
       </c>
-      <c r="AV65">
-        <v>2</v>
-      </c>
-      <c r="AW65">
+      <c r="AX65">
         <v>5</v>
       </c>
-      <c r="AX65">
-        <v>6</v>
-      </c>
       <c r="AY65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ65">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB65">
         <v>9</v>
       </c>
       <c r="BC65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD65">
+        <v>2.65</v>
+      </c>
+      <c r="BE65">
+        <v>6.25</v>
+      </c>
+      <c r="BF65">
         <v>1.76</v>
       </c>
-      <c r="BE65">
-        <v>6.2</v>
-      </c>
-      <c r="BF65">
-        <v>2.66</v>
-      </c>
       <c r="BG65">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="BH65">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="BI65">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BJ65">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="BK65">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="BL65">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BM65">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="BN65">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BO65">
-        <v>3.8</v>
+        <v>3.72</v>
       </c>
       <c r="BP65">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14355,7 +14358,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7453753</v>
+        <v>7453754</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14364,49 +14367,49 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45556.875</v>
+        <v>45557.58333333334</v>
       </c>
       <c r="F66">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O66" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="P66" t="s">
         <v>185</v>
       </c>
       <c r="Q66">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R66">
         <v>2.2</v>
       </c>
       <c r="S66">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="T66">
         <v>1.33</v>
@@ -14427,31 +14430,31 @@
         <v>1.11</v>
       </c>
       <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
+        <v>3.6</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>9</v>
+      </c>
+      <c r="AE66">
+        <v>1.25</v>
+      </c>
+      <c r="AF66">
         <v>3.75</v>
       </c>
-      <c r="AA66">
-        <v>3.4</v>
-      </c>
-      <c r="AB66">
-        <v>1.85</v>
-      </c>
-      <c r="AC66">
-        <v>1.01</v>
-      </c>
-      <c r="AD66">
-        <v>12</v>
-      </c>
-      <c r="AE66">
-        <v>1.22</v>
-      </c>
-      <c r="AF66">
-        <v>4</v>
-      </c>
       <c r="AG66">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH66">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AI66">
         <v>1.67</v>
@@ -14460,97 +14463,97 @@
         <v>2.1</v>
       </c>
       <c r="AK66">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AL66">
         <v>1.22</v>
       </c>
       <c r="AM66">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AN66">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO66">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66">
-        <v>1.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU66">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV66">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW66">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX66">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY66">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ66">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA66">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB66">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC66">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD66">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="BE66">
-        <v>6.25</v>
+        <v>6.15</v>
       </c>
       <c r="BF66">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="BG66">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BH66">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="BI66">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BJ66">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BK66">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="BL66">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="BM66">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="BN66">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BO66">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="BP66">
         <v>1.18</v>
@@ -14561,7 +14564,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7453754</v>
+        <v>7453752</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14570,49 +14573,49 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45556.875</v>
+        <v>45557.625</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="P67" t="s">
         <v>186</v>
       </c>
       <c r="Q67">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R67">
         <v>2.2</v>
       </c>
       <c r="S67">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T67">
         <v>1.33</v>
@@ -14633,133 +14636,133 @@
         <v>1.11</v>
       </c>
       <c r="Z67">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AA67">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB67">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AC67">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD67">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE67">
         <v>1.25</v>
       </c>
       <c r="AF67">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AG67">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AH67">
+        <v>1.95</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.2</v>
+      </c>
+      <c r="AK67">
+        <v>1.42</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.55</v>
+      </c>
+      <c r="AN67">
+        <v>1.63</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>1.3</v>
+      </c>
+      <c r="AQ67">
+        <v>2.2</v>
+      </c>
+      <c r="AR67">
+        <v>1.34</v>
+      </c>
+      <c r="AS67">
+        <v>1.45</v>
+      </c>
+      <c r="AT67">
+        <v>2.79</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>11</v>
+      </c>
+      <c r="AZ67">
+        <v>12</v>
+      </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+      <c r="BB67">
+        <v>9</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>1.76</v>
+      </c>
+      <c r="BE67">
+        <v>6.2</v>
+      </c>
+      <c r="BF67">
+        <v>2.66</v>
+      </c>
+      <c r="BG67">
+        <v>1.34</v>
+      </c>
+      <c r="BH67">
+        <v>2.69</v>
+      </c>
+      <c r="BI67">
+        <v>1.67</v>
+      </c>
+      <c r="BJ67">
+        <v>2.03</v>
+      </c>
+      <c r="BK67">
+        <v>2.08</v>
+      </c>
+      <c r="BL67">
         <v>1.57</v>
       </c>
-      <c r="AI67">
-        <v>1.67</v>
-      </c>
-      <c r="AJ67">
-        <v>2.1</v>
-      </c>
-      <c r="AK67">
-        <v>1.38</v>
-      </c>
-      <c r="AL67">
+      <c r="BM67">
+        <v>2.78</v>
+      </c>
+      <c r="BN67">
+        <v>1.32</v>
+      </c>
+      <c r="BO67">
+        <v>3.8</v>
+      </c>
+      <c r="BP67">
         <v>1.22</v>
-      </c>
-      <c r="AM67">
-        <v>1.65</v>
-      </c>
-      <c r="AN67">
-        <v>3</v>
-      </c>
-      <c r="AO67">
-        <v>0.25</v>
-      </c>
-      <c r="AP67">
-        <v>3</v>
-      </c>
-      <c r="AQ67">
-        <v>0.17</v>
-      </c>
-      <c r="AR67">
-        <v>1.91</v>
-      </c>
-      <c r="AS67">
-        <v>1.52</v>
-      </c>
-      <c r="AT67">
-        <v>3.43</v>
-      </c>
-      <c r="AU67">
-        <v>3</v>
-      </c>
-      <c r="AV67">
-        <v>5</v>
-      </c>
-      <c r="AW67">
-        <v>2</v>
-      </c>
-      <c r="AX67">
-        <v>2</v>
-      </c>
-      <c r="AY67">
-        <v>5</v>
-      </c>
-      <c r="AZ67">
-        <v>7</v>
-      </c>
-      <c r="BA67">
-        <v>4</v>
-      </c>
-      <c r="BB67">
-        <v>7</v>
-      </c>
-      <c r="BC67">
-        <v>11</v>
-      </c>
-      <c r="BD67">
-        <v>1.83</v>
-      </c>
-      <c r="BE67">
-        <v>6.15</v>
-      </c>
-      <c r="BF67">
-        <v>2.52</v>
-      </c>
-      <c r="BG67">
-        <v>1.3</v>
-      </c>
-      <c r="BH67">
-        <v>2.88</v>
-      </c>
-      <c r="BI67">
-        <v>1.57</v>
-      </c>
-      <c r="BJ67">
-        <v>2.08</v>
-      </c>
-      <c r="BK67">
-        <v>2.03</v>
-      </c>
-      <c r="BL67">
-        <v>1.67</v>
-      </c>
-      <c r="BM67">
-        <v>2.61</v>
-      </c>
-      <c r="BN67">
-        <v>1.36</v>
-      </c>
-      <c r="BO67">
-        <v>3.65</v>
-      </c>
-      <c r="BP67">
-        <v>1.18</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14776,7 +14779,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45557.875</v>
+        <v>45558.5</v>
       </c>
       <c r="F68">
         <v>9</v>
@@ -14881,43 +14884,43 @@
         <v>2.1</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AR68">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT68">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="AU68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY68">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -14982,7 +14985,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45557.875</v>
+        <v>45558.58333333334</v>
       </c>
       <c r="F69">
         <v>9</v>
@@ -15087,43 +15090,43 @@
         <v>1.2</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO69">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS69">
-        <v>2.09</v>
+        <v>2.48</v>
       </c>
       <c r="AT69">
-        <v>3.45</v>
+        <v>3.99</v>
       </c>
       <c r="AU69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY69">
         <v>6</v>
       </c>
       <c r="AZ69">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BA69">
         <v>7</v>
@@ -15188,7 +15191,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45561.875</v>
+        <v>45562.58333333334</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -15224,31 +15227,31 @@
         <v>188</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z70">
         <v>1.05</v>
@@ -15260,16 +15263,16 @@
         <v>29</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG70">
         <v>1.35</v>
@@ -15278,58 +15281,58 @@
         <v>2.94</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AJ70">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK70">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AN70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AP70">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="AS70">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="AU70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX70">
         <v>2</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA70">
         <v>11</v>
@@ -15341,43 +15344,43 @@
         <v>11</v>
       </c>
       <c r="BD70">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE70">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BF70">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="BG70">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BH70">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="BI70">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BJ70">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="BK70">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BL70">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BM70">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BN70">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="BO70">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BP70">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15385,7 +15388,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7453762</v>
+        <v>7453757</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15394,34 +15397,34 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45562.875</v>
+        <v>45563.5</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O71" t="s">
         <v>139</v>
@@ -15430,160 +15433,160 @@
         <v>189</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="AG71">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AI71">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK71">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AL71">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM71">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN71">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="AS71">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="AU71">
         <v>6</v>
       </c>
       <c r="AV71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX71">
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>5</v>
+      </c>
+      <c r="BB71">
         <v>7</v>
       </c>
-      <c r="BA71">
-        <v>3</v>
-      </c>
-      <c r="BB71">
-        <v>4</v>
-      </c>
       <c r="BC71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD71">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BE71">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="BF71">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="BG71">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BH71">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BI71">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BJ71">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="BK71">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BL71">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BM71">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BN71">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BO71">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BP71">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15591,7 +15594,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7453757</v>
+        <v>7453762</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15600,34 +15603,34 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45562.875</v>
+        <v>45563.54166666666</v>
       </c>
       <c r="F72">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O72" t="s">
         <v>140</v>
@@ -15636,160 +15639,160 @@
         <v>190</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AK72">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AL72">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM72">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN72">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AO72">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AS72">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AT72">
-        <v>3.06</v>
+        <v>3.37</v>
       </c>
       <c r="AU72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY72">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AZ72">
+        <v>14</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
         <v>7</v>
       </c>
-      <c r="BA72">
-        <v>5</v>
-      </c>
-      <c r="BB72">
-        <v>7</v>
-      </c>
-      <c r="BC72">
-        <v>12</v>
-      </c>
       <c r="BD72">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BE72">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="BF72">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BG72">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH72">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BI72">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BJ72">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BK72">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BL72">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BM72">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BN72">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BO72">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BP72">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15797,7 +15800,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7453756</v>
+        <v>7453761</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15806,196 +15809,196 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45562.875</v>
+        <v>45563.54166666666</v>
       </c>
       <c r="F73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI73">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AJ73">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AK73">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL73">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AN73">
         <v>1</v>
       </c>
       <c r="AO73">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR73">
+        <v>1.7</v>
+      </c>
+      <c r="AS73">
+        <v>1.68</v>
+      </c>
+      <c r="AT73">
+        <v>3.38</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>16</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.92</v>
+      </c>
+      <c r="BE73">
+        <v>6.4</v>
+      </c>
+      <c r="BF73">
+        <v>2.42</v>
+      </c>
+      <c r="BG73">
+        <v>1.49</v>
+      </c>
+      <c r="BH73">
+        <v>2.62</v>
+      </c>
+      <c r="BI73">
+        <v>1.88</v>
+      </c>
+      <c r="BJ73">
+        <v>1.92</v>
+      </c>
+      <c r="BK73">
+        <v>2.35</v>
+      </c>
+      <c r="BL73">
+        <v>1.6</v>
+      </c>
+      <c r="BM73">
+        <v>3.28</v>
+      </c>
+      <c r="BN73">
         <v>1.34</v>
       </c>
-      <c r="AS73">
-        <v>1.64</v>
-      </c>
-      <c r="AT73">
-        <v>2.98</v>
-      </c>
-      <c r="AU73">
-        <v>-1</v>
-      </c>
-      <c r="AV73">
-        <v>-1</v>
-      </c>
-      <c r="AW73">
-        <v>-1</v>
-      </c>
-      <c r="AX73">
-        <v>-1</v>
-      </c>
-      <c r="AY73">
-        <v>-1</v>
-      </c>
-      <c r="AZ73">
-        <v>-1</v>
-      </c>
-      <c r="BA73">
-        <v>-1</v>
-      </c>
-      <c r="BB73">
-        <v>-1</v>
-      </c>
-      <c r="BC73">
-        <v>-1</v>
-      </c>
-      <c r="BD73">
-        <v>0</v>
-      </c>
-      <c r="BE73">
-        <v>0</v>
-      </c>
-      <c r="BF73">
-        <v>0</v>
-      </c>
-      <c r="BG73">
-        <v>0</v>
-      </c>
-      <c r="BH73">
-        <v>0</v>
-      </c>
-      <c r="BI73">
-        <v>0</v>
-      </c>
-      <c r="BJ73">
-        <v>0</v>
-      </c>
-      <c r="BK73">
-        <v>0</v>
-      </c>
-      <c r="BL73">
-        <v>0</v>
-      </c>
-      <c r="BM73">
-        <v>0</v>
-      </c>
-      <c r="BN73">
-        <v>0</v>
-      </c>
       <c r="BO73">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BP73">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16003,7 +16006,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7453761</v>
+        <v>7453756</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16012,196 +16015,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45562.875</v>
+        <v>45563.625</v>
       </c>
       <c r="F74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O74" t="s">
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AG74">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH74">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI74">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ74">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK74">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AL74">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM74">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN74">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO74">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AR74">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AS74">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="AU74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW74">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY74">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AZ74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB74">
         <v>4</v>
       </c>
       <c r="BC74">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD74">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BE74">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="BF74">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="BG74">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BH74">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="BI74">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BJ74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BK74">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BL74">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BM74">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="BN74">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="BO74">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="BP74">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16218,7 +16221,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45563.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -16254,94 +16257,94 @@
         <v>87</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AG75">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI75">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK75">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL75">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM75">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN75">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR75">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS75">
-        <v>0.77</v>
+        <v>1.09</v>
       </c>
       <c r="AT75">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16350,16 +16353,16 @@
         <v>5</v>
       </c>
       <c r="AW75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX75">
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -16371,43 +16374,43 @@
         <v>9</v>
       </c>
       <c r="BD75">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE75">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF75">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BG75">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH75">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BI75">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BJ75">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BK75">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BL75">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BM75">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BN75">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BO75">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BP75">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16415,7 +16418,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7453755</v>
+        <v>7453759</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16424,40 +16427,40 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45563.875</v>
+        <v>45564.5</v>
       </c>
       <c r="F76">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O76" t="s">
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16529,49 +16532,49 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO76">
-        <v>0.2</v>
+        <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="AQ76">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="AR76">
         <v>0.96</v>
       </c>
       <c r="AS76">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AT76">
-        <v>2.48</v>
+        <v>2.39</v>
       </c>
       <c r="AU76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW76">
         <v>6</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY76">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC76">
         <v>7</v>
@@ -16621,7 +16624,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7453759</v>
+        <v>7453755</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16630,196 +16633,402 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45563.875</v>
+        <v>45564.58333333334</v>
       </c>
       <c r="F77">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE77">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG77">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AI77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK77">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AL77">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM77">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AN77">
-        <v>1.8</v>
+        <v>0.11</v>
       </c>
       <c r="AO77">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AT77">
-        <v>2.74</v>
+        <v>2.41</v>
       </c>
       <c r="AU77">
         <v>5</v>
       </c>
       <c r="AV77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW77">
+        <v>9</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>17</v>
+      </c>
+      <c r="AZ77">
+        <v>8</v>
+      </c>
+      <c r="BA77">
+        <v>1</v>
+      </c>
+      <c r="BB77">
         <v>6</v>
-      </c>
-      <c r="AX77">
-        <v>4</v>
-      </c>
-      <c r="AY77">
-        <v>11</v>
-      </c>
-      <c r="AZ77">
-        <v>7</v>
-      </c>
-      <c r="BA77">
-        <v>4</v>
-      </c>
-      <c r="BB77">
-        <v>3</v>
       </c>
       <c r="BC77">
         <v>7</v>
       </c>
       <c r="BD77">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="BE77">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="BF77">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BG77">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BH77">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BI77">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BJ77">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BK77">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BL77">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="BM77">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="BN77">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BO77">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="BP77">
-        <v>0</v>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7453698</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45566.875</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>87</v>
+      </c>
+      <c r="P78" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q78">
+        <v>2.38</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>4.75</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.33</v>
+      </c>
+      <c r="X78">
+        <v>7.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>1.47</v>
+      </c>
+      <c r="AA78">
+        <v>4</v>
+      </c>
+      <c r="AB78">
+        <v>5.3</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>1.29</v>
+      </c>
+      <c r="AF78">
+        <v>3.3</v>
+      </c>
+      <c r="AG78">
+        <v>1.6</v>
+      </c>
+      <c r="AH78">
+        <v>2.2</v>
+      </c>
+      <c r="AI78">
+        <v>1.85</v>
+      </c>
+      <c r="AJ78">
+        <v>1.91</v>
+      </c>
+      <c r="AK78">
+        <v>1.17</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.91</v>
+      </c>
+      <c r="AN78">
+        <v>1.33</v>
+      </c>
+      <c r="AO78">
+        <v>1.22</v>
+      </c>
+      <c r="AP78">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.4</v>
+      </c>
+      <c r="AR78">
+        <v>1.77</v>
+      </c>
+      <c r="AS78">
+        <v>1.65</v>
+      </c>
+      <c r="AT78">
+        <v>3.42</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>12</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>5</v>
+      </c>
+      <c r="BD78">
+        <v>1.37</v>
+      </c>
+      <c r="BE78">
+        <v>9</v>
+      </c>
+      <c r="BF78">
+        <v>3.83</v>
+      </c>
+      <c r="BG78">
+        <v>1.22</v>
+      </c>
+      <c r="BH78">
+        <v>3.35</v>
+      </c>
+      <c r="BI78">
+        <v>1.43</v>
+      </c>
+      <c r="BJ78">
+        <v>2.39</v>
+      </c>
+      <c r="BK78">
+        <v>1.85</v>
+      </c>
+      <c r="BL78">
+        <v>1.95</v>
+      </c>
+      <c r="BM78">
+        <v>2.24</v>
+      </c>
+      <c r="BN78">
+        <v>1.49</v>
+      </c>
+      <c r="BO78">
+        <v>2.97</v>
+      </c>
+      <c r="BP78">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['63', '90+2']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
   <si>
     <t>['3', '15', '45+3']</t>
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1219,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1422,7 +1425,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1834,7 +1837,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1915,7 +1918,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ5">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2121,7 +2124,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ6">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2246,7 +2249,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2452,7 +2455,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2864,7 +2867,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3070,7 +3073,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3276,7 +3279,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3482,7 +3485,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3766,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ14">
         <v>1.44</v>
@@ -3972,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15">
         <v>1.1</v>
@@ -4100,7 +4103,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4387,7 +4390,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4718,7 +4721,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5623,7 +5626,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5748,7 +5751,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5826,7 +5829,7 @@
         <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ24">
         <v>1.7</v>
@@ -6032,7 +6035,7 @@
         <v>0.67</v>
       </c>
       <c r="AP25">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25">
         <v>0.9</v>
@@ -6366,7 +6369,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6572,7 +6575,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6984,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7396,7 +7399,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7602,7 +7605,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7683,7 +7686,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -7808,7 +7811,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8014,7 +8017,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8632,7 +8635,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8838,7 +8841,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9044,7 +9047,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9122,7 +9125,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ40">
         <v>1.3</v>
@@ -9250,7 +9253,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9456,7 +9459,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9662,7 +9665,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9740,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ43">
         <v>1.3</v>
@@ -9868,7 +9871,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10074,7 +10077,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10155,7 +10158,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR45">
         <v>1.31</v>
@@ -10692,7 +10695,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10773,7 +10776,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11104,7 +11107,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11310,7 +11313,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12134,7 +12137,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12546,7 +12549,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12752,7 +12755,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12958,7 +12961,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13036,7 +13039,7 @@
         <v>2.2</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13164,7 +13167,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13245,7 +13248,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ60">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR60">
         <v>0.88</v>
@@ -13370,7 +13373,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13576,7 +13579,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13782,7 +13785,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13988,7 +13991,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14194,7 +14197,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14400,7 +14403,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14478,7 +14481,7 @@
         <v>1.14</v>
       </c>
       <c r="AP66">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ66">
         <v>0.89</v>
@@ -14606,7 +14609,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14687,7 +14690,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ67">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15018,7 +15021,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15224,7 +15227,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15430,7 +15433,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15508,7 +15511,7 @@
         <v>0.89</v>
       </c>
       <c r="AP71">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71">
         <v>0.8</v>
@@ -15636,7 +15639,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16048,7 +16051,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16129,7 +16132,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR74">
         <v>1.7</v>
@@ -16460,7 +16463,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16872,7 +16875,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17029,6 +17032,212 @@
       </c>
       <c r="BP78">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7453769</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q79">
+        <v>2.85</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>3.6</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>2.7</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>7.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.2</v>
+      </c>
+      <c r="AA79">
+        <v>3.25</v>
+      </c>
+      <c r="AB79">
+        <v>2.95</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>10</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>3.8</v>
+      </c>
+      <c r="AG79">
+        <v>1.85</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.67</v>
+      </c>
+      <c r="AJ79">
+        <v>2.15</v>
+      </c>
+      <c r="AK79">
+        <v>1.36</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.6</v>
+      </c>
+      <c r="AN79">
+        <v>1.78</v>
+      </c>
+      <c r="AO79">
+        <v>2.2</v>
+      </c>
+      <c r="AP79">
+        <v>1.7</v>
+      </c>
+      <c r="AQ79">
+        <v>2.09</v>
+      </c>
+      <c r="AR79">
+        <v>1.58</v>
+      </c>
+      <c r="AS79">
+        <v>1.43</v>
+      </c>
+      <c r="AT79">
+        <v>3.01</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>7</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>10</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>1.88</v>
+      </c>
+      <c r="BL79">
+        <v>1.92</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['39', '52', '61', '89']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -599,6 +602,12 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['2', '58']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1228,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1297,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ2">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1425,7 +1434,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1506,7 +1515,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1837,7 +1846,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1915,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>2.09</v>
@@ -2121,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ6">
         <v>1.7</v>
@@ -2249,7 +2258,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2455,7 +2464,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2533,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -2867,7 +2876,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2948,7 +2957,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR10">
         <v>0.52</v>
@@ -3073,7 +3082,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3151,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
         <v>0.9</v>
@@ -3279,7 +3288,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3360,7 +3369,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3485,7 +3494,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3566,7 +3575,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ13">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR13">
         <v>1.49</v>
@@ -3978,7 +3987,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ15">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.49</v>
@@ -4103,7 +4112,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4593,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.4</v>
@@ -4721,7 +4730,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4799,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>2.78</v>
@@ -5211,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ21">
         <v>1.2</v>
@@ -5417,10 +5426,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5623,7 +5632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ23">
         <v>1.7</v>
@@ -5751,7 +5760,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5832,7 +5841,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ24">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
         <v>1.16</v>
@@ -6244,7 +6253,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ26">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -6369,7 +6378,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6447,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.9</v>
@@ -6575,7 +6584,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6862,7 +6871,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ29">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR29">
         <v>0.71</v>
@@ -6987,7 +6996,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7274,7 +7283,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7399,7 +7408,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7477,7 +7486,7 @@
         <v>2.5</v>
       </c>
       <c r="AP32">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ32">
         <v>2.78</v>
@@ -7605,7 +7614,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7811,7 +7820,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7892,7 +7901,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8017,7 +8026,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8095,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.4</v>
@@ -8507,7 +8516,7 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8635,7 +8644,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8713,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -8841,7 +8850,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8919,10 +8928,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR39">
         <v>1.19</v>
@@ -9047,7 +9056,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9128,7 +9137,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ40">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
         <v>1.77</v>
@@ -9253,7 +9262,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9331,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9459,7 +9468,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9665,7 +9674,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9746,7 +9755,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ43">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -9871,7 +9880,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10077,7 +10086,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10361,10 +10370,10 @@
         <v>1.17</v>
       </c>
       <c r="AP46">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10695,7 +10704,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10979,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ49">
         <v>0.89</v>
@@ -11107,7 +11116,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11188,7 +11197,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11313,7 +11322,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11391,7 +11400,7 @@
         <v>2.6</v>
       </c>
       <c r="AP51">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51">
         <v>2.78</v>
@@ -11597,7 +11606,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12012,7 +12021,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR54">
         <v>1.8</v>
@@ -12137,7 +12146,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12215,10 +12224,10 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR55">
         <v>1.03</v>
@@ -12549,7 +12558,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12630,7 +12639,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR57">
         <v>1.66</v>
@@ -12755,7 +12764,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12833,7 +12842,7 @@
         <v>1.17</v>
       </c>
       <c r="AP58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.44</v>
@@ -12961,7 +12970,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13042,7 +13051,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13167,7 +13176,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13373,7 +13382,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13454,7 +13463,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR61">
         <v>1.41</v>
@@ -13579,7 +13588,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13657,7 +13666,7 @@
         <v>0.13</v>
       </c>
       <c r="AP62">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
         <v>0.4</v>
@@ -13785,7 +13794,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13991,7 +14000,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14072,7 +14081,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>0.9399999999999999</v>
@@ -14197,7 +14206,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14403,7 +14412,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14609,7 +14618,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14687,7 +14696,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ67">
         <v>2.09</v>
@@ -14893,10 +14902,10 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.69</v>
@@ -15021,7 +15030,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15099,7 +15108,7 @@
         <v>2.71</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
         <v>2.78</v>
@@ -15227,7 +15236,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15308,7 +15317,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>2.37</v>
@@ -15433,7 +15442,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15639,7 +15648,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15717,7 +15726,7 @@
         <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -15926,7 +15935,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR73">
         <v>1.7</v>
@@ -16051,7 +16060,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16335,7 +16344,7 @@
         <v>0.89</v>
       </c>
       <c r="AP75">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.9</v>
@@ -16463,7 +16472,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16541,10 +16550,10 @@
         <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR76">
         <v>0.96</v>
@@ -16875,7 +16884,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17081,7 +17090,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17177,19 +17186,19 @@
         <v>6</v>
       </c>
       <c r="AV79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW79">
         <v>4</v>
       </c>
       <c r="AX79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY79">
         <v>10</v>
       </c>
       <c r="AZ79">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17237,6 +17246,624 @@
         <v>0</v>
       </c>
       <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7453764</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>125</v>
+      </c>
+      <c r="P80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q80">
+        <v>3.25</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>3.1</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>1.36</v>
+      </c>
+      <c r="X80">
+        <v>7</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>2.6</v>
+      </c>
+      <c r="AA80">
+        <v>3.2</v>
+      </c>
+      <c r="AB80">
+        <v>2.4</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>1.95</v>
+      </c>
+      <c r="AH80">
+        <v>1.75</v>
+      </c>
+      <c r="AI80">
+        <v>1.8</v>
+      </c>
+      <c r="AJ80">
+        <v>1.91</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1.3</v>
+      </c>
+      <c r="AO80">
+        <v>1.7</v>
+      </c>
+      <c r="AP80">
+        <v>1.27</v>
+      </c>
+      <c r="AQ80">
+        <v>1.64</v>
+      </c>
+      <c r="AR80">
+        <v>1.63</v>
+      </c>
+      <c r="AS80">
+        <v>1.51</v>
+      </c>
+      <c r="AT80">
+        <v>3.14</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>10</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7453767</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>135</v>
+      </c>
+      <c r="P81" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>2.6</v>
+      </c>
+      <c r="AA81">
+        <v>3.25</v>
+      </c>
+      <c r="AB81">
+        <v>2.6</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>2.02</v>
+      </c>
+      <c r="AH81">
+        <v>1.71</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1.3</v>
+      </c>
+      <c r="AO81">
+        <v>1.9</v>
+      </c>
+      <c r="AP81">
+        <v>1.18</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.27</v>
+      </c>
+      <c r="AS81">
+        <v>1.02</v>
+      </c>
+      <c r="AT81">
+        <v>2.29</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>5</v>
+      </c>
+      <c r="AZ81">
+        <v>5</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>6</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7453766</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>146</v>
+      </c>
+      <c r="P82" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q82">
+        <v>1.73</v>
+      </c>
+      <c r="R82">
+        <v>2.5</v>
+      </c>
+      <c r="S82">
+        <v>8.5</v>
+      </c>
+      <c r="T82">
+        <v>1.3</v>
+      </c>
+      <c r="U82">
+        <v>3.4</v>
+      </c>
+      <c r="V82">
+        <v>2.5</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>5.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.13</v>
+      </c>
+      <c r="Z82">
+        <v>1.29</v>
+      </c>
+      <c r="AA82">
+        <v>6</v>
+      </c>
+      <c r="AB82">
+        <v>7.5</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>1.65</v>
+      </c>
+      <c r="AH82">
+        <v>2.1</v>
+      </c>
+      <c r="AI82">
+        <v>2.2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.62</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1.75</v>
+      </c>
+      <c r="AO82">
+        <v>1.1</v>
+      </c>
+      <c r="AP82">
+        <v>1.89</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1.38</v>
+      </c>
+      <c r="AS82">
+        <v>1.19</v>
+      </c>
+      <c r="AT82">
+        <v>2.57</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>13</v>
+      </c>
+      <c r="AZ82">
+        <v>7</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>7</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['39', '52', '61', '89']</t>
   </si>
   <si>
+    <t>['49', '90+2']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['69', '74']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -608,6 +617,15 @@
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['35', '65', '90+2']</t>
+  </si>
+  <si>
+    <t>['6', '39', '59', '73']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1306,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1434,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1512,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1718,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1846,7 +1864,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1924,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2130,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2258,7 +2276,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2336,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2464,7 +2482,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2542,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2748,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2876,7 +2894,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2954,19 +2972,19 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR10">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>2.19</v>
+        <v>1.67</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -3082,7 +3100,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3154,25 +3172,25 @@
         <v>1.6</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3288,7 +3306,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3366,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
       </c>
       <c r="AS12">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -3494,7 +3512,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3569,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3775,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3978,25 +3996,25 @@
         <v>2.01</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4112,7 +4130,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4184,25 +4202,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
-        <v>0.74</v>
+        <v>1.02</v>
       </c>
       <c r="AS16">
         <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4396,19 +4414,19 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
       </c>
       <c r="AS17">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AT17">
-        <v>2.82</v>
+        <v>3.08</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4596,25 +4614,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="AR18">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="AS18">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="AT18">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -4730,7 +4748,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4805,22 +4823,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AR19">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AS19">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>4.41</v>
+        <v>1.24</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5008,25 +5026,25 @@
         <v>2.4</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="AR20">
+        <v>1.78</v>
+      </c>
+      <c r="AS20">
         <v>1.49</v>
       </c>
-      <c r="AS20">
-        <v>1.22</v>
-      </c>
       <c r="AT20">
-        <v>2.71</v>
+        <v>3.27</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5214,25 +5232,25 @@
         <v>1.5</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR21">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AS21">
         <v>1.59</v>
       </c>
       <c r="AT21">
-        <v>3.31</v>
+        <v>1.59</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5420,25 +5438,25 @@
         <v>2.88</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
-        <v>2.96</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5629,22 +5647,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
       </c>
       <c r="AS23">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>3.44</v>
+        <v>1.76</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5760,7 +5778,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5832,25 +5850,25 @@
         <v>1.35</v>
       </c>
       <c r="AN24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>1.16</v>
+        <v>0.98</v>
       </c>
       <c r="AS24">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AT24">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6038,25 +6056,25 @@
         <v>1.7</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>0.97</v>
+        <v>0.46</v>
       </c>
       <c r="AT25">
-        <v>2.55</v>
+        <v>2.14</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -6244,25 +6262,25 @@
         <v>1.5</v>
       </c>
       <c r="AN26">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
-        <v>1.22</v>
+        <v>0.95</v>
       </c>
       <c r="AS26">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>2.85</v>
+        <v>0.95</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6378,7 +6396,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6450,25 +6468,25 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AS27">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="AT27">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6584,7 +6602,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6656,25 +6674,25 @@
         <v>5.5</v>
       </c>
       <c r="AN28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="AS28">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>4.6</v>
+        <v>2.97</v>
       </c>
       <c r="AU28">
         <v>11</v>
@@ -6865,22 +6883,22 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="AS29">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT29">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6996,7 +7014,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7068,25 +7086,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.8</v>
+      </c>
+      <c r="AQ30">
         <v>1.5</v>
       </c>
-      <c r="AO30">
-        <v>1.33</v>
-      </c>
-      <c r="AP30">
-        <v>1.2</v>
-      </c>
-      <c r="AQ30">
-        <v>1.44</v>
-      </c>
       <c r="AR30">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="AT30">
-        <v>3.43</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7274,7 +7292,7 @@
         <v>1.02</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO31">
         <v>3</v>
@@ -7283,16 +7301,16 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>2.74</v>
+        <v>1.54</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7408,7 +7426,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7480,25 +7498,25 @@
         <v>1.07</v>
       </c>
       <c r="AN32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AR32">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="AT32">
-        <v>4.07</v>
+        <v>3.18</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7614,7 +7632,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7686,25 +7704,25 @@
         <v>2.9</v>
       </c>
       <c r="AN33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -7820,7 +7838,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7892,25 +7910,25 @@
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO34">
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR34">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>0.3</v>
       </c>
       <c r="AT34">
-        <v>2.71</v>
+        <v>2.19</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8026,7 +8044,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8098,25 +8116,25 @@
         <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="AR35">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AS35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AT35">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8307,22 +8325,22 @@
         <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="AR36">
-        <v>0.93</v>
+        <v>1.22</v>
       </c>
       <c r="AS36">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8510,25 +8528,25 @@
         <v>1.62</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO37">
+        <v>0.5</v>
+      </c>
+      <c r="AP37">
+        <v>1.4</v>
+      </c>
+      <c r="AQ37">
         <v>0.67</v>
       </c>
-      <c r="AP37">
-        <v>1.18</v>
-      </c>
-      <c r="AQ37">
-        <v>0.8</v>
-      </c>
       <c r="AR37">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AS37">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT37">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8644,7 +8662,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8716,25 +8734,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AS38">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AT38">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="AU38">
         <v>11</v>
@@ -8850,7 +8868,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8922,25 +8940,25 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AT39">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9056,7 +9074,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9128,25 +9146,25 @@
         <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO40">
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ40">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AS40">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT40">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="AU40">
         <v>-1</v>
@@ -9262,7 +9280,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9334,25 +9352,25 @@
         <v>1.48</v>
       </c>
       <c r="AN41">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>0.93</v>
       </c>
       <c r="AT41">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9468,7 +9486,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9540,25 +9558,25 @@
         <v>1.38</v>
       </c>
       <c r="AN42">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="AS42">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9674,7 +9692,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9746,25 +9764,25 @@
         <v>1.62</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AS43">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AT43">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9880,7 +9898,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9952,25 +9970,25 @@
         <v>2.15</v>
       </c>
       <c r="AN44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="AS44">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="AT44">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10086,7 +10104,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10161,22 +10179,22 @@
         <v>1</v>
       </c>
       <c r="AO45">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP45">
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AS45">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="AT45">
-        <v>3.08</v>
+        <v>2.71</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10364,25 +10382,25 @@
         <v>2.45</v>
       </c>
       <c r="AN46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
-        <v>1.37</v>
+        <v>0.99</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT46">
-        <v>2.56</v>
+        <v>2.11</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10570,25 +10588,25 @@
         <v>2.25</v>
       </c>
       <c r="AN47">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
+        <v>0.33</v>
+      </c>
+      <c r="AP47">
+        <v>1.83</v>
+      </c>
+      <c r="AQ47">
         <v>0.17</v>
       </c>
-      <c r="AP47">
-        <v>1.4</v>
-      </c>
-      <c r="AQ47">
-        <v>0.4</v>
-      </c>
       <c r="AR47">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AS47">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>2.45</v>
+        <v>2.82</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10704,7 +10722,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10779,22 +10797,22 @@
         <v>1.33</v>
       </c>
       <c r="AO48">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AR48">
-        <v>0.9399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AT48">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -10982,25 +11000,25 @@
         <v>1.67</v>
       </c>
       <c r="AN49">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="AR49">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS49">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AT49">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11116,7 +11134,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11188,25 +11206,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
         <v>1.67</v>
       </c>
-      <c r="AP50">
-        <v>1.44</v>
-      </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR50">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS50">
-        <v>1.1</v>
+        <v>0.83</v>
       </c>
       <c r="AT50">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU50">
         <v>10</v>
@@ -11322,7 +11340,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11394,25 +11412,25 @@
         <v>1.05</v>
       </c>
       <c r="AN51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO51">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AR51">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS51">
-        <v>2.51</v>
+        <v>2.12</v>
       </c>
       <c r="AT51">
-        <v>4.38</v>
+        <v>4.05</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11600,25 +11618,25 @@
         <v>2.4</v>
       </c>
       <c r="AN52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR52">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AS52">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AT52">
-        <v>3.03</v>
+        <v>3.09</v>
       </c>
       <c r="AU52">
         <v>6</v>
@@ -11806,25 +11824,25 @@
         <v>1.51</v>
       </c>
       <c r="AN53">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1.75</v>
+      </c>
+      <c r="AQ53">
+        <v>0.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.1</v>
+      </c>
+      <c r="AS53">
         <v>1.33</v>
       </c>
-      <c r="AP53">
-        <v>0.89</v>
-      </c>
-      <c r="AQ53">
-        <v>0.8</v>
-      </c>
-      <c r="AR53">
-        <v>1.38</v>
-      </c>
-      <c r="AS53">
-        <v>1.34</v>
-      </c>
       <c r="AT53">
-        <v>2.72</v>
+        <v>2.43</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12012,25 +12030,25 @@
         <v>1.97</v>
       </c>
       <c r="AN54">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AO54">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="AS54">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12146,7 +12164,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12218,25 +12236,25 @@
         <v>0</v>
       </c>
       <c r="AN55">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AR55">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AS55">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AT55">
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="AU55">
         <v>2</v>
@@ -12424,25 +12442,25 @@
         <v>5</v>
       </c>
       <c r="AN56">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO56">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>2.43</v>
+        <v>2.77</v>
       </c>
       <c r="AS56">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT56">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
       <c r="AU56">
         <v>11</v>
@@ -12558,7 +12576,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12630,25 +12648,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AO57">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AT57">
-        <v>3.04</v>
+        <v>3.5</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -12764,7 +12782,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12839,22 +12857,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
+        <v>1.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.22</v>
+      </c>
+      <c r="AS58">
         <v>1.44</v>
       </c>
-      <c r="AR58">
-        <v>1.24</v>
-      </c>
-      <c r="AS58">
-        <v>1.75</v>
-      </c>
       <c r="AT58">
-        <v>2.99</v>
+        <v>2.66</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -12970,7 +12988,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13042,25 +13060,25 @@
         <v>1.2</v>
       </c>
       <c r="AN59">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR59">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AS59">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13176,7 +13194,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13248,25 +13266,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AO60">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ60">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="AS60">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13382,7 +13400,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13454,7 +13472,7 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO61">
         <v>1</v>
@@ -13463,16 +13481,16 @@
         <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS61">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AT61">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13588,7 +13606,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13660,25 +13678,25 @@
         <v>4.3</v>
       </c>
       <c r="AN62">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AO62">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="AR62">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="AS62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AT62">
-        <v>2.39</v>
+        <v>2.13</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13794,7 +13812,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13869,22 +13887,22 @@
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR63">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AS63">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>3.47</v>
+        <v>3.16</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -14000,7 +14018,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14075,22 +14093,22 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR64">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="AT64">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14206,7 +14224,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14278,25 +14296,25 @@
         <v>1.25</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO65">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AP65">
         <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS65">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="AT65">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14412,7 +14430,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14484,25 +14502,25 @@
         <v>1.65</v>
       </c>
       <c r="AN66">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="AO66">
-        <v>1.14</v>
+        <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ66">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="AR66">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AS66">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AT66">
-        <v>3.1</v>
+        <v>3.43</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14618,7 +14636,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14690,25 +14708,25 @@
         <v>1.55</v>
       </c>
       <c r="AN67">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="AO67">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AR67">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AT67">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14896,25 +14914,25 @@
         <v>2.1</v>
       </c>
       <c r="AN68">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP68">
+        <v>1.33</v>
+      </c>
+      <c r="AQ68">
+        <v>0.6</v>
+      </c>
+      <c r="AR68">
+        <v>1.54</v>
+      </c>
+      <c r="AS68">
         <v>1.27</v>
       </c>
-      <c r="AQ68">
-        <v>1</v>
-      </c>
-      <c r="AR68">
-        <v>1.69</v>
-      </c>
-      <c r="AS68">
-        <v>1.24</v>
-      </c>
       <c r="AT68">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15030,7 +15048,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15102,25 +15120,25 @@
         <v>1.2</v>
       </c>
       <c r="AN69">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AR69">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
-        <v>2.48</v>
+        <v>2.09</v>
       </c>
       <c r="AT69">
-        <v>3.99</v>
+        <v>3.45</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15236,7 +15254,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15308,25 +15326,25 @@
         <v>6.25</v>
       </c>
       <c r="AN70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AO70">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>2.37</v>
+        <v>2.77</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AT70">
-        <v>3.7</v>
+        <v>4.12</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15442,7 +15460,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15514,25 +15532,25 @@
         <v>1.85</v>
       </c>
       <c r="AN71">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
+        <v>1.63</v>
+      </c>
+      <c r="AS71">
         <v>1.43</v>
       </c>
-      <c r="AS71">
-        <v>1.33</v>
-      </c>
       <c r="AT71">
-        <v>2.76</v>
+        <v>3.06</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -15648,7 +15666,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15720,25 +15738,25 @@
         <v>1.55</v>
       </c>
       <c r="AN72">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="AO72">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
+        <v>1.46</v>
+      </c>
+      <c r="AS72">
         <v>1.55</v>
       </c>
-      <c r="AS72">
-        <v>1.82</v>
-      </c>
       <c r="AT72">
-        <v>3.37</v>
+        <v>3.01</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -15926,25 +15944,25 @@
         <v>1.42</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO73">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AS73">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
-        <v>3.38</v>
+        <v>3.74</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16060,7 +16078,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16132,25 +16150,25 @@
         <v>2.25</v>
       </c>
       <c r="AN74">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ74">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AS74">
         <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>3.34</v>
+        <v>2.98</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16338,25 +16356,25 @@
         <v>1.77</v>
       </c>
       <c r="AN75">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AO75">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS75">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="AT75">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16472,7 +16490,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16544,25 +16562,25 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AO76">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR76">
-        <v>0.96</v>
+        <v>1.16</v>
       </c>
       <c r="AS76">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>2.39</v>
+        <v>2.74</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16750,25 +16768,25 @@
         <v>1.33</v>
       </c>
       <c r="AN77">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ77">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="AR77">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AS77">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AT77">
-        <v>2.41</v>
+        <v>2.54</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -16851,7 +16869,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45566.875</v>
+        <v>45567.58333333334</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -16884,7 +16902,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -16956,31 +16974,31 @@
         <v>1.91</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AS78">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="AT78">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
         <v>6</v>
-      </c>
-      <c r="AV78">
-        <v>5</v>
       </c>
       <c r="AW78">
         <v>12</v>
@@ -16989,10 +17007,10 @@
         <v>6</v>
       </c>
       <c r="AY78">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA78">
         <v>3</v>
@@ -17057,10 +17075,10 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45568.875</v>
+        <v>45569.52083333334</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
         <v>81</v>
@@ -17090,7 +17108,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17162,43 +17180,43 @@
         <v>1.6</v>
       </c>
       <c r="AN79">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="AO79">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AR79">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AS79">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT79">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="AU79">
         <v>6</v>
       </c>
       <c r="AV79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17263,7 +17281,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45569.875</v>
+        <v>45570.375</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -17368,43 +17386,43 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO80">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
+        <v>1.56</v>
+      </c>
+      <c r="AS80">
         <v>1.63</v>
       </c>
-      <c r="AS80">
-        <v>1.51</v>
-      </c>
       <c r="AT80">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="AU80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX80">
         <v>6</v>
       </c>
       <c r="AY80">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ80">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA80">
         <v>5</v>
@@ -17502,7 +17520,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17574,25 +17592,25 @@
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AO81">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR81">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS81">
-        <v>1.02</v>
+        <v>0.72</v>
       </c>
       <c r="AT81">
-        <v>2.29</v>
+        <v>2.04</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -17678,7 +17696,7 @@
         <v>45570.5625</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -17708,7 +17726,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17780,25 +17798,25 @@
         <v>0</v>
       </c>
       <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>0.75</v>
+      </c>
+      <c r="AP82">
         <v>1.75</v>
       </c>
-      <c r="AO82">
-        <v>1.1</v>
-      </c>
-      <c r="AP82">
-        <v>1.89</v>
-      </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR82">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AS82">
         <v>1.19</v>
       </c>
       <c r="AT82">
-        <v>2.57</v>
+        <v>2.43</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -17865,6 +17883,830 @@
       </c>
       <c r="BP82">
         <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7453765</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45571.375</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>147</v>
+      </c>
+      <c r="P83" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q83">
+        <v>3.1</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>3.4</v>
+      </c>
+      <c r="T83">
+        <v>1.5</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>3.4</v>
+      </c>
+      <c r="W83">
+        <v>1.3</v>
+      </c>
+      <c r="X83">
+        <v>8</v>
+      </c>
+      <c r="Y83">
+        <v>1.06</v>
+      </c>
+      <c r="Z83">
+        <v>2.49</v>
+      </c>
+      <c r="AA83">
+        <v>3.13</v>
+      </c>
+      <c r="AB83">
+        <v>2.86</v>
+      </c>
+      <c r="AC83">
+        <v>1.08</v>
+      </c>
+      <c r="AD83">
+        <v>7.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.42</v>
+      </c>
+      <c r="AF83">
+        <v>2.75</v>
+      </c>
+      <c r="AG83">
+        <v>2.3</v>
+      </c>
+      <c r="AH83">
+        <v>1.55</v>
+      </c>
+      <c r="AI83">
+        <v>1.91</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.62</v>
+      </c>
+      <c r="AL83">
+        <v>1.28</v>
+      </c>
+      <c r="AM83">
+        <v>1.3</v>
+      </c>
+      <c r="AN83">
+        <v>0.8</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>1.17</v>
+      </c>
+      <c r="AQ83">
+        <v>0.6</v>
+      </c>
+      <c r="AR83">
+        <v>1.34</v>
+      </c>
+      <c r="AS83">
+        <v>1.37</v>
+      </c>
+      <c r="AT83">
+        <v>2.71</v>
+      </c>
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>9</v>
+      </c>
+      <c r="AZ83">
+        <v>14</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>7</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
+        <v>2.18</v>
+      </c>
+      <c r="BE83">
+        <v>6.1</v>
+      </c>
+      <c r="BF83">
+        <v>2.02</v>
+      </c>
+      <c r="BG83">
+        <v>1.33</v>
+      </c>
+      <c r="BH83">
+        <v>2.73</v>
+      </c>
+      <c r="BI83">
+        <v>1.65</v>
+      </c>
+      <c r="BJ83">
+        <v>2.05</v>
+      </c>
+      <c r="BK83">
+        <v>2.05</v>
+      </c>
+      <c r="BL83">
+        <v>1.7</v>
+      </c>
+      <c r="BM83">
+        <v>2.76</v>
+      </c>
+      <c r="BN83">
+        <v>1.45</v>
+      </c>
+      <c r="BO83">
+        <v>3.95</v>
+      </c>
+      <c r="BP83">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7453768</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45571.58333333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>148</v>
+      </c>
+      <c r="P84" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q84">
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <v>2.75</v>
+      </c>
+      <c r="S84">
+        <v>1.62</v>
+      </c>
+      <c r="T84">
+        <v>1.22</v>
+      </c>
+      <c r="U84">
+        <v>4</v>
+      </c>
+      <c r="V84">
+        <v>2.1</v>
+      </c>
+      <c r="W84">
+        <v>1.67</v>
+      </c>
+      <c r="X84">
+        <v>4.33</v>
+      </c>
+      <c r="Y84">
+        <v>1.2</v>
+      </c>
+      <c r="Z84">
+        <v>15.5</v>
+      </c>
+      <c r="AA84">
+        <v>7.5</v>
+      </c>
+      <c r="AB84">
+        <v>1.12</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>17</v>
+      </c>
+      <c r="AE84">
+        <v>1.16</v>
+      </c>
+      <c r="AF84">
+        <v>4.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.4</v>
+      </c>
+      <c r="AH84">
+        <v>2.73</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.83</v>
+      </c>
+      <c r="AK84">
+        <v>6</v>
+      </c>
+      <c r="AL84">
+        <v>1.06</v>
+      </c>
+      <c r="AM84">
+        <v>1.01</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>3</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>3</v>
+      </c>
+      <c r="AR84">
+        <v>1.2</v>
+      </c>
+      <c r="AS84">
+        <v>1.97</v>
+      </c>
+      <c r="AT84">
+        <v>3.17</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>13</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>10</v>
+      </c>
+      <c r="AY84">
+        <v>11</v>
+      </c>
+      <c r="AZ84">
+        <v>29</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>12</v>
+      </c>
+      <c r="BC84">
+        <v>15</v>
+      </c>
+      <c r="BD84">
+        <v>16.5</v>
+      </c>
+      <c r="BE84">
+        <v>16.25</v>
+      </c>
+      <c r="BF84">
+        <v>1</v>
+      </c>
+      <c r="BG84">
+        <v>1.37</v>
+      </c>
+      <c r="BH84">
+        <v>2.75</v>
+      </c>
+      <c r="BI84">
+        <v>1.7</v>
+      </c>
+      <c r="BJ84">
+        <v>2.05</v>
+      </c>
+      <c r="BK84">
+        <v>2.05</v>
+      </c>
+      <c r="BL84">
+        <v>1.65</v>
+      </c>
+      <c r="BM84">
+        <v>2.65</v>
+      </c>
+      <c r="BN84">
+        <v>1.35</v>
+      </c>
+      <c r="BO84">
+        <v>3.5</v>
+      </c>
+      <c r="BP84">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7453770</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45571.58333333334</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s">
+        <v>84</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>87</v>
+      </c>
+      <c r="P85" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q85">
+        <v>3.75</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>2.75</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>1.36</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>3.3</v>
+      </c>
+      <c r="AA85">
+        <v>3.1</v>
+      </c>
+      <c r="AB85">
+        <v>1.98</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>7.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.42</v>
+      </c>
+      <c r="AF85">
+        <v>2.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.96</v>
+      </c>
+      <c r="AH85">
+        <v>1.76</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.91</v>
+      </c>
+      <c r="AK85">
+        <v>1.83</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>1.22</v>
+      </c>
+      <c r="AN85">
+        <v>2.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.6</v>
+      </c>
+      <c r="AP85">
+        <v>1.75</v>
+      </c>
+      <c r="AQ85">
+        <v>1.83</v>
+      </c>
+      <c r="AR85">
+        <v>1.12</v>
+      </c>
+      <c r="AS85">
+        <v>1.92</v>
+      </c>
+      <c r="AT85">
+        <v>3.04</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>9</v>
+      </c>
+      <c r="AW85">
+        <v>1</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>17</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>3.02</v>
+      </c>
+      <c r="BE85">
+        <v>6.5</v>
+      </c>
+      <c r="BF85">
+        <v>1.58</v>
+      </c>
+      <c r="BG85">
+        <v>1.35</v>
+      </c>
+      <c r="BH85">
+        <v>2.8</v>
+      </c>
+      <c r="BI85">
+        <v>1.54</v>
+      </c>
+      <c r="BJ85">
+        <v>2.14</v>
+      </c>
+      <c r="BK85">
+        <v>2</v>
+      </c>
+      <c r="BL85">
+        <v>1.73</v>
+      </c>
+      <c r="BM85">
+        <v>2.54</v>
+      </c>
+      <c r="BN85">
+        <v>1.38</v>
+      </c>
+      <c r="BO85">
+        <v>3.4</v>
+      </c>
+      <c r="BP85">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7453763</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45571.66666666666</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>149</v>
+      </c>
+      <c r="P86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q86">
+        <v>1.73</v>
+      </c>
+      <c r="R86">
+        <v>2.5</v>
+      </c>
+      <c r="S86">
+        <v>8</v>
+      </c>
+      <c r="T86">
+        <v>1.29</v>
+      </c>
+      <c r="U86">
+        <v>3.5</v>
+      </c>
+      <c r="V86">
+        <v>2.38</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="Y86">
+        <v>1.14</v>
+      </c>
+      <c r="Z86">
+        <v>1.2</v>
+      </c>
+      <c r="AA86">
+        <v>6</v>
+      </c>
+      <c r="AB86">
+        <v>9.75</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.16</v>
+      </c>
+      <c r="AF86">
+        <v>4.75</v>
+      </c>
+      <c r="AG86">
+        <v>1.6</v>
+      </c>
+      <c r="AH86">
+        <v>2.29</v>
+      </c>
+      <c r="AI86">
+        <v>2.1</v>
+      </c>
+      <c r="AJ86">
+        <v>1.67</v>
+      </c>
+      <c r="AK86">
+        <v>1.03</v>
+      </c>
+      <c r="AL86">
+        <v>1.06</v>
+      </c>
+      <c r="AM86">
+        <v>4.33</v>
+      </c>
+      <c r="AN86">
+        <v>1.4</v>
+      </c>
+      <c r="AO86">
+        <v>0.2</v>
+      </c>
+      <c r="AP86">
+        <v>1.67</v>
+      </c>
+      <c r="AQ86">
+        <v>0.17</v>
+      </c>
+      <c r="AR86">
+        <v>1.99</v>
+      </c>
+      <c r="AS86">
+        <v>1.04</v>
+      </c>
+      <c r="AT86">
+        <v>3.03</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>19</v>
+      </c>
+      <c r="AZ86">
+        <v>5</v>
+      </c>
+      <c r="BA86">
+        <v>9</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>1.07</v>
+      </c>
+      <c r="BE86">
+        <v>11.5</v>
+      </c>
+      <c r="BF86">
+        <v>10.5</v>
+      </c>
+      <c r="BG86">
+        <v>1.35</v>
+      </c>
+      <c r="BH86">
+        <v>2.65</v>
+      </c>
+      <c r="BI86">
+        <v>1.73</v>
+      </c>
+      <c r="BJ86">
+        <v>2</v>
+      </c>
+      <c r="BK86">
+        <v>2.1</v>
+      </c>
+      <c r="BL86">
+        <v>1.56</v>
+      </c>
+      <c r="BM86">
+        <v>2.7</v>
+      </c>
+      <c r="BN86">
+        <v>1.39</v>
+      </c>
+      <c r="BO86">
+        <v>3.7</v>
+      </c>
+      <c r="BP86">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AQ4">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AS10">
         <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>2.19</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -3172,25 +3172,25 @@
         <v>1.6</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3384,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AQ12">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AT12">
-        <v>2.33</v>
+        <v>3.2</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS13">
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3996,25 +3996,25 @@
         <v>2.01</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4202,25 +4202,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="AS16">
         <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4414,19 +4414,19 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
       </c>
       <c r="AS17">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AT17">
-        <v>3.08</v>
+        <v>2.82</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4614,25 +4614,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="AR18">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="AS18">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AT18">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -4823,22 +4823,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AR19">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AT19">
-        <v>1.24</v>
+        <v>4.41</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5026,25 +5026,25 @@
         <v>2.4</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AS20">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>3.27</v>
+        <v>2.71</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5232,25 +5232,25 @@
         <v>1.5</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ21">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AS21">
         <v>1.59</v>
       </c>
       <c r="AT21">
-        <v>1.59</v>
+        <v>3.31</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5438,25 +5438,25 @@
         <v>2.88</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5647,22 +5647,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT23">
-        <v>1.76</v>
+        <v>3.44</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5850,25 +5850,25 @@
         <v>1.35</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="AS24">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6056,25 +6056,25 @@
         <v>1.7</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP25">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AS25">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="AT25">
-        <v>2.14</v>
+        <v>2.55</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -6262,25 +6262,25 @@
         <v>1.5</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AT26">
-        <v>0.95</v>
+        <v>2.85</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6468,25 +6468,25 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AS27">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6674,25 +6674,25 @@
         <v>5.5</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="AR28">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AT28">
-        <v>2.97</v>
+        <v>4.6</v>
       </c>
       <c r="AU28">
         <v>11</v>
@@ -6883,22 +6883,22 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR29">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="AS29">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT29">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7086,25 +7086,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AS30">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="AT30">
-        <v>1.21</v>
+        <v>3.43</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7292,25 +7292,25 @@
         <v>1.02</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AT31">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7498,25 +7498,25 @@
         <v>1.07</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ32">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AS32">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="AT32">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7704,25 +7704,25 @@
         <v>2.9</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AR33">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AS33">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>3.08</v>
+        <v>2.99</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -7910,25 +7910,25 @@
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AQ34">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AR34">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AS34">
-        <v>0.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT34">
-        <v>2.19</v>
+        <v>2.71</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8116,25 +8116,25 @@
         <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="AR35">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AS35">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AT35">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8325,22 +8325,22 @@
         <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AQ36">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
+        <v>0.93</v>
+      </c>
+      <c r="AS36">
         <v>1.22</v>
       </c>
-      <c r="AS36">
-        <v>1.35</v>
-      </c>
       <c r="AT36">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8528,25 +8528,25 @@
         <v>1.62</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AR37">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AS37">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT37">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8734,25 +8734,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AS38">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AT38">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="AU38">
         <v>11</v>
@@ -8940,25 +8940,25 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AR39">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AS39">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9146,25 +9146,25 @@
         <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AS40">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT40">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="AU40">
         <v>-1</v>
@@ -9352,25 +9352,25 @@
         <v>1.48</v>
       </c>
       <c r="AN41">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AS41">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="AT41">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9558,25 +9558,25 @@
         <v>1.38</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AR42">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT42">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9764,25 +9764,25 @@
         <v>1.62</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR43">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AS43">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AT43">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9970,25 +9970,25 @@
         <v>2.15</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR44">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="AS44">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AT44">
-        <v>1.84</v>
+        <v>2.52</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10179,22 +10179,22 @@
         <v>1</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AR45">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AS45">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="AT45">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10382,25 +10382,25 @@
         <v>2.45</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO46">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR46">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="AS46">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT46">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10588,25 +10588,25 @@
         <v>2.25</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AQ47">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="AR47">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT47">
-        <v>2.82</v>
+        <v>2.45</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10797,22 +10797,22 @@
         <v>1.33</v>
       </c>
       <c r="AO48">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AR48">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS48">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11000,25 +11000,25 @@
         <v>1.67</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ49">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS49">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT49">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11206,25 +11206,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP50">
+        <v>1.6</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
         <v>1.67</v>
       </c>
-      <c r="AQ50">
-        <v>2.6</v>
-      </c>
-      <c r="AR50">
-        <v>1.81</v>
-      </c>
       <c r="AS50">
-        <v>0.83</v>
+        <v>1.1</v>
       </c>
       <c r="AT50">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AU50">
         <v>10</v>
@@ -11412,25 +11412,25 @@
         <v>1.05</v>
       </c>
       <c r="AN51">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AR51">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AS51">
-        <v>2.12</v>
+        <v>2.51</v>
       </c>
       <c r="AT51">
-        <v>4.05</v>
+        <v>4.38</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11618,25 +11618,25 @@
         <v>2.4</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR52">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AS52">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT52">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="AU52">
         <v>6</v>
@@ -11824,25 +11824,25 @@
         <v>1.51</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AR53">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT53">
-        <v>2.43</v>
+        <v>2.72</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12030,25 +12030,25 @@
         <v>1.97</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR54">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT54">
-        <v>2.75</v>
+        <v>3.11</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12236,25 +12236,25 @@
         <v>0</v>
       </c>
       <c r="AN55">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AO55">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR55">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AS55">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AT55">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="AU55">
         <v>2</v>
@@ -12442,25 +12442,25 @@
         <v>5</v>
       </c>
       <c r="AN56">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR56">
-        <v>2.77</v>
+        <v>2.43</v>
       </c>
       <c r="AS56">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AT56">
-        <v>3.58</v>
+        <v>3.42</v>
       </c>
       <c r="AU56">
         <v>11</v>
@@ -12648,25 +12648,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AO57">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AR57">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>3.5</v>
+        <v>3.04</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -12857,22 +12857,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AT58">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13060,25 +13060,25 @@
         <v>1.2</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AO59">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR59">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AS59">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
-        <v>3.1</v>
+        <v>2.83</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13266,25 +13266,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AR60">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AS60">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AT60">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13472,25 +13472,25 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR61">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS61">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT61">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13678,25 +13678,25 @@
         <v>4.3</v>
       </c>
       <c r="AN62">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO62">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="AR62">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AT62">
-        <v>2.13</v>
+        <v>2.39</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13887,22 +13887,22 @@
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="AR63">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="AT63">
-        <v>3.16</v>
+        <v>3.47</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -14093,22 +14093,22 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AQ64">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AR64">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS64">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14296,25 +14296,25 @@
         <v>1.25</v>
       </c>
       <c r="AN65">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR65">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AS65">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="AT65">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14502,25 +14502,25 @@
         <v>1.65</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AO66">
-        <v>0.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP66">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ66">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>3.43</v>
+        <v>3.1</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14708,25 +14708,25 @@
         <v>1.55</v>
       </c>
       <c r="AN67">
-        <v>2.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ67">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AR67">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS67">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AT67">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14914,25 +14914,25 @@
         <v>2.1</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR68">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT68">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15120,25 +15120,25 @@
         <v>1.2</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO69">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS69">
-        <v>2.09</v>
+        <v>2.48</v>
       </c>
       <c r="AT69">
-        <v>3.45</v>
+        <v>3.99</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15326,25 +15326,25 @@
         <v>6.25</v>
       </c>
       <c r="AN70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AP70">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="AS70">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15532,25 +15532,25 @@
         <v>1.85</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO71">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS71">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>3.06</v>
+        <v>2.76</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -15738,25 +15738,25 @@
         <v>1.55</v>
       </c>
       <c r="AN72">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR72">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS72">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AT72">
-        <v>3.01</v>
+        <v>3.37</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -15944,25 +15944,25 @@
         <v>1.42</v>
       </c>
       <c r="AN73">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP73">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR73">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AS73">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AT73">
-        <v>3.74</v>
+        <v>3.38</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16150,25 +16150,25 @@
         <v>2.25</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO74">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP74">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AR74">
-        <v>1.34</v>
+        <v>1.7</v>
       </c>
       <c r="AS74">
         <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>2.98</v>
+        <v>3.34</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16356,25 +16356,25 @@
         <v>1.77</v>
       </c>
       <c r="AN75">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR75">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS75">
-        <v>0.77</v>
+        <v>1.09</v>
       </c>
       <c r="AT75">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16562,25 +16562,25 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="AO76">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR76">
-        <v>1.16</v>
+        <v>0.96</v>
       </c>
       <c r="AS76">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AT76">
-        <v>2.74</v>
+        <v>2.39</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16768,25 +16768,25 @@
         <v>1.33</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AO77">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AQ77">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AT77">
-        <v>2.54</v>
+        <v>2.41</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -16974,25 +16974,25 @@
         <v>1.91</v>
       </c>
       <c r="AN78">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AP78">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="AR78">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AS78">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="AT78">
-        <v>2.91</v>
+        <v>3.42</v>
       </c>
       <c r="AU78">
         <v>5</v>
@@ -17180,25 +17180,25 @@
         <v>1.6</v>
       </c>
       <c r="AN79">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="AO79">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AP79">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ79">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AR79">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AS79">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT79">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17386,25 +17386,25 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO80">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AR80">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AS80">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="AT80">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17592,25 +17592,25 @@
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AO81">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AQ81">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AR81">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AS81">
-        <v>0.72</v>
+        <v>1.02</v>
       </c>
       <c r="AT81">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -17798,25 +17798,25 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO82">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ82">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AS82">
         <v>1.19</v>
       </c>
       <c r="AT82">
-        <v>2.43</v>
+        <v>2.57</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -18004,25 +18004,25 @@
         <v>1.3</v>
       </c>
       <c r="AN83">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AO83">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="AS83">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18210,25 +18210,25 @@
         <v>1.01</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO84">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AR84">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS84">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="AT84">
-        <v>3.17</v>
+        <v>3.66</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -18416,25 +18416,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>2.33</v>
+        <v>0.89</v>
       </c>
       <c r="AO85">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="AS85">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT85">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18622,25 +18622,25 @@
         <v>4.33</v>
       </c>
       <c r="AN86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO86">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="AR86">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT86">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="AU86">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,12 +235,12 @@
     <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>Mladost Lučani</t>
-  </si>
-  <si>
     <t>Čukarički</t>
   </si>
   <si>
+    <t>LFK Mladost Lučani</t>
+  </si>
+  <si>
     <t>Novi Pazar</t>
   </si>
   <si>
@@ -256,24 +256,24 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
     <t>Spartak Subotica</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
     <t>OFK Beograd</t>
   </si>
   <si>
     <t>Partizan</t>
   </si>
   <si>
+    <t>IMT Novi Beograd</t>
+  </si>
+  <si>
     <t>Vojvodina</t>
   </si>
   <si>
-    <t>IMT Novi Beograd</t>
-  </si>
-  <si>
     <t>['29', '53']</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>['18', '23', '53', '69']</t>
   </si>
   <si>
+    <t>['32', '45']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
-    <t>['32', '45']</t>
-  </si>
-  <si>
     <t>['23', '31', '78']</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>['85', '90+1']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -331,15 +331,15 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['9', '60', '80', '86']</t>
+  </si>
+  <si>
     <t>['2']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
-    <t>['9', '60', '80', '86']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -400,21 +400,21 @@
     <t>['9', '43']</t>
   </si>
   <si>
+    <t>['29', '47']</t>
+  </si>
+  <si>
     <t>['48', '55']</t>
   </si>
   <si>
-    <t>['29', '47']</t>
-  </si>
-  <si>
     <t>['19', '40']</t>
   </si>
   <si>
+    <t>['18', '86', '90+6']</t>
+  </si>
+  <si>
     <t>['48', '54']</t>
   </si>
   <si>
-    <t>['18', '86', '90+6']</t>
-  </si>
-  <si>
     <t>['51', '55']</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>['37', '45+3', '58', '69']</t>
   </si>
   <si>
+    <t>['29', '90+7']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
-    <t>['29', '90+7']</t>
-  </si>
-  <si>
     <t>['52', '87', '90']</t>
   </si>
   <si>
@@ -466,6 +466,9 @@
     <t>['69', '74']</t>
   </si>
   <si>
+    <t>['4', '33', '43', '58', '60']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -550,24 +553,24 @@
     <t>['61', '90', '90+9']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['29', '41']</t>
   </si>
   <si>
-    <t>['85']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
     <t>['16', '68']</t>
   </si>
   <si>
+    <t>['15', '40']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
-    <t>['15', '40']</t>
-  </si>
-  <si>
     <t>['50', '62']</t>
   </si>
   <si>
@@ -622,10 +625,16 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['6', '39', '59', '73']</t>
+  </si>
+  <si>
     <t>['35', '65', '90+2']</t>
   </si>
   <si>
-    <t>['6', '39', '59', '73']</t>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['2', '84']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1255,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1324,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ2">
         <v>1.18</v>
@@ -1452,7 +1461,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1530,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ3">
         <v>1.89</v>
@@ -1736,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ4">
         <v>0.36</v>
@@ -1822,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7453687</v>
+        <v>7453690</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1840,100 +1849,100 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z5">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="AA5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AB5">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AG5">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1942,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ5">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1957,70 +1966,70 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV5">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY5">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ5">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -2028,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7453690</v>
+        <v>7720553</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -2046,100 +2055,100 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="Q6">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R6">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="T6">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="U6">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="V6">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="W6">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X6">
-        <v>7.7</v>
+        <v>7.36</v>
       </c>
       <c r="Y6">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z6">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="AA6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AB6">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="AC6">
         <v>1.03</v>
       </c>
       <c r="AD6">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AE6">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AF6">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH6">
         <v>1.7</v>
       </c>
       <c r="AI6">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AJ6">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AK6">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="AL6">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AM6">
-        <v>2.11</v>
+        <v>1.52</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2148,85 +2157,85 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
+        <v>2.33</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>9</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>6</v>
+      </c>
+      <c r="AY6">
+        <v>10</v>
+      </c>
+      <c r="AZ6">
+        <v>19</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>6</v>
+      </c>
+      <c r="BD6">
+        <v>1.9</v>
+      </c>
+      <c r="BE6">
+        <v>6.3</v>
+      </c>
+      <c r="BF6">
+        <v>2.47</v>
+      </c>
+      <c r="BG6">
+        <v>1.36</v>
+      </c>
+      <c r="BH6">
+        <v>2.9</v>
+      </c>
+      <c r="BI6">
+        <v>1.62</v>
+      </c>
+      <c r="BJ6">
+        <v>2.15</v>
+      </c>
+      <c r="BK6">
+        <v>2.03</v>
+      </c>
+      <c r="BL6">
         <v>1.7</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>-1</v>
-      </c>
-      <c r="AV6">
-        <v>-1</v>
-      </c>
-      <c r="AW6">
-        <v>-1</v>
-      </c>
-      <c r="AX6">
-        <v>-1</v>
-      </c>
-      <c r="AY6">
-        <v>-1</v>
-      </c>
-      <c r="AZ6">
-        <v>-1</v>
-      </c>
-      <c r="BA6">
-        <v>3</v>
-      </c>
-      <c r="BB6">
-        <v>5</v>
-      </c>
-      <c r="BC6">
-        <v>8</v>
-      </c>
-      <c r="BD6">
-        <v>1.55</v>
-      </c>
-      <c r="BE6">
-        <v>8</v>
-      </c>
-      <c r="BF6">
-        <v>3.02</v>
-      </c>
-      <c r="BG6">
-        <v>1.39</v>
-      </c>
-      <c r="BH6">
-        <v>2.75</v>
-      </c>
-      <c r="BI6">
-        <v>1.67</v>
-      </c>
-      <c r="BJ6">
-        <v>2.07</v>
-      </c>
-      <c r="BK6">
-        <v>2.1</v>
-      </c>
-      <c r="BL6">
-        <v>1.65</v>
-      </c>
       <c r="BM6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BN6">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BO6">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BP6">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2252,7 +2261,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2276,7 +2285,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2458,7 +2467,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2482,7 +2491,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2664,7 +2673,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2766,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9">
         <v>0.73</v>
@@ -2894,7 +2903,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3100,7 +3109,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3181,7 +3190,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR11">
         <v>1.25</v>
@@ -3264,7 +3273,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7453700</v>
+        <v>7720554</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3282,7 +3291,7 @@
         <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3306,76 +3315,76 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z12">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AA12">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AB12">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG12">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AH12">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="AN12">
         <v>3</v>
@@ -3384,37 +3393,37 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
       </c>
       <c r="AS12">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA12">
         <v>19</v>
@@ -3426,43 +3435,43 @@
         <v>19</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BF12">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH12">
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="BI12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="BK12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BM12">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BN12">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BO12">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="BP12">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3470,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7453697</v>
+        <v>7454210</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3488,100 +3497,100 @@
         <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U13">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="V13">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y13">
         <v>1.06</v>
       </c>
       <c r="Z13">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AA13">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AB13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AC13">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG13">
+        <v>2.06</v>
+      </c>
+      <c r="AH13">
+        <v>1.68</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
         <v>1.96</v>
       </c>
-      <c r="AH13">
-        <v>1.75</v>
-      </c>
-      <c r="AI13">
-        <v>1.75</v>
-      </c>
-      <c r="AJ13">
-        <v>2.03</v>
-      </c>
       <c r="AK13">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AL13">
         <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3590,85 +3599,85 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="AQ13">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AT13">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AU13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AZ13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB13">
         <v>4</v>
       </c>
       <c r="BC13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD13">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="BE13">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF13">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BG13">
+        <v>1.39</v>
+      </c>
+      <c r="BH13">
+        <v>2.67</v>
+      </c>
+      <c r="BI13">
+        <v>1.7</v>
+      </c>
+      <c r="BJ13">
+        <v>1.98</v>
+      </c>
+      <c r="BK13">
+        <v>2.19</v>
+      </c>
+      <c r="BL13">
+        <v>1.57</v>
+      </c>
+      <c r="BM13">
+        <v>2.98</v>
+      </c>
+      <c r="BN13">
         <v>1.32</v>
       </c>
-      <c r="BH13">
-        <v>2.98</v>
-      </c>
-      <c r="BI13">
-        <v>1.59</v>
-      </c>
-      <c r="BJ13">
-        <v>2.16</v>
-      </c>
-      <c r="BK13">
-        <v>2</v>
-      </c>
-      <c r="BL13">
-        <v>1.69</v>
-      </c>
-      <c r="BM13">
-        <v>2.67</v>
-      </c>
-      <c r="BN13">
-        <v>1.39</v>
-      </c>
       <c r="BO13">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BP13">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3676,7 +3685,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7454210</v>
+        <v>7453697</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3694,100 +3703,100 @@
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="Q14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U14">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y14">
         <v>1.06</v>
       </c>
       <c r="Z14">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AA14">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="AB14">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AC14">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF14">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG14">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AH14">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AI14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ14">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AK14">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AL14">
         <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3796,85 +3805,85 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS14">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>6</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>6</v>
+      </c>
+      <c r="AY14">
         <v>7</v>
       </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
+      <c r="AZ14">
+        <v>21</v>
+      </c>
+      <c r="BA14">
         <v>4</v>
-      </c>
-      <c r="AX14">
-        <v>8</v>
-      </c>
-      <c r="AY14">
-        <v>20</v>
-      </c>
-      <c r="AZ14">
-        <v>15</v>
-      </c>
-      <c r="BA14">
-        <v>9</v>
       </c>
       <c r="BB14">
         <v>4</v>
       </c>
       <c r="BC14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD14">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="BE14">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF14">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BG14">
+        <v>1.32</v>
+      </c>
+      <c r="BH14">
+        <v>2.98</v>
+      </c>
+      <c r="BI14">
+        <v>1.59</v>
+      </c>
+      <c r="BJ14">
+        <v>2.16</v>
+      </c>
+      <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>1.69</v>
+      </c>
+      <c r="BM14">
+        <v>2.67</v>
+      </c>
+      <c r="BN14">
         <v>1.39</v>
       </c>
-      <c r="BH14">
-        <v>2.67</v>
-      </c>
-      <c r="BI14">
-        <v>1.7</v>
-      </c>
-      <c r="BJ14">
-        <v>1.98</v>
-      </c>
-      <c r="BK14">
-        <v>2.19</v>
-      </c>
-      <c r="BL14">
-        <v>1.57</v>
-      </c>
-      <c r="BM14">
-        <v>2.98</v>
-      </c>
-      <c r="BN14">
-        <v>1.32</v>
-      </c>
       <c r="BO14">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BP14">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -4008,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="AS15">
         <v>1.24</v>
       </c>
       <c r="AT15">
-        <v>2.73</v>
+        <v>3.12</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4106,7 +4115,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4130,7 +4139,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4208,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ16">
         <v>0.73</v>
@@ -4423,10 +4432,10 @@
         <v>1.59</v>
       </c>
       <c r="AS17">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AT17">
-        <v>2.82</v>
+        <v>3.02</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4500,7 +4509,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7453701</v>
+        <v>7453702</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4515,190 +4524,190 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z18">
-        <v>1.65</v>
+        <v>17</v>
       </c>
       <c r="AA18">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="AB18">
+        <v>1.08</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>19</v>
+      </c>
+      <c r="AE18">
+        <v>1.1</v>
+      </c>
+      <c r="AF18">
+        <v>6.5</v>
+      </c>
+      <c r="AG18">
+        <v>1.36</v>
+      </c>
+      <c r="AH18">
+        <v>3</v>
+      </c>
+      <c r="AI18">
+        <v>2.63</v>
+      </c>
+      <c r="AJ18">
+        <v>1.44</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>1.04</v>
+      </c>
+      <c r="AM18">
+        <v>1.02</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>2.82</v>
+      </c>
+      <c r="AR18">
+        <v>1.44</v>
+      </c>
+      <c r="AS18">
+        <v>3.16</v>
+      </c>
+      <c r="AT18">
         <v>4.6</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1.8</v>
-      </c>
-      <c r="AH18">
-        <v>1.83</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0.5</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>2</v>
-      </c>
-      <c r="AQ18">
-        <v>0.36</v>
-      </c>
-      <c r="AR18">
-        <v>0.59</v>
-      </c>
-      <c r="AS18">
-        <v>0.53</v>
-      </c>
-      <c r="AT18">
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>7</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>8</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>21</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>6</v>
+      </c>
+      <c r="BD18">
+        <v>8.1</v>
+      </c>
+      <c r="BE18">
+        <v>12</v>
+      </c>
+      <c r="BF18">
         <v>1.12</v>
       </c>
-      <c r="AU18">
-        <v>5</v>
-      </c>
-      <c r="AV18">
-        <v>4</v>
-      </c>
-      <c r="AW18">
-        <v>2</v>
-      </c>
-      <c r="AX18">
-        <v>3</v>
-      </c>
-      <c r="AY18">
-        <v>7</v>
-      </c>
-      <c r="AZ18">
-        <v>7</v>
-      </c>
-      <c r="BA18">
-        <v>9</v>
-      </c>
-      <c r="BB18">
-        <v>3</v>
-      </c>
-      <c r="BC18">
-        <v>12</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
       <c r="BG18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BH18">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BI18">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BK18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BM18">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BN18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BO18">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BP18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4706,7 +4715,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7453702</v>
+        <v>7720555</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4721,190 +4730,190 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="R19">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="S19">
+        <v>5.5</v>
+      </c>
+      <c r="T19">
         <v>1.36</v>
       </c>
-      <c r="T19">
-        <v>1.2</v>
-      </c>
       <c r="U19">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W19">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Y19">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Z19">
-        <v>17</v>
+        <v>1.53</v>
       </c>
       <c r="AA19">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="AB19">
-        <v>1.08</v>
+        <v>5.5</v>
       </c>
       <c r="AC19">
         <v>1.01</v>
       </c>
       <c r="AD19">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="AE19">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AF19">
-        <v>6.5</v>
+        <v>3.56</v>
       </c>
       <c r="AG19">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="AI19">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="AJ19">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AK19">
-        <v>7</v>
+        <v>1.12</v>
       </c>
       <c r="AL19">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AM19">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="AN19">
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>2.8</v>
+        <v>0.17</v>
       </c>
       <c r="AR19">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS19">
-        <v>2.97</v>
+        <v>0.52</v>
       </c>
       <c r="AT19">
-        <v>4.41</v>
+        <v>1.46</v>
       </c>
       <c r="AU19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY19">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ19">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BA19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD19">
-        <v>8.1</v>
+        <v>1.79</v>
       </c>
       <c r="BE19">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="BF19">
-        <v>1.12</v>
+        <v>2.62</v>
       </c>
       <c r="BG19">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BH19">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BI19">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BJ19">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="BK19">
         <v>2.15</v>
       </c>
       <c r="BL19">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="BM19">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BN19">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="BO19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BP19">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4930,7 +4939,7 @@
         <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5032,7 +5041,7 @@
         <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5133,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -5160,7 +5169,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5238,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ21">
         <v>1.36</v>
@@ -5548,7 +5557,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5650,10 +5659,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ23">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5754,7 +5763,7 @@
         <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5778,7 +5787,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5859,16 +5868,16 @@
         <v>2.09</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR24">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AS24">
         <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -5957,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -6062,10 +6071,10 @@
         <v>0.67</v>
       </c>
       <c r="AP25">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ25">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6148,7 +6157,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453712</v>
+        <v>7720556</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6163,16 +6172,16 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6181,172 +6190,172 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="Q26">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R26">
+        <v>2.2</v>
+      </c>
+      <c r="S26">
+        <v>5.5</v>
+      </c>
+      <c r="T26">
+        <v>1.4</v>
+      </c>
+      <c r="U26">
+        <v>2.75</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>1.36</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>1.08</v>
+      </c>
+      <c r="Z26">
+        <v>1.6</v>
+      </c>
+      <c r="AA26">
+        <v>3.7</v>
+      </c>
+      <c r="AB26">
+        <v>5</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>10</v>
+      </c>
+      <c r="AE26">
+        <v>1.29</v>
+      </c>
+      <c r="AF26">
+        <v>3.4</v>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <v>1.8</v>
+      </c>
+      <c r="AI26">
+        <v>2</v>
+      </c>
+      <c r="AJ26">
+        <v>1.73</v>
+      </c>
+      <c r="AK26">
+        <v>1.15</v>
+      </c>
+      <c r="AL26">
+        <v>1.25</v>
+      </c>
+      <c r="AM26">
+        <v>2.18</v>
+      </c>
+      <c r="AN26">
+        <v>1.5</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>0.6</v>
+      </c>
+      <c r="AR26">
+        <v>1.39</v>
+      </c>
+      <c r="AS26">
+        <v>1.64</v>
+      </c>
+      <c r="AT26">
+        <v>3.03</v>
+      </c>
+      <c r="AU26">
+        <v>7</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>17</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>7</v>
+      </c>
+      <c r="BD26">
+        <v>1.75</v>
+      </c>
+      <c r="BE26">
+        <v>6.6</v>
+      </c>
+      <c r="BF26">
+        <v>2.72</v>
+      </c>
+      <c r="BG26">
+        <v>1.38</v>
+      </c>
+      <c r="BH26">
+        <v>2.9</v>
+      </c>
+      <c r="BI26">
+        <v>1.68</v>
+      </c>
+      <c r="BJ26">
         <v>2.1</v>
       </c>
-      <c r="S26">
-        <v>3.1</v>
-      </c>
-      <c r="T26">
-        <v>1.36</v>
-      </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>2.75</v>
-      </c>
-      <c r="W26">
-        <v>1.4</v>
-      </c>
-      <c r="X26">
-        <v>6.5</v>
-      </c>
-      <c r="Y26">
-        <v>1.1</v>
-      </c>
-      <c r="Z26">
-        <v>2.55</v>
-      </c>
-      <c r="AA26">
-        <v>3.3</v>
-      </c>
-      <c r="AB26">
-        <v>2.63</v>
-      </c>
-      <c r="AC26">
-        <v>1.02</v>
-      </c>
-      <c r="AD26">
-        <v>10.5</v>
-      </c>
-      <c r="AE26">
-        <v>1.25</v>
-      </c>
-      <c r="AF26">
-        <v>3.6</v>
-      </c>
-      <c r="AG26">
-        <v>1.73</v>
-      </c>
-      <c r="AH26">
-        <v>2</v>
-      </c>
-      <c r="AI26">
-        <v>1.67</v>
-      </c>
-      <c r="AJ26">
+      <c r="BK26">
         <v>2.1</v>
       </c>
-      <c r="AK26">
-        <v>1.5</v>
-      </c>
-      <c r="AL26">
-        <v>1.33</v>
-      </c>
-      <c r="AM26">
-        <v>1.5</v>
-      </c>
-      <c r="AN26">
-        <v>0.67</v>
-      </c>
-      <c r="AO26">
-        <v>1.5</v>
-      </c>
-      <c r="AP26">
-        <v>0.8</v>
-      </c>
-      <c r="AQ26">
-        <v>1.27</v>
-      </c>
-      <c r="AR26">
-        <v>1.22</v>
-      </c>
-      <c r="AS26">
-        <v>1.63</v>
-      </c>
-      <c r="AT26">
-        <v>2.85</v>
-      </c>
-      <c r="AU26">
-        <v>5</v>
-      </c>
-      <c r="AV26">
-        <v>4</v>
-      </c>
-      <c r="AW26">
-        <v>4</v>
-      </c>
-      <c r="AX26">
-        <v>9</v>
-      </c>
-      <c r="AY26">
-        <v>11</v>
-      </c>
-      <c r="AZ26">
-        <v>21</v>
-      </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
-      <c r="BB26">
-        <v>3</v>
-      </c>
-      <c r="BC26">
-        <v>6</v>
-      </c>
-      <c r="BD26">
-        <v>2.05</v>
-      </c>
-      <c r="BE26">
-        <v>7.5</v>
-      </c>
-      <c r="BF26">
-        <v>2</v>
-      </c>
-      <c r="BG26">
-        <v>1.41</v>
-      </c>
-      <c r="BH26">
-        <v>2.7</v>
-      </c>
-      <c r="BI26">
-        <v>1.73</v>
-      </c>
-      <c r="BJ26">
-        <v>2</v>
-      </c>
-      <c r="BK26">
-        <v>2.15</v>
-      </c>
       <c r="BL26">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="BM26">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="BN26">
         <v>1.39</v>
       </c>
       <c r="BO26">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="BP26">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6354,7 +6363,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453716</v>
+        <v>7453715</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6369,190 +6378,190 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z27">
-        <v>1.62</v>
+        <v>1.1</v>
       </c>
       <c r="AA27">
+        <v>9.18</v>
+      </c>
+      <c r="AB27">
+        <v>15.42</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>19</v>
+      </c>
+      <c r="AE27">
+        <v>1.09</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>1.4</v>
+      </c>
+      <c r="AH27">
+        <v>2.75</v>
+      </c>
+      <c r="AI27">
+        <v>2.5</v>
+      </c>
+      <c r="AJ27">
+        <v>1.5</v>
+      </c>
+      <c r="AK27">
+        <v>1.03</v>
+      </c>
+      <c r="AL27">
+        <v>1.04</v>
+      </c>
+      <c r="AM27">
+        <v>5.5</v>
+      </c>
+      <c r="AN27">
+        <v>2.33</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>2.82</v>
+      </c>
+      <c r="AQ27">
+        <v>1.27</v>
+      </c>
+      <c r="AR27">
+        <v>2.84</v>
+      </c>
+      <c r="AS27">
+        <v>1.89</v>
+      </c>
+      <c r="AT27">
+        <v>4.73</v>
+      </c>
+      <c r="AU27">
+        <v>11</v>
+      </c>
+      <c r="AV27">
+        <v>3</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>3</v>
+      </c>
+      <c r="AY27">
+        <v>23</v>
+      </c>
+      <c r="AZ27">
+        <v>7</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>13</v>
+      </c>
+      <c r="BD27">
+        <v>1.07</v>
+      </c>
+      <c r="BE27">
+        <v>13</v>
+      </c>
+      <c r="BF27">
+        <v>10.2</v>
+      </c>
+      <c r="BG27">
+        <v>1.22</v>
+      </c>
+      <c r="BH27">
         <v>3.8</v>
       </c>
-      <c r="AB27">
-        <v>5</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>1.75</v>
-      </c>
-      <c r="AH27">
-        <v>1.95</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>1.33</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>2</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-      <c r="AR27">
-        <v>0.9</v>
-      </c>
-      <c r="AS27">
-        <v>1.22</v>
-      </c>
-      <c r="AT27">
-        <v>2.12</v>
-      </c>
-      <c r="AU27">
-        <v>7</v>
-      </c>
-      <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
-        <v>6</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>13</v>
-      </c>
-      <c r="AZ27">
-        <v>3</v>
-      </c>
-      <c r="BA27">
-        <v>4</v>
-      </c>
-      <c r="BB27">
-        <v>3</v>
-      </c>
-      <c r="BC27">
-        <v>7</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
       <c r="BI27">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BJ27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BK27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BL27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BM27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BN27">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BO27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BP27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6560,7 +6569,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7453715</v>
+        <v>7453712</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6575,10 +6584,10 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6590,175 +6599,175 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="Q28">
-        <v>1.44</v>
+        <v>3.1</v>
       </c>
       <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
         <v>3.1</v>
       </c>
-      <c r="S28">
-        <v>12</v>
-      </c>
       <c r="T28">
+        <v>1.36</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>6.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>2.55</v>
+      </c>
+      <c r="AA28">
+        <v>3.3</v>
+      </c>
+      <c r="AB28">
+        <v>2.63</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>10.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.25</v>
+      </c>
+      <c r="AF28">
+        <v>3.6</v>
+      </c>
+      <c r="AG28">
+        <v>1.73</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28">
+        <v>1.67</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1</v>
+      </c>
+      <c r="AK28">
+        <v>1.5</v>
+      </c>
+      <c r="AL28">
+        <v>1.33</v>
+      </c>
+      <c r="AM28">
+        <v>1.5</v>
+      </c>
+      <c r="AN28">
+        <v>0.67</v>
+      </c>
+      <c r="AO28">
+        <v>1.5</v>
+      </c>
+      <c r="AP28">
+        <v>0.8</v>
+      </c>
+      <c r="AQ28">
+        <v>1.42</v>
+      </c>
+      <c r="AR28">
         <v>1.22</v>
       </c>
-      <c r="U28">
+      <c r="AS28">
+        <v>1.63</v>
+      </c>
+      <c r="AT28">
+        <v>2.85</v>
+      </c>
+      <c r="AU28">
+        <v>5</v>
+      </c>
+      <c r="AV28">
         <v>4</v>
       </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>9</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
+        <v>21</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>6</v>
+      </c>
+      <c r="BD28">
+        <v>2.05</v>
+      </c>
+      <c r="BE28">
+        <v>7.5</v>
+      </c>
+      <c r="BF28">
+        <v>2</v>
+      </c>
+      <c r="BG28">
+        <v>1.41</v>
+      </c>
+      <c r="BH28">
+        <v>2.7</v>
+      </c>
+      <c r="BI28">
         <v>1.73</v>
       </c>
-      <c r="X28">
-        <v>4</v>
-      </c>
-      <c r="Y28">
+      <c r="BJ28">
+        <v>2</v>
+      </c>
+      <c r="BK28">
+        <v>2.15</v>
+      </c>
+      <c r="BL28">
+        <v>1.63</v>
+      </c>
+      <c r="BM28">
+        <v>2.75</v>
+      </c>
+      <c r="BN28">
+        <v>1.39</v>
+      </c>
+      <c r="BO28">
+        <v>3.8</v>
+      </c>
+      <c r="BP28">
         <v>1.22</v>
-      </c>
-      <c r="Z28">
-        <v>1.1</v>
-      </c>
-      <c r="AA28">
-        <v>9.18</v>
-      </c>
-      <c r="AB28">
-        <v>15.42</v>
-      </c>
-      <c r="AC28">
-        <v>1.01</v>
-      </c>
-      <c r="AD28">
-        <v>19</v>
-      </c>
-      <c r="AE28">
-        <v>1.09</v>
-      </c>
-      <c r="AF28">
-        <v>6</v>
-      </c>
-      <c r="AG28">
-        <v>1.4</v>
-      </c>
-      <c r="AH28">
-        <v>2.75</v>
-      </c>
-      <c r="AI28">
-        <v>2.5</v>
-      </c>
-      <c r="AJ28">
-        <v>1.5</v>
-      </c>
-      <c r="AK28">
-        <v>1.03</v>
-      </c>
-      <c r="AL28">
-        <v>1.04</v>
-      </c>
-      <c r="AM28">
-        <v>5.5</v>
-      </c>
-      <c r="AN28">
-        <v>2.33</v>
-      </c>
-      <c r="AO28">
-        <v>2</v>
-      </c>
-      <c r="AP28">
-        <v>2.8</v>
-      </c>
-      <c r="AQ28">
-        <v>1.27</v>
-      </c>
-      <c r="AR28">
-        <v>2.71</v>
-      </c>
-      <c r="AS28">
-        <v>1.89</v>
-      </c>
-      <c r="AT28">
-        <v>4.6</v>
-      </c>
-      <c r="AU28">
-        <v>11</v>
-      </c>
-      <c r="AV28">
-        <v>3</v>
-      </c>
-      <c r="AW28">
-        <v>5</v>
-      </c>
-      <c r="AX28">
-        <v>3</v>
-      </c>
-      <c r="AY28">
-        <v>23</v>
-      </c>
-      <c r="AZ28">
-        <v>7</v>
-      </c>
-      <c r="BA28">
-        <v>10</v>
-      </c>
-      <c r="BB28">
-        <v>3</v>
-      </c>
-      <c r="BC28">
-        <v>13</v>
-      </c>
-      <c r="BD28">
-        <v>1.07</v>
-      </c>
-      <c r="BE28">
-        <v>13</v>
-      </c>
-      <c r="BF28">
-        <v>10.2</v>
-      </c>
-      <c r="BG28">
-        <v>1.22</v>
-      </c>
-      <c r="BH28">
-        <v>3.8</v>
-      </c>
-      <c r="BI28">
-        <v>1.41</v>
-      </c>
-      <c r="BJ28">
-        <v>2.65</v>
-      </c>
-      <c r="BK28">
-        <v>1.9</v>
-      </c>
-      <c r="BL28">
-        <v>1.9</v>
-      </c>
-      <c r="BM28">
-        <v>2.1</v>
-      </c>
-      <c r="BN28">
-        <v>1.65</v>
-      </c>
-      <c r="BO28">
-        <v>2.65</v>
-      </c>
-      <c r="BP28">
-        <v>1.42</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6808,7 +6817,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6892,13 +6901,13 @@
         <v>1.18</v>
       </c>
       <c r="AR29">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AS29">
         <v>1.35</v>
       </c>
       <c r="AT29">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6972,7 +6981,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7453713</v>
+        <v>7453710</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6990,187 +6999,187 @@
         <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="Q30">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="T30">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z30">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="AA30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB30">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AC30">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
+        <v>1.2</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
+      </c>
+      <c r="AG30">
+        <v>1.81</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>1.91</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>3.3</v>
+      </c>
+      <c r="AL30">
+        <v>1.11</v>
+      </c>
+      <c r="AM30">
+        <v>1.02</v>
+      </c>
+      <c r="AN30">
+        <v>0.5</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>0.73</v>
+      </c>
+      <c r="AQ30">
+        <v>1.89</v>
+      </c>
+      <c r="AR30">
+        <v>1.28</v>
+      </c>
+      <c r="AS30">
+        <v>1.46</v>
+      </c>
+      <c r="AT30">
+        <v>2.74</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>4</v>
+      </c>
+      <c r="BD30">
+        <v>4.41</v>
+      </c>
+      <c r="BE30">
+        <v>9.5</v>
+      </c>
+      <c r="BF30">
+        <v>1.31</v>
+      </c>
+      <c r="BG30">
+        <v>1.31</v>
+      </c>
+      <c r="BH30">
+        <v>3.04</v>
+      </c>
+      <c r="BI30">
+        <v>1.57</v>
+      </c>
+      <c r="BJ30">
+        <v>2.19</v>
+      </c>
+      <c r="BK30">
+        <v>1.98</v>
+      </c>
+      <c r="BL30">
+        <v>1.7</v>
+      </c>
+      <c r="BM30">
+        <v>2.6</v>
+      </c>
+      <c r="BN30">
+        <v>1.41</v>
+      </c>
+      <c r="BO30">
+        <v>3.65</v>
+      </c>
+      <c r="BP30">
         <v>1.22</v>
-      </c>
-      <c r="AF30">
-        <v>3.64</v>
-      </c>
-      <c r="AG30">
-        <v>1.8</v>
-      </c>
-      <c r="AH30">
-        <v>1.98</v>
-      </c>
-      <c r="AI30">
-        <v>1.67</v>
-      </c>
-      <c r="AJ30">
-        <v>2.1</v>
-      </c>
-      <c r="AK30">
-        <v>1.53</v>
-      </c>
-      <c r="AL30">
-        <v>1.26</v>
-      </c>
-      <c r="AM30">
-        <v>1.4</v>
-      </c>
-      <c r="AN30">
-        <v>1.5</v>
-      </c>
-      <c r="AO30">
-        <v>1.33</v>
-      </c>
-      <c r="AP30">
-        <v>1.36</v>
-      </c>
-      <c r="AQ30">
-        <v>1.6</v>
-      </c>
-      <c r="AR30">
-        <v>1.81</v>
-      </c>
-      <c r="AS30">
-        <v>1.62</v>
-      </c>
-      <c r="AT30">
-        <v>3.43</v>
-      </c>
-      <c r="AU30">
-        <v>3</v>
-      </c>
-      <c r="AV30">
-        <v>6</v>
-      </c>
-      <c r="AW30">
-        <v>8</v>
-      </c>
-      <c r="AX30">
-        <v>7</v>
-      </c>
-      <c r="AY30">
-        <v>15</v>
-      </c>
-      <c r="AZ30">
-        <v>14</v>
-      </c>
-      <c r="BA30">
-        <v>4</v>
-      </c>
-      <c r="BB30">
-        <v>5</v>
-      </c>
-      <c r="BC30">
-        <v>9</v>
-      </c>
-      <c r="BD30">
-        <v>1.82</v>
-      </c>
-      <c r="BE30">
-        <v>7.5</v>
-      </c>
-      <c r="BF30">
-        <v>2.34</v>
-      </c>
-      <c r="BG30">
-        <v>1.36</v>
-      </c>
-      <c r="BH30">
-        <v>2.79</v>
-      </c>
-      <c r="BI30">
-        <v>1.65</v>
-      </c>
-      <c r="BJ30">
-        <v>2.05</v>
-      </c>
-      <c r="BK30">
-        <v>2.11</v>
-      </c>
-      <c r="BL30">
-        <v>1.62</v>
-      </c>
-      <c r="BM30">
-        <v>2.84</v>
-      </c>
-      <c r="BN30">
-        <v>1.35</v>
-      </c>
-      <c r="BO30">
-        <v>3.7</v>
-      </c>
-      <c r="BP30">
-        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7178,7 +7187,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7453710</v>
+        <v>7453713</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7196,187 +7205,187 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="Q31">
+        <v>3.2</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
         <v>6.5</v>
       </c>
-      <c r="R31">
+      <c r="Y31">
+        <v>1.1</v>
+      </c>
+      <c r="Z31">
+        <v>2.75</v>
+      </c>
+      <c r="AA31">
+        <v>3.25</v>
+      </c>
+      <c r="AB31">
         <v>2.4</v>
       </c>
-      <c r="S31">
-        <v>1.83</v>
-      </c>
-      <c r="T31">
-        <v>1.3</v>
-      </c>
-      <c r="U31">
-        <v>3.4</v>
-      </c>
-      <c r="V31">
-        <v>2.38</v>
-      </c>
-      <c r="W31">
-        <v>1.53</v>
-      </c>
-      <c r="X31">
-        <v>5.5</v>
-      </c>
-      <c r="Y31">
-        <v>1.13</v>
-      </c>
-      <c r="Z31">
-        <v>4.6</v>
-      </c>
-      <c r="AA31">
-        <v>3.8</v>
-      </c>
-      <c r="AB31">
-        <v>1.57</v>
-      </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF31">
-        <v>4.2</v>
+        <v>3.64</v>
       </c>
       <c r="AG31">
+        <v>1.8</v>
+      </c>
+      <c r="AH31">
+        <v>1.98</v>
+      </c>
+      <c r="AI31">
+        <v>1.67</v>
+      </c>
+      <c r="AJ31">
+        <v>2.1</v>
+      </c>
+      <c r="AK31">
+        <v>1.53</v>
+      </c>
+      <c r="AL31">
+        <v>1.26</v>
+      </c>
+      <c r="AM31">
+        <v>1.4</v>
+      </c>
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
+      <c r="AO31">
+        <v>1.33</v>
+      </c>
+      <c r="AP31">
+        <v>1.36</v>
+      </c>
+      <c r="AQ31">
+        <v>1.45</v>
+      </c>
+      <c r="AR31">
         <v>1.81</v>
       </c>
-      <c r="AH31">
-        <v>2</v>
-      </c>
-      <c r="AI31">
-        <v>1.91</v>
-      </c>
-      <c r="AJ31">
-        <v>1.8</v>
-      </c>
-      <c r="AK31">
-        <v>3.3</v>
-      </c>
-      <c r="AL31">
-        <v>1.11</v>
-      </c>
-      <c r="AM31">
-        <v>1.02</v>
-      </c>
-      <c r="AN31">
-        <v>0.5</v>
-      </c>
-      <c r="AO31">
-        <v>3</v>
-      </c>
-      <c r="AP31">
-        <v>0.73</v>
-      </c>
-      <c r="AQ31">
-        <v>1.89</v>
-      </c>
-      <c r="AR31">
-        <v>1.28</v>
-      </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>2.74</v>
+        <v>3.43</v>
       </c>
       <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
+        <v>14</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
         <v>5</v>
       </c>
-      <c r="AV31">
-        <v>3</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>5</v>
-      </c>
-      <c r="AY31">
-        <v>10</v>
-      </c>
-      <c r="AZ31">
-        <v>11</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>3</v>
-      </c>
       <c r="BC31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD31">
-        <v>4.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE31">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF31">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="BG31">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH31">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="BI31">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BK31">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL31">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BM31">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="BN31">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO31">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP31">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7399,7 +7408,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
         <v>72</v>
@@ -7426,7 +7435,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7504,19 +7513,19 @@
         <v>2.5</v>
       </c>
       <c r="AP32">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ32">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AR32">
         <v>1.45</v>
       </c>
       <c r="AS32">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="AT32">
-        <v>4.07</v>
+        <v>4.17</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7632,7 +7641,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7710,7 +7719,7 @@
         <v>1.75</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ33">
         <v>2.09</v>
@@ -7719,10 +7728,10 @@
         <v>1.63</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT33">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -7796,7 +7805,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7453718</v>
+        <v>7720557</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7814,7 +7823,7 @@
         <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7838,115 +7847,115 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z34">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AA34">
         <v>3.3</v>
       </c>
       <c r="AB34">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AG34">
+        <v>2.05</v>
+      </c>
+      <c r="AH34">
+        <v>1.75</v>
+      </c>
+      <c r="AI34">
+        <v>1.91</v>
+      </c>
+      <c r="AJ34">
         <v>1.8</v>
       </c>
-      <c r="AH34">
-        <v>1.85</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO34">
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR34">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>0.77</v>
       </c>
       <c r="AT34">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="AU34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
         <v>5</v>
       </c>
-      <c r="AW34">
-        <v>2</v>
-      </c>
       <c r="AX34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY34">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA34">
         <v>8</v>
@@ -7958,43 +7967,43 @@
         <v>9</v>
       </c>
       <c r="BD34">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE34">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF34">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BG34">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BH34">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BI34">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BK34">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BL34">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="BM34">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="BN34">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BO34">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="BP34">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8044,7 +8053,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8128,13 +8137,13 @@
         <v>0.36</v>
       </c>
       <c r="AR35">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS35">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="AT35">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8226,7 +8235,7 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8328,7 +8337,7 @@
         <v>1.25</v>
       </c>
       <c r="AP36">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ36">
         <v>0.8</v>
@@ -8432,7 +8441,7 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8638,7 +8647,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8662,7 +8671,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8740,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38">
         <v>1.36</v>
@@ -8826,7 +8835,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7453730</v>
+        <v>7720558</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8841,10 +8850,10 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
         <v>73</v>
-      </c>
-      <c r="H39" t="s">
-        <v>74</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -8868,115 +8877,115 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z39">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="AA39">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AB39">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AG39">
+        <v>2.05</v>
+      </c>
+      <c r="AH39">
+        <v>1.75</v>
+      </c>
+      <c r="AI39">
         <v>1.83</v>
       </c>
-      <c r="AH39">
-        <v>1.95</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AN39">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AT39">
-        <v>2.52</v>
+        <v>3.21</v>
       </c>
       <c r="AU39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV39">
+        <v>7</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
         <v>6</v>
       </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>2</v>
-      </c>
-      <c r="AY39">
-        <v>3</v>
-      </c>
       <c r="AZ39">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA39">
         <v>2</v>
@@ -8988,13 +8997,13 @@
         <v>7</v>
       </c>
       <c r="BD39">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="BE39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF39">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BG39">
         <v>0</v>
@@ -9003,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="BI39">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BJ39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK39">
         <v>0</v>
@@ -9047,7 +9056,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
         <v>79</v>
@@ -9074,7 +9083,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9152,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
         <v>1.18</v>
@@ -9280,7 +9289,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9364,13 +9373,13 @@
         <v>1.27</v>
       </c>
       <c r="AR41">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AT41">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9462,7 +9471,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9486,7 +9495,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9570,13 +9579,13 @@
         <v>0.73</v>
       </c>
       <c r="AR42">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AS42">
         <v>1.24</v>
       </c>
       <c r="AT42">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9692,7 +9701,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9773,16 +9782,16 @@
         <v>2.09</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR43">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AS43">
         <v>1.89</v>
       </c>
       <c r="AT43">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9871,7 +9880,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -9898,7 +9907,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9979,7 +9988,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10077,10 +10086,10 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -10104,7 +10113,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10185,7 +10194,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ45">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
         <v>1.31</v>
@@ -10283,7 +10292,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
         <v>76</v>
@@ -10388,19 +10397,19 @@
         <v>1.17</v>
       </c>
       <c r="AP46">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10600,13 +10609,13 @@
         <v>0.36</v>
       </c>
       <c r="AR47">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AS47">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT47">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10722,7 +10731,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10800,7 +10809,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ48">
         <v>2.09</v>
@@ -10809,10 +10818,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AT48">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -10904,7 +10913,7 @@
         <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -11092,7 +11101,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7453734</v>
+        <v>7453735</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11107,190 +11116,190 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z50">
+        <v>5.8</v>
+      </c>
+      <c r="AA50">
+        <v>4.8</v>
+      </c>
+      <c r="AB50">
         <v>1.36</v>
       </c>
-      <c r="AA50">
-        <v>4.33</v>
-      </c>
-      <c r="AB50">
-        <v>7</v>
-      </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AG50">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AH50">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AN50">
         <v>1.4</v>
       </c>
       <c r="AO50">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="AR50">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AS50">
-        <v>1.1</v>
+        <v>2.59</v>
       </c>
       <c r="AT50">
-        <v>2.77</v>
+        <v>4.46</v>
       </c>
       <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>7</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>3</v>
+      </c>
+      <c r="AZ50">
+        <v>20</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>9</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>4.86</v>
+      </c>
+      <c r="BE50">
         <v>10</v>
       </c>
-      <c r="AV50">
-        <v>3</v>
-      </c>
-      <c r="AW50">
-        <v>6</v>
-      </c>
-      <c r="AX50">
-        <v>2</v>
-      </c>
-      <c r="AY50">
-        <v>16</v>
-      </c>
-      <c r="AZ50">
-        <v>5</v>
-      </c>
-      <c r="BA50">
-        <v>6</v>
-      </c>
-      <c r="BB50">
-        <v>2</v>
-      </c>
-      <c r="BC50">
-        <v>8</v>
-      </c>
-      <c r="BD50">
-        <v>0</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
-      </c>
       <c r="BF50">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BG50">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BH50">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BI50">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BJ50">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="BK50">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL50">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BM50">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BN50">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BO50">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11298,7 +11307,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7453735</v>
+        <v>7720559</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11313,190 +11322,190 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
-        <v>7.5</v>
+        <v>1.91</v>
       </c>
       <c r="R51">
+        <v>2.38</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.5</v>
+      </c>
+      <c r="W51">
+        <v>1.5</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.13</v>
+      </c>
+      <c r="Z51">
+        <v>1.44</v>
+      </c>
+      <c r="AA51">
+        <v>3.75</v>
+      </c>
+      <c r="AB51">
+        <v>6.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>9</v>
+      </c>
+      <c r="AE51">
+        <v>1.22</v>
+      </c>
+      <c r="AF51">
+        <v>3.9</v>
+      </c>
+      <c r="AG51">
+        <v>1.73</v>
+      </c>
+      <c r="AH51">
+        <v>2.08</v>
+      </c>
+      <c r="AI51">
+        <v>1.83</v>
+      </c>
+      <c r="AJ51">
+        <v>1.83</v>
+      </c>
+      <c r="AK51">
+        <v>1.05</v>
+      </c>
+      <c r="AL51">
+        <v>1.17</v>
+      </c>
+      <c r="AM51">
+        <v>2.75</v>
+      </c>
+      <c r="AN51">
+        <v>1.33</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1.43</v>
+      </c>
+      <c r="AQ51">
         <v>2.6</v>
       </c>
-      <c r="S51">
-        <v>1.73</v>
-      </c>
-      <c r="T51">
-        <v>1.29</v>
-      </c>
-      <c r="U51">
-        <v>3.5</v>
-      </c>
-      <c r="V51">
-        <v>2.25</v>
-      </c>
-      <c r="W51">
-        <v>1.57</v>
-      </c>
-      <c r="X51">
+      <c r="AR51">
+        <v>1.81</v>
+      </c>
+      <c r="AS51">
+        <v>1.19</v>
+      </c>
+      <c r="AT51">
+        <v>3</v>
+      </c>
+      <c r="AU51">
+        <v>9</v>
+      </c>
+      <c r="AV51">
         <v>5</v>
       </c>
-      <c r="Y51">
-        <v>1.14</v>
-      </c>
-      <c r="Z51">
-        <v>5.8</v>
-      </c>
-      <c r="AA51">
-        <v>4.8</v>
-      </c>
-      <c r="AB51">
-        <v>1.36</v>
-      </c>
-      <c r="AC51">
-        <v>1.01</v>
-      </c>
-      <c r="AD51">
-        <v>17</v>
-      </c>
-      <c r="AE51">
-        <v>1.13</v>
-      </c>
-      <c r="AF51">
-        <v>5.2</v>
-      </c>
-      <c r="AG51">
-        <v>1.45</v>
-      </c>
-      <c r="AH51">
-        <v>2.55</v>
-      </c>
-      <c r="AI51">
-        <v>2</v>
-      </c>
-      <c r="AJ51">
-        <v>1.73</v>
-      </c>
-      <c r="AK51">
-        <v>3.2</v>
-      </c>
-      <c r="AL51">
-        <v>1.1</v>
-      </c>
-      <c r="AM51">
-        <v>1.05</v>
-      </c>
-      <c r="AN51">
-        <v>1.4</v>
-      </c>
-      <c r="AO51">
-        <v>2.6</v>
-      </c>
-      <c r="AP51">
-        <v>1.27</v>
-      </c>
-      <c r="AQ51">
-        <v>2.8</v>
-      </c>
-      <c r="AR51">
-        <v>1.87</v>
-      </c>
-      <c r="AS51">
-        <v>2.51</v>
-      </c>
-      <c r="AT51">
-        <v>4.38</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>7</v>
-      </c>
       <c r="AW51">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY51">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AZ51">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BA51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD51">
-        <v>4.86</v>
+        <v>1.22</v>
       </c>
       <c r="BE51">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="BF51">
+        <v>6.59</v>
+      </c>
+      <c r="BG51">
+        <v>1.38</v>
+      </c>
+      <c r="BH51">
+        <v>3.08</v>
+      </c>
+      <c r="BI51">
+        <v>1.64</v>
+      </c>
+      <c r="BJ51">
+        <v>2.26</v>
+      </c>
+      <c r="BK51">
+        <v>2.03</v>
+      </c>
+      <c r="BL51">
+        <v>1.74</v>
+      </c>
+      <c r="BM51">
+        <v>2.72</v>
+      </c>
+      <c r="BN51">
+        <v>1.46</v>
+      </c>
+      <c r="BO51">
+        <v>3.87</v>
+      </c>
+      <c r="BP51">
         <v>1.26</v>
-      </c>
-      <c r="BG51">
-        <v>1.41</v>
-      </c>
-      <c r="BH51">
-        <v>2.7</v>
-      </c>
-      <c r="BI51">
-        <v>1.7</v>
-      </c>
-      <c r="BJ51">
-        <v>2.03</v>
-      </c>
-      <c r="BK51">
-        <v>2.15</v>
-      </c>
-      <c r="BL51">
-        <v>1.63</v>
-      </c>
-      <c r="BM51">
-        <v>2.75</v>
-      </c>
-      <c r="BN51">
-        <v>1.39</v>
-      </c>
-      <c r="BO51">
-        <v>3.8</v>
-      </c>
-      <c r="BP51">
-        <v>1.22</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11522,7 +11531,7 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11725,10 +11734,10 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -11931,7 +11940,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
         <v>79</v>
@@ -12122,7 +12131,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7453745</v>
+        <v>7453744</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12137,16 +12146,16 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -12155,142 +12164,142 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Z55">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="AA55">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AB55">
-        <v>2.25</v>
+        <v>21</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG55">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AH55">
-        <v>2.1</v>
+        <v>3.41</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK55">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN55">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="AQ55">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AR55">
-        <v>1.03</v>
+        <v>2.49</v>
       </c>
       <c r="AS55">
-        <v>1.62</v>
+        <v>0.99</v>
       </c>
       <c r="AT55">
-        <v>2.65</v>
+        <v>3.48</v>
       </c>
       <c r="AU55">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
         <v>5</v>
       </c>
-      <c r="AW55">
-        <v>3</v>
-      </c>
       <c r="AX55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY55">
+        <v>32</v>
+      </c>
+      <c r="AZ55">
         <v>5</v>
       </c>
-      <c r="AZ55">
-        <v>8</v>
-      </c>
       <c r="BA55">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BB55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD55">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BE55">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF55">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="BG55">
         <v>0</v>
@@ -12305,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="BK55">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BL55">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -12328,7 +12337,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7453744</v>
+        <v>7720560</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12343,16 +12352,16 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -12361,172 +12370,172 @@
         <v>2</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" t="s">
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="Q56">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="R56">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="S56">
-        <v>8.5</v>
+        <v>2.88</v>
       </c>
       <c r="T56">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="U56">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="W56">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="X56">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y56">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="Z56">
-        <v>1.06</v>
+        <v>2.75</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="AB56">
-        <v>21</v>
+        <v>2.3</v>
       </c>
       <c r="AC56">
         <v>1.01</v>
       </c>
       <c r="AD56">
-        <v>29</v>
+        <v>9.9</v>
       </c>
       <c r="AE56">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="AF56">
+        <v>3.56</v>
+      </c>
+      <c r="AG56">
+        <v>1.8</v>
+      </c>
+      <c r="AH56">
+        <v>2</v>
+      </c>
+      <c r="AI56">
+        <v>1.67</v>
+      </c>
+      <c r="AJ56">
+        <v>2.1</v>
+      </c>
+      <c r="AK56">
+        <v>1.53</v>
+      </c>
+      <c r="AL56">
+        <v>1.27</v>
+      </c>
+      <c r="AM56">
+        <v>1.39</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.5</v>
+      </c>
+      <c r="AQ56">
+        <v>1.5</v>
+      </c>
+      <c r="AR56">
+        <v>1.4</v>
+      </c>
+      <c r="AS56">
+        <v>1.77</v>
+      </c>
+      <c r="AT56">
+        <v>3.17</v>
+      </c>
+      <c r="AU56">
+        <v>3</v>
+      </c>
+      <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
         <v>8</v>
       </c>
-      <c r="AG56">
-        <v>1.27</v>
-      </c>
-      <c r="AH56">
-        <v>3.41</v>
-      </c>
-      <c r="AI56">
+      <c r="AZ56">
+        <v>17</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
+        <v>14</v>
+      </c>
+      <c r="BD56">
+        <v>2.34</v>
+      </c>
+      <c r="BE56">
+        <v>6.3</v>
+      </c>
+      <c r="BF56">
+        <v>1.95</v>
+      </c>
+      <c r="BG56">
+        <v>1.47</v>
+      </c>
+      <c r="BH56">
+        <v>2.5</v>
+      </c>
+      <c r="BI56">
         <v>1.8</v>
       </c>
-      <c r="AJ56">
-        <v>1.91</v>
-      </c>
-      <c r="AK56">
-        <v>1.01</v>
-      </c>
-      <c r="AL56">
-        <v>1.07</v>
-      </c>
-      <c r="AM56">
-        <v>5</v>
-      </c>
-      <c r="AN56">
-        <v>2.67</v>
-      </c>
-      <c r="AO56">
-        <v>1.14</v>
-      </c>
-      <c r="AP56">
-        <v>2.8</v>
-      </c>
-      <c r="AQ56">
-        <v>1.09</v>
-      </c>
-      <c r="AR56">
-        <v>2.43</v>
-      </c>
-      <c r="AS56">
-        <v>0.99</v>
-      </c>
-      <c r="AT56">
-        <v>3.42</v>
-      </c>
-      <c r="AU56">
-        <v>11</v>
-      </c>
-      <c r="AV56">
-        <v>3</v>
-      </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>32</v>
-      </c>
-      <c r="AZ56">
-        <v>5</v>
-      </c>
-      <c r="BA56">
-        <v>14</v>
-      </c>
-      <c r="BB56">
-        <v>2</v>
-      </c>
-      <c r="BC56">
-        <v>16</v>
-      </c>
-      <c r="BD56">
-        <v>1.07</v>
-      </c>
-      <c r="BE56">
-        <v>13</v>
-      </c>
-      <c r="BF56">
-        <v>10.2</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>0</v>
-      </c>
       <c r="BJ56">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK56">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="BL56">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="BM56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN56">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BO56">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BP56">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12552,7 +12561,7 @@
         <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -12576,7 +12585,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12657,16 +12666,16 @@
         <v>1.27</v>
       </c>
       <c r="AQ57">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR57">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -12740,7 +12749,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7453746</v>
+        <v>7453743</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12755,190 +12764,190 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R58">
         <v>2.2</v>
       </c>
       <c r="S58">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T58">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X58">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y58">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="AA58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB58">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC58">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE58">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AG58">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AH58">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AI58">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ58">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AK58">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AL58">
         <v>1.25</v>
       </c>
       <c r="AM58">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AO58">
-        <v>1.17</v>
+        <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>2.09</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AR58">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="AT58">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="AU58">
         <v>6</v>
       </c>
       <c r="AV58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY58">
         <v>11</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD58">
-        <v>2.78</v>
+        <v>3.07</v>
       </c>
       <c r="BE58">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF58">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="BG58">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="BH58">
-        <v>2.38</v>
+        <v>2.91</v>
       </c>
       <c r="BI58">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="BJ58">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="BK58">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BL58">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="BM58">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="BN58">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="BO58">
-        <v>4.6</v>
+        <v>3.84</v>
       </c>
       <c r="BP58">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12946,7 +12955,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7453743</v>
+        <v>7453746</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12961,190 +12970,190 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R59">
         <v>2.2</v>
       </c>
       <c r="S59">
+        <v>2.2</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>6.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>5.7</v>
+      </c>
+      <c r="AA59">
+        <v>3.6</v>
+      </c>
+      <c r="AB59">
+        <v>1.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.78</v>
+      </c>
+      <c r="AH59">
+        <v>1.93</v>
+      </c>
+      <c r="AI59">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
         <v>2.25</v>
-      </c>
-      <c r="T59">
-        <v>1.33</v>
-      </c>
-      <c r="U59">
-        <v>3.25</v>
-      </c>
-      <c r="V59">
-        <v>2.5</v>
-      </c>
-      <c r="W59">
-        <v>1.5</v>
-      </c>
-      <c r="X59">
-        <v>6</v>
-      </c>
-      <c r="Y59">
-        <v>1.11</v>
-      </c>
-      <c r="Z59">
-        <v>3.45</v>
-      </c>
-      <c r="AA59">
-        <v>3.3</v>
-      </c>
-      <c r="AB59">
-        <v>1.9</v>
-      </c>
-      <c r="AC59">
-        <v>1.01</v>
-      </c>
-      <c r="AD59">
-        <v>11</v>
-      </c>
-      <c r="AE59">
-        <v>1.2</v>
-      </c>
-      <c r="AF59">
-        <v>4</v>
-      </c>
-      <c r="AG59">
-        <v>1.7</v>
-      </c>
-      <c r="AH59">
-        <v>2.03</v>
-      </c>
-      <c r="AI59">
-        <v>1.67</v>
-      </c>
-      <c r="AJ59">
-        <v>2.15</v>
-      </c>
-      <c r="AK59">
-        <v>2.1</v>
       </c>
       <c r="AL59">
         <v>1.25</v>
       </c>
       <c r="AM59">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AN59">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="AP59">
-        <v>2.09</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.89</v>
+        <v>1.45</v>
       </c>
       <c r="AR59">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AS59">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="AT59">
-        <v>2.83</v>
+        <v>3.07</v>
       </c>
       <c r="AU59">
         <v>6</v>
       </c>
       <c r="AV59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY59">
         <v>11</v>
       </c>
       <c r="AZ59">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD59">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="BE59">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF59">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="BG59">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="BH59">
-        <v>2.91</v>
+        <v>2.38</v>
       </c>
       <c r="BI59">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="BJ59">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="BK59">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="BL59">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="BM59">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="BN59">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="BO59">
-        <v>3.84</v>
+        <v>4.6</v>
       </c>
       <c r="BP59">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13170,7 +13179,7 @@
         <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13194,7 +13203,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13275,16 +13284,16 @@
         <v>0.36</v>
       </c>
       <c r="AQ60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR60">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AS60">
         <v>1.69</v>
       </c>
       <c r="AT60">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13373,7 +13382,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
@@ -13400,7 +13409,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13481,16 +13490,16 @@
         <v>0.73</v>
       </c>
       <c r="AQ61">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR61">
         <v>1.41</v>
       </c>
       <c r="AS61">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13579,7 +13588,7 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
         <v>78</v>
@@ -13606,7 +13615,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13684,19 +13693,19 @@
         <v>0.13</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ62">
         <v>0.36</v>
       </c>
       <c r="AR62">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AS62">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AT62">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13812,7 +13821,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13890,19 +13899,19 @@
         <v>1.14</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63">
         <v>1.27</v>
       </c>
       <c r="AR63">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AS63">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AT63">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -13976,7 +13985,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7454212</v>
+        <v>7720561</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13994,7 +14003,7 @@
         <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -14018,115 +14027,115 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z64">
         <v>2.5</v>
       </c>
       <c r="AA64">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AB64">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG64">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH64">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AN64">
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR64">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT64">
-        <v>1.94</v>
+        <v>2.19</v>
       </c>
       <c r="AU64">
+        <v>8</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
         <v>7</v>
       </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>8</v>
-      </c>
       <c r="AX64">
         <v>0</v>
       </c>
       <c r="AY64">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA64">
         <v>15</v>
@@ -14138,43 +14147,43 @@
         <v>17</v>
       </c>
       <c r="BD64">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BE64">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="BF64">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BG64">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BH64">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BI64">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BJ64">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="BK64">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL64">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BM64">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BN64">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BO64">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP64">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14197,10 +14206,10 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s">
         <v>85</v>
-      </c>
-      <c r="H65" t="s">
-        <v>84</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -14224,7 +14233,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14403,10 +14412,10 @@
         <v>9</v>
       </c>
       <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
         <v>81</v>
-      </c>
-      <c r="H66" t="s">
-        <v>80</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -14430,7 +14439,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14508,7 +14517,7 @@
         <v>1.14</v>
       </c>
       <c r="AP66">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ66">
         <v>0.8</v>
@@ -14636,7 +14645,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14723,10 +14732,10 @@
         <v>1.34</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14920,19 +14929,19 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ68">
         <v>1</v>
       </c>
       <c r="AR68">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AT68">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15048,7 +15057,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15129,16 +15138,16 @@
         <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
       </c>
       <c r="AS69">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AT69">
-        <v>3.99</v>
+        <v>4.05</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15254,7 +15263,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15332,19 +15341,19 @@
         <v>1.44</v>
       </c>
       <c r="AP70">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ70">
         <v>1.18</v>
       </c>
       <c r="AR70">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AS70">
         <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15436,7 +15445,7 @@
         <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15460,7 +15469,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15544,13 +15553,13 @@
         <v>0.73</v>
       </c>
       <c r="AR71">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AS71">
         <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -15624,7 +15633,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7453762</v>
+        <v>7453761</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15639,49 +15648,49 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" t="s">
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R72">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S72">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T72">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V72">
         <v>2.63</v>
@@ -15690,73 +15699,73 @@
         <v>1.44</v>
       </c>
       <c r="X72">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y72">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z72">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AA72">
         <v>3.4</v>
       </c>
       <c r="AB72">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AC72">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD72">
-        <v>13</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AE72">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF72">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="AG72">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH72">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI72">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ72">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK72">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AL72">
         <v>1.32</v>
       </c>
       <c r="AM72">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AN72">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AP72">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ72">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AR72">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AS72">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT72">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -15765,34 +15774,34 @@
         <v>5</v>
       </c>
       <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>16</v>
+      </c>
+      <c r="AZ72">
+        <v>11</v>
+      </c>
+      <c r="BA72">
         <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>4</v>
-      </c>
-      <c r="AY72">
-        <v>11</v>
-      </c>
-      <c r="AZ72">
-        <v>14</v>
-      </c>
-      <c r="BA72">
-        <v>3</v>
       </c>
       <c r="BB72">
         <v>4</v>
       </c>
       <c r="BC72">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD72">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BE72">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="BF72">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="BG72">
         <v>1.49</v>
@@ -15830,7 +15839,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7453761</v>
+        <v>7453762</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15845,49 +15854,49 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="Q73">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S73">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T73">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V73">
         <v>2.63</v>
@@ -15896,73 +15905,73 @@
         <v>1.44</v>
       </c>
       <c r="X73">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y73">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z73">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="AA73">
         <v>3.4</v>
       </c>
       <c r="AB73">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AC73">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD73">
-        <v>9.949999999999999</v>
+        <v>13</v>
       </c>
       <c r="AE73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF73">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="AG73">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH73">
+        <v>2.05</v>
+      </c>
+      <c r="AI73">
+        <v>1.67</v>
+      </c>
+      <c r="AJ73">
         <v>2.1</v>
       </c>
-      <c r="AI73">
-        <v>1.62</v>
-      </c>
-      <c r="AJ73">
-        <v>2.2</v>
-      </c>
       <c r="AK73">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AL73">
         <v>1.32</v>
       </c>
       <c r="AM73">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AO73">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AR73">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AS73">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -15971,34 +15980,34 @@
         <v>5</v>
       </c>
       <c r="AW73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB73">
         <v>4</v>
       </c>
       <c r="BC73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD73">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BE73">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="BF73">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BG73">
         <v>1.49</v>
@@ -16051,10 +16060,10 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16078,7 +16087,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16159,7 +16168,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR74">
         <v>1.7</v>
@@ -16365,16 +16374,16 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR75">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS75">
         <v>1.09</v>
       </c>
       <c r="AT75">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16448,7 +16457,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7453759</v>
+        <v>7720562</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16463,7 +16472,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
         <v>83</v>
@@ -16490,115 +16499,115 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U76">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC76">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AG76">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI76">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AJ76">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK76">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AL76">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM76">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN76">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AO76">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR76">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AS76">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>2.39</v>
+        <v>2.89</v>
       </c>
       <c r="AU76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW76">
+        <v>4</v>
+      </c>
+      <c r="AX76">
         <v>6</v>
-      </c>
-      <c r="AX76">
-        <v>4</v>
       </c>
       <c r="AY76">
         <v>11</v>
       </c>
       <c r="AZ76">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA76">
         <v>4</v>
@@ -16610,43 +16619,43 @@
         <v>7</v>
       </c>
       <c r="BD76">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="BE76">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="BF76">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BG76">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BH76">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="BI76">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BJ76">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="BK76">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="BL76">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BM76">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BN76">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BO76">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP76">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16672,7 +16681,7 @@
         <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -16780,13 +16789,13 @@
         <v>0.8</v>
       </c>
       <c r="AR77">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AS77">
         <v>1.41</v>
       </c>
       <c r="AT77">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -16875,7 +16884,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s">
         <v>75</v>
@@ -16902,7 +16911,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -16989,10 +16998,10 @@
         <v>1.77</v>
       </c>
       <c r="AS78">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="AT78">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="AU78">
         <v>5</v>
@@ -17081,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
         <v>82</v>
@@ -17108,7 +17117,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17186,7 +17195,7 @@
         <v>2.2</v>
       </c>
       <c r="AP79">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ79">
         <v>2.09</v>
@@ -17195,10 +17204,10 @@
         <v>1.58</v>
       </c>
       <c r="AS79">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17290,7 +17299,7 @@
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -17314,7 +17323,7 @@
         <v>125</v>
       </c>
       <c r="P80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17392,19 +17401,19 @@
         <v>1.7</v>
       </c>
       <c r="AP80">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR80">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AT80">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17478,7 +17487,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7453767</v>
+        <v>7720563</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17496,7 +17505,7 @@
         <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -17520,115 +17529,115 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z81">
+        <v>1.85</v>
+      </c>
+      <c r="AA81">
+        <v>3.3</v>
+      </c>
+      <c r="AB81">
+        <v>3.75</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>2.1</v>
+      </c>
+      <c r="AH81">
+        <v>1.7</v>
+      </c>
+      <c r="AI81">
+        <v>2</v>
+      </c>
+      <c r="AJ81">
+        <v>1.73</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1.75</v>
+      </c>
+      <c r="AO81">
+        <v>2.5</v>
+      </c>
+      <c r="AP81">
+        <v>1.4</v>
+      </c>
+      <c r="AQ81">
         <v>2.6</v>
       </c>
-      <c r="AA81">
-        <v>3.25</v>
-      </c>
-      <c r="AB81">
-        <v>2.6</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>0</v>
-      </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>2.02</v>
-      </c>
-      <c r="AH81">
-        <v>1.71</v>
-      </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AN81">
-        <v>1.3</v>
-      </c>
-      <c r="AO81">
-        <v>1.9</v>
-      </c>
-      <c r="AP81">
-        <v>1.18</v>
-      </c>
-      <c r="AQ81">
-        <v>2</v>
-      </c>
       <c r="AR81">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS81">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AT81">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV81">
         <v>4</v>
       </c>
       <c r="AW81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX81">
         <v>1</v>
       </c>
       <c r="AY81">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ81">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA81">
         <v>5</v>
@@ -17726,7 +17735,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17810,13 +17819,13 @@
         <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS82">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT82">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -17932,7 +17941,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18010,19 +18019,19 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83">
         <v>1.27</v>
       </c>
       <c r="AR83">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS83">
         <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18096,7 +18105,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7453768</v>
+        <v>7453770</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18111,190 +18120,190 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s">
         <v>85</v>
       </c>
-      <c r="H84" t="s">
-        <v>72</v>
-      </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84">
         <v>4</v>
       </c>
       <c r="O84" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
+        <v>3.75</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>2.75</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.75</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>7</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>3.3</v>
+      </c>
+      <c r="AA84">
+        <v>3.1</v>
+      </c>
+      <c r="AB84">
+        <v>1.98</v>
+      </c>
+      <c r="AC84">
+        <v>1.07</v>
+      </c>
+      <c r="AD84">
+        <v>7.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.42</v>
+      </c>
+      <c r="AF84">
+        <v>2.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.96</v>
+      </c>
+      <c r="AH84">
+        <v>1.76</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.91</v>
+      </c>
+      <c r="AK84">
+        <v>1.83</v>
+      </c>
+      <c r="AL84">
+        <v>1.28</v>
+      </c>
+      <c r="AM84">
+        <v>1.22</v>
+      </c>
+      <c r="AN84">
+        <v>0.89</v>
+      </c>
+      <c r="AO84">
+        <v>1.2</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1.36</v>
+      </c>
+      <c r="AR84">
+        <v>1.34</v>
+      </c>
+      <c r="AS84">
+        <v>1.79</v>
+      </c>
+      <c r="AT84">
+        <v>3.13</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AV84">
+        <v>9</v>
+      </c>
+      <c r="AW84">
+        <v>1</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
         <v>8</v>
       </c>
-      <c r="R84">
-        <v>2.75</v>
-      </c>
-      <c r="S84">
-        <v>1.62</v>
-      </c>
-      <c r="T84">
-        <v>1.22</v>
-      </c>
-      <c r="U84">
+      <c r="AZ84">
+        <v>17</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
         <v>4</v>
       </c>
-      <c r="V84">
-        <v>2.1</v>
-      </c>
-      <c r="W84">
-        <v>1.67</v>
-      </c>
-      <c r="X84">
-        <v>4.33</v>
-      </c>
-      <c r="Y84">
-        <v>1.2</v>
-      </c>
-      <c r="Z84">
-        <v>15.5</v>
-      </c>
-      <c r="AA84">
-        <v>7.5</v>
-      </c>
-      <c r="AB84">
-        <v>1.12</v>
-      </c>
-      <c r="AC84">
-        <v>1.01</v>
-      </c>
-      <c r="AD84">
-        <v>17</v>
-      </c>
-      <c r="AE84">
-        <v>1.16</v>
-      </c>
-      <c r="AF84">
-        <v>4.75</v>
-      </c>
-      <c r="AG84">
-        <v>1.4</v>
-      </c>
-      <c r="AH84">
-        <v>2.73</v>
-      </c>
-      <c r="AI84">
-        <v>1.83</v>
-      </c>
-      <c r="AJ84">
-        <v>1.83</v>
-      </c>
-      <c r="AK84">
-        <v>6</v>
-      </c>
-      <c r="AL84">
-        <v>1.06</v>
-      </c>
-      <c r="AM84">
-        <v>1.01</v>
-      </c>
-      <c r="AN84">
-        <v>0.8</v>
-      </c>
-      <c r="AO84">
-        <v>2.78</v>
-      </c>
-      <c r="AP84">
-        <v>0.73</v>
-      </c>
-      <c r="AQ84">
+      <c r="BC84">
+        <v>9</v>
+      </c>
+      <c r="BD84">
+        <v>3.02</v>
+      </c>
+      <c r="BE84">
+        <v>6.5</v>
+      </c>
+      <c r="BF84">
+        <v>1.58</v>
+      </c>
+      <c r="BG84">
+        <v>1.35</v>
+      </c>
+      <c r="BH84">
         <v>2.8</v>
       </c>
-      <c r="AR84">
-        <v>1.32</v>
-      </c>
-      <c r="AS84">
-        <v>2.34</v>
-      </c>
-      <c r="AT84">
-        <v>3.66</v>
-      </c>
-      <c r="AU84">
-        <v>5</v>
-      </c>
-      <c r="AV84">
-        <v>13</v>
-      </c>
-      <c r="AW84">
-        <v>3</v>
-      </c>
-      <c r="AX84">
-        <v>10</v>
-      </c>
-      <c r="AY84">
-        <v>11</v>
-      </c>
-      <c r="AZ84">
-        <v>29</v>
-      </c>
-      <c r="BA84">
-        <v>3</v>
-      </c>
-      <c r="BB84">
-        <v>12</v>
-      </c>
-      <c r="BC84">
-        <v>15</v>
-      </c>
-      <c r="BD84">
-        <v>16.5</v>
-      </c>
-      <c r="BE84">
-        <v>16.25</v>
-      </c>
-      <c r="BF84">
-        <v>1</v>
-      </c>
-      <c r="BG84">
-        <v>1.37</v>
-      </c>
-      <c r="BH84">
-        <v>2.75</v>
-      </c>
       <c r="BI84">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BJ84">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="BK84">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL84">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BM84">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="BN84">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BO84">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BP84">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18302,7 +18311,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7453770</v>
+        <v>7453768</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18317,190 +18326,190 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N85">
         <v>4</v>
       </c>
       <c r="O85" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="R85">
+        <v>2.75</v>
+      </c>
+      <c r="S85">
+        <v>1.62</v>
+      </c>
+      <c r="T85">
+        <v>1.22</v>
+      </c>
+      <c r="U85">
+        <v>4</v>
+      </c>
+      <c r="V85">
         <v>2.1</v>
       </c>
-      <c r="S85">
+      <c r="W85">
+        <v>1.67</v>
+      </c>
+      <c r="X85">
+        <v>4.33</v>
+      </c>
+      <c r="Y85">
+        <v>1.2</v>
+      </c>
+      <c r="Z85">
+        <v>15.5</v>
+      </c>
+      <c r="AA85">
+        <v>7.5</v>
+      </c>
+      <c r="AB85">
+        <v>1.12</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.16</v>
+      </c>
+      <c r="AF85">
+        <v>4.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.4</v>
+      </c>
+      <c r="AH85">
+        <v>2.73</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.83</v>
+      </c>
+      <c r="AK85">
+        <v>6</v>
+      </c>
+      <c r="AL85">
+        <v>1.06</v>
+      </c>
+      <c r="AM85">
+        <v>1.01</v>
+      </c>
+      <c r="AN85">
+        <v>0.8</v>
+      </c>
+      <c r="AO85">
+        <v>2.78</v>
+      </c>
+      <c r="AP85">
+        <v>0.73</v>
+      </c>
+      <c r="AQ85">
+        <v>2.82</v>
+      </c>
+      <c r="AR85">
+        <v>1.32</v>
+      </c>
+      <c r="AS85">
+        <v>2.39</v>
+      </c>
+      <c r="AT85">
+        <v>3.71</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>13</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>10</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>29</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>12</v>
+      </c>
+      <c r="BC85">
+        <v>15</v>
+      </c>
+      <c r="BD85">
+        <v>16.5</v>
+      </c>
+      <c r="BE85">
+        <v>16.25</v>
+      </c>
+      <c r="BF85">
+        <v>1</v>
+      </c>
+      <c r="BG85">
+        <v>1.37</v>
+      </c>
+      <c r="BH85">
         <v>2.75</v>
       </c>
-      <c r="T85">
-        <v>1.4</v>
-      </c>
-      <c r="U85">
-        <v>2.75</v>
-      </c>
-      <c r="V85">
-        <v>3</v>
-      </c>
-      <c r="W85">
-        <v>1.36</v>
-      </c>
-      <c r="X85">
-        <v>7</v>
-      </c>
-      <c r="Y85">
-        <v>1.08</v>
-      </c>
-      <c r="Z85">
-        <v>3.3</v>
-      </c>
-      <c r="AA85">
-        <v>3.1</v>
-      </c>
-      <c r="AB85">
-        <v>1.98</v>
-      </c>
-      <c r="AC85">
-        <v>1.07</v>
-      </c>
-      <c r="AD85">
-        <v>7.5</v>
-      </c>
-      <c r="AE85">
-        <v>1.42</v>
-      </c>
-      <c r="AF85">
-        <v>2.75</v>
-      </c>
-      <c r="AG85">
-        <v>1.96</v>
-      </c>
-      <c r="AH85">
-        <v>1.76</v>
-      </c>
-      <c r="AI85">
-        <v>1.8</v>
-      </c>
-      <c r="AJ85">
-        <v>1.91</v>
-      </c>
-      <c r="AK85">
-        <v>1.83</v>
-      </c>
-      <c r="AL85">
-        <v>1.28</v>
-      </c>
-      <c r="AM85">
-        <v>1.22</v>
-      </c>
-      <c r="AN85">
-        <v>0.89</v>
-      </c>
-      <c r="AO85">
-        <v>1.2</v>
-      </c>
-      <c r="AP85">
-        <v>0.8</v>
-      </c>
-      <c r="AQ85">
-        <v>1.36</v>
-      </c>
-      <c r="AR85">
-        <v>1.34</v>
-      </c>
-      <c r="AS85">
-        <v>1.79</v>
-      </c>
-      <c r="AT85">
-        <v>3.13</v>
-      </c>
-      <c r="AU85">
-        <v>4</v>
-      </c>
-      <c r="AV85">
-        <v>9</v>
-      </c>
-      <c r="AW85">
-        <v>1</v>
-      </c>
-      <c r="AX85">
-        <v>3</v>
-      </c>
-      <c r="AY85">
-        <v>8</v>
-      </c>
-      <c r="AZ85">
-        <v>17</v>
-      </c>
-      <c r="BA85">
-        <v>5</v>
-      </c>
-      <c r="BB85">
-        <v>4</v>
-      </c>
-      <c r="BC85">
-        <v>9</v>
-      </c>
-      <c r="BD85">
-        <v>3.02</v>
-      </c>
-      <c r="BE85">
-        <v>6.5</v>
-      </c>
-      <c r="BF85">
-        <v>1.58</v>
-      </c>
-      <c r="BG85">
+      <c r="BI85">
+        <v>1.7</v>
+      </c>
+      <c r="BJ85">
+        <v>2.05</v>
+      </c>
+      <c r="BK85">
+        <v>2.05</v>
+      </c>
+      <c r="BL85">
+        <v>1.65</v>
+      </c>
+      <c r="BM85">
+        <v>2.65</v>
+      </c>
+      <c r="BN85">
         <v>1.35</v>
       </c>
-      <c r="BH85">
-        <v>2.8</v>
-      </c>
-      <c r="BI85">
-        <v>1.54</v>
-      </c>
-      <c r="BJ85">
-        <v>2.14</v>
-      </c>
-      <c r="BK85">
-        <v>2</v>
-      </c>
-      <c r="BL85">
-        <v>1.73</v>
-      </c>
-      <c r="BM85">
-        <v>2.54</v>
-      </c>
-      <c r="BN85">
-        <v>1.38</v>
-      </c>
       <c r="BO85">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BP85">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18628,19 +18637,19 @@
         <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ86">
         <v>0.36</v>
       </c>
       <c r="AR86">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AS86">
         <v>1.08</v>
       </c>
       <c r="AT86">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18707,6 +18716,624 @@
       </c>
       <c r="BP86">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7453773</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45583.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="O87" t="s">
+        <v>150</v>
+      </c>
+      <c r="P87" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q87">
+        <v>1.36</v>
+      </c>
+      <c r="R87">
+        <v>3.25</v>
+      </c>
+      <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>1.2</v>
+      </c>
+      <c r="U87">
+        <v>4.33</v>
+      </c>
+      <c r="V87">
+        <v>1.91</v>
+      </c>
+      <c r="W87">
+        <v>1.8</v>
+      </c>
+      <c r="X87">
+        <v>3.75</v>
+      </c>
+      <c r="Y87">
+        <v>1.25</v>
+      </c>
+      <c r="Z87">
+        <v>1.04</v>
+      </c>
+      <c r="AA87">
+        <v>9</v>
+      </c>
+      <c r="AB87">
+        <v>26</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>1.3</v>
+      </c>
+      <c r="AH87">
+        <v>3.3</v>
+      </c>
+      <c r="AI87">
+        <v>2.5</v>
+      </c>
+      <c r="AJ87">
+        <v>1.5</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>2.6</v>
+      </c>
+      <c r="AO87">
+        <v>0.8</v>
+      </c>
+      <c r="AP87">
+        <v>2.67</v>
+      </c>
+      <c r="AQ87">
+        <v>0.67</v>
+      </c>
+      <c r="AR87">
+        <v>2.72</v>
+      </c>
+      <c r="AS87">
+        <v>1.54</v>
+      </c>
+      <c r="AT87">
+        <v>4.26</v>
+      </c>
+      <c r="AU87">
+        <v>7</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>2</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>16</v>
+      </c>
+      <c r="BA87">
+        <v>1</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>2</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7454213</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45583.54166666666</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <v>1.91</v>
+      </c>
+      <c r="R88">
+        <v>2.4</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>1.3</v>
+      </c>
+      <c r="U88">
+        <v>3.4</v>
+      </c>
+      <c r="V88">
+        <v>2.38</v>
+      </c>
+      <c r="W88">
+        <v>1.53</v>
+      </c>
+      <c r="X88">
+        <v>5</v>
+      </c>
+      <c r="Y88">
+        <v>1.14</v>
+      </c>
+      <c r="Z88">
+        <v>1.4</v>
+      </c>
+      <c r="AA88">
+        <v>4.5</v>
+      </c>
+      <c r="AB88">
+        <v>6.5</v>
+      </c>
+      <c r="AC88">
+        <v>4.12</v>
+      </c>
+      <c r="AD88">
+        <v>1.2</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>1.56</v>
+      </c>
+      <c r="AH88">
+        <v>2.28</v>
+      </c>
+      <c r="AI88">
+        <v>1.83</v>
+      </c>
+      <c r="AJ88">
+        <v>1.83</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1.86</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.41</v>
+      </c>
+      <c r="AS88">
+        <v>0.9</v>
+      </c>
+      <c r="AT88">
+        <v>2.31</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>17</v>
+      </c>
+      <c r="AZ88">
+        <v>13</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7453777</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45583.58333333334</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>87</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89">
+        <v>2.2</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>4.33</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.38</v>
+      </c>
+      <c r="W89">
+        <v>1.53</v>
+      </c>
+      <c r="X89">
+        <v>5</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>1.67</v>
+      </c>
+      <c r="AA89">
+        <v>3.8</v>
+      </c>
+      <c r="AB89">
+        <v>4.33</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>1.55</v>
+      </c>
+      <c r="AH89">
+        <v>2.3</v>
+      </c>
+      <c r="AI89">
+        <v>1.62</v>
+      </c>
+      <c r="AJ89">
+        <v>2.2</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1.67</v>
+      </c>
+      <c r="AO89">
+        <v>1.2</v>
+      </c>
+      <c r="AP89">
+        <v>1.43</v>
+      </c>
+      <c r="AQ89">
+        <v>1.5</v>
+      </c>
+      <c r="AR89">
+        <v>1.98</v>
+      </c>
+      <c r="AS89">
+        <v>1.77</v>
+      </c>
+      <c r="AT89">
+        <v>3.75</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>11</v>
+      </c>
+      <c r="AW89">
+        <v>8</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>22</v>
+      </c>
+      <c r="AZ89">
+        <v>16</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>8</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,12 +397,12 @@
     <t>['15', '57']</t>
   </si>
   <si>
+    <t>['48', '55']</t>
+  </si>
+  <si>
     <t>['9', '43']</t>
   </si>
   <si>
-    <t>['48', '55']</t>
-  </si>
-  <si>
     <t>['29', '47']</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>['18', '86', '90+6']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['51', '55']</t>
   </si>
   <si>
     <t>['48', '52', '63', '67', '68']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['7', '11', '86']</t>
   </si>
   <si>
@@ -475,6 +475,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -583,24 +586,21 @@
     <t>['13', '18', '53', '59']</t>
   </si>
   <si>
+    <t>['7', '24']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
     <t>['65', '83']</t>
   </si>
   <si>
-    <t>['7', '24']</t>
-  </si>
-  <si>
     <t>['52', '65', '69']</t>
   </si>
   <si>
     <t>['57', '82']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
     <t>['24', '45+3', '55', '65']</t>
   </si>
   <si>
@@ -637,10 +637,10 @@
     <t>['6', '39', '59', '73']</t>
   </si>
   <si>
+    <t>['2', '84']</t>
+  </si>
+  <si>
     <t>['89']</t>
-  </si>
-  <si>
-    <t>['2', '84']</t>
   </si>
   <si>
     <t>['52', '90+4']</t>
@@ -1005,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1470,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1676,7 +1676,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -2294,7 +2294,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2500,7 +2500,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2787,7 +2787,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3324,7 +3324,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3530,7 +3530,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4148,7 +4148,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4229,7 +4229,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4354,7 +4354,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>0.17</v>
@@ -4766,7 +4766,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5796,7 +5796,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6208,7 +6208,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6620,7 +6620,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7032,7 +7032,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7444,7 +7444,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7650,7 +7650,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7856,7 +7856,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8555,7 +8555,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8680,7 +8680,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8853,7 +8853,7 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45527.66666666666</v>
+        <v>45526.875</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -8886,7 +8886,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8964,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -9092,7 +9092,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9298,7 +9298,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9504,7 +9504,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9585,7 +9585,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -9710,7 +9710,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9916,7 +9916,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10122,7 +10122,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10740,7 +10740,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11119,7 +11119,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45536.58333333334</v>
+        <v>45535.875</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -11152,7 +11152,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11358,7 +11358,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11851,7 +11851,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -11934,7 +11934,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7453742</v>
+        <v>7453745</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11943,133 +11943,133 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45549.54166666666</v>
+        <v>45548.875</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O54" t="s">
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="Q54">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="AA54">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AB54">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="AC54">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AH54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI54">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AK54">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AL54">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AM54">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.77</v>
       </c>
       <c r="AT54">
-        <v>2.75</v>
+        <v>1.77</v>
       </c>
       <c r="AU54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV54">
         <v>5</v>
@@ -12078,61 +12078,61 @@
         <v>3</v>
       </c>
       <c r="AX54">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY54">
+        <v>5</v>
+      </c>
+      <c r="AZ54">
         <v>8</v>
       </c>
-      <c r="AZ54">
+      <c r="BA54">
+        <v>5</v>
+      </c>
+      <c r="BB54">
+        <v>9</v>
+      </c>
+      <c r="BC54">
         <v>14</v>
       </c>
-      <c r="BA54">
-        <v>6</v>
-      </c>
-      <c r="BB54">
-        <v>5</v>
-      </c>
-      <c r="BC54">
-        <v>11</v>
-      </c>
       <c r="BD54">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BE54">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF54">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="BG54">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BH54">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BI54">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BK54">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BL54">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BM54">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BN54">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BO54">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="BP54">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12140,7 +12140,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7453745</v>
+        <v>7453742</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12149,133 +12149,133 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45549.625</v>
+        <v>45549.54166666666</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z55">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="AA55">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AB55">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AG55">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH55">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK55">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN55">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO55">
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
-        <v>0.7</v>
+        <v>1.46</v>
       </c>
       <c r="AS55">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="AT55">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="AU55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV55">
         <v>5</v>
@@ -12284,61 +12284,61 @@
         <v>3</v>
       </c>
       <c r="AX55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY55">
+        <v>8</v>
+      </c>
+      <c r="AZ55">
+        <v>14</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
         <v>5</v>
       </c>
-      <c r="AZ55">
-        <v>8</v>
-      </c>
-      <c r="BA55">
-        <v>5</v>
-      </c>
-      <c r="BB55">
-        <v>9</v>
-      </c>
       <c r="BC55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD55">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BE55">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BF55">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="BG55">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BH55">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BI55">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BJ55">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BK55">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BL55">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BM55">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BN55">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BO55">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="BP55">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12594,7 +12594,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12681,10 +12681,10 @@
         <v>1.94</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AT57">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -12800,7 +12800,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13006,7 +13006,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13212,7 +13212,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13418,7 +13418,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13505,10 +13505,10 @@
         <v>1.36</v>
       </c>
       <c r="AS61">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="AT61">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13582,7 +13582,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7453748</v>
+        <v>7454212</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13591,31 +13591,31 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45556.54166666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F62">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
         <v>3</v>
@@ -13624,163 +13624,163 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q62">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>2.5</v>
+      </c>
+      <c r="AA62">
+        <v>3.1</v>
+      </c>
+      <c r="AB62">
         <v>2.63</v>
       </c>
-      <c r="S62">
-        <v>8.5</v>
-      </c>
-      <c r="T62">
-        <v>1.29</v>
-      </c>
-      <c r="U62">
-        <v>3.5</v>
-      </c>
-      <c r="V62">
-        <v>2.25</v>
-      </c>
-      <c r="W62">
-        <v>1.57</v>
-      </c>
-      <c r="X62">
-        <v>5</v>
-      </c>
-      <c r="Y62">
-        <v>1.14</v>
-      </c>
-      <c r="Z62">
-        <v>1.3</v>
-      </c>
-      <c r="AA62">
-        <v>5.5</v>
-      </c>
-      <c r="AB62">
-        <v>6</v>
-      </c>
       <c r="AC62">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>1.91</v>
+      </c>
+      <c r="AH62">
+        <v>1.8</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>2.33</v>
+      </c>
+      <c r="AP62">
+        <v>1.17</v>
+      </c>
+      <c r="AQ62">
+        <v>2.6</v>
+      </c>
+      <c r="AR62">
+        <v>1.12</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>1.12</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>8</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
         <v>15</v>
       </c>
-      <c r="AE62">
-        <v>1.17</v>
-      </c>
-      <c r="AF62">
-        <v>5</v>
-      </c>
-      <c r="AG62">
-        <v>1.44</v>
-      </c>
-      <c r="AH62">
-        <v>2.59</v>
-      </c>
-      <c r="AI62">
-        <v>2.1</v>
-      </c>
-      <c r="AJ62">
-        <v>1.67</v>
-      </c>
-      <c r="AK62">
-        <v>1.05</v>
-      </c>
-      <c r="AL62">
-        <v>1.12</v>
-      </c>
-      <c r="AM62">
-        <v>4.3</v>
-      </c>
-      <c r="AN62">
-        <v>2.25</v>
-      </c>
-      <c r="AO62">
-        <v>0.25</v>
-      </c>
-      <c r="AP62">
-        <v>1.86</v>
-      </c>
-      <c r="AQ62">
-        <v>0.17</v>
-      </c>
-      <c r="AR62">
-        <v>1.13</v>
-      </c>
-      <c r="AS62">
-        <v>0.98</v>
-      </c>
-      <c r="AT62">
-        <v>2.11</v>
-      </c>
-      <c r="AU62">
-        <v>5</v>
-      </c>
-      <c r="AV62">
-        <v>5</v>
-      </c>
-      <c r="AW62">
-        <v>16</v>
-      </c>
-      <c r="AX62">
-        <v>3</v>
-      </c>
-      <c r="AY62">
-        <v>29</v>
-      </c>
       <c r="AZ62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BA62">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BB62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC62">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BD62">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BE62">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF62">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="BG62">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BH62">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BI62">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK62">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BL62">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BM62">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BN62">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BO62">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BP62">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13788,7 +13788,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7453749</v>
+        <v>7453748</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13803,190 +13803,190 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O63" t="s">
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q63">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R63">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="S63">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="T63">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U63">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X63">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z63">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AA63">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB63">
-        <v>3.91</v>
+        <v>6</v>
       </c>
       <c r="AC63">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD63">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE63">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF63">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AG63">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AH63">
-        <v>1.9</v>
+        <v>2.59</v>
       </c>
       <c r="AI63">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AJ63">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AK63">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AL63">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AM63">
-        <v>2.05</v>
+        <v>4.3</v>
       </c>
       <c r="AN63">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="AR63">
-        <v>1.91</v>
+        <v>1.13</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="AT63">
-        <v>3.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>16</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>29</v>
+      </c>
+      <c r="AZ63">
         <v>10</v>
-      </c>
-      <c r="AV63">
-        <v>7</v>
-      </c>
-      <c r="AW63">
-        <v>6</v>
-      </c>
-      <c r="AX63">
-        <v>4</v>
-      </c>
-      <c r="AY63">
-        <v>18</v>
-      </c>
-      <c r="AZ63">
-        <v>11</v>
       </c>
       <c r="BA63">
         <v>7</v>
       </c>
       <c r="BB63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD63">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="BE63">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF63">
-        <v>2.77</v>
+        <v>6.39</v>
       </c>
       <c r="BG63">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="BH63">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="BI63">
+        <v>1.73</v>
+      </c>
+      <c r="BJ63">
+        <v>2</v>
+      </c>
+      <c r="BK63">
+        <v>2.2</v>
+      </c>
+      <c r="BL63">
         <v>1.6</v>
       </c>
-      <c r="BJ63">
-        <v>2.03</v>
-      </c>
-      <c r="BK63">
-        <v>2.09</v>
-      </c>
-      <c r="BL63">
-        <v>1.63</v>
-      </c>
       <c r="BM63">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="BN63">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BO63">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="BP63">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13994,7 +13994,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7454212</v>
+        <v>7453749</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14003,196 +14003,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45556.625</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O64" t="s">
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z64">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA64">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB64">
-        <v>2.63</v>
+        <v>3.91</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AG64">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AH64">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN64">
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AP64">
+        <v>1.43</v>
+      </c>
+      <c r="AQ64">
+        <v>0.6</v>
+      </c>
+      <c r="AR64">
+        <v>1.81</v>
+      </c>
+      <c r="AS64">
+        <v>1.25</v>
+      </c>
+      <c r="AT64">
+        <v>3.06</v>
+      </c>
+      <c r="AU64">
+        <v>10</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>18</v>
+      </c>
+      <c r="AZ64">
+        <v>11</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>7</v>
+      </c>
+      <c r="BD64">
+        <v>1.64</v>
+      </c>
+      <c r="BE64">
+        <v>8</v>
+      </c>
+      <c r="BF64">
+        <v>2.77</v>
+      </c>
+      <c r="BG64">
+        <v>1.32</v>
+      </c>
+      <c r="BH64">
+        <v>2.78</v>
+      </c>
+      <c r="BI64">
+        <v>1.6</v>
+      </c>
+      <c r="BJ64">
+        <v>2.03</v>
+      </c>
+      <c r="BK64">
+        <v>2.09</v>
+      </c>
+      <c r="BL64">
+        <v>1.63</v>
+      </c>
+      <c r="BM64">
+        <v>2.72</v>
+      </c>
+      <c r="BN64">
+        <v>1.33</v>
+      </c>
+      <c r="BO64">
+        <v>3.78</v>
+      </c>
+      <c r="BP64">
         <v>1.17</v>
-      </c>
-      <c r="AQ64">
-        <v>2.6</v>
-      </c>
-      <c r="AR64">
-        <v>1.12</v>
-      </c>
-      <c r="AS64">
-        <v>0.57</v>
-      </c>
-      <c r="AT64">
-        <v>1.69</v>
-      </c>
-      <c r="AU64">
-        <v>7</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>8</v>
-      </c>
-      <c r="AX64">
-        <v>0</v>
-      </c>
-      <c r="AY64">
-        <v>15</v>
-      </c>
-      <c r="AZ64">
-        <v>3</v>
-      </c>
-      <c r="BA64">
-        <v>15</v>
-      </c>
-      <c r="BB64">
-        <v>2</v>
-      </c>
-      <c r="BC64">
-        <v>17</v>
-      </c>
-      <c r="BD64">
-        <v>0</v>
-      </c>
-      <c r="BE64">
-        <v>0</v>
-      </c>
-      <c r="BF64">
-        <v>0</v>
-      </c>
-      <c r="BG64">
-        <v>0</v>
-      </c>
-      <c r="BH64">
-        <v>0</v>
-      </c>
-      <c r="BI64">
-        <v>0</v>
-      </c>
-      <c r="BJ64">
-        <v>0</v>
-      </c>
-      <c r="BK64">
-        <v>0</v>
-      </c>
-      <c r="BL64">
-        <v>0</v>
-      </c>
-      <c r="BM64">
-        <v>0</v>
-      </c>
-      <c r="BN64">
-        <v>0</v>
-      </c>
-      <c r="BO64">
-        <v>0</v>
-      </c>
-      <c r="BP64">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14242,7 +14242,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14448,7 +14448,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14654,7 +14654,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15559,7 +15559,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -15977,10 +15977,10 @@
         <v>1.97</v>
       </c>
       <c r="AS73">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="AT73">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16260,7 +16260,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7453760</v>
+        <v>7453759</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16269,196 +16269,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="Q75">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X75">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y75">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AB75">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AD75">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AE75">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF75">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AG75">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH75">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AI75">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AJ75">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AK75">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AL75">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM75">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AN75">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR75">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.77</v>
+        <v>1.58</v>
       </c>
       <c r="AT75">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="AU75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX75">
         <v>4</v>
       </c>
       <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
         <v>7</v>
       </c>
-      <c r="AZ75">
-        <v>15</v>
-      </c>
       <c r="BA75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB75">
         <v>3</v>
       </c>
       <c r="BC75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD75">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BE75">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="BF75">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BG75">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH75">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BI75">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BJ75">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BK75">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="BL75">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BM75">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="BN75">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="BO75">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="BP75">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16466,7 +16466,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7453759</v>
+        <v>7453760</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16475,196 +16475,196 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45564.5</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F76">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U76">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC76">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AG76">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI76">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ76">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK76">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL76">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM76">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN76">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO76">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR76">
-        <v>0.76</v>
+        <v>1.22</v>
       </c>
       <c r="AS76">
-        <v>1.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT76">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
         <v>5</v>
       </c>
-      <c r="AV76">
-        <v>3</v>
-      </c>
       <c r="AW76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX76">
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ76">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB76">
         <v>3</v>
       </c>
       <c r="BC76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD76">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE76">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF76">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BG76">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH76">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BI76">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BJ76">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BK76">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BL76">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BM76">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BN76">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BO76">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BP76">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -17126,7 +17126,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17290,7 +17290,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7453764</v>
+        <v>7453767</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17299,76 +17299,76 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45570.375</v>
+        <v>45569.875</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="Q80">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z80">
         <v>2.6</v>
       </c>
       <c r="AA80">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB80">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -17383,73 +17383,73 @@
         <v>0</v>
       </c>
       <c r="AG80">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AH80">
+        <v>1.71</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
         <v>1.75</v>
       </c>
-      <c r="AI80">
-        <v>1.8</v>
-      </c>
-      <c r="AJ80">
-        <v>1.91</v>
-      </c>
-      <c r="AK80">
-        <v>0</v>
-      </c>
-      <c r="AL80">
-        <v>0</v>
-      </c>
-      <c r="AM80">
-        <v>0</v>
-      </c>
-      <c r="AN80">
+      <c r="AO80">
+        <v>2.5</v>
+      </c>
+      <c r="AP80">
         <v>1.4</v>
       </c>
-      <c r="AO80">
-        <v>1.25</v>
-      </c>
-      <c r="AP80">
-        <v>1.33</v>
-      </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="AR80">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="AS80">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AT80">
-        <v>3.19</v>
+        <v>1.32</v>
       </c>
       <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
         <v>4</v>
       </c>
-      <c r="AV80">
-        <v>6</v>
-      </c>
       <c r="AW80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY80">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AZ80">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BA80">
         <v>5</v>
       </c>
       <c r="BB80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD80">
         <v>0</v>
@@ -17496,7 +17496,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7453767</v>
+        <v>7453764</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17505,76 +17505,76 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45570.45833333334</v>
+        <v>45570.375</v>
       </c>
       <c r="F81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z81">
         <v>2.6</v>
       </c>
       <c r="AA81">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB81">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -17589,16 +17589,16 @@
         <v>0</v>
       </c>
       <c r="AG81">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AH81">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AI81">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ81">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK81">
         <v>0</v>
@@ -17610,52 +17610,52 @@
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AO81">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR81">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AS81">
-        <v>0.6</v>
+        <v>1.66</v>
       </c>
       <c r="AT81">
-        <v>1.92</v>
+        <v>3.22</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY81">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AZ81">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BA81">
         <v>5</v>
       </c>
       <c r="BB81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD81">
         <v>0</v>
@@ -18034,13 +18034,13 @@
         <v>0.6</v>
       </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="AS83">
         <v>1.37</v>
       </c>
       <c r="AT83">
-        <v>2.71</v>
+        <v>2.49</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18652,13 +18652,13 @@
         <v>0.17</v>
       </c>
       <c r="AR86">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AS86">
         <v>1.03</v>
       </c>
       <c r="AT86">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18732,7 +18732,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7453773</v>
+        <v>7453777</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18741,157 +18741,157 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45583.45833333334</v>
+        <v>45582.875</v>
       </c>
       <c r="F87">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="P87" t="s">
         <v>207</v>
       </c>
       <c r="Q87">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="R87">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="S87">
-        <v>13</v>
+        <v>4.33</v>
       </c>
       <c r="T87">
+        <v>1.29</v>
+      </c>
+      <c r="U87">
+        <v>3.5</v>
+      </c>
+      <c r="V87">
+        <v>2.38</v>
+      </c>
+      <c r="W87">
+        <v>1.53</v>
+      </c>
+      <c r="X87">
+        <v>5</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>1.67</v>
+      </c>
+      <c r="AA87">
+        <v>3.8</v>
+      </c>
+      <c r="AB87">
+        <v>4.33</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>1.55</v>
+      </c>
+      <c r="AH87">
+        <v>2.3</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1.67</v>
+      </c>
+      <c r="AO87">
         <v>1.2</v>
       </c>
-      <c r="U87">
-        <v>4.33</v>
-      </c>
-      <c r="V87">
-        <v>1.91</v>
-      </c>
-      <c r="W87">
-        <v>1.8</v>
-      </c>
-      <c r="X87">
-        <v>3.75</v>
-      </c>
-      <c r="Y87">
-        <v>1.25</v>
-      </c>
-      <c r="Z87">
-        <v>1.04</v>
-      </c>
-      <c r="AA87">
-        <v>9</v>
-      </c>
-      <c r="AB87">
-        <v>26</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>0</v>
-      </c>
-      <c r="AF87">
-        <v>0</v>
-      </c>
-      <c r="AG87">
-        <v>1.3</v>
-      </c>
-      <c r="AH87">
-        <v>3.3</v>
-      </c>
-      <c r="AI87">
-        <v>2.5</v>
-      </c>
-      <c r="AJ87">
+      <c r="AP87">
+        <v>1.43</v>
+      </c>
+      <c r="AQ87">
         <v>1.5</v>
       </c>
-      <c r="AK87">
-        <v>0</v>
-      </c>
-      <c r="AL87">
-        <v>0</v>
-      </c>
-      <c r="AM87">
-        <v>0</v>
-      </c>
-      <c r="AN87">
-        <v>2.6</v>
-      </c>
-      <c r="AO87">
-        <v>0.8</v>
-      </c>
-      <c r="AP87">
-        <v>2.67</v>
-      </c>
-      <c r="AQ87">
-        <v>0.67</v>
-      </c>
       <c r="AR87">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AS87">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AT87">
-        <v>3.94</v>
+        <v>3.69</v>
       </c>
       <c r="AU87">
         <v>7</v>
       </c>
       <c r="AV87">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AW87">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY87">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ87">
         <v>16</v>
       </c>
       <c r="BA87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC87">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18938,7 +18938,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7454213</v>
+        <v>7453773</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18947,157 +18947,157 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45583.54166666666</v>
+        <v>45582.875</v>
       </c>
       <c r="F88">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O88" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="Q88">
+        <v>1.36</v>
+      </c>
+      <c r="R88">
+        <v>3.25</v>
+      </c>
+      <c r="S88">
+        <v>13</v>
+      </c>
+      <c r="T88">
+        <v>1.2</v>
+      </c>
+      <c r="U88">
+        <v>4.33</v>
+      </c>
+      <c r="V88">
         <v>1.91</v>
       </c>
-      <c r="R88">
+      <c r="W88">
+        <v>1.8</v>
+      </c>
+      <c r="X88">
+        <v>3.75</v>
+      </c>
+      <c r="Y88">
+        <v>1.25</v>
+      </c>
+      <c r="Z88">
+        <v>1.04</v>
+      </c>
+      <c r="AA88">
+        <v>9</v>
+      </c>
+      <c r="AB88">
+        <v>26</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>1.3</v>
+      </c>
+      <c r="AH88">
+        <v>3.3</v>
+      </c>
+      <c r="AI88">
+        <v>2.5</v>
+      </c>
+      <c r="AJ88">
+        <v>1.5</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>2.6</v>
+      </c>
+      <c r="AO88">
+        <v>0.8</v>
+      </c>
+      <c r="AP88">
+        <v>2.67</v>
+      </c>
+      <c r="AQ88">
+        <v>0.67</v>
+      </c>
+      <c r="AR88">
         <v>2.4</v>
       </c>
-      <c r="S88">
+      <c r="AS88">
+        <v>1.54</v>
+      </c>
+      <c r="AT88">
+        <v>3.94</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>2</v>
+      </c>
+      <c r="AX88">
         <v>6</v>
       </c>
-      <c r="T88">
-        <v>1.3</v>
-      </c>
-      <c r="U88">
-        <v>3.4</v>
-      </c>
-      <c r="V88">
-        <v>2.38</v>
-      </c>
-      <c r="W88">
-        <v>1.53</v>
-      </c>
-      <c r="X88">
-        <v>5</v>
-      </c>
-      <c r="Y88">
-        <v>1.14</v>
-      </c>
-      <c r="Z88">
-        <v>1.4</v>
-      </c>
-      <c r="AA88">
-        <v>4.5</v>
-      </c>
-      <c r="AB88">
-        <v>6.5</v>
-      </c>
-      <c r="AC88">
-        <v>4.12</v>
-      </c>
-      <c r="AD88">
-        <v>1.2</v>
-      </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
-      <c r="AG88">
-        <v>1.56</v>
-      </c>
-      <c r="AH88">
-        <v>2.28</v>
-      </c>
-      <c r="AI88">
-        <v>1.83</v>
-      </c>
-      <c r="AJ88">
-        <v>1.83</v>
-      </c>
-      <c r="AK88">
-        <v>0</v>
-      </c>
-      <c r="AL88">
-        <v>0</v>
-      </c>
-      <c r="AM88">
-        <v>0</v>
-      </c>
-      <c r="AN88">
-        <v>2</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
-        <v>1.86</v>
-      </c>
-      <c r="AQ88">
-        <v>1</v>
-      </c>
-      <c r="AR88">
-        <v>1.41</v>
-      </c>
-      <c r="AS88">
-        <v>0.9</v>
-      </c>
-      <c r="AT88">
-        <v>2.31</v>
-      </c>
-      <c r="AU88">
-        <v>6</v>
-      </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>5</v>
-      </c>
-      <c r="AX88">
-        <v>3</v>
-      </c>
       <c r="AY88">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ88">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC88">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -19144,7 +19144,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7453777</v>
+        <v>7454213</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19153,55 +19153,55 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45583.58333333334</v>
+        <v>45582.875</v>
       </c>
       <c r="F89">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89" t="s">
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="Q89">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="R89">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S89">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="T89">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V89">
         <v>2.38</v>
@@ -19216,19 +19216,19 @@
         <v>1.14</v>
       </c>
       <c r="Z89">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AA89">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AB89">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AC89">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE89">
         <v>0</v>
@@ -19237,16 +19237,16 @@
         <v>0</v>
       </c>
       <c r="AG89">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AH89">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="AI89">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ89">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -19258,52 +19258,52 @@
         <v>0</v>
       </c>
       <c r="AN89">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR89">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="AS89">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AT89">
-        <v>3.67</v>
+        <v>2.31</v>
       </c>
       <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
         <v>7</v>
       </c>
-      <c r="AV89">
-        <v>11</v>
-      </c>
-      <c r="AW89">
-        <v>8</v>
-      </c>
-      <c r="AX89">
-        <v>3</v>
-      </c>
-      <c r="AY89">
-        <v>22</v>
-      </c>
-      <c r="AZ89">
-        <v>16</v>
-      </c>
-      <c r="BA89">
-        <v>6</v>
-      </c>
       <c r="BB89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC89">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD89">
         <v>0</v>
@@ -19350,7 +19350,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7453772</v>
+        <v>7453775</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19359,196 +19359,196 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45584.375</v>
+        <v>45583.875</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90">
         <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="P90" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="Q90">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R90">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S90">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>7</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.45</v>
+      </c>
+      <c r="AA90">
+        <v>2.87</v>
+      </c>
+      <c r="AB90">
+        <v>2.42</v>
+      </c>
+      <c r="AC90">
+        <v>1.03</v>
+      </c>
+      <c r="AD90">
+        <v>6.8</v>
+      </c>
+      <c r="AE90">
+        <v>1.5</v>
+      </c>
+      <c r="AF90">
+        <v>2.4</v>
+      </c>
+      <c r="AG90">
+        <v>2</v>
+      </c>
+      <c r="AH90">
+        <v>1.73</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.91</v>
+      </c>
+      <c r="AK90">
+        <v>1.57</v>
+      </c>
+      <c r="AL90">
+        <v>1.3</v>
+      </c>
+      <c r="AM90">
         <v>1.33</v>
       </c>
-      <c r="U90">
-        <v>3.25</v>
-      </c>
-      <c r="V90">
-        <v>2.63</v>
-      </c>
-      <c r="W90">
-        <v>1.44</v>
-      </c>
-      <c r="X90">
-        <v>6</v>
-      </c>
-      <c r="Y90">
-        <v>1.11</v>
-      </c>
-      <c r="Z90">
-        <v>1.63</v>
-      </c>
-      <c r="AA90">
-        <v>3.29</v>
-      </c>
-      <c r="AB90">
-        <v>4.44</v>
-      </c>
-      <c r="AC90">
-        <v>0</v>
-      </c>
-      <c r="AD90">
-        <v>0</v>
-      </c>
-      <c r="AE90">
-        <v>2.26</v>
-      </c>
-      <c r="AF90">
-        <v>1.59</v>
-      </c>
-      <c r="AG90">
+      <c r="AN90">
+        <v>1.33</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1.14</v>
+      </c>
+      <c r="AQ90">
+        <v>1.29</v>
+      </c>
+      <c r="AR90">
+        <v>1.18</v>
+      </c>
+      <c r="AS90">
+        <v>1.22</v>
+      </c>
+      <c r="AT90">
+        <v>2.4</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>10</v>
+      </c>
+      <c r="AZ90">
+        <v>16</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>7</v>
+      </c>
+      <c r="BD90">
         <v>1.85</v>
       </c>
-      <c r="AH90">
-        <v>1.85</v>
-      </c>
-      <c r="AI90">
-        <v>1.73</v>
-      </c>
-      <c r="AJ90">
-        <v>2</v>
-      </c>
-      <c r="AK90">
-        <v>0</v>
-      </c>
-      <c r="AL90">
-        <v>0</v>
-      </c>
-      <c r="AM90">
-        <v>0</v>
-      </c>
-      <c r="AN90">
-        <v>1.8</v>
-      </c>
-      <c r="AO90">
-        <v>0.17</v>
-      </c>
-      <c r="AP90">
-        <v>1.67</v>
-      </c>
-      <c r="AQ90">
-        <v>0.29</v>
-      </c>
-      <c r="AR90">
-        <v>1.6</v>
-      </c>
-      <c r="AS90">
-        <v>1.45</v>
-      </c>
-      <c r="AT90">
-        <v>3.05</v>
-      </c>
-      <c r="AU90">
-        <v>5</v>
-      </c>
-      <c r="AV90">
-        <v>5</v>
-      </c>
-      <c r="AW90">
-        <v>1</v>
-      </c>
-      <c r="AX90">
-        <v>3</v>
-      </c>
-      <c r="AY90">
-        <v>7</v>
-      </c>
-      <c r="AZ90">
-        <v>11</v>
-      </c>
-      <c r="BA90">
-        <v>1</v>
-      </c>
-      <c r="BB90">
-        <v>5</v>
-      </c>
-      <c r="BC90">
-        <v>6</v>
-      </c>
-      <c r="BD90">
-        <v>0</v>
-      </c>
       <c r="BE90">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="BF90">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BG90">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BH90">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="BI90">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BJ90">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BK90">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BL90">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="BM90">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BN90">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BO90">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP90">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19556,7 +19556,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7453775</v>
+        <v>7453772</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19565,196 +19565,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45584.45833333334</v>
+        <v>45583.875</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="Q91">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R91">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S91">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T91">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V91">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W91">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X91">
+        <v>6</v>
+      </c>
+      <c r="Y91">
+        <v>1.11</v>
+      </c>
+      <c r="Z91">
+        <v>1.63</v>
+      </c>
+      <c r="AA91">
+        <v>3.29</v>
+      </c>
+      <c r="AB91">
+        <v>4.44</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>2.26</v>
+      </c>
+      <c r="AF91">
+        <v>1.59</v>
+      </c>
+      <c r="AG91">
+        <v>1.85</v>
+      </c>
+      <c r="AH91">
+        <v>1.85</v>
+      </c>
+      <c r="AI91">
+        <v>1.73</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1.8</v>
+      </c>
+      <c r="AO91">
+        <v>0.17</v>
+      </c>
+      <c r="AP91">
+        <v>1.67</v>
+      </c>
+      <c r="AQ91">
+        <v>0.29</v>
+      </c>
+      <c r="AR91">
+        <v>1.6</v>
+      </c>
+      <c r="AS91">
+        <v>1.45</v>
+      </c>
+      <c r="AT91">
+        <v>3.05</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>1</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+      <c r="AY91">
         <v>7</v>
       </c>
-      <c r="Y91">
-        <v>1.08</v>
-      </c>
-      <c r="Z91">
-        <v>2.45</v>
-      </c>
-      <c r="AA91">
-        <v>2.87</v>
-      </c>
-      <c r="AB91">
-        <v>2.42</v>
-      </c>
-      <c r="AC91">
-        <v>1.03</v>
-      </c>
-      <c r="AD91">
-        <v>6.8</v>
-      </c>
-      <c r="AE91">
-        <v>1.5</v>
-      </c>
-      <c r="AF91">
-        <v>2.4</v>
-      </c>
-      <c r="AG91">
-        <v>2</v>
-      </c>
-      <c r="AH91">
-        <v>1.73</v>
-      </c>
-      <c r="AI91">
-        <v>1.8</v>
-      </c>
-      <c r="AJ91">
-        <v>1.91</v>
-      </c>
-      <c r="AK91">
-        <v>1.57</v>
-      </c>
-      <c r="AL91">
-        <v>1.3</v>
-      </c>
-      <c r="AM91">
-        <v>1.33</v>
-      </c>
-      <c r="AN91">
-        <v>1.33</v>
-      </c>
-      <c r="AO91">
-        <v>1</v>
-      </c>
-      <c r="AP91">
-        <v>1.14</v>
-      </c>
-      <c r="AQ91">
-        <v>1.29</v>
-      </c>
-      <c r="AR91">
-        <v>1.18</v>
-      </c>
-      <c r="AS91">
-        <v>1.22</v>
-      </c>
-      <c r="AT91">
-        <v>2.4</v>
-      </c>
-      <c r="AU91">
-        <v>4</v>
-      </c>
-      <c r="AV91">
-        <v>7</v>
-      </c>
-      <c r="AW91">
+      <c r="AZ91">
+        <v>11</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
         <v>5</v>
       </c>
-      <c r="AX91">
-        <v>4</v>
-      </c>
-      <c r="AY91">
-        <v>10</v>
-      </c>
-      <c r="AZ91">
-        <v>16</v>
-      </c>
-      <c r="BA91">
-        <v>3</v>
-      </c>
-      <c r="BB91">
-        <v>4</v>
-      </c>
       <c r="BC91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD91">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BE91">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="BF91">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="BG91">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BH91">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="BI91">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BJ91">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BK91">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="BL91">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BM91">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="BN91">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BO91">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP91">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19771,7 +19771,7 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45584.54166666666</v>
+        <v>45583.875</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -19961,6 +19961,212 @@
       </c>
       <c r="BP92">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7453774</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45585.5</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>1.95</v>
+      </c>
+      <c r="AA93">
+        <v>3.3</v>
+      </c>
+      <c r="AB93">
+        <v>3.3</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>1.85</v>
+      </c>
+      <c r="AH93">
+        <v>1.83</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1.5</v>
+      </c>
+      <c r="AO93">
+        <v>0.67</v>
+      </c>
+      <c r="AP93">
+        <v>1.71</v>
+      </c>
+      <c r="AQ93">
+        <v>0.57</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>1.4</v>
+      </c>
+      <c r="AT93">
+        <v>1.4</v>
+      </c>
+      <c r="AU93">
+        <v>2</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>4</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>10</v>
+      </c>
+      <c r="BC93">
+        <v>11</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,12 +232,12 @@
     <t>Napredak</t>
   </si>
   <si>
+    <t>Red Star Belgrade</t>
+  </si>
+  <si>
     <t>Mladost Lučani</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
-  </si>
-  <si>
     <t>Čukarički</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['18', '23', '53', '69']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
-    <t>['18', '23', '53', '69']</t>
-  </si>
-  <si>
     <t>['32', '45']</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['85', '90+1']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['2']</t>
-  </si>
-  <si>
     <t>['9', '60', '80', '86']</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>['15', '57']</t>
   </si>
   <si>
+    <t>['9', '43']</t>
+  </si>
+  <si>
     <t>['48', '55']</t>
   </si>
   <si>
-    <t>['9', '43']</t>
-  </si>
-  <si>
     <t>['29', '47']</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>['18', '86', '90+6']</t>
   </si>
   <si>
+    <t>['51', '55']</t>
+  </si>
+  <si>
+    <t>['48', '52', '63', '67', '68']</t>
+  </si>
+  <si>
     <t>['39']</t>
   </si>
   <si>
-    <t>['51', '55']</t>
-  </si>
-  <si>
-    <t>['48', '52', '63', '67', '68']</t>
-  </si>
-  <si>
     <t>['7', '11', '86']</t>
   </si>
   <si>
@@ -478,6 +478,9 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['16', '21', '84']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -493,15 +496,15 @@
     <t>['28', '51', '88']</t>
   </si>
   <si>
+    <t>['2', '27', '52', '65']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['19', '37']</t>
   </si>
   <si>
-    <t>['2', '27', '52', '65']</t>
-  </si>
-  <si>
-    <t>['71']</t>
-  </si>
-  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -586,15 +589,15 @@
     <t>['13', '18', '53', '59']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['65', '83']</t>
+  </si>
+  <si>
     <t>['7', '24']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['65', '83']</t>
-  </si>
-  <si>
     <t>['52', '65', '69']</t>
   </si>
   <si>
@@ -637,13 +640,16 @@
     <t>['6', '39', '59', '73']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['2', '84']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['52', '90+4']</t>
+  </si>
+  <si>
+    <t>['38', '41', '74', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1270,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1470,7 +1476,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1551,7 +1557,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1634,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7453687</v>
+        <v>7453686</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1643,7 +1649,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>45492.875</v>
+        <v>45493.625</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1652,100 +1658,100 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z4">
-        <v>2.15</v>
+        <v>1.06</v>
       </c>
       <c r="AA4">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB4">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AG4">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="AH4">
-        <v>1.59</v>
+        <v>3.2</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1754,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.71</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1769,70 +1775,70 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY4">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AZ4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -1840,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7453686</v>
+        <v>7453687</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1858,187 +1864,187 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="Q5">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2.15</v>
+      </c>
+      <c r="AA5">
+        <v>3.1</v>
+      </c>
+      <c r="AB5">
+        <v>3.1</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>2.16</v>
+      </c>
+      <c r="AH5">
+        <v>1.59</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1.71</v>
+      </c>
+      <c r="AQ5">
+        <v>2.33</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>4</v>
       </c>
-      <c r="Y5">
-        <v>1.2</v>
-      </c>
-      <c r="Z5">
-        <v>1.06</v>
-      </c>
-      <c r="AA5">
-        <v>7.5</v>
-      </c>
-      <c r="AB5">
-        <v>19</v>
-      </c>
-      <c r="AC5">
-        <v>1.01</v>
-      </c>
-      <c r="AD5">
-        <v>14.5</v>
-      </c>
-      <c r="AE5">
-        <v>1.1</v>
-      </c>
-      <c r="AF5">
-        <v>6.75</v>
-      </c>
-      <c r="AG5">
-        <v>1.3</v>
-      </c>
-      <c r="AH5">
-        <v>3.2</v>
-      </c>
-      <c r="AI5">
-        <v>2.4</v>
-      </c>
-      <c r="AJ5">
-        <v>1.45</v>
-      </c>
-      <c r="AK5">
-        <v>1.02</v>
-      </c>
-      <c r="AL5">
-        <v>1.04</v>
-      </c>
-      <c r="AM5">
-        <v>6.5</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>2.67</v>
-      </c>
-      <c r="AQ5">
-        <v>0.17</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>10</v>
-      </c>
       <c r="AV5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AZ5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD5">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -2294,7 +2300,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2372,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
         <v>0.29</v>
@@ -2500,7 +2506,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2870,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7453700</v>
+        <v>7453694</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -2879,16 +2885,16 @@
         <v>69</v>
       </c>
       <c r="E10" s="2">
-        <v>45499.875</v>
+        <v>45500.625</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2900,175 +2906,175 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z10">
-        <v>1.1</v>
+        <v>5.25</v>
       </c>
       <c r="AA10">
-        <v>8.25</v>
+        <v>4.1</v>
       </c>
       <c r="AB10">
-        <v>16.5</v>
+        <v>1.47</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AG10">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="AH10">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>2.67</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR10">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AU10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>6</v>
+      </c>
+      <c r="AZ10">
         <v>17</v>
       </c>
-      <c r="AX10">
-        <v>2</v>
-      </c>
-      <c r="AY10">
-        <v>29</v>
-      </c>
-      <c r="AZ10">
-        <v>2</v>
-      </c>
       <c r="BA10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC10">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -3076,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7453694</v>
+        <v>7453695</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -3091,187 +3097,187 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11">
+        <v>2.75</v>
+      </c>
+      <c r="R11">
+        <v>2.1</v>
+      </c>
+      <c r="S11">
+        <v>3.6</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>2.88</v>
+      </c>
+      <c r="V11">
+        <v>2.88</v>
+      </c>
+      <c r="W11">
+        <v>1.36</v>
+      </c>
+      <c r="X11">
         <v>7</v>
       </c>
-      <c r="R11">
-        <v>2.5</v>
-      </c>
-      <c r="S11">
-        <v>1.73</v>
-      </c>
-      <c r="T11">
-        <v>1.29</v>
-      </c>
-      <c r="U11">
+      <c r="Y11">
+        <v>1.07</v>
+      </c>
+      <c r="Z11">
+        <v>1.82</v>
+      </c>
+      <c r="AA11">
         <v>3.25</v>
       </c>
-      <c r="V11">
-        <v>2.5</v>
-      </c>
-      <c r="W11">
-        <v>1.5</v>
-      </c>
-      <c r="X11">
-        <v>6</v>
-      </c>
-      <c r="Y11">
-        <v>1.11</v>
-      </c>
-      <c r="Z11">
-        <v>5.25</v>
-      </c>
-      <c r="AA11">
-        <v>4.1</v>
-      </c>
       <c r="AB11">
-        <v>1.47</v>
+        <v>3.75</v>
       </c>
       <c r="AC11">
         <v>1.03</v>
       </c>
       <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>1.25</v>
+      </c>
+      <c r="AF11">
+        <v>3.6</v>
+      </c>
+      <c r="AG11">
+        <v>1.9</v>
+      </c>
+      <c r="AH11">
+        <v>1.9</v>
+      </c>
+      <c r="AI11">
+        <v>1.65</v>
+      </c>
+      <c r="AJ11">
+        <v>2.18</v>
+      </c>
+      <c r="AK11">
+        <v>1.3</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.6</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1.4</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
         <v>13</v>
       </c>
-      <c r="AE11">
-        <v>1.14</v>
-      </c>
-      <c r="AF11">
-        <v>4.8</v>
-      </c>
-      <c r="AG11">
-        <v>1.7</v>
-      </c>
-      <c r="AH11">
-        <v>2</v>
-      </c>
-      <c r="AI11">
-        <v>1.73</v>
-      </c>
-      <c r="AJ11">
-        <v>2.05</v>
-      </c>
-      <c r="AK11">
-        <v>3.4</v>
-      </c>
-      <c r="AL11">
-        <v>1.08</v>
-      </c>
-      <c r="AM11">
-        <v>1.06</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>3</v>
-      </c>
-      <c r="AP11">
-        <v>0.67</v>
-      </c>
-      <c r="AQ11">
-        <v>2</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
+      <c r="AZ11">
+        <v>4</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>5</v>
+      </c>
+      <c r="BD11">
+        <v>1.51</v>
+      </c>
+      <c r="BE11">
+        <v>6.8</v>
+      </c>
+      <c r="BF11">
+        <v>3.56</v>
+      </c>
+      <c r="BG11">
+        <v>1.39</v>
+      </c>
+      <c r="BH11">
+        <v>2.75</v>
+      </c>
+      <c r="BI11">
         <v>1.67</v>
       </c>
-      <c r="AT11">
-        <v>1.67</v>
-      </c>
-      <c r="AU11">
-        <v>2</v>
-      </c>
-      <c r="AV11">
-        <v>7</v>
-      </c>
-      <c r="AW11">
-        <v>3</v>
-      </c>
-      <c r="AX11">
-        <v>6</v>
-      </c>
-      <c r="AY11">
-        <v>6</v>
-      </c>
-      <c r="AZ11">
-        <v>17</v>
-      </c>
-      <c r="BA11">
-        <v>2</v>
-      </c>
-      <c r="BB11">
-        <v>6</v>
-      </c>
-      <c r="BC11">
-        <v>8</v>
-      </c>
-      <c r="BD11">
-        <v>3.01</v>
-      </c>
-      <c r="BE11">
-        <v>6.7</v>
-      </c>
-      <c r="BF11">
-        <v>1.64</v>
-      </c>
-      <c r="BG11">
-        <v>1.38</v>
-      </c>
-      <c r="BH11">
-        <v>2.8</v>
-      </c>
-      <c r="BI11">
+      <c r="BJ11">
+        <v>2.08</v>
+      </c>
+      <c r="BK11">
+        <v>2.1</v>
+      </c>
+      <c r="BL11">
         <v>1.65</v>
       </c>
-      <c r="BJ11">
-        <v>2.1</v>
-      </c>
-      <c r="BK11">
-        <v>2.07</v>
-      </c>
-      <c r="BL11">
-        <v>1.67</v>
-      </c>
       <c r="BM11">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BN11">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BO11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BP11">
         <v>1.24</v>
@@ -3282,7 +3288,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7453695</v>
+        <v>7453700</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3294,193 +3300,193 @@
         <v>45500.625</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q12">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1.1</v>
+      </c>
+      <c r="AA12">
+        <v>8.25</v>
+      </c>
+      <c r="AB12">
+        <v>16.5</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>1.36</v>
       </c>
-      <c r="U12">
-        <v>2.88</v>
-      </c>
-      <c r="V12">
-        <v>2.88</v>
-      </c>
-      <c r="W12">
-        <v>1.36</v>
-      </c>
-      <c r="X12">
-        <v>7</v>
-      </c>
-      <c r="Y12">
-        <v>1.07</v>
-      </c>
-      <c r="Z12">
-        <v>1.82</v>
-      </c>
-      <c r="AA12">
-        <v>3.25</v>
-      </c>
-      <c r="AB12">
-        <v>3.75</v>
-      </c>
-      <c r="AC12">
-        <v>1.03</v>
-      </c>
-      <c r="AD12">
-        <v>9</v>
-      </c>
-      <c r="AE12">
-        <v>1.25</v>
-      </c>
-      <c r="AF12">
-        <v>3.6</v>
-      </c>
-      <c r="AG12">
-        <v>1.9</v>
-      </c>
       <c r="AH12">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="AI12">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AX12">
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AZ12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA12">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BB12">
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BD12">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BE12">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="BF12">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="BG12">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BH12">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BI12">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BJ12">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="BK12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BL12">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BM12">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BN12">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BO12">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BP12">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3530,7 +3536,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4148,7 +4154,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4312,7 +4318,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7453701</v>
+        <v>7453703</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4321,196 +4327,196 @@
         <v>69</v>
       </c>
       <c r="E17" s="2">
-        <v>45506.875</v>
+        <v>45507.52083333334</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z17">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB17">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AG17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH17">
+        <v>1.67</v>
+      </c>
+      <c r="AI17">
         <v>1.83</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>0.17</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AS17">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>0.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU17">
+        <v>10</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
         <v>5</v>
       </c>
-      <c r="AV17">
-        <v>4</v>
-      </c>
-      <c r="AW17">
-        <v>2</v>
-      </c>
-      <c r="AX17">
-        <v>3</v>
-      </c>
       <c r="AY17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA17">
         <v>9</v>
       </c>
       <c r="BB17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF17">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BG17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BH17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BK17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BL17">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BM17">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="BN17">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BO17">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="BP17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4518,7 +4524,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7453703</v>
+        <v>7453701</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4527,196 +4533,196 @@
         <v>69</v>
       </c>
       <c r="E18" s="2">
-        <v>45507.52083333334</v>
+        <v>45507.625</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="Q18">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1.65</v>
+      </c>
+      <c r="AA18">
+        <v>3.6</v>
+      </c>
+      <c r="AB18">
+        <v>4.6</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1.8</v>
+      </c>
+      <c r="AH18">
+        <v>1.83</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1.71</v>
+      </c>
+      <c r="AQ18">
+        <v>0.17</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0.52</v>
+      </c>
+      <c r="AT18">
+        <v>0.52</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
         <v>4</v>
       </c>
-      <c r="T18">
-        <v>1.44</v>
-      </c>
-      <c r="U18">
-        <v>2.63</v>
-      </c>
-      <c r="V18">
-        <v>3.25</v>
-      </c>
-      <c r="W18">
-        <v>1.33</v>
-      </c>
-      <c r="X18">
-        <v>7.5</v>
-      </c>
-      <c r="Y18">
-        <v>1.07</v>
-      </c>
-      <c r="Z18">
-        <v>2</v>
-      </c>
-      <c r="AA18">
-        <v>3.2</v>
-      </c>
-      <c r="AB18">
-        <v>3.5</v>
-      </c>
-      <c r="AC18">
-        <v>1.04</v>
-      </c>
-      <c r="AD18">
-        <v>9</v>
-      </c>
-      <c r="AE18">
-        <v>1.33</v>
-      </c>
-      <c r="AF18">
-        <v>3.25</v>
-      </c>
-      <c r="AG18">
-        <v>2</v>
-      </c>
-      <c r="AH18">
-        <v>1.67</v>
-      </c>
-      <c r="AI18">
-        <v>1.83</v>
-      </c>
-      <c r="AJ18">
-        <v>1.83</v>
-      </c>
-      <c r="AK18">
-        <v>1.25</v>
-      </c>
-      <c r="AL18">
-        <v>1.29</v>
-      </c>
-      <c r="AM18">
-        <v>1.67</v>
-      </c>
-      <c r="AN18">
-        <v>3</v>
-      </c>
-      <c r="AO18">
-        <v>3</v>
-      </c>
-      <c r="AP18">
-        <v>1.83</v>
-      </c>
-      <c r="AQ18">
-        <v>2.33</v>
-      </c>
-      <c r="AR18">
-        <v>1.59</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>1.59</v>
-      </c>
-      <c r="AU18">
-        <v>10</v>
-      </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
       <c r="AW18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA18">
         <v>9</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD18">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="BE18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF18">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="BG18">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="BH18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI18">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BJ18">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BK18">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BL18">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BM18">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BN18">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BO18">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="BP18">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4742,7 +4748,7 @@
         <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4766,7 +4772,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5796,7 +5802,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6166,7 +6172,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453716</v>
+        <v>7453712</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6175,22 +6181,22 @@
         <v>69</v>
       </c>
       <c r="E26" s="2">
-        <v>45513.875</v>
+        <v>45514.625</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6199,172 +6205,172 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z26">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AA26">
+        <v>3.3</v>
+      </c>
+      <c r="AB26">
+        <v>2.63</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>10.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.25</v>
+      </c>
+      <c r="AF26">
+        <v>3.6</v>
+      </c>
+      <c r="AG26">
+        <v>1.73</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.5</v>
+      </c>
+      <c r="AL26">
+        <v>1.33</v>
+      </c>
+      <c r="AM26">
+        <v>1.5</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.75</v>
+      </c>
+      <c r="AQ26">
+        <v>1.5</v>
+      </c>
+      <c r="AR26">
+        <v>0.95</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0.95</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>9</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>21</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>6</v>
+      </c>
+      <c r="BD26">
+        <v>2.05</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1.41</v>
+      </c>
+      <c r="BH26">
+        <v>2.7</v>
+      </c>
+      <c r="BI26">
+        <v>1.73</v>
+      </c>
+      <c r="BJ26">
+        <v>2</v>
+      </c>
+      <c r="BK26">
+        <v>2.15</v>
+      </c>
+      <c r="BL26">
+        <v>1.63</v>
+      </c>
+      <c r="BM26">
+        <v>2.75</v>
+      </c>
+      <c r="BN26">
+        <v>1.39</v>
+      </c>
+      <c r="BO26">
         <v>3.8</v>
       </c>
-      <c r="AB26">
-        <v>5</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1.75</v>
-      </c>
-      <c r="AH26">
-        <v>1.95</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>1.5</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1.71</v>
-      </c>
-      <c r="AQ26">
-        <v>0.6</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>1.64</v>
-      </c>
-      <c r="AT26">
-        <v>1.64</v>
-      </c>
-      <c r="AU26">
-        <v>7</v>
-      </c>
-      <c r="AV26">
-        <v>2</v>
-      </c>
-      <c r="AW26">
-        <v>6</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>13</v>
-      </c>
-      <c r="AZ26">
-        <v>3</v>
-      </c>
-      <c r="BA26">
-        <v>4</v>
-      </c>
-      <c r="BB26">
-        <v>3</v>
-      </c>
-      <c r="BC26">
-        <v>7</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
       <c r="BP26">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6372,7 +6378,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453712</v>
+        <v>7453716</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6387,16 +6393,16 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -6405,172 +6411,172 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="Q27">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="AA27">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB27">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AH27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI27">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>1.5</v>
       </c>
-      <c r="AL27">
-        <v>1.33</v>
-      </c>
-      <c r="AM27">
-        <v>1.5</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AT27">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="AU27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
+        <v>3</v>
+      </c>
+      <c r="BA27">
         <v>4</v>
       </c>
-      <c r="AW27">
-        <v>4</v>
-      </c>
-      <c r="AX27">
-        <v>9</v>
-      </c>
-      <c r="AY27">
-        <v>11</v>
-      </c>
-      <c r="AZ27">
-        <v>21</v>
-      </c>
-      <c r="BA27">
-        <v>3</v>
-      </c>
       <c r="BB27">
         <v>3</v>
       </c>
       <c r="BC27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD27">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BE27">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG27">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK27">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL27">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BM27">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BO27">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP27">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6593,7 +6599,7 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -6620,7 +6626,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7032,7 +7038,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7319,7 +7325,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7420,7 +7426,7 @@
         <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -7444,7 +7450,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7650,7 +7656,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7823,16 +7829,16 @@
         <v>69</v>
       </c>
       <c r="E34" s="2">
-        <v>45520.875</v>
+        <v>45521.52083333334</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7856,7 +7862,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7934,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34">
         <v>2.6</v>
@@ -8062,7 +8068,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8680,7 +8686,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8853,13 +8859,13 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45526.875</v>
+        <v>45527.66666666666</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
         <v>74</v>
@@ -8886,7 +8892,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9092,7 +9098,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9298,7 +9304,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9504,7 +9510,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9710,7 +9716,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9916,7 +9922,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10122,7 +10128,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10612,7 +10618,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47">
         <v>0.17</v>
@@ -10740,7 +10746,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11119,7 +11125,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45535.875</v>
+        <v>45536.58333333334</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -11128,7 +11134,7 @@
         <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11152,7 +11158,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11334,7 +11340,7 @@
         <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11358,7 +11364,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11934,7 +11940,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7453745</v>
+        <v>7453742</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11943,133 +11949,133 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45548.875</v>
+        <v>45549.54166666666</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O54" t="s">
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z54">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="AA54">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AB54">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AG54">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO54">
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS54">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>1.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV54">
         <v>5</v>
@@ -12078,61 +12084,61 @@
         <v>3</v>
       </c>
       <c r="AX54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>14</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
         <v>5</v>
       </c>
-      <c r="AZ54">
-        <v>8</v>
-      </c>
-      <c r="BA54">
-        <v>5</v>
-      </c>
-      <c r="BB54">
-        <v>9</v>
-      </c>
       <c r="BC54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD54">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BE54">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BF54">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="BG54">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BH54">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BI54">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BJ54">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BK54">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BL54">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BM54">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BN54">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BO54">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="BP54">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12140,7 +12146,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7453742</v>
+        <v>7453745</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12149,133 +12155,133 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45549.54166666666</v>
+        <v>45549.625</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>2</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="Q55">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="AA55">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AB55">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="AC55">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AG55">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AH55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI55">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AJ55">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AK55">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AL55">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AM55">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.29</v>
+        <v>1.77</v>
       </c>
       <c r="AT55">
-        <v>2.75</v>
+        <v>1.77</v>
       </c>
       <c r="AU55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV55">
         <v>5</v>
@@ -12284,61 +12290,61 @@
         <v>3</v>
       </c>
       <c r="AX55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
         <v>8</v>
       </c>
-      <c r="AZ55">
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
         <v>14</v>
       </c>
-      <c r="BA55">
-        <v>6</v>
-      </c>
-      <c r="BB55">
-        <v>5</v>
-      </c>
-      <c r="BC55">
-        <v>11</v>
-      </c>
       <c r="BD55">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BE55">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF55">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="BG55">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BH55">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BI55">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BJ55">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BK55">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BL55">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BM55">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BN55">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BO55">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="BP55">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12361,7 +12367,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
         <v>71</v>
@@ -12594,7 +12600,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12672,7 +12678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -12800,7 +12806,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13006,7 +13012,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13087,7 +13093,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13212,7 +13218,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13418,7 +13424,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13582,7 +13588,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7454212</v>
+        <v>7453748</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13591,31 +13597,31 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45555.875</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F62">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>3</v>
@@ -13624,163 +13630,163 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z62">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AA62">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB62">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG62">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="AH62">
-        <v>1.8</v>
+        <v>2.59</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ62">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AL62">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AO62">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>2.6</v>
+        <v>0.17</v>
       </c>
       <c r="AR62">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AT62">
-        <v>1.12</v>
+        <v>2.11</v>
       </c>
       <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>16</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>29</v>
+      </c>
+      <c r="AZ62">
+        <v>10</v>
+      </c>
+      <c r="BA62">
         <v>7</v>
       </c>
-      <c r="AV62">
-        <v>3</v>
-      </c>
-      <c r="AW62">
-        <v>8</v>
-      </c>
-      <c r="AX62">
-        <v>0</v>
-      </c>
-      <c r="AY62">
-        <v>15</v>
-      </c>
-      <c r="AZ62">
-        <v>3</v>
-      </c>
-      <c r="BA62">
-        <v>15</v>
-      </c>
       <c r="BB62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC62">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BD62">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BE62">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF62">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="BG62">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BH62">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BI62">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BJ62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK62">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BL62">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BM62">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BN62">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BO62">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BP62">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13788,7 +13794,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7453748</v>
+        <v>7453749</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13803,190 +13809,190 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O63" t="s">
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="R63">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S63">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="T63">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U63">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V63">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W63">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Y63">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AA63">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB63">
+        <v>3.91</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>11</v>
+      </c>
+      <c r="AE63">
+        <v>1.22</v>
+      </c>
+      <c r="AF63">
+        <v>4.1</v>
+      </c>
+      <c r="AG63">
+        <v>1.8</v>
+      </c>
+      <c r="AH63">
+        <v>1.9</v>
+      </c>
+      <c r="AI63">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.2</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>2.05</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>1.43</v>
+      </c>
+      <c r="AQ63">
+        <v>0.6</v>
+      </c>
+      <c r="AR63">
+        <v>1.81</v>
+      </c>
+      <c r="AS63">
+        <v>1.25</v>
+      </c>
+      <c r="AT63">
+        <v>3.06</v>
+      </c>
+      <c r="AU63">
+        <v>10</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
         <v>6</v>
       </c>
-      <c r="AC63">
-        <v>1.01</v>
-      </c>
-      <c r="AD63">
-        <v>15</v>
-      </c>
-      <c r="AE63">
-        <v>1.17</v>
-      </c>
-      <c r="AF63">
-        <v>5</v>
-      </c>
-      <c r="AG63">
-        <v>1.44</v>
-      </c>
-      <c r="AH63">
-        <v>2.59</v>
-      </c>
-      <c r="AI63">
-        <v>2.1</v>
-      </c>
-      <c r="AJ63">
-        <v>1.67</v>
-      </c>
-      <c r="AK63">
-        <v>1.05</v>
-      </c>
-      <c r="AL63">
-        <v>1.12</v>
-      </c>
-      <c r="AM63">
-        <v>4.3</v>
-      </c>
-      <c r="AN63">
-        <v>2.25</v>
-      </c>
-      <c r="AO63">
-        <v>0.25</v>
-      </c>
-      <c r="AP63">
-        <v>1.86</v>
-      </c>
-      <c r="AQ63">
-        <v>0.17</v>
-      </c>
-      <c r="AR63">
-        <v>1.13</v>
-      </c>
-      <c r="AS63">
-        <v>0.98</v>
-      </c>
-      <c r="AT63">
-        <v>2.11</v>
-      </c>
-      <c r="AU63">
-        <v>5</v>
-      </c>
-      <c r="AV63">
-        <v>5</v>
-      </c>
-      <c r="AW63">
-        <v>16</v>
-      </c>
       <c r="AX63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY63">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AZ63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA63">
         <v>7</v>
       </c>
       <c r="BB63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD63">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="BE63">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="BF63">
-        <v>6.39</v>
+        <v>2.77</v>
       </c>
       <c r="BG63">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="BH63">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="BI63">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="BJ63">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BK63">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="BL63">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="BM63">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="BN63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BO63">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="BP63">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13994,7 +14000,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7453749</v>
+        <v>7454212</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14003,196 +14009,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45556.54166666666</v>
+        <v>45556.625</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AA64">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB64">
-        <v>3.91</v>
+        <v>2.63</v>
       </c>
       <c r="AC64">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AD64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF64">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AG64">
+        <v>1.91</v>
+      </c>
+      <c r="AH64">
         <v>1.8</v>
       </c>
-      <c r="AH64">
-        <v>1.9</v>
-      </c>
       <c r="AI64">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AJ64">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AK64">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AL64">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM64">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AN64">
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="AR64">
-        <v>1.81</v>
+        <v>1.12</v>
       </c>
       <c r="AS64">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AT64">
-        <v>3.06</v>
+        <v>1.12</v>
       </c>
       <c r="AU64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY64">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ64">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA64">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BB64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC64">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD64">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="BE64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF64">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="BG64">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="BH64">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="BI64">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BJ64">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="BK64">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="BL64">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BM64">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="BN64">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BO64">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="BP64">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14242,7 +14248,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14448,7 +14454,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15042,7 +15048,7 @@
         <v>83</v>
       </c>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -15066,7 +15072,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15245,7 +15251,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H70" t="s">
         <v>79</v>
@@ -15272,7 +15278,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15478,7 +15484,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15684,7 +15690,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15968,7 +15974,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16096,7 +16102,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16260,7 +16266,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7453759</v>
+        <v>7453760</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16269,196 +16275,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45563.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AG75">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI75">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK75">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AL75">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM75">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN75">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO75">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AS75">
-        <v>1.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT75">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="AU75">
+        <v>3</v>
+      </c>
+      <c r="AV75">
         <v>5</v>
       </c>
-      <c r="AV75">
-        <v>3</v>
-      </c>
       <c r="AW75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX75">
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ75">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB75">
         <v>3</v>
       </c>
       <c r="BC75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD75">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BE75">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF75">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BG75">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH75">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BI75">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BJ75">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BK75">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BL75">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BM75">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BN75">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BO75">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BP75">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16466,7 +16472,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7453760</v>
+        <v>7453759</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16475,196 +16481,196 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45564.41666666666</v>
+        <v>45564.5</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O76" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="Q76">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X76">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y76">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AD76">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AE76">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF76">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AG76">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH76">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AI76">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AJ76">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AK76">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AL76">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM76">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AN76">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR76">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AS76">
-        <v>0.77</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="AU76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX76">
         <v>4</v>
       </c>
       <c r="AY76">
+        <v>11</v>
+      </c>
+      <c r="AZ76">
         <v>7</v>
       </c>
-      <c r="AZ76">
-        <v>15</v>
-      </c>
       <c r="BA76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB76">
         <v>3</v>
       </c>
       <c r="BC76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD76">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BE76">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="BF76">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BG76">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH76">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BI76">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BJ76">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BK76">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="BL76">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BM76">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="BN76">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="BO76">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="BP76">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16920,7 +16926,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17126,7 +17132,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17290,7 +17296,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7453767</v>
+        <v>7453764</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17299,76 +17305,76 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45569.875</v>
+        <v>45570.375</v>
       </c>
       <c r="F80">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z80">
         <v>2.6</v>
       </c>
       <c r="AA80">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB80">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -17383,16 +17389,16 @@
         <v>0</v>
       </c>
       <c r="AG80">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AH80">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AI80">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ80">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK80">
         <v>0</v>
@@ -17404,52 +17410,52 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AO80">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AS80">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AT80">
-        <v>1.32</v>
+        <v>3.22</v>
       </c>
       <c r="AU80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY80">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AZ80">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BA80">
         <v>5</v>
       </c>
       <c r="BB80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD80">
         <v>0</v>
@@ -17496,7 +17502,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7453764</v>
+        <v>7453767</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17505,76 +17511,76 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45570.375</v>
+        <v>45570.45833333334</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O81" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="Q81">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X81">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y81">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z81">
         <v>2.6</v>
       </c>
       <c r="AA81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB81">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -17589,73 +17595,73 @@
         <v>0</v>
       </c>
       <c r="AG81">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AH81">
+        <v>1.71</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
         <v>1.75</v>
       </c>
-      <c r="AI81">
-        <v>1.8</v>
-      </c>
-      <c r="AJ81">
-        <v>1.91</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AN81">
+      <c r="AO81">
+        <v>2.5</v>
+      </c>
+      <c r="AP81">
         <v>1.4</v>
       </c>
-      <c r="AO81">
-        <v>1.25</v>
-      </c>
-      <c r="AP81">
-        <v>1.33</v>
-      </c>
       <c r="AQ81">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="AR81">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="AS81">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AT81">
-        <v>3.22</v>
+        <v>1.32</v>
       </c>
       <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
         <v>4</v>
       </c>
-      <c r="AV81">
-        <v>6</v>
-      </c>
       <c r="AW81">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX81">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY81">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AZ81">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BA81">
         <v>5</v>
       </c>
       <c r="BB81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD81">
         <v>0</v>
@@ -17744,7 +17750,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17950,7 +17956,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18132,7 +18138,7 @@
         <v>85</v>
       </c>
       <c r="H84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18156,7 +18162,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18362,7 +18368,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18732,7 +18738,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7453777</v>
+        <v>7453773</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18741,76 +18747,76 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45582.875</v>
+        <v>45583.45833333334</v>
       </c>
       <c r="F87">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O87" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="R87">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>1.2</v>
+      </c>
+      <c r="U87">
         <v>4.33</v>
       </c>
-      <c r="T87">
-        <v>1.29</v>
-      </c>
-      <c r="U87">
-        <v>3.5</v>
-      </c>
       <c r="V87">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W87">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="X87">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Y87">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="Z87">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="AA87">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="AB87">
-        <v>4.33</v>
+        <v>26</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -18825,16 +18831,16 @@
         <v>0</v>
       </c>
       <c r="AG87">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AH87">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="AI87">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="AJ87">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AK87">
         <v>0</v>
@@ -18846,52 +18852,52 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO87">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>2.67</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AS87">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="AT87">
-        <v>3.69</v>
+        <v>3.94</v>
       </c>
       <c r="AU87">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV87">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AW87">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY87">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AZ87">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BA87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB87">
         <v>2</v>
       </c>
       <c r="BC87">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18938,7 +18944,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7453773</v>
+        <v>7454213</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18947,157 +18953,157 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45582.875</v>
+        <v>45583.54166666666</v>
       </c>
       <c r="F88">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <v>1.91</v>
+      </c>
+      <c r="R88">
+        <v>2.4</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>1.3</v>
+      </c>
+      <c r="U88">
+        <v>3.4</v>
+      </c>
+      <c r="V88">
+        <v>2.38</v>
+      </c>
+      <c r="W88">
+        <v>1.53</v>
+      </c>
+      <c r="X88">
         <v>5</v>
       </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
+      <c r="Y88">
+        <v>1.14</v>
+      </c>
+      <c r="Z88">
+        <v>1.4</v>
+      </c>
+      <c r="AA88">
+        <v>4.5</v>
+      </c>
+      <c r="AB88">
+        <v>6.5</v>
+      </c>
+      <c r="AC88">
+        <v>4.12</v>
+      </c>
+      <c r="AD88">
+        <v>1.2</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>1.56</v>
+      </c>
+      <c r="AH88">
+        <v>2.28</v>
+      </c>
+      <c r="AI88">
+        <v>1.83</v>
+      </c>
+      <c r="AJ88">
+        <v>1.83</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1.86</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.41</v>
+      </c>
+      <c r="AS88">
+        <v>0.9</v>
+      </c>
+      <c r="AT88">
+        <v>2.31</v>
+      </c>
+      <c r="AU88">
         <v>6</v>
       </c>
-      <c r="O88" t="s">
-        <v>150</v>
-      </c>
-      <c r="P88" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q88">
-        <v>1.36</v>
-      </c>
-      <c r="R88">
-        <v>3.25</v>
-      </c>
-      <c r="S88">
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
         <v>13</v>
       </c>
-      <c r="T88">
-        <v>1.2</v>
-      </c>
-      <c r="U88">
-        <v>4.33</v>
-      </c>
-      <c r="V88">
-        <v>1.91</v>
-      </c>
-      <c r="W88">
-        <v>1.8</v>
-      </c>
-      <c r="X88">
-        <v>3.75</v>
-      </c>
-      <c r="Y88">
-        <v>1.25</v>
-      </c>
-      <c r="Z88">
-        <v>1.04</v>
-      </c>
-      <c r="AA88">
-        <v>9</v>
-      </c>
-      <c r="AB88">
-        <v>26</v>
-      </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
-      <c r="AG88">
-        <v>1.3</v>
-      </c>
-      <c r="AH88">
-        <v>3.3</v>
-      </c>
-      <c r="AI88">
-        <v>2.5</v>
-      </c>
-      <c r="AJ88">
-        <v>1.5</v>
-      </c>
-      <c r="AK88">
-        <v>0</v>
-      </c>
-      <c r="AL88">
-        <v>0</v>
-      </c>
-      <c r="AM88">
-        <v>0</v>
-      </c>
-      <c r="AN88">
-        <v>2.6</v>
-      </c>
-      <c r="AO88">
-        <v>0.8</v>
-      </c>
-      <c r="AP88">
-        <v>2.67</v>
-      </c>
-      <c r="AQ88">
-        <v>0.67</v>
-      </c>
-      <c r="AR88">
-        <v>2.4</v>
-      </c>
-      <c r="AS88">
-        <v>1.54</v>
-      </c>
-      <c r="AT88">
-        <v>3.94</v>
-      </c>
-      <c r="AU88">
+      <c r="AZ88">
         <v>7</v>
       </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>2</v>
-      </c>
-      <c r="AX88">
-        <v>6</v>
-      </c>
-      <c r="AY88">
-        <v>12</v>
-      </c>
-      <c r="AZ88">
-        <v>16</v>
-      </c>
       <c r="BA88">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC88">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -19144,7 +19150,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7454213</v>
+        <v>7453777</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19153,55 +19159,55 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45582.875</v>
+        <v>45583.58333333334</v>
       </c>
       <c r="F89">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="Q89">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="R89">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S89">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T89">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V89">
         <v>2.38</v>
@@ -19216,94 +19222,94 @@
         <v>1.14</v>
       </c>
       <c r="Z89">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AA89">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB89">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AC89">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>1.55</v>
+      </c>
+      <c r="AH89">
+        <v>2.3</v>
+      </c>
+      <c r="AI89">
+        <v>1.62</v>
+      </c>
+      <c r="AJ89">
+        <v>2.2</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1.67</v>
+      </c>
+      <c r="AO89">
         <v>1.2</v>
       </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-      <c r="AF89">
-        <v>0</v>
-      </c>
-      <c r="AG89">
-        <v>1.56</v>
-      </c>
-      <c r="AH89">
-        <v>2.28</v>
-      </c>
-      <c r="AI89">
-        <v>1.83</v>
-      </c>
-      <c r="AJ89">
-        <v>1.83</v>
-      </c>
-      <c r="AK89">
-        <v>0</v>
-      </c>
-      <c r="AL89">
-        <v>0</v>
-      </c>
-      <c r="AM89">
-        <v>0</v>
-      </c>
-      <c r="AN89">
-        <v>2</v>
-      </c>
-      <c r="AO89">
-        <v>1</v>
-      </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="AS89">
-        <v>0.9</v>
+        <v>1.77</v>
       </c>
       <c r="AT89">
-        <v>2.31</v>
+        <v>3.69</v>
       </c>
       <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>14</v>
+      </c>
+      <c r="AZ89">
+        <v>10</v>
+      </c>
+      <c r="BA89">
         <v>6</v>
       </c>
-      <c r="AV89">
-        <v>4</v>
-      </c>
-      <c r="AW89">
-        <v>5</v>
-      </c>
-      <c r="AX89">
-        <v>3</v>
-      </c>
-      <c r="AY89">
-        <v>17</v>
-      </c>
-      <c r="AZ89">
-        <v>13</v>
-      </c>
-      <c r="BA89">
-        <v>7</v>
-      </c>
       <c r="BB89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC89">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD89">
         <v>0</v>
@@ -19350,7 +19356,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7453775</v>
+        <v>7453772</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19359,196 +19365,196 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45583.875</v>
+        <v>45584.375</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="Q90">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R90">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S90">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T90">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V90">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W90">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.11</v>
+      </c>
+      <c r="Z90">
+        <v>1.63</v>
+      </c>
+      <c r="AA90">
+        <v>3.29</v>
+      </c>
+      <c r="AB90">
+        <v>4.44</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>2.26</v>
+      </c>
+      <c r="AF90">
+        <v>1.59</v>
+      </c>
+      <c r="AG90">
+        <v>1.85</v>
+      </c>
+      <c r="AH90">
+        <v>1.85</v>
+      </c>
+      <c r="AI90">
+        <v>1.73</v>
+      </c>
+      <c r="AJ90">
+        <v>2</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1.8</v>
+      </c>
+      <c r="AO90">
+        <v>0.17</v>
+      </c>
+      <c r="AP90">
+        <v>1.67</v>
+      </c>
+      <c r="AQ90">
+        <v>0.29</v>
+      </c>
+      <c r="AR90">
+        <v>1.6</v>
+      </c>
+      <c r="AS90">
+        <v>1.45</v>
+      </c>
+      <c r="AT90">
+        <v>3.05</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>1</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
         <v>7</v>
       </c>
-      <c r="Y90">
-        <v>1.08</v>
-      </c>
-      <c r="Z90">
-        <v>2.45</v>
-      </c>
-      <c r="AA90">
-        <v>2.87</v>
-      </c>
-      <c r="AB90">
-        <v>2.42</v>
-      </c>
-      <c r="AC90">
-        <v>1.03</v>
-      </c>
-      <c r="AD90">
-        <v>6.8</v>
-      </c>
-      <c r="AE90">
-        <v>1.5</v>
-      </c>
-      <c r="AF90">
-        <v>2.4</v>
-      </c>
-      <c r="AG90">
-        <v>2</v>
-      </c>
-      <c r="AH90">
-        <v>1.73</v>
-      </c>
-      <c r="AI90">
-        <v>1.8</v>
-      </c>
-      <c r="AJ90">
-        <v>1.91</v>
-      </c>
-      <c r="AK90">
-        <v>1.57</v>
-      </c>
-      <c r="AL90">
-        <v>1.3</v>
-      </c>
-      <c r="AM90">
-        <v>1.33</v>
-      </c>
-      <c r="AN90">
-        <v>1.33</v>
-      </c>
-      <c r="AO90">
-        <v>1</v>
-      </c>
-      <c r="AP90">
-        <v>1.14</v>
-      </c>
-      <c r="AQ90">
-        <v>1.29</v>
-      </c>
-      <c r="AR90">
-        <v>1.18</v>
-      </c>
-      <c r="AS90">
-        <v>1.22</v>
-      </c>
-      <c r="AT90">
-        <v>2.4</v>
-      </c>
-      <c r="AU90">
-        <v>4</v>
-      </c>
-      <c r="AV90">
-        <v>7</v>
-      </c>
-      <c r="AW90">
+      <c r="AZ90">
+        <v>11</v>
+      </c>
+      <c r="BA90">
+        <v>1</v>
+      </c>
+      <c r="BB90">
         <v>5</v>
       </c>
-      <c r="AX90">
-        <v>4</v>
-      </c>
-      <c r="AY90">
-        <v>10</v>
-      </c>
-      <c r="AZ90">
-        <v>16</v>
-      </c>
-      <c r="BA90">
-        <v>3</v>
-      </c>
-      <c r="BB90">
-        <v>4</v>
-      </c>
       <c r="BC90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD90">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BE90">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="BF90">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="BG90">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BH90">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="BI90">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BJ90">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BK90">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="BL90">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BM90">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="BN90">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BO90">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP90">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19556,7 +19562,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7453772</v>
+        <v>7453775</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19565,196 +19571,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45583.875</v>
+        <v>45584.45833333334</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="Q91">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R91">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S91">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>2.45</v>
+      </c>
+      <c r="AA91">
+        <v>2.87</v>
+      </c>
+      <c r="AB91">
+        <v>2.42</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>6.8</v>
+      </c>
+      <c r="AE91">
+        <v>1.5</v>
+      </c>
+      <c r="AF91">
+        <v>2.4</v>
+      </c>
+      <c r="AG91">
+        <v>2</v>
+      </c>
+      <c r="AH91">
+        <v>1.73</v>
+      </c>
+      <c r="AI91">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91">
+        <v>1.91</v>
+      </c>
+      <c r="AK91">
+        <v>1.57</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
         <v>1.33</v>
       </c>
-      <c r="U91">
-        <v>3.25</v>
-      </c>
-      <c r="V91">
-        <v>2.63</v>
-      </c>
-      <c r="W91">
-        <v>1.44</v>
-      </c>
-      <c r="X91">
-        <v>6</v>
-      </c>
-      <c r="Y91">
-        <v>1.11</v>
-      </c>
-      <c r="Z91">
-        <v>1.63</v>
-      </c>
-      <c r="AA91">
-        <v>3.29</v>
-      </c>
-      <c r="AB91">
-        <v>4.44</v>
-      </c>
-      <c r="AC91">
-        <v>0</v>
-      </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
-      <c r="AE91">
-        <v>2.26</v>
-      </c>
-      <c r="AF91">
-        <v>1.59</v>
-      </c>
-      <c r="AG91">
+      <c r="AN91">
+        <v>1.33</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.14</v>
+      </c>
+      <c r="AQ91">
+        <v>1.29</v>
+      </c>
+      <c r="AR91">
+        <v>1.18</v>
+      </c>
+      <c r="AS91">
+        <v>1.22</v>
+      </c>
+      <c r="AT91">
+        <v>2.4</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>7</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>16</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>7</v>
+      </c>
+      <c r="BD91">
         <v>1.85</v>
       </c>
-      <c r="AH91">
-        <v>1.85</v>
-      </c>
-      <c r="AI91">
-        <v>1.73</v>
-      </c>
-      <c r="AJ91">
-        <v>2</v>
-      </c>
-      <c r="AK91">
-        <v>0</v>
-      </c>
-      <c r="AL91">
-        <v>0</v>
-      </c>
-      <c r="AM91">
-        <v>0</v>
-      </c>
-      <c r="AN91">
-        <v>1.8</v>
-      </c>
-      <c r="AO91">
-        <v>0.17</v>
-      </c>
-      <c r="AP91">
-        <v>1.67</v>
-      </c>
-      <c r="AQ91">
-        <v>0.29</v>
-      </c>
-      <c r="AR91">
-        <v>1.6</v>
-      </c>
-      <c r="AS91">
-        <v>1.45</v>
-      </c>
-      <c r="AT91">
-        <v>3.05</v>
-      </c>
-      <c r="AU91">
-        <v>5</v>
-      </c>
-      <c r="AV91">
-        <v>5</v>
-      </c>
-      <c r="AW91">
-        <v>1</v>
-      </c>
-      <c r="AX91">
-        <v>3</v>
-      </c>
-      <c r="AY91">
-        <v>7</v>
-      </c>
-      <c r="AZ91">
-        <v>11</v>
-      </c>
-      <c r="BA91">
-        <v>1</v>
-      </c>
-      <c r="BB91">
-        <v>5</v>
-      </c>
-      <c r="BC91">
-        <v>6</v>
-      </c>
-      <c r="BD91">
-        <v>0</v>
-      </c>
       <c r="BE91">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="BF91">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BG91">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BH91">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="BI91">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BJ91">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BK91">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BL91">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="BM91">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BN91">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BO91">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP91">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19771,7 +19777,7 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45583.875</v>
+        <v>45584.54166666666</v>
       </c>
       <c r="F92">
         <v>12</v>
@@ -19804,7 +19810,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19977,13 +19983,13 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45585.5</v>
+        <v>45584.875</v>
       </c>
       <c r="F93">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H93" t="s">
         <v>85</v>
@@ -20167,6 +20173,212 @@
       </c>
       <c r="BP93">
         <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7453776</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45586.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>7</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q94">
+        <v>3.6</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>2.5</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.25</v>
+      </c>
+      <c r="V94">
+        <v>2.5</v>
+      </c>
+      <c r="W94">
+        <v>1.5</v>
+      </c>
+      <c r="X94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.13</v>
+      </c>
+      <c r="Z94">
+        <v>3.84</v>
+      </c>
+      <c r="AA94">
+        <v>3.73</v>
+      </c>
+      <c r="AB94">
+        <v>1.85</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.22</v>
+      </c>
+      <c r="AF94">
+        <v>4</v>
+      </c>
+      <c r="AG94">
+        <v>1.7</v>
+      </c>
+      <c r="AH94">
+        <v>2.05</v>
+      </c>
+      <c r="AI94">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94">
+        <v>2.2</v>
+      </c>
+      <c r="AK94">
+        <v>1.9</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>1.2</v>
+      </c>
+      <c r="AN94">
+        <v>1.83</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>1.57</v>
+      </c>
+      <c r="AQ94">
+        <v>2.17</v>
+      </c>
+      <c r="AR94">
+        <v>1.84</v>
+      </c>
+      <c r="AS94">
+        <v>1.58</v>
+      </c>
+      <c r="AT94">
+        <v>3.42</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>9</v>
+      </c>
+      <c r="AW94">
+        <v>9</v>
+      </c>
+      <c r="AX94">
+        <v>1</v>
+      </c>
+      <c r="AY94">
+        <v>17</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>9</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>12</v>
+      </c>
+      <c r="BD94">
+        <v>2.39</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>1.82</v>
+      </c>
+      <c r="BG94">
+        <v>1.38</v>
+      </c>
+      <c r="BH94">
+        <v>2.7</v>
+      </c>
+      <c r="BI94">
+        <v>1.67</v>
+      </c>
+      <c r="BJ94">
+        <v>2.08</v>
+      </c>
+      <c r="BK94">
+        <v>2.07</v>
+      </c>
+      <c r="BL94">
+        <v>1.64</v>
+      </c>
+      <c r="BM94">
+        <v>2.6</v>
+      </c>
+      <c r="BN94">
+        <v>1.41</v>
+      </c>
+      <c r="BO94">
+        <v>3.5</v>
+      </c>
+      <c r="BP94">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -20189,7 +20189,7 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45586.45833333334</v>
+        <v>45585.875</v>
       </c>
       <c r="F94">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -19983,7 +19983,7 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45584.875</v>
+        <v>45585.5</v>
       </c>
       <c r="F93">
         <v>12</v>
@@ -20189,7 +20189,7 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45585.875</v>
+        <v>45586.45833333334</v>
       </c>
       <c r="F94">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>['16', '21', '84']</t>
+  </si>
+  <si>
+    <t>['32', '61', '87']</t>
+  </si>
+  <si>
+    <t>['6', '15', '33', '53']</t>
   </si>
   <si>
     <t>['3', '15', '45+3']</t>
@@ -1011,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1276,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -1476,7 +1482,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1763,7 +1769,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ4">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,7 +1894,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2300,7 +2306,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2506,7 +2512,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2918,7 +2924,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3124,7 +3130,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3330,7 +3336,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3536,7 +3542,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4029,7 +4035,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4154,7 +4160,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4647,7 +4653,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4772,7 +4778,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5674,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>0.67</v>
@@ -5802,7 +5808,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6420,7 +6426,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6501,7 +6507,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6626,7 +6632,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7038,7 +7044,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7322,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>2.17</v>
@@ -7450,7 +7456,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7656,7 +7662,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7862,7 +7868,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8068,7 +8074,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8149,7 +8155,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -8686,7 +8692,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8764,7 +8770,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
         <v>1.71</v>
@@ -8892,7 +8898,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9098,7 +9104,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9304,7 +9310,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9510,7 +9516,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9716,7 +9722,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9922,7 +9928,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10128,7 +10134,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10206,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10415,7 +10421,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10621,7 +10627,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ47">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -10746,7 +10752,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11158,7 +11164,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11364,7 +11370,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11442,7 +11448,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51">
         <v>3</v>
@@ -12188,7 +12194,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12600,7 +12606,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12806,7 +12812,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13012,7 +13018,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13218,7 +13224,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13424,7 +13430,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13502,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13630,7 +13636,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13711,7 +13717,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13836,7 +13842,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14042,7 +14048,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14248,7 +14254,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14326,7 +14332,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65">
         <v>1.71</v>
@@ -14454,7 +14460,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14944,10 +14950,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15072,7 +15078,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15278,7 +15284,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15484,7 +15490,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15690,7 +15696,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16102,7 +16108,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16514,7 +16520,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16926,7 +16932,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17132,7 +17138,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17416,7 +17422,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -17544,7 +17550,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17750,7 +17756,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17831,7 +17837,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -17956,7 +17962,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18162,7 +18168,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18240,7 +18246,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18368,7 +18374,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18655,7 +18661,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ86">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -18780,7 +18786,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19192,7 +19198,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19398,7 +19404,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19604,7 +19610,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20222,7 +20228,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20379,6 +20385,418 @@
       </c>
       <c r="BP94">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7453782</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45590.47916666666</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>85</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q95">
+        <v>2.6</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>3.75</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2.63</v>
+      </c>
+      <c r="W95">
+        <v>1.44</v>
+      </c>
+      <c r="X95">
+        <v>6.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.1</v>
+      </c>
+      <c r="Z95">
+        <v>1.57</v>
+      </c>
+      <c r="AA95">
+        <v>3.7</v>
+      </c>
+      <c r="AB95">
+        <v>5</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>8.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.25</v>
+      </c>
+      <c r="AF95">
+        <v>3.65</v>
+      </c>
+      <c r="AG95">
+        <v>1.99</v>
+      </c>
+      <c r="AH95">
+        <v>1.83</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.28</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.77</v>
+      </c>
+      <c r="AN95">
+        <v>0.8</v>
+      </c>
+      <c r="AO95">
+        <v>0.6</v>
+      </c>
+      <c r="AP95">
+        <v>1.17</v>
+      </c>
+      <c r="AQ95">
+        <v>0.5</v>
+      </c>
+      <c r="AR95">
+        <v>1.17</v>
+      </c>
+      <c r="AS95">
+        <v>1.26</v>
+      </c>
+      <c r="AT95">
+        <v>2.43</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>12</v>
+      </c>
+      <c r="AZ95">
+        <v>5</v>
+      </c>
+      <c r="BA95">
+        <v>9</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>1.55</v>
+      </c>
+      <c r="BE95">
+        <v>8</v>
+      </c>
+      <c r="BF95">
+        <v>3.02</v>
+      </c>
+      <c r="BG95">
+        <v>1.46</v>
+      </c>
+      <c r="BH95">
+        <v>2.46</v>
+      </c>
+      <c r="BI95">
+        <v>1.82</v>
+      </c>
+      <c r="BJ95">
+        <v>1.98</v>
+      </c>
+      <c r="BK95">
+        <v>2.25</v>
+      </c>
+      <c r="BL95">
+        <v>1.54</v>
+      </c>
+      <c r="BM95">
+        <v>2.9</v>
+      </c>
+      <c r="BN95">
+        <v>1.33</v>
+      </c>
+      <c r="BO95">
+        <v>4</v>
+      </c>
+      <c r="BP95">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7453778</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45590.5625</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P96" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q96">
+        <v>1.83</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>7</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.5</v>
+      </c>
+      <c r="W96">
+        <v>1.5</v>
+      </c>
+      <c r="X96">
+        <v>5.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.13</v>
+      </c>
+      <c r="Z96">
+        <v>1.34</v>
+      </c>
+      <c r="AA96">
+        <v>4.37</v>
+      </c>
+      <c r="AB96">
+        <v>7.34</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>9.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.22</v>
+      </c>
+      <c r="AF96">
+        <v>3.95</v>
+      </c>
+      <c r="AG96">
+        <v>1.7</v>
+      </c>
+      <c r="AH96">
+        <v>2.1</v>
+      </c>
+      <c r="AI96">
+        <v>2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.73</v>
+      </c>
+      <c r="AK96">
+        <v>1.04</v>
+      </c>
+      <c r="AL96">
+        <v>1.14</v>
+      </c>
+      <c r="AM96">
+        <v>3</v>
+      </c>
+      <c r="AN96">
+        <v>1.33</v>
+      </c>
+      <c r="AO96">
+        <v>0.17</v>
+      </c>
+      <c r="AP96">
+        <v>1.57</v>
+      </c>
+      <c r="AQ96">
+        <v>0.14</v>
+      </c>
+      <c r="AR96">
+        <v>1.54</v>
+      </c>
+      <c r="AS96">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>2.54</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>8</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>20</v>
+      </c>
+      <c r="AZ96">
+        <v>19</v>
+      </c>
+      <c r="BA96">
+        <v>4</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
+        <v>8</v>
+      </c>
+      <c r="BD96">
+        <v>1.26</v>
+      </c>
+      <c r="BE96">
+        <v>9.5</v>
+      </c>
+      <c r="BF96">
+        <v>4.66</v>
+      </c>
+      <c r="BG96">
+        <v>1.4</v>
+      </c>
+      <c r="BH96">
+        <v>2.65</v>
+      </c>
+      <c r="BI96">
+        <v>1.7</v>
+      </c>
+      <c r="BJ96">
+        <v>2.03</v>
+      </c>
+      <c r="BK96">
+        <v>2.1</v>
+      </c>
+      <c r="BL96">
+        <v>1.61</v>
+      </c>
+      <c r="BM96">
+        <v>2.7</v>
+      </c>
+      <c r="BN96">
+        <v>1.39</v>
+      </c>
+      <c r="BO96">
+        <v>3.7</v>
+      </c>
+      <c r="BP96">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['6', '15', '33', '53']</t>
   </si>
   <si>
+    <t>['54', '65', '89']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -656,6 +659,9 @@
   </si>
   <si>
     <t>['38', '41', '74', '90+3']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1282,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1482,7 +1488,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1894,7 +1900,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2306,7 +2312,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2512,7 +2518,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2924,7 +2930,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3130,7 +3136,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3336,7 +3342,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3542,7 +3548,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3623,7 +3629,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4160,7 +4166,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4778,7 +4784,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5474,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5808,7 +5814,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5889,7 +5895,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6426,7 +6432,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6632,7 +6638,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7044,7 +7050,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7456,7 +7462,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7662,7 +7668,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7868,7 +7874,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8074,7 +8080,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8692,7 +8698,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8898,7 +8904,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8979,7 +8985,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9104,7 +9110,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9310,7 +9316,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9516,7 +9522,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9722,7 +9728,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9928,7 +9934,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10134,7 +10140,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10752,7 +10758,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11164,7 +11170,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11370,7 +11376,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11654,7 +11660,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.71</v>
@@ -12194,7 +12200,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12606,7 +12612,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12687,7 +12693,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.94</v>
@@ -12812,7 +12818,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13018,7 +13024,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13224,7 +13230,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13430,7 +13436,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13636,7 +13642,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13842,7 +13848,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14048,7 +14054,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14254,7 +14260,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14460,7 +14466,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15078,7 +15084,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15156,7 +15162,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>3</v>
@@ -15284,7 +15290,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15490,7 +15496,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15696,7 +15702,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16108,7 +16114,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16520,7 +16526,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16932,7 +16938,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17138,7 +17144,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17425,7 +17431,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17550,7 +17556,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17756,7 +17762,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17834,7 +17840,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -17962,7 +17968,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18168,7 +18174,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18374,7 +18380,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18786,7 +18792,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19198,7 +19204,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19404,7 +19410,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19610,7 +19616,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20228,7 +20234,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20401,7 +20407,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45590.47916666666</v>
+        <v>45589.875</v>
       </c>
       <c r="F95">
         <v>13</v>
@@ -20607,7 +20613,7 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45590.5625</v>
+        <v>45589.875</v>
       </c>
       <c r="F96">
         <v>13</v>
@@ -20733,22 +20739,22 @@
         <v>2.54</v>
       </c>
       <c r="AU96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV96">
         <v>4</v>
       </c>
       <c r="AW96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ96">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -20797,6 +20803,212 @@
       </c>
       <c r="BP96">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7453780</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45591.45486111111</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>157</v>
+      </c>
+      <c r="P97" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q97">
+        <v>2.2</v>
+      </c>
+      <c r="R97">
+        <v>2.25</v>
+      </c>
+      <c r="S97">
+        <v>4.5</v>
+      </c>
+      <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>6</v>
+      </c>
+      <c r="Y97">
+        <v>1.11</v>
+      </c>
+      <c r="Z97">
+        <v>1.87</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>3.4</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>9</v>
+      </c>
+      <c r="AE97">
+        <v>1.22</v>
+      </c>
+      <c r="AF97">
+        <v>3.9</v>
+      </c>
+      <c r="AG97">
+        <v>1.71</v>
+      </c>
+      <c r="AH97">
+        <v>2</v>
+      </c>
+      <c r="AI97">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>1.15</v>
+      </c>
+      <c r="AL97">
+        <v>1.2</v>
+      </c>
+      <c r="AM97">
+        <v>2.1</v>
+      </c>
+      <c r="AN97">
+        <v>1.75</v>
+      </c>
+      <c r="AO97">
+        <v>1.2</v>
+      </c>
+      <c r="AP97">
+        <v>2</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.33</v>
+      </c>
+      <c r="AS97">
+        <v>1.7</v>
+      </c>
+      <c r="AT97">
+        <v>3.03</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>2</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>9</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>13</v>
+      </c>
+      <c r="BD97">
+        <v>1.51</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>3.16</v>
+      </c>
+      <c r="BG97">
+        <v>1.3</v>
+      </c>
+      <c r="BH97">
+        <v>2.88</v>
+      </c>
+      <c r="BI97">
+        <v>1.56</v>
+      </c>
+      <c r="BJ97">
+        <v>2.1</v>
+      </c>
+      <c r="BK97">
+        <v>2</v>
+      </c>
+      <c r="BL97">
+        <v>1.73</v>
+      </c>
+      <c r="BM97">
+        <v>2.58</v>
+      </c>
+      <c r="BN97">
+        <v>1.37</v>
+      </c>
+      <c r="BO97">
+        <v>3.58</v>
+      </c>
+      <c r="BP97">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,12 @@
     <t>['54', '65', '89']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['19', '87']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -662,6 +668,9 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['18', '41', '51', '62', '72']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1291,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1488,7 +1497,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1900,7 +1909,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1981,7 +1990,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2312,7 +2321,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2518,7 +2527,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2930,7 +2939,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3136,7 +3145,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3214,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3342,7 +3351,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3548,7 +3557,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3626,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4166,7 +4175,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4453,7 +4462,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4784,7 +4793,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5814,7 +5823,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6304,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6432,7 +6441,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6638,7 +6647,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6719,7 +6728,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.33</v>
@@ -7050,7 +7059,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7128,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7462,7 +7471,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7668,7 +7677,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7749,7 +7758,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -7874,7 +7883,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8080,7 +8089,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8570,7 +8579,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
         <v>0.57</v>
@@ -8698,7 +8707,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8904,7 +8913,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9110,7 +9119,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9316,7 +9325,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9397,7 +9406,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9522,7 +9531,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9728,7 +9737,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9934,7 +9943,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10012,7 +10021,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10140,7 +10149,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10758,7 +10767,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10839,7 +10848,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.07</v>
@@ -11042,7 +11051,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
         <v>0.29</v>
@@ -11170,7 +11179,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11376,7 +11385,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11866,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>0.57</v>
@@ -12072,7 +12081,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
         <v>1.29</v>
@@ -12200,7 +12209,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12612,7 +12621,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12818,7 +12827,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13024,7 +13033,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13230,7 +13239,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13436,7 +13445,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13642,7 +13651,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13848,7 +13857,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13929,7 +13938,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14054,7 +14063,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14260,7 +14269,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14466,7 +14475,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14750,10 +14759,10 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -15084,7 +15093,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15290,7 +15299,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15496,7 +15505,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15702,7 +15711,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16114,7 +16123,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16192,7 +16201,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16526,7 +16535,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16938,7 +16947,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17016,10 +17025,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17144,7 +17153,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17225,7 +17234,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -17556,7 +17565,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17634,7 +17643,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81">
         <v>2.6</v>
@@ -17762,7 +17771,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17968,7 +17977,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18049,7 +18058,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18174,7 +18183,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18380,7 +18389,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18458,7 +18467,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85">
         <v>1.71</v>
@@ -18792,7 +18801,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19204,7 +19213,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19410,7 +19419,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19616,7 +19625,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20234,7 +20243,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20739,22 +20748,22 @@
         <v>2.54</v>
       </c>
       <c r="AU96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV96">
         <v>4</v>
       </c>
       <c r="AW96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AZ96">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -20852,7 +20861,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>2.2</v>
@@ -21009,6 +21018,624 @@
       </c>
       <c r="BP97">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7453784</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98">
+        <v>6</v>
+      </c>
+      <c r="O98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q98">
+        <v>13</v>
+      </c>
+      <c r="R98">
+        <v>2.88</v>
+      </c>
+      <c r="S98">
+        <v>1.44</v>
+      </c>
+      <c r="T98">
+        <v>1.25</v>
+      </c>
+      <c r="U98">
+        <v>3.75</v>
+      </c>
+      <c r="V98">
+        <v>2.1</v>
+      </c>
+      <c r="W98">
+        <v>1.67</v>
+      </c>
+      <c r="X98">
+        <v>4.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.17</v>
+      </c>
+      <c r="Z98">
+        <v>13.5</v>
+      </c>
+      <c r="AA98">
+        <v>6.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.15</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>15</v>
+      </c>
+      <c r="AE98">
+        <v>1.14</v>
+      </c>
+      <c r="AF98">
+        <v>5.25</v>
+      </c>
+      <c r="AG98">
+        <v>1.37</v>
+      </c>
+      <c r="AH98">
+        <v>2.85</v>
+      </c>
+      <c r="AI98">
+        <v>2.75</v>
+      </c>
+      <c r="AJ98">
+        <v>1.4</v>
+      </c>
+      <c r="AK98">
+        <v>5.5</v>
+      </c>
+      <c r="AL98">
+        <v>1.07</v>
+      </c>
+      <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>3</v>
+      </c>
+      <c r="AP98">
+        <v>1.4</v>
+      </c>
+      <c r="AQ98">
+        <v>3</v>
+      </c>
+      <c r="AR98">
+        <v>1.07</v>
+      </c>
+      <c r="AS98">
+        <v>2.16</v>
+      </c>
+      <c r="AT98">
+        <v>3.23</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
+        <v>9</v>
+      </c>
+      <c r="AY98">
+        <v>5</v>
+      </c>
+      <c r="AZ98">
+        <v>21</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>12</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>9.35</v>
+      </c>
+      <c r="BE98">
+        <v>13</v>
+      </c>
+      <c r="BF98">
+        <v>1.09</v>
+      </c>
+      <c r="BG98">
+        <v>1.35</v>
+      </c>
+      <c r="BH98">
+        <v>2.8</v>
+      </c>
+      <c r="BI98">
+        <v>1.61</v>
+      </c>
+      <c r="BJ98">
+        <v>2.12</v>
+      </c>
+      <c r="BK98">
+        <v>2</v>
+      </c>
+      <c r="BL98">
+        <v>1.73</v>
+      </c>
+      <c r="BM98">
+        <v>2.5</v>
+      </c>
+      <c r="BN98">
+        <v>1.44</v>
+      </c>
+      <c r="BO98">
+        <v>3.4</v>
+      </c>
+      <c r="BP98">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7453781</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q99">
+        <v>2.75</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>3.6</v>
+      </c>
+      <c r="T99">
+        <v>1.36</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>6.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>1.87</v>
+      </c>
+      <c r="AA99">
+        <v>3.02</v>
+      </c>
+      <c r="AB99">
+        <v>3.3</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>3.6</v>
+      </c>
+      <c r="AG99">
+        <v>1.93</v>
+      </c>
+      <c r="AH99">
+        <v>1.83</v>
+      </c>
+      <c r="AI99">
+        <v>1.67</v>
+      </c>
+      <c r="AJ99">
+        <v>2.1</v>
+      </c>
+      <c r="AK99">
+        <v>1.35</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.65</v>
+      </c>
+      <c r="AN99">
+        <v>1.4</v>
+      </c>
+      <c r="AO99">
+        <v>0.6</v>
+      </c>
+      <c r="AP99">
+        <v>1.17</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>1.32</v>
+      </c>
+      <c r="AS99">
+        <v>1.43</v>
+      </c>
+      <c r="AT99">
+        <v>2.75</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>12</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>6</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>1.82</v>
+      </c>
+      <c r="BE99">
+        <v>7.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.4</v>
+      </c>
+      <c r="BG99">
+        <v>1.4</v>
+      </c>
+      <c r="BH99">
+        <v>2.65</v>
+      </c>
+      <c r="BI99">
+        <v>1.67</v>
+      </c>
+      <c r="BJ99">
+        <v>2.1</v>
+      </c>
+      <c r="BK99">
+        <v>2.1</v>
+      </c>
+      <c r="BL99">
+        <v>1.61</v>
+      </c>
+      <c r="BM99">
+        <v>2.7</v>
+      </c>
+      <c r="BN99">
+        <v>1.39</v>
+      </c>
+      <c r="BO99">
+        <v>3.7</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7453785</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45591.625</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>84</v>
+      </c>
+      <c r="H100" t="s">
+        <v>82</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>159</v>
+      </c>
+      <c r="P100" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q100">
+        <v>2.38</v>
+      </c>
+      <c r="R100">
+        <v>2.3</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>5.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.13</v>
+      </c>
+      <c r="Z100">
+        <v>1.57</v>
+      </c>
+      <c r="AA100">
+        <v>3.7</v>
+      </c>
+      <c r="AB100">
+        <v>4.6</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>11</v>
+      </c>
+      <c r="AE100">
+        <v>1.17</v>
+      </c>
+      <c r="AF100">
+        <v>4.5</v>
+      </c>
+      <c r="AG100">
+        <v>1.73</v>
+      </c>
+      <c r="AH100">
+        <v>2</v>
+      </c>
+      <c r="AI100">
+        <v>1.67</v>
+      </c>
+      <c r="AJ100">
+        <v>2.1</v>
+      </c>
+      <c r="AK100">
+        <v>1.18</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.83</v>
+      </c>
+      <c r="AN100">
+        <v>0.8</v>
+      </c>
+      <c r="AO100">
+        <v>2.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.17</v>
+      </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
+      <c r="AR100">
+        <v>1.66</v>
+      </c>
+      <c r="AS100">
+        <v>1.39</v>
+      </c>
+      <c r="AT100">
+        <v>3.05</v>
+      </c>
+      <c r="AU100">
+        <v>7</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>8</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>20</v>
+      </c>
+      <c r="AZ100">
+        <v>3</v>
+      </c>
+      <c r="BA100">
+        <v>4</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>6</v>
+      </c>
+      <c r="BD100">
+        <v>1.51</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>3.07</v>
+      </c>
+      <c r="BG100">
+        <v>1.3</v>
+      </c>
+      <c r="BH100">
+        <v>3.1</v>
+      </c>
+      <c r="BI100">
+        <v>1.53</v>
+      </c>
+      <c r="BJ100">
+        <v>2.27</v>
+      </c>
+      <c r="BK100">
+        <v>1.98</v>
+      </c>
+      <c r="BL100">
+        <v>1.82</v>
+      </c>
+      <c r="BM100">
+        <v>2.36</v>
+      </c>
+      <c r="BN100">
+        <v>1.49</v>
+      </c>
+      <c r="BO100">
+        <v>3.1</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['19', '87']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -667,10 +670,13 @@
     <t>['38', '41', '74', '90+3']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['18', '41', '51', '62', '72']</t>
   </si>
   <si>
-    <t>['18', '41', '51', '62', '72']</t>
+    <t>['20', '26', '46']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1497,7 +1503,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>2.17</v>
@@ -1909,7 +1915,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2321,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2527,7 +2533,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2939,7 +2945,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3145,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3351,7 +3357,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3432,7 +3438,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3557,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3841,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4175,7 +4181,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4253,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0.57</v>
@@ -4793,7 +4799,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5823,7 +5829,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6107,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6441,7 +6447,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6647,7 +6653,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7059,7 +7065,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7140,7 +7146,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7471,7 +7477,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7677,7 +7683,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7883,7 +7889,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7964,7 +7970,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ34">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8089,7 +8095,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8373,7 +8379,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0.29</v>
@@ -8707,7 +8713,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8913,7 +8919,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9119,7 +9125,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9197,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.29</v>
@@ -9325,7 +9331,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9531,7 +9537,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9737,7 +9743,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9943,7 +9949,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10149,7 +10155,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10767,7 +10773,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10845,7 +10851,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11179,7 +11185,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11260,7 +11266,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11385,7 +11391,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12209,7 +12215,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12621,7 +12627,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12827,7 +12833,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12908,7 +12914,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13033,7 +13039,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13239,7 +13245,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13445,7 +13451,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13651,7 +13657,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13857,7 +13863,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14063,7 +14069,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14141,10 +14147,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14269,7 +14275,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14475,7 +14481,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14553,7 +14559,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
         <v>0.29</v>
@@ -15093,7 +15099,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15299,7 +15305,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15505,7 +15511,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15711,7 +15717,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15792,7 +15798,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16123,7 +16129,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16535,7 +16541,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16947,7 +16953,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17153,7 +17159,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17231,7 +17237,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17565,7 +17571,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17646,7 +17652,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -17771,7 +17777,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17977,7 +17983,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18055,7 +18061,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18183,7 +18189,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18389,7 +18395,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18801,7 +18807,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19213,7 +19219,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19419,7 +19425,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19625,7 +19631,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20243,7 +20249,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20416,7 +20422,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45589.875</v>
+        <v>45590.47916666666</v>
       </c>
       <c r="F95">
         <v>13</v>
@@ -20542,7 +20548,7 @@
         <v>2.43</v>
       </c>
       <c r="AU95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV95">
         <v>0</v>
@@ -20551,13 +20557,13 @@
         <v>6</v>
       </c>
       <c r="AX95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY95">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA95">
         <v>9</v>
@@ -20622,10 +20628,10 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45589.875</v>
+        <v>45590.5625</v>
       </c>
       <c r="F96">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>70</v>
@@ -20748,22 +20754,22 @@
         <v>2.54</v>
       </c>
       <c r="AU96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV96">
         <v>4</v>
       </c>
       <c r="AW96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ96">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -20861,7 +20867,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q97">
         <v>2.2</v>
@@ -21243,7 +21249,7 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F99">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
         <v>79</v>
@@ -21273,7 +21279,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21479,7 +21485,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21636,6 +21642,418 @@
       </c>
       <c r="BP100">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7453779</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45592.625</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>77</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>87</v>
+      </c>
+      <c r="P101" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q101">
+        <v>5.5</v>
+      </c>
+      <c r="R101">
+        <v>2.1</v>
+      </c>
+      <c r="S101">
+        <v>2.2</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>1.36</v>
+      </c>
+      <c r="X101">
+        <v>7.5</v>
+      </c>
+      <c r="Y101">
+        <v>1.07</v>
+      </c>
+      <c r="Z101">
+        <v>5.5</v>
+      </c>
+      <c r="AA101">
+        <v>3.81</v>
+      </c>
+      <c r="AB101">
+        <v>1.61</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>8.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.25</v>
+      </c>
+      <c r="AF101">
+        <v>3.6</v>
+      </c>
+      <c r="AG101">
+        <v>1.82</v>
+      </c>
+      <c r="AH101">
+        <v>1.88</v>
+      </c>
+      <c r="AI101">
+        <v>2.1</v>
+      </c>
+      <c r="AJ101">
+        <v>1.67</v>
+      </c>
+      <c r="AK101">
+        <v>2.3</v>
+      </c>
+      <c r="AL101">
+        <v>1.2</v>
+      </c>
+      <c r="AM101">
+        <v>1.1</v>
+      </c>
+      <c r="AN101">
+        <v>1.17</v>
+      </c>
+      <c r="AO101">
+        <v>1.5</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>1.8</v>
+      </c>
+      <c r="AR101">
+        <v>1.12</v>
+      </c>
+      <c r="AS101">
+        <v>1.46</v>
+      </c>
+      <c r="AT101">
+        <v>2.58</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>1</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>14</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>5</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>3.26</v>
+      </c>
+      <c r="BE101">
+        <v>8</v>
+      </c>
+      <c r="BF101">
+        <v>1.51</v>
+      </c>
+      <c r="BG101">
+        <v>1.46</v>
+      </c>
+      <c r="BH101">
+        <v>2.46</v>
+      </c>
+      <c r="BI101">
+        <v>1.8</v>
+      </c>
+      <c r="BJ101">
+        <v>1.91</v>
+      </c>
+      <c r="BK101">
+        <v>2.25</v>
+      </c>
+      <c r="BL101">
+        <v>1.54</v>
+      </c>
+      <c r="BM101">
+        <v>2.9</v>
+      </c>
+      <c r="BN101">
+        <v>1.33</v>
+      </c>
+      <c r="BO101">
+        <v>4</v>
+      </c>
+      <c r="BP101">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7453783</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45592.66666666666</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>160</v>
+      </c>
+      <c r="P102" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>1.95</v>
+      </c>
+      <c r="AA102">
+        <v>3.6</v>
+      </c>
+      <c r="AB102">
+        <v>2.95</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>1.68</v>
+      </c>
+      <c r="AH102">
+        <v>2.06</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>2.6</v>
+      </c>
+      <c r="AO102">
+        <v>2.6</v>
+      </c>
+      <c r="AP102">
+        <v>2.33</v>
+      </c>
+      <c r="AQ102">
+        <v>2.33</v>
+      </c>
+      <c r="AR102">
+        <v>1.61</v>
+      </c>
+      <c r="AS102">
+        <v>0</v>
+      </c>
+      <c r="AT102">
+        <v>1.61</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>14</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>8</v>
+      </c>
+      <c r="BB102">
+        <v>1</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -673,10 +673,10 @@
     <t>['18', '41', '51', '62', '72']</t>
   </si>
   <si>
-    <t>['20', '26', '46']</t>
+    <t>['66']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['20', '26', '46']</t>
   </si>
 </sst>
 </file>
@@ -21649,7 +21649,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7453779</v>
+        <v>7453783</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21658,196 +21658,196 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45592.625</v>
+        <v>45591.875</v>
       </c>
       <c r="F101">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="P101" t="s">
         <v>219</v>
       </c>
       <c r="Q101">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S101">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T101">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U101">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="V101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W101">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X101">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="Z101">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA101">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="AB101">
+        <v>2.95</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>1.68</v>
+      </c>
+      <c r="AH101">
+        <v>2.06</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>2.6</v>
+      </c>
+      <c r="AO101">
+        <v>2.6</v>
+      </c>
+      <c r="AP101">
+        <v>2.33</v>
+      </c>
+      <c r="AQ101">
+        <v>2.33</v>
+      </c>
+      <c r="AR101">
         <v>1.61</v>
       </c>
-      <c r="AC101">
-        <v>1.05</v>
-      </c>
-      <c r="AD101">
-        <v>8.5</v>
-      </c>
-      <c r="AE101">
-        <v>1.25</v>
-      </c>
-      <c r="AF101">
-        <v>3.6</v>
-      </c>
-      <c r="AG101">
-        <v>1.82</v>
-      </c>
-      <c r="AH101">
-        <v>1.88</v>
-      </c>
-      <c r="AI101">
-        <v>2.1</v>
-      </c>
-      <c r="AJ101">
-        <v>1.67</v>
-      </c>
-      <c r="AK101">
-        <v>2.3</v>
-      </c>
-      <c r="AL101">
-        <v>1.2</v>
-      </c>
-      <c r="AM101">
-        <v>1.1</v>
-      </c>
-      <c r="AN101">
-        <v>1.17</v>
-      </c>
-      <c r="AO101">
-        <v>1.5</v>
-      </c>
-      <c r="AP101">
-        <v>1</v>
-      </c>
-      <c r="AQ101">
-        <v>1.8</v>
-      </c>
-      <c r="AR101">
-        <v>1.12</v>
-      </c>
       <c r="AS101">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AT101">
-        <v>2.58</v>
+        <v>1.61</v>
       </c>
       <c r="AU101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV101">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW101">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY101">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ101">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BA101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC101">
         <v>9</v>
       </c>
       <c r="BD101">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="BE101">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF101">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BG101">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BH101">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="BI101">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BJ101">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BK101">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BL101">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BM101">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BN101">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BO101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP101">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21855,7 +21855,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7453783</v>
+        <v>7453779</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21864,196 +21864,196 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45592.66666666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F102">
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H102" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O102" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="P102" t="s">
         <v>220</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U102">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W102">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z102">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="AA102">
+        <v>3.81</v>
+      </c>
+      <c r="AB102">
+        <v>1.61</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>8.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.25</v>
+      </c>
+      <c r="AF102">
         <v>3.6</v>
       </c>
-      <c r="AB102">
-        <v>2.95</v>
-      </c>
-      <c r="AC102">
-        <v>0</v>
-      </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
-      <c r="AE102">
-        <v>0</v>
-      </c>
-      <c r="AF102">
-        <v>0</v>
-      </c>
       <c r="AG102">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AH102">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="AI102">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ102">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK102">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AL102">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM102">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AN102">
-        <v>2.6</v>
+        <v>1.17</v>
       </c>
       <c r="AO102">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AR102">
-        <v>1.61</v>
+        <v>1.12</v>
       </c>
       <c r="AS102">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AT102">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
         <v>6</v>
       </c>
-      <c r="AV102">
-        <v>0</v>
-      </c>
       <c r="AW102">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY102">
+        <v>9</v>
+      </c>
+      <c r="AZ102">
         <v>14</v>
       </c>
-      <c r="AZ102">
-        <v>0</v>
-      </c>
       <c r="BA102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC102">
         <v>9</v>
       </c>
       <c r="BD102">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="BE102">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF102">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BG102">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BH102">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BI102">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BJ102">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BK102">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BL102">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="BM102">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BN102">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BO102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP102">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -673,10 +673,10 @@
     <t>['18', '41', '51', '62', '72']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['20', '26', '46']</t>
   </si>
   <si>
-    <t>['20', '26', '46']</t>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -21649,7 +21649,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7453783</v>
+        <v>7453779</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21658,196 +21658,196 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45591.875</v>
+        <v>45592.625</v>
       </c>
       <c r="F101">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H101" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O101" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="P101" t="s">
         <v>219</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X101">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z101">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="AA101">
+        <v>3.81</v>
+      </c>
+      <c r="AB101">
+        <v>1.61</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>8.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.25</v>
+      </c>
+      <c r="AF101">
         <v>3.6</v>
       </c>
-      <c r="AB101">
-        <v>2.95</v>
-      </c>
-      <c r="AC101">
-        <v>0</v>
-      </c>
-      <c r="AD101">
-        <v>0</v>
-      </c>
-      <c r="AE101">
-        <v>0</v>
-      </c>
-      <c r="AF101">
-        <v>0</v>
-      </c>
       <c r="AG101">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AH101">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="AI101">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ101">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK101">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AL101">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM101">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AN101">
-        <v>2.6</v>
+        <v>1.17</v>
       </c>
       <c r="AO101">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AR101">
-        <v>1.61</v>
+        <v>1.12</v>
       </c>
       <c r="AS101">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AT101">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
         <v>6</v>
       </c>
-      <c r="AV101">
-        <v>0</v>
-      </c>
       <c r="AW101">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
         <v>14</v>
       </c>
-      <c r="AZ101">
-        <v>0</v>
-      </c>
       <c r="BA101">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC101">
         <v>9</v>
       </c>
       <c r="BD101">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="BE101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF101">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BG101">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BH101">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BI101">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BJ101">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BK101">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BL101">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="BM101">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BN101">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BO101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP101">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21855,7 +21855,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7453779</v>
+        <v>7453783</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21864,196 +21864,196 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45591.875</v>
+        <v>45592.66666666666</v>
       </c>
       <c r="F102">
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="P102" t="s">
         <v>220</v>
       </c>
       <c r="Q102">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T102">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U102">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="V102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W102">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X102">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Y102">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="Z102">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA102">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="AB102">
+        <v>2.95</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>1.68</v>
+      </c>
+      <c r="AH102">
+        <v>2.06</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>2.6</v>
+      </c>
+      <c r="AO102">
+        <v>2.6</v>
+      </c>
+      <c r="AP102">
+        <v>2.33</v>
+      </c>
+      <c r="AQ102">
+        <v>2.33</v>
+      </c>
+      <c r="AR102">
         <v>1.61</v>
       </c>
-      <c r="AC102">
-        <v>1.05</v>
-      </c>
-      <c r="AD102">
-        <v>8.5</v>
-      </c>
-      <c r="AE102">
-        <v>1.25</v>
-      </c>
-      <c r="AF102">
-        <v>3.6</v>
-      </c>
-      <c r="AG102">
-        <v>1.82</v>
-      </c>
-      <c r="AH102">
-        <v>1.88</v>
-      </c>
-      <c r="AI102">
-        <v>2.1</v>
-      </c>
-      <c r="AJ102">
-        <v>1.67</v>
-      </c>
-      <c r="AK102">
-        <v>2.3</v>
-      </c>
-      <c r="AL102">
-        <v>1.2</v>
-      </c>
-      <c r="AM102">
-        <v>1.1</v>
-      </c>
-      <c r="AN102">
-        <v>1.17</v>
-      </c>
-      <c r="AO102">
-        <v>1.5</v>
-      </c>
-      <c r="AP102">
-        <v>1</v>
-      </c>
-      <c r="AQ102">
-        <v>1.8</v>
-      </c>
-      <c r="AR102">
-        <v>1.12</v>
-      </c>
       <c r="AS102">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AT102">
-        <v>2.58</v>
+        <v>1.61</v>
       </c>
       <c r="AU102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV102">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY102">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ102">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BA102">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC102">
         <v>9</v>
       </c>
       <c r="BD102">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="BE102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF102">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BG102">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BH102">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="BI102">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BJ102">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BK102">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BL102">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BM102">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BN102">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BO102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP102">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,24 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['25', '34', '45']</t>
+  </si>
+  <si>
+    <t>['20', '33', '45+1']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['1', '32']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -677,6 +695,18 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['8', '35', '58']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['7', '18']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1375,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1503,7 +1533,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>8.5</v>
@@ -1584,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1787,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ4">
         <v>0.14</v>
@@ -1915,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1993,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2199,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2405,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2533,7 +2563,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2611,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2817,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2945,7 +2975,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3023,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3151,7 +3181,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3232,7 +3262,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3357,7 +3387,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3435,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3563,7 +3593,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4181,7 +4211,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4262,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4465,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4671,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ18">
         <v>0.14</v>
@@ -4799,7 +4829,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4877,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5083,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5289,10 +5319,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5498,7 +5528,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5701,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5829,7 +5859,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6116,7 +6146,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6447,7 +6477,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6525,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6653,7 +6683,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6731,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6937,10 +6967,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -7065,7 +7095,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7352,7 +7382,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7477,7 +7507,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7555,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7683,7 +7713,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7761,10 +7791,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -7889,7 +7919,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7967,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>2.33</v>
@@ -8095,7 +8125,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8173,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.14</v>
@@ -8382,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -8588,7 +8618,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8713,7 +8743,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8791,10 +8821,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -8919,7 +8949,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -8997,7 +9027,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9125,7 +9155,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9206,7 +9236,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR40">
         <v>1.91</v>
@@ -9331,7 +9361,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9409,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9537,7 +9567,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9615,10 +9645,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -9743,7 +9773,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9949,7 +9979,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10030,7 +10060,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10155,7 +10185,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10236,7 +10266,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10439,7 +10469,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10645,7 +10675,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>0.14</v>
@@ -10773,7 +10803,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10854,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR48">
         <v>1.07</v>
@@ -11060,7 +11090,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR49">
         <v>1.36</v>
@@ -11185,7 +11215,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11263,7 +11293,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>2.33</v>
@@ -11391,7 +11421,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11469,7 +11499,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>3</v>
@@ -11678,7 +11708,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -11884,7 +11914,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12090,7 +12120,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12215,7 +12245,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12293,7 +12323,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12499,10 +12529,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>2.35</v>
@@ -12627,7 +12657,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12705,7 +12735,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12833,7 +12863,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12911,7 +12941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -13039,7 +13069,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13120,7 +13150,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13245,7 +13275,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13323,10 +13353,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13451,7 +13481,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13657,7 +13687,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13735,7 +13765,7 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.14</v>
@@ -13863,7 +13893,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13941,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14069,7 +14099,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14275,7 +14305,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14356,7 +14386,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.31</v>
@@ -14481,7 +14511,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14562,7 +14592,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -14768,7 +14798,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -14971,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15099,7 +15129,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15305,7 +15335,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15383,10 +15413,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>2.49</v>
@@ -15511,7 +15541,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15592,7 +15622,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -15717,7 +15747,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15795,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.8</v>
@@ -16001,7 +16031,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16129,7 +16159,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16210,7 +16240,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -16413,10 +16443,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -16541,7 +16571,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16619,10 +16649,10 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -16825,10 +16855,10 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ77">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR77">
         <v>0.96</v>
@@ -16953,7 +16983,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17159,7 +17189,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17240,7 +17270,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -17443,7 +17473,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17571,7 +17601,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17777,7 +17807,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17983,7 +18013,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18189,7 +18219,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18395,7 +18425,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18476,7 +18506,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -18679,7 +18709,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
         <v>0.14</v>
@@ -18807,7 +18837,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -18885,10 +18915,10 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19091,10 +19121,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR88">
         <v>1.41</v>
@@ -19219,7 +19249,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19297,7 +19327,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19425,7 +19455,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19506,7 +19536,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR90">
         <v>1.6</v>
@@ -19631,7 +19661,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -19709,10 +19739,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -19915,10 +19945,10 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ92">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20121,10 +20151,10 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ93">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -20249,7 +20279,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20327,10 +20357,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR94">
         <v>1.84</v>
@@ -20739,7 +20769,7 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
         <v>0.14</v>
@@ -21073,7 +21103,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21279,7 +21309,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21485,7 +21515,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21566,7 +21596,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21691,7 +21721,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21897,7 +21927,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22054,6 +22084,1654 @@
       </c>
       <c r="BP102">
         <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7453789</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45599.375</v>
+      </c>
+      <c r="F103">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>161</v>
+      </c>
+      <c r="P103" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q103">
+        <v>3.2</v>
+      </c>
+      <c r="R103">
+        <v>2.2</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>6.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>3.35</v>
+      </c>
+      <c r="AA103">
+        <v>3.3</v>
+      </c>
+      <c r="AB103">
+        <v>2.01</v>
+      </c>
+      <c r="AC103">
+        <v>1.05</v>
+      </c>
+      <c r="AD103">
+        <v>8.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.28</v>
+      </c>
+      <c r="AF103">
+        <v>3.55</v>
+      </c>
+      <c r="AG103">
+        <v>1.85</v>
+      </c>
+      <c r="AH103">
+        <v>1.86</v>
+      </c>
+      <c r="AI103">
+        <v>1.67</v>
+      </c>
+      <c r="AJ103">
+        <v>2.1</v>
+      </c>
+      <c r="AK103">
+        <v>1.5</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.44</v>
+      </c>
+      <c r="AN103">
+        <v>1.14</v>
+      </c>
+      <c r="AO103">
+        <v>0.67</v>
+      </c>
+      <c r="AP103">
+        <v>1</v>
+      </c>
+      <c r="AQ103">
+        <v>1</v>
+      </c>
+      <c r="AR103">
+        <v>1.2</v>
+      </c>
+      <c r="AS103">
+        <v>1.4</v>
+      </c>
+      <c r="AT103">
+        <v>2.6</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>11</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
+        <v>17</v>
+      </c>
+      <c r="BA103">
+        <v>2</v>
+      </c>
+      <c r="BB103">
+        <v>2</v>
+      </c>
+      <c r="BC103">
+        <v>4</v>
+      </c>
+      <c r="BD103">
+        <v>2.2</v>
+      </c>
+      <c r="BE103">
+        <v>7.5</v>
+      </c>
+      <c r="BF103">
+        <v>1.91</v>
+      </c>
+      <c r="BG103">
+        <v>1.41</v>
+      </c>
+      <c r="BH103">
+        <v>2.45</v>
+      </c>
+      <c r="BI103">
+        <v>1.85</v>
+      </c>
+      <c r="BJ103">
+        <v>1.95</v>
+      </c>
+      <c r="BK103">
+        <v>2.26</v>
+      </c>
+      <c r="BL103">
+        <v>1.48</v>
+      </c>
+      <c r="BM103">
+        <v>3.08</v>
+      </c>
+      <c r="BN103">
+        <v>1.26</v>
+      </c>
+      <c r="BO103">
+        <v>4</v>
+      </c>
+      <c r="BP103">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7453790</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45599.375</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q104">
+        <v>2.2</v>
+      </c>
+      <c r="R104">
+        <v>2.25</v>
+      </c>
+      <c r="S104">
+        <v>4.75</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>1.6</v>
+      </c>
+      <c r="AA104">
+        <v>3.7</v>
+      </c>
+      <c r="AB104">
+        <v>4.9</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>8.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.28</v>
+      </c>
+      <c r="AF104">
+        <v>3.55</v>
+      </c>
+      <c r="AG104">
+        <v>1.78</v>
+      </c>
+      <c r="AH104">
+        <v>1.9</v>
+      </c>
+      <c r="AI104">
+        <v>1.8</v>
+      </c>
+      <c r="AJ104">
+        <v>1.91</v>
+      </c>
+      <c r="AK104">
+        <v>1.11</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>2.2</v>
+      </c>
+      <c r="AN104">
+        <v>1.57</v>
+      </c>
+      <c r="AO104">
+        <v>0.57</v>
+      </c>
+      <c r="AP104">
+        <v>1.75</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
+      <c r="AR104">
+        <v>1.79</v>
+      </c>
+      <c r="AS104">
+        <v>1.41</v>
+      </c>
+      <c r="AT104">
+        <v>3.2</v>
+      </c>
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>7</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>21</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>10</v>
+      </c>
+      <c r="BC104">
+        <v>17</v>
+      </c>
+      <c r="BD104">
+        <v>1.59</v>
+      </c>
+      <c r="BE104">
+        <v>6.25</v>
+      </c>
+      <c r="BF104">
+        <v>3.04</v>
+      </c>
+      <c r="BG104">
+        <v>1.4</v>
+      </c>
+      <c r="BH104">
+        <v>2.48</v>
+      </c>
+      <c r="BI104">
+        <v>1.82</v>
+      </c>
+      <c r="BJ104">
+        <v>1.98</v>
+      </c>
+      <c r="BK104">
+        <v>2.24</v>
+      </c>
+      <c r="BL104">
+        <v>1.49</v>
+      </c>
+      <c r="BM104">
+        <v>3.02</v>
+      </c>
+      <c r="BN104">
+        <v>1.27</v>
+      </c>
+      <c r="BO104">
+        <v>4</v>
+      </c>
+      <c r="BP104">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7453787</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45599.54166666666</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>84</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>163</v>
+      </c>
+      <c r="P105" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q105">
+        <v>1.57</v>
+      </c>
+      <c r="R105">
+        <v>2.75</v>
+      </c>
+      <c r="S105">
+        <v>8.5</v>
+      </c>
+      <c r="T105">
+        <v>1.22</v>
+      </c>
+      <c r="U105">
+        <v>4</v>
+      </c>
+      <c r="V105">
+        <v>2.1</v>
+      </c>
+      <c r="W105">
+        <v>1.67</v>
+      </c>
+      <c r="X105">
+        <v>4.33</v>
+      </c>
+      <c r="Y105">
+        <v>1.2</v>
+      </c>
+      <c r="Z105">
+        <v>1.2</v>
+      </c>
+      <c r="AA105">
+        <v>5.5</v>
+      </c>
+      <c r="AB105">
+        <v>10</v>
+      </c>
+      <c r="AC105">
+        <v>1</v>
+      </c>
+      <c r="AD105">
+        <v>15.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.11</v>
+      </c>
+      <c r="AF105">
+        <v>5.75</v>
+      </c>
+      <c r="AG105">
+        <v>1.44</v>
+      </c>
+      <c r="AH105">
+        <v>2.63</v>
+      </c>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.73</v>
+      </c>
+      <c r="AK105">
+        <v>1.02</v>
+      </c>
+      <c r="AL105">
+        <v>1.11</v>
+      </c>
+      <c r="AM105">
+        <v>3.9</v>
+      </c>
+      <c r="AN105">
+        <v>2.67</v>
+      </c>
+      <c r="AO105">
+        <v>1.71</v>
+      </c>
+      <c r="AP105">
+        <v>2.71</v>
+      </c>
+      <c r="AQ105">
+        <v>1.5</v>
+      </c>
+      <c r="AR105">
+        <v>2.08</v>
+      </c>
+      <c r="AS105">
+        <v>1.91</v>
+      </c>
+      <c r="AT105">
+        <v>3.99</v>
+      </c>
+      <c r="AU105">
+        <v>9</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>4</v>
+      </c>
+      <c r="AY105">
+        <v>15</v>
+      </c>
+      <c r="AZ105">
+        <v>14</v>
+      </c>
+      <c r="BA105">
+        <v>9</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>13</v>
+      </c>
+      <c r="BD105">
+        <v>1.21</v>
+      </c>
+      <c r="BE105">
+        <v>11</v>
+      </c>
+      <c r="BF105">
+        <v>5.17</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>1.26</v>
+      </c>
+      <c r="BJ105">
+        <v>3.3</v>
+      </c>
+      <c r="BK105">
+        <v>1.46</v>
+      </c>
+      <c r="BL105">
+        <v>2.44</v>
+      </c>
+      <c r="BM105">
+        <v>1.8</v>
+      </c>
+      <c r="BN105">
+        <v>2</v>
+      </c>
+      <c r="BO105">
+        <v>2.16</v>
+      </c>
+      <c r="BP105">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7453793</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45599.54166666666</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q106">
+        <v>1.95</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>6</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>1.44</v>
+      </c>
+      <c r="AA106">
+        <v>4.33</v>
+      </c>
+      <c r="AB106">
+        <v>6.35</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>9</v>
+      </c>
+      <c r="AE106">
+        <v>1.22</v>
+      </c>
+      <c r="AF106">
+        <v>3.95</v>
+      </c>
+      <c r="AG106">
+        <v>1.65</v>
+      </c>
+      <c r="AH106">
+        <v>2.12</v>
+      </c>
+      <c r="AI106">
+        <v>1.91</v>
+      </c>
+      <c r="AJ106">
+        <v>1.8</v>
+      </c>
+      <c r="AK106">
+        <v>1.07</v>
+      </c>
+      <c r="AL106">
+        <v>1.18</v>
+      </c>
+      <c r="AM106">
+        <v>2.5</v>
+      </c>
+      <c r="AN106">
+        <v>1.57</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>1.75</v>
+      </c>
+      <c r="AQ106">
+        <v>0.86</v>
+      </c>
+      <c r="AR106">
+        <v>1.53</v>
+      </c>
+      <c r="AS106">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT106">
+        <v>2.47</v>
+      </c>
+      <c r="AU106">
+        <v>8</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>7</v>
+      </c>
+      <c r="AX106">
+        <v>1</v>
+      </c>
+      <c r="AY106">
+        <v>24</v>
+      </c>
+      <c r="AZ106">
+        <v>7</v>
+      </c>
+      <c r="BA106">
+        <v>12</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>15</v>
+      </c>
+      <c r="BD106">
+        <v>1.31</v>
+      </c>
+      <c r="BE106">
+        <v>9</v>
+      </c>
+      <c r="BF106">
+        <v>4.43</v>
+      </c>
+      <c r="BG106">
+        <v>1.4</v>
+      </c>
+      <c r="BH106">
+        <v>2.48</v>
+      </c>
+      <c r="BI106">
+        <v>1.82</v>
+      </c>
+      <c r="BJ106">
+        <v>1.98</v>
+      </c>
+      <c r="BK106">
+        <v>2.24</v>
+      </c>
+      <c r="BL106">
+        <v>1.49</v>
+      </c>
+      <c r="BM106">
+        <v>3.02</v>
+      </c>
+      <c r="BN106">
+        <v>1.27</v>
+      </c>
+      <c r="BO106">
+        <v>4</v>
+      </c>
+      <c r="BP106">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7453792</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45599.64583333334</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>77</v>
+      </c>
+      <c r="H107" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q107">
+        <v>3.4</v>
+      </c>
+      <c r="R107">
+        <v>2.2</v>
+      </c>
+      <c r="S107">
+        <v>2.75</v>
+      </c>
+      <c r="T107">
+        <v>1.33</v>
+      </c>
+      <c r="U107">
+        <v>3.25</v>
+      </c>
+      <c r="V107">
+        <v>2.63</v>
+      </c>
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>6</v>
+      </c>
+      <c r="Y107">
+        <v>1.11</v>
+      </c>
+      <c r="Z107">
+        <v>2.36</v>
+      </c>
+      <c r="AA107">
+        <v>3.54</v>
+      </c>
+      <c r="AB107">
+        <v>2.61</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.2</v>
+      </c>
+      <c r="AF107">
+        <v>4</v>
+      </c>
+      <c r="AG107">
+        <v>1.6</v>
+      </c>
+      <c r="AH107">
+        <v>2.2</v>
+      </c>
+      <c r="AI107">
+        <v>1.62</v>
+      </c>
+      <c r="AJ107">
+        <v>2.2</v>
+      </c>
+      <c r="AK107">
+        <v>1.55</v>
+      </c>
+      <c r="AL107">
+        <v>1.27</v>
+      </c>
+      <c r="AM107">
+        <v>1.37</v>
+      </c>
+      <c r="AN107">
+        <v>1.43</v>
+      </c>
+      <c r="AO107">
+        <v>2.17</v>
+      </c>
+      <c r="AP107">
+        <v>1.25</v>
+      </c>
+      <c r="AQ107">
+        <v>2.29</v>
+      </c>
+      <c r="AR107">
+        <v>1.95</v>
+      </c>
+      <c r="AS107">
+        <v>1.57</v>
+      </c>
+      <c r="AT107">
+        <v>3.52</v>
+      </c>
+      <c r="AU107">
+        <v>7</v>
+      </c>
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>22</v>
+      </c>
+      <c r="AZ107">
+        <v>9</v>
+      </c>
+      <c r="BA107">
+        <v>9</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>11</v>
+      </c>
+      <c r="BD107">
+        <v>2.05</v>
+      </c>
+      <c r="BE107">
+        <v>7.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.05</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>1.73</v>
+      </c>
+      <c r="BJ107">
+        <v>2</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7453788</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45600.52083333334</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>87</v>
+      </c>
+      <c r="P108" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>1.85</v>
+      </c>
+      <c r="AA108">
+        <v>3.37</v>
+      </c>
+      <c r="AB108">
+        <v>4.02</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>1.32</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108">
+        <v>1.95</v>
+      </c>
+      <c r="AH108">
+        <v>1.7</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1.71</v>
+      </c>
+      <c r="AO108">
+        <v>0.29</v>
+      </c>
+      <c r="AP108">
+        <v>1.63</v>
+      </c>
+      <c r="AQ108">
+        <v>0.38</v>
+      </c>
+      <c r="AR108">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS108">
+        <v>1.43</v>
+      </c>
+      <c r="AT108">
+        <v>2.12</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>7</v>
+      </c>
+      <c r="AY108">
+        <v>9</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>7</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7453791</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45600.60416666666</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q109">
+        <v>2.3</v>
+      </c>
+      <c r="R109">
+        <v>2.2</v>
+      </c>
+      <c r="S109">
+        <v>4.75</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.75</v>
+      </c>
+      <c r="V109">
+        <v>2.75</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>1.56</v>
+      </c>
+      <c r="AA109">
+        <v>4.01</v>
+      </c>
+      <c r="AB109">
+        <v>5.08</v>
+      </c>
+      <c r="AC109">
+        <v>1.03</v>
+      </c>
+      <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.6</v>
+      </c>
+      <c r="AG109">
+        <v>1.83</v>
+      </c>
+      <c r="AH109">
+        <v>1.83</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.15</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>2.04</v>
+      </c>
+      <c r="AN109">
+        <v>1.86</v>
+      </c>
+      <c r="AO109">
+        <v>1.29</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.53</v>
+      </c>
+      <c r="AS109">
+        <v>1.31</v>
+      </c>
+      <c r="AT109">
+        <v>2.84</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>0</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>15</v>
+      </c>
+      <c r="AZ109">
+        <v>3</v>
+      </c>
+      <c r="BA109">
+        <v>1</v>
+      </c>
+      <c r="BB109">
+        <v>1</v>
+      </c>
+      <c r="BC109">
+        <v>2</v>
+      </c>
+      <c r="BD109">
+        <v>1.51</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>3.17</v>
+      </c>
+      <c r="BG109">
+        <v>1.44</v>
+      </c>
+      <c r="BH109">
+        <v>2.5</v>
+      </c>
+      <c r="BI109">
+        <v>1.8</v>
+      </c>
+      <c r="BJ109">
+        <v>2</v>
+      </c>
+      <c r="BK109">
+        <v>2.2</v>
+      </c>
+      <c r="BL109">
+        <v>1.56</v>
+      </c>
+      <c r="BM109">
+        <v>2.85</v>
+      </c>
+      <c r="BN109">
+        <v>1.35</v>
+      </c>
+      <c r="BO109">
+        <v>3.9</v>
+      </c>
+      <c r="BP109">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7453786</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45600.60416666666</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>87</v>
+      </c>
+      <c r="P110" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q110">
+        <v>6</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>2.1</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>4.95</v>
+      </c>
+      <c r="AA110">
+        <v>3.66</v>
+      </c>
+      <c r="AB110">
+        <v>1.58</v>
+      </c>
+      <c r="AC110">
+        <v>1.06</v>
+      </c>
+      <c r="AD110">
+        <v>8</v>
+      </c>
+      <c r="AE110">
+        <v>1.33</v>
+      </c>
+      <c r="AF110">
+        <v>3.2</v>
+      </c>
+      <c r="AG110">
+        <v>1.9</v>
+      </c>
+      <c r="AH110">
+        <v>1.84</v>
+      </c>
+      <c r="AI110">
+        <v>2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.73</v>
+      </c>
+      <c r="AK110">
+        <v>2.4</v>
+      </c>
+      <c r="AL110">
+        <v>1.2</v>
+      </c>
+      <c r="AM110">
+        <v>1.08</v>
+      </c>
+      <c r="AN110">
+        <v>0.67</v>
+      </c>
+      <c r="AO110">
+        <v>2</v>
+      </c>
+      <c r="AP110">
+        <v>0.57</v>
+      </c>
+      <c r="AQ110">
+        <v>2.13</v>
+      </c>
+      <c r="AR110">
+        <v>1.11</v>
+      </c>
+      <c r="AS110">
+        <v>1.25</v>
+      </c>
+      <c r="AT110">
+        <v>2.36</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>6</v>
+      </c>
+      <c r="AW110">
+        <v>7</v>
+      </c>
+      <c r="AX110">
+        <v>2</v>
+      </c>
+      <c r="AY110">
+        <v>16</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>9</v>
+      </c>
+      <c r="BD110">
+        <v>3.59</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>1.41</v>
+      </c>
+      <c r="BG110">
+        <v>1.35</v>
+      </c>
+      <c r="BH110">
+        <v>2.65</v>
+      </c>
+      <c r="BI110">
+        <v>1.68</v>
+      </c>
+      <c r="BJ110">
+        <v>2.01</v>
+      </c>
+      <c r="BK110">
+        <v>2.1</v>
+      </c>
+      <c r="BL110">
+        <v>1.56</v>
+      </c>
+      <c r="BM110">
+        <v>2.82</v>
+      </c>
+      <c r="BN110">
+        <v>1.31</v>
+      </c>
+      <c r="BO110">
+        <v>3.7</v>
+      </c>
+      <c r="BP110">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -23121,7 +23121,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7453788</v>
+        <v>7453791</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23130,196 +23130,196 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45600.52083333334</v>
+        <v>45599.875</v>
       </c>
       <c r="F108">
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="P108" t="s">
         <v>87</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R108">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U108">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V108">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z108">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="AA108">
-        <v>3.37</v>
+        <v>4.01</v>
       </c>
       <c r="AB108">
-        <v>4.02</v>
+        <v>5.08</v>
       </c>
       <c r="AC108">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD108">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE108">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AF108">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AG108">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH108">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AI108">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AJ108">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK108">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AL108">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM108">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN108">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AO108">
-        <v>0.29</v>
+        <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
-        <v>0.6899999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="AS108">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AT108">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="AU108">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
         <v>4</v>
       </c>
-      <c r="AW108">
-        <v>3</v>
-      </c>
       <c r="AX108">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY108">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ108">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC108">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BD108">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BE108">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF108">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="BG108">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BH108">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BI108">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BJ108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK108">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BL108">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BM108">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="BN108">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BO108">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BP108">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23327,7 +23327,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7453791</v>
+        <v>7453786</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23336,49 +23336,49 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45600.60416666666</v>
+        <v>45599.875</v>
       </c>
       <c r="F109">
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="Q109">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="R109">
         <v>2.2</v>
       </c>
       <c r="S109">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="T109">
         <v>1.4</v>
@@ -23387,145 +23387,145 @@
         <v>2.75</v>
       </c>
       <c r="V109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W109">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X109">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y109">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z109">
-        <v>1.56</v>
+        <v>4.95</v>
       </c>
       <c r="AA109">
-        <v>4.01</v>
+        <v>3.66</v>
       </c>
       <c r="AB109">
-        <v>5.08</v>
+        <v>1.58</v>
       </c>
       <c r="AC109">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD109">
+        <v>8</v>
+      </c>
+      <c r="AE109">
+        <v>1.33</v>
+      </c>
+      <c r="AF109">
+        <v>3.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.9</v>
+      </c>
+      <c r="AH109">
+        <v>1.84</v>
+      </c>
+      <c r="AI109">
+        <v>2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.73</v>
+      </c>
+      <c r="AK109">
+        <v>2.4</v>
+      </c>
+      <c r="AL109">
+        <v>1.2</v>
+      </c>
+      <c r="AM109">
+        <v>1.08</v>
+      </c>
+      <c r="AN109">
+        <v>0.67</v>
+      </c>
+      <c r="AO109">
+        <v>2</v>
+      </c>
+      <c r="AP109">
+        <v>0.57</v>
+      </c>
+      <c r="AQ109">
+        <v>2.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.11</v>
+      </c>
+      <c r="AS109">
+        <v>1.25</v>
+      </c>
+      <c r="AT109">
+        <v>2.36</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>16</v>
+      </c>
+      <c r="AZ109">
+        <v>12</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
         <v>9</v>
       </c>
-      <c r="AE109">
-        <v>1.25</v>
-      </c>
-      <c r="AF109">
-        <v>3.6</v>
-      </c>
-      <c r="AG109">
-        <v>1.83</v>
-      </c>
-      <c r="AH109">
-        <v>1.83</v>
-      </c>
-      <c r="AI109">
-        <v>1.83</v>
-      </c>
-      <c r="AJ109">
-        <v>1.83</v>
-      </c>
-      <c r="AK109">
-        <v>1.15</v>
-      </c>
-      <c r="AL109">
-        <v>1.22</v>
-      </c>
-      <c r="AM109">
-        <v>2.04</v>
-      </c>
-      <c r="AN109">
-        <v>1.86</v>
-      </c>
-      <c r="AO109">
-        <v>1.29</v>
-      </c>
-      <c r="AP109">
-        <v>2</v>
-      </c>
-      <c r="AQ109">
-        <v>1.13</v>
-      </c>
-      <c r="AR109">
-        <v>1.53</v>
-      </c>
-      <c r="AS109">
-        <v>1.31</v>
-      </c>
-      <c r="AT109">
-        <v>2.84</v>
-      </c>
-      <c r="AU109">
-        <v>8</v>
-      </c>
-      <c r="AV109">
-        <v>0</v>
-      </c>
-      <c r="AW109">
-        <v>4</v>
-      </c>
-      <c r="AX109">
-        <v>3</v>
-      </c>
-      <c r="AY109">
-        <v>15</v>
-      </c>
-      <c r="AZ109">
-        <v>3</v>
-      </c>
-      <c r="BA109">
-        <v>1</v>
-      </c>
-      <c r="BB109">
-        <v>1</v>
-      </c>
-      <c r="BC109">
-        <v>2</v>
-      </c>
       <c r="BD109">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="BE109">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF109">
-        <v>3.17</v>
+        <v>1.41</v>
       </c>
       <c r="BG109">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BH109">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BI109">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BJ109">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="BK109">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL109">
         <v>1.56</v>
       </c>
       <c r="BM109">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="BN109">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BO109">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BP109">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23533,7 +23533,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7453786</v>
+        <v>7453788</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23542,16 +23542,16 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45600.60416666666</v>
+        <v>45599.875</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -23566,172 +23566,172 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" t="s">
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>1.85</v>
+      </c>
+      <c r="AA110">
+        <v>3.37</v>
+      </c>
+      <c r="AB110">
+        <v>4.02</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>1.32</v>
+      </c>
+      <c r="AF110">
+        <v>3</v>
+      </c>
+      <c r="AG110">
+        <v>1.95</v>
+      </c>
+      <c r="AH110">
+        <v>1.7</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1.71</v>
+      </c>
+      <c r="AO110">
+        <v>0.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.63</v>
+      </c>
+      <c r="AQ110">
+        <v>0.38</v>
+      </c>
+      <c r="AR110">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS110">
+        <v>1.43</v>
+      </c>
+      <c r="AT110">
+        <v>2.12</v>
+      </c>
+      <c r="AU110">
         <v>6</v>
       </c>
-      <c r="R110">
-        <v>2.2</v>
-      </c>
-      <c r="S110">
-        <v>2.1</v>
-      </c>
-      <c r="T110">
-        <v>1.4</v>
-      </c>
-      <c r="U110">
-        <v>2.75</v>
-      </c>
-      <c r="V110">
-        <v>3</v>
-      </c>
-      <c r="W110">
-        <v>1.36</v>
-      </c>
-      <c r="X110">
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
         <v>7</v>
       </c>
-      <c r="Y110">
-        <v>1.08</v>
-      </c>
-      <c r="Z110">
-        <v>4.95</v>
-      </c>
-      <c r="AA110">
-        <v>3.66</v>
-      </c>
-      <c r="AB110">
-        <v>1.58</v>
-      </c>
-      <c r="AC110">
-        <v>1.06</v>
-      </c>
-      <c r="AD110">
-        <v>8</v>
-      </c>
-      <c r="AE110">
-        <v>1.33</v>
-      </c>
-      <c r="AF110">
-        <v>3.2</v>
-      </c>
-      <c r="AG110">
-        <v>1.9</v>
-      </c>
-      <c r="AH110">
-        <v>1.84</v>
-      </c>
-      <c r="AI110">
-        <v>2</v>
-      </c>
-      <c r="AJ110">
-        <v>1.73</v>
-      </c>
-      <c r="AK110">
-        <v>2.4</v>
-      </c>
-      <c r="AL110">
-        <v>1.2</v>
-      </c>
-      <c r="AM110">
-        <v>1.08</v>
-      </c>
-      <c r="AN110">
-        <v>0.67</v>
-      </c>
-      <c r="AO110">
-        <v>2</v>
-      </c>
-      <c r="AP110">
-        <v>0.57</v>
-      </c>
-      <c r="AQ110">
-        <v>2.13</v>
-      </c>
-      <c r="AR110">
-        <v>1.11</v>
-      </c>
-      <c r="AS110">
-        <v>1.25</v>
-      </c>
-      <c r="AT110">
-        <v>2.36</v>
-      </c>
-      <c r="AU110">
-        <v>5</v>
-      </c>
-      <c r="AV110">
-        <v>6</v>
-      </c>
-      <c r="AW110">
-        <v>7</v>
-      </c>
-      <c r="AX110">
-        <v>2</v>
-      </c>
       <c r="AY110">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ110">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA110">
         <v>4</v>
       </c>
       <c r="BB110">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD110">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="BE110">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF110">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BG110">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BH110">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BI110">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="BJ110">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="BK110">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BL110">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="BM110">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="BN110">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO110">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BP110">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -23121,7 +23121,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7453791</v>
+        <v>7453788</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23130,196 +23130,196 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45599.875</v>
+        <v>45600.52083333334</v>
       </c>
       <c r="F108">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="P108" t="s">
         <v>87</v>
       </c>
       <c r="Q108">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S108">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="T108">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U108">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V108">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X108">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y108">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="AA108">
-        <v>4.01</v>
+        <v>3.37</v>
       </c>
       <c r="AB108">
-        <v>5.08</v>
+        <v>4.02</v>
       </c>
       <c r="AC108">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>1.32</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108">
+        <v>1.95</v>
+      </c>
+      <c r="AH108">
+        <v>1.7</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1.71</v>
+      </c>
+      <c r="AO108">
+        <v>0.29</v>
+      </c>
+      <c r="AP108">
+        <v>1.63</v>
+      </c>
+      <c r="AQ108">
+        <v>0.38</v>
+      </c>
+      <c r="AR108">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS108">
+        <v>1.43</v>
+      </c>
+      <c r="AT108">
+        <v>2.12</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>7</v>
+      </c>
+      <c r="AY108">
         <v>9</v>
       </c>
-      <c r="AE108">
-        <v>1.25</v>
-      </c>
-      <c r="AF108">
-        <v>3.6</v>
-      </c>
-      <c r="AG108">
-        <v>1.83</v>
-      </c>
-      <c r="AH108">
-        <v>1.83</v>
-      </c>
-      <c r="AI108">
-        <v>1.83</v>
-      </c>
-      <c r="AJ108">
-        <v>1.83</v>
-      </c>
-      <c r="AK108">
-        <v>1.15</v>
-      </c>
-      <c r="AL108">
-        <v>1.22</v>
-      </c>
-      <c r="AM108">
-        <v>2.04</v>
-      </c>
-      <c r="AN108">
-        <v>1.86</v>
-      </c>
-      <c r="AO108">
-        <v>1.29</v>
-      </c>
-      <c r="AP108">
-        <v>2</v>
-      </c>
-      <c r="AQ108">
-        <v>1.13</v>
-      </c>
-      <c r="AR108">
-        <v>1.53</v>
-      </c>
-      <c r="AS108">
-        <v>1.31</v>
-      </c>
-      <c r="AT108">
-        <v>2.84</v>
-      </c>
-      <c r="AU108">
-        <v>8</v>
-      </c>
-      <c r="AV108">
-        <v>0</v>
-      </c>
-      <c r="AW108">
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
         <v>4</v>
       </c>
-      <c r="AX108">
-        <v>3</v>
-      </c>
-      <c r="AY108">
-        <v>15</v>
-      </c>
-      <c r="AZ108">
-        <v>3</v>
-      </c>
-      <c r="BA108">
-        <v>1</v>
-      </c>
       <c r="BB108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC108">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BD108">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BE108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF108">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="BG108">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BH108">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BI108">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BJ108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK108">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BL108">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="BM108">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BN108">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BO108">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BP108">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23327,7 +23327,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7453786</v>
+        <v>7453791</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23336,49 +23336,49 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45599.875</v>
+        <v>45600.60416666666</v>
       </c>
       <c r="F109">
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
         <v>87</v>
       </c>
-      <c r="P109" t="s">
-        <v>230</v>
-      </c>
       <c r="Q109">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R109">
         <v>2.2</v>
       </c>
       <c r="S109">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="T109">
         <v>1.4</v>
@@ -23387,145 +23387,145 @@
         <v>2.75</v>
       </c>
       <c r="V109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W109">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X109">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y109">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z109">
-        <v>4.95</v>
+        <v>1.56</v>
       </c>
       <c r="AA109">
-        <v>3.66</v>
+        <v>4.01</v>
       </c>
       <c r="AB109">
-        <v>1.58</v>
+        <v>5.08</v>
       </c>
       <c r="AC109">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.6</v>
+      </c>
+      <c r="AG109">
+        <v>1.83</v>
+      </c>
+      <c r="AH109">
+        <v>1.83</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.15</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>2.04</v>
+      </c>
+      <c r="AN109">
+        <v>1.86</v>
+      </c>
+      <c r="AO109">
+        <v>1.29</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.53</v>
+      </c>
+      <c r="AS109">
+        <v>1.31</v>
+      </c>
+      <c r="AT109">
+        <v>2.84</v>
+      </c>
+      <c r="AU109">
         <v>8</v>
       </c>
-      <c r="AE109">
-        <v>1.33</v>
-      </c>
-      <c r="AF109">
-        <v>3.2</v>
-      </c>
-      <c r="AG109">
-        <v>1.9</v>
-      </c>
-      <c r="AH109">
-        <v>1.84</v>
-      </c>
-      <c r="AI109">
-        <v>2</v>
-      </c>
-      <c r="AJ109">
-        <v>1.73</v>
-      </c>
-      <c r="AK109">
-        <v>2.4</v>
-      </c>
-      <c r="AL109">
-        <v>1.2</v>
-      </c>
-      <c r="AM109">
-        <v>1.08</v>
-      </c>
-      <c r="AN109">
-        <v>0.67</v>
-      </c>
-      <c r="AO109">
-        <v>2</v>
-      </c>
-      <c r="AP109">
-        <v>0.57</v>
-      </c>
-      <c r="AQ109">
-        <v>2.13</v>
-      </c>
-      <c r="AR109">
-        <v>1.11</v>
-      </c>
-      <c r="AS109">
-        <v>1.25</v>
-      </c>
-      <c r="AT109">
-        <v>2.36</v>
-      </c>
-      <c r="AU109">
-        <v>5</v>
-      </c>
       <c r="AV109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW109">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY109">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BA109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC109">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BD109">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="BE109">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF109">
-        <v>1.41</v>
+        <v>3.17</v>
       </c>
       <c r="BG109">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BH109">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BI109">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BJ109">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BK109">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL109">
         <v>1.56</v>
       </c>
       <c r="BM109">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="BN109">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BO109">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BP109">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23533,7 +23533,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7453788</v>
+        <v>7453786</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23542,16 +23542,16 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45599.875</v>
+        <v>45600.60416666666</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -23566,172 +23566,172 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S110">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U110">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z110">
-        <v>1.85</v>
+        <v>4.95</v>
       </c>
       <c r="AA110">
-        <v>3.37</v>
+        <v>3.66</v>
       </c>
       <c r="AB110">
-        <v>4.02</v>
+        <v>1.58</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE110">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AF110">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AG110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AH110">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AI110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ110">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK110">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL110">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM110">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AN110">
-        <v>1.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO110">
-        <v>0.29</v>
+        <v>2</v>
       </c>
       <c r="AP110">
-        <v>1.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ110">
-        <v>0.38</v>
+        <v>2.13</v>
       </c>
       <c r="AR110">
-        <v>0.6899999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AS110">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT110">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
         <v>6</v>
       </c>
-      <c r="AV110">
-        <v>4</v>
-      </c>
       <c r="AW110">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX110">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY110">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA110">
         <v>4</v>
       </c>
       <c r="BB110">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC110">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD110">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="BE110">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BF110">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BG110">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BH110">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BI110">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BJ110">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="BK110">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BL110">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BM110">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="BN110">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO110">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BP110">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,10 +517,13 @@
     <t>['1', '32']</t>
   </si>
   <si>
-    <t>['3', '15', '45+3']</t>
+    <t>['85', '88']</t>
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['3', '15', '45+3']</t>
   </si>
   <si>
     <t>['86', '90+3']</t>
@@ -707,6 +710,12 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1336,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1945,7 +1954,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2357,7 +2366,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2563,7 +2572,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2975,7 +2984,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3181,7 +3190,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3387,7 +3396,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3468,7 +3477,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3593,7 +3602,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3671,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3877,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -4086,7 +4095,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4211,7 +4220,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4829,7 +4838,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5859,7 +5868,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6143,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6349,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6477,7 +6486,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6558,7 +6567,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6683,7 +6692,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6764,7 +6773,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>2.33</v>
@@ -7095,7 +7104,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7173,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ30">
         <v>1.8</v>
@@ -7379,7 +7388,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
         <v>2.29</v>
@@ -7507,7 +7516,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7713,7 +7722,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7919,7 +7928,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8000,7 +8009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8125,7 +8134,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8743,7 +8752,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8949,7 +8958,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9155,7 +9164,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9233,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ40">
         <v>1.13</v>
@@ -9361,7 +9370,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9442,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9567,7 +9576,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9773,7 +9782,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9979,7 +9988,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10057,7 +10066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ44">
         <v>0.86</v>
@@ -10185,7 +10194,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10263,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10472,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10803,7 +10812,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11215,7 +11224,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11296,7 +11305,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11421,7 +11430,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11911,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12117,7 +12126,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12245,7 +12254,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12657,7 +12666,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12863,7 +12872,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13069,7 +13078,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13275,7 +13284,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13481,7 +13490,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13559,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13687,7 +13696,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13893,7 +13902,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13974,7 +13983,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14099,7 +14108,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14180,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14305,7 +14314,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14383,7 +14392,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14511,7 +14520,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14589,7 +14598,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ66">
         <v>0.38</v>
@@ -15004,7 +15013,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15129,7 +15138,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15335,7 +15344,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15541,7 +15550,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15747,7 +15756,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16159,7 +16168,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16237,7 +16246,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16571,7 +16580,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16983,7 +16992,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17061,10 +17070,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17189,7 +17198,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17267,7 +17276,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ79">
         <v>2.13</v>
@@ -17601,7 +17610,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17682,7 +17691,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -17807,7 +17816,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17888,7 +17897,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18013,7 +18022,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18094,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18219,7 +18228,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18297,7 +18306,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18425,7 +18434,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18503,7 +18512,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18837,7 +18846,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19249,7 +19258,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19455,7 +19464,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19661,7 +19670,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20279,7 +20288,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20563,10 +20572,10 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21103,7 +21112,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21181,7 +21190,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
         <v>3</v>
@@ -21309,7 +21318,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21390,7 +21399,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21515,7 +21524,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21593,7 +21602,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ100">
         <v>2.13</v>
@@ -21721,7 +21730,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21927,7 +21936,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22005,10 +22014,10 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ102">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -22133,7 +22142,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22339,7 +22348,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -22957,7 +22966,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23575,7 +23584,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23732,6 +23741,830 @@
       </c>
       <c r="BP110">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7454214</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45605.375</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q111">
+        <v>2.63</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>3.6</v>
+      </c>
+      <c r="T111">
+        <v>1.36</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>2.63</v>
+      </c>
+      <c r="W111">
+        <v>1.44</v>
+      </c>
+      <c r="X111">
+        <v>6.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.1</v>
+      </c>
+      <c r="Z111">
+        <v>2.1</v>
+      </c>
+      <c r="AA111">
+        <v>3.4</v>
+      </c>
+      <c r="AB111">
+        <v>3.4</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>8.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.25</v>
+      </c>
+      <c r="AF111">
+        <v>3.6</v>
+      </c>
+      <c r="AG111">
+        <v>1.8</v>
+      </c>
+      <c r="AH111">
+        <v>1.9</v>
+      </c>
+      <c r="AI111">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111">
+        <v>2.1</v>
+      </c>
+      <c r="AK111">
+        <v>1.33</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.7</v>
+      </c>
+      <c r="AN111">
+        <v>2.33</v>
+      </c>
+      <c r="AO111">
+        <v>1</v>
+      </c>
+      <c r="AP111">
+        <v>2.43</v>
+      </c>
+      <c r="AQ111">
+        <v>0.86</v>
+      </c>
+      <c r="AR111">
+        <v>1.71</v>
+      </c>
+      <c r="AS111">
+        <v>1.34</v>
+      </c>
+      <c r="AT111">
+        <v>3.05</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111">
+        <v>9</v>
+      </c>
+      <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>23</v>
+      </c>
+      <c r="AZ111">
+        <v>11</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>7</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>2</v>
+      </c>
+      <c r="BL111">
+        <v>1.8</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7453797</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45605.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>85</v>
+      </c>
+      <c r="H112" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112">
+        <v>2.2</v>
+      </c>
+      <c r="S112">
+        <v>2.5</v>
+      </c>
+      <c r="T112">
+        <v>1.36</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>2.63</v>
+      </c>
+      <c r="W112">
+        <v>1.44</v>
+      </c>
+      <c r="X112">
+        <v>6.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.1</v>
+      </c>
+      <c r="Z112">
+        <v>3.8</v>
+      </c>
+      <c r="AA112">
+        <v>3.5</v>
+      </c>
+      <c r="AB112">
+        <v>1.95</v>
+      </c>
+      <c r="AC112">
+        <v>1.04</v>
+      </c>
+      <c r="AD112">
+        <v>9</v>
+      </c>
+      <c r="AE112">
+        <v>1.25</v>
+      </c>
+      <c r="AF112">
+        <v>3.65</v>
+      </c>
+      <c r="AG112">
+        <v>1.8</v>
+      </c>
+      <c r="AH112">
+        <v>1.9</v>
+      </c>
+      <c r="AI112">
+        <v>1.73</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>1.8</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.28</v>
+      </c>
+      <c r="AN112">
+        <v>1.17</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1.14</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.19</v>
+      </c>
+      <c r="AS112">
+        <v>1.62</v>
+      </c>
+      <c r="AT112">
+        <v>2.81</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>9</v>
+      </c>
+      <c r="AX112">
+        <v>3</v>
+      </c>
+      <c r="AY112">
+        <v>15</v>
+      </c>
+      <c r="AZ112">
+        <v>8</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
+        <v>6</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7453798</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>80</v>
+      </c>
+      <c r="H113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>89</v>
+      </c>
+      <c r="P113" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q113">
+        <v>2.5</v>
+      </c>
+      <c r="R113">
+        <v>2.1</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>1.36</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>1.91</v>
+      </c>
+      <c r="AA113">
+        <v>3.5</v>
+      </c>
+      <c r="AB113">
+        <v>3.9</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>8.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.3</v>
+      </c>
+      <c r="AF113">
+        <v>3.25</v>
+      </c>
+      <c r="AG113">
+        <v>2.12</v>
+      </c>
+      <c r="AH113">
+        <v>1.64</v>
+      </c>
+      <c r="AI113">
+        <v>1.83</v>
+      </c>
+      <c r="AJ113">
+        <v>1.83</v>
+      </c>
+      <c r="AK113">
+        <v>1.2</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>1.85</v>
+      </c>
+      <c r="AN113">
+        <v>1.4</v>
+      </c>
+      <c r="AO113">
+        <v>0.5</v>
+      </c>
+      <c r="AP113">
+        <v>1.67</v>
+      </c>
+      <c r="AQ113">
+        <v>0.43</v>
+      </c>
+      <c r="AR113">
+        <v>1.01</v>
+      </c>
+      <c r="AS113">
+        <v>1.09</v>
+      </c>
+      <c r="AT113">
+        <v>2.1</v>
+      </c>
+      <c r="AU113">
+        <v>3</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>6</v>
+      </c>
+      <c r="AZ113">
+        <v>2</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>6</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>1.9</v>
+      </c>
+      <c r="BJ113">
+        <v>1.9</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7453799</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45605.60416666666</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P114" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>1.61</v>
+      </c>
+      <c r="AA114">
+        <v>3.88</v>
+      </c>
+      <c r="AB114">
+        <v>4.94</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>1.75</v>
+      </c>
+      <c r="AH114">
+        <v>2</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>1.17</v>
+      </c>
+      <c r="AO114">
+        <v>2.33</v>
+      </c>
+      <c r="AP114">
+        <v>1.14</v>
+      </c>
+      <c r="AQ114">
+        <v>2.14</v>
+      </c>
+      <c r="AR114">
+        <v>1.72</v>
+      </c>
+      <c r="AS114">
+        <v>0.34</v>
+      </c>
+      <c r="AT114">
+        <v>2.06</v>
+      </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>9</v>
+      </c>
+      <c r="AX114">
+        <v>1</v>
+      </c>
+      <c r="AY114">
+        <v>17</v>
+      </c>
+      <c r="AZ114">
+        <v>3</v>
+      </c>
+      <c r="BA114">
+        <v>10</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>10</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,15 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['32', '77']</t>
+  </si>
+  <si>
+    <t>['53', '59', '66']</t>
+  </si>
+  <si>
+    <t>['25', '33']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -716,6 +725,12 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['11', '25', '45']</t>
+  </si>
+  <si>
+    <t>['38', '83']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1351,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1620,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>2.29</v>
@@ -1829,7 +1844,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ4">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1954,7 +1969,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2366,7 +2381,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2572,7 +2587,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2984,7 +2999,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3190,7 +3205,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3268,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11">
         <v>0.86</v>
@@ -3396,7 +3411,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3602,7 +3617,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3889,7 +3904,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4092,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
         <v>0.43</v>
@@ -4220,7 +4235,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4298,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4713,7 +4728,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ18">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4838,7 +4853,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5534,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5868,7 +5883,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5946,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6361,7 +6376,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6486,7 +6501,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6692,7 +6707,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7104,7 +7119,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7185,7 +7200,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7516,7 +7531,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7722,7 +7737,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7928,7 +7943,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8134,7 +8149,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8215,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -8418,7 +8433,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>0.38</v>
@@ -8624,7 +8639,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8752,7 +8767,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8958,7 +8973,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9164,7 +9179,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9370,7 +9385,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9576,7 +9591,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9782,7 +9797,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9860,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -9988,7 +10003,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10194,7 +10209,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10687,7 +10702,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -10812,7 +10827,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10890,7 +10905,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
         <v>2.13</v>
@@ -11096,7 +11111,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
         <v>0.38</v>
@@ -11224,7 +11239,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11430,7 +11445,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11714,7 +11729,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12254,7 +12269,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12335,7 +12350,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR55">
         <v>0</v>
@@ -12666,7 +12681,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12872,7 +12887,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12953,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13078,7 +13093,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13156,7 +13171,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>2.29</v>
@@ -13284,7 +13299,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13490,7 +13505,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13571,7 +13586,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -13696,7 +13711,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13777,7 +13792,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13902,7 +13917,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14108,7 +14123,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14186,7 +14201,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>2.14</v>
@@ -14314,7 +14329,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14520,7 +14535,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14804,7 +14819,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
         <v>2.13</v>
@@ -15138,7 +15153,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15216,7 +15231,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
         <v>3</v>
@@ -15344,7 +15359,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15550,7 +15565,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15628,7 +15643,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15756,7 +15771,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15837,7 +15852,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16043,7 +16058,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.97</v>
@@ -16168,7 +16183,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16580,7 +16595,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16992,7 +17007,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17198,7 +17213,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17610,7 +17625,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17688,7 +17703,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
         <v>2.14</v>
@@ -17816,7 +17831,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17894,7 +17909,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82">
         <v>0.43</v>
@@ -18022,7 +18037,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18100,7 +18115,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>0.86</v>
@@ -18228,7 +18243,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18434,7 +18449,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18721,7 +18736,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -18846,7 +18861,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19258,7 +19273,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19339,7 +19354,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR89">
         <v>1.92</v>
@@ -19464,7 +19479,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19542,7 +19557,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ90">
         <v>0.38</v>
@@ -19670,7 +19685,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20288,7 +20303,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20781,7 +20796,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -20984,7 +20999,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21112,7 +21127,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21318,7 +21333,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21396,7 +21411,7 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ99">
         <v>0.86</v>
@@ -21524,7 +21539,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21730,7 +21745,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21808,10 +21823,10 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -21936,7 +21951,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22142,7 +22157,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22348,7 +22363,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -22966,7 +22981,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23584,7 +23599,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23760,7 +23775,7 @@
         <v>45605.375</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
         <v>81</v>
@@ -23790,7 +23805,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -23966,7 +23981,7 @@
         <v>45605.45833333334</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>85</v>
@@ -23996,7 +24011,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24172,7 +24187,7 @@
         <v>45605.5</v>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>80</v>
@@ -24564,6 +24579,830 @@
         <v>0</v>
       </c>
       <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7453794</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>169</v>
+      </c>
+      <c r="P115" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q115">
+        <v>1.95</v>
+      </c>
+      <c r="R115">
+        <v>2.2</v>
+      </c>
+      <c r="S115">
+        <v>7</v>
+      </c>
+      <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>7</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>1.67</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>4.72</v>
+      </c>
+      <c r="AC115">
+        <v>1.05</v>
+      </c>
+      <c r="AD115">
+        <v>8.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.3</v>
+      </c>
+      <c r="AF115">
+        <v>3.25</v>
+      </c>
+      <c r="AG115">
+        <v>2.23</v>
+      </c>
+      <c r="AH115">
+        <v>1.58</v>
+      </c>
+      <c r="AI115">
+        <v>2.25</v>
+      </c>
+      <c r="AJ115">
+        <v>1.57</v>
+      </c>
+      <c r="AK115">
+        <v>1.05</v>
+      </c>
+      <c r="AL115">
+        <v>1.15</v>
+      </c>
+      <c r="AM115">
+        <v>2.75</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
+        <v>0.14</v>
+      </c>
+      <c r="AP115">
+        <v>1.25</v>
+      </c>
+      <c r="AQ115">
+        <v>0.13</v>
+      </c>
+      <c r="AR115">
+        <v>1.12</v>
+      </c>
+      <c r="AS115">
+        <v>1.09</v>
+      </c>
+      <c r="AT115">
+        <v>2.21</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>12</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>25</v>
+      </c>
+      <c r="AZ115">
+        <v>9</v>
+      </c>
+      <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>1.73</v>
+      </c>
+      <c r="BJ115">
+        <v>2</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7453796</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>6</v>
+      </c>
+      <c r="O116" t="s">
+        <v>170</v>
+      </c>
+      <c r="P116" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>2.5</v>
+      </c>
+      <c r="T116">
+        <v>1.36</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
+        <v>2.63</v>
+      </c>
+      <c r="W116">
+        <v>1.44</v>
+      </c>
+      <c r="X116">
+        <v>6.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.1</v>
+      </c>
+      <c r="Z116">
+        <v>3.02</v>
+      </c>
+      <c r="AA116">
+        <v>3.2</v>
+      </c>
+      <c r="AB116">
+        <v>2.17</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>9</v>
+      </c>
+      <c r="AE116">
+        <v>1.25</v>
+      </c>
+      <c r="AF116">
+        <v>3.6</v>
+      </c>
+      <c r="AG116">
+        <v>1.8</v>
+      </c>
+      <c r="AH116">
+        <v>1.9</v>
+      </c>
+      <c r="AI116">
+        <v>1.73</v>
+      </c>
+      <c r="AJ116">
+        <v>2</v>
+      </c>
+      <c r="AK116">
+        <v>1.85</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>1.22</v>
+      </c>
+      <c r="AN116">
+        <v>1.17</v>
+      </c>
+      <c r="AO116">
+        <v>1.8</v>
+      </c>
+      <c r="AP116">
+        <v>1.14</v>
+      </c>
+      <c r="AQ116">
+        <v>1.67</v>
+      </c>
+      <c r="AR116">
+        <v>1.31</v>
+      </c>
+      <c r="AS116">
+        <v>1.49</v>
+      </c>
+      <c r="AT116">
+        <v>2.8</v>
+      </c>
+      <c r="AU116">
+        <v>7</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>2</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>10</v>
+      </c>
+      <c r="BA116">
+        <v>4</v>
+      </c>
+      <c r="BB116">
+        <v>1</v>
+      </c>
+      <c r="BC116">
+        <v>5</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>1.88</v>
+      </c>
+      <c r="BJ116">
+        <v>1.92</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7453795</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" t="s">
+        <v>70</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>171</v>
+      </c>
+      <c r="P117" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q117">
+        <v>2.05</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>5.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.13</v>
+      </c>
+      <c r="Z117">
+        <v>1.48</v>
+      </c>
+      <c r="AA117">
+        <v>4.3</v>
+      </c>
+      <c r="AB117">
+        <v>5.08</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.2</v>
+      </c>
+      <c r="AF117">
+        <v>4.2</v>
+      </c>
+      <c r="AG117">
+        <v>1.53</v>
+      </c>
+      <c r="AH117">
+        <v>2.34</v>
+      </c>
+      <c r="AI117">
+        <v>1.8</v>
+      </c>
+      <c r="AJ117">
+        <v>1.91</v>
+      </c>
+      <c r="AK117">
+        <v>1.11</v>
+      </c>
+      <c r="AL117">
+        <v>1.18</v>
+      </c>
+      <c r="AM117">
+        <v>2.35</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+      <c r="AO117">
+        <v>1.5</v>
+      </c>
+      <c r="AP117">
+        <v>1.83</v>
+      </c>
+      <c r="AQ117">
+        <v>1.43</v>
+      </c>
+      <c r="AR117">
+        <v>1.39</v>
+      </c>
+      <c r="AS117">
+        <v>1.71</v>
+      </c>
+      <c r="AT117">
+        <v>3.1</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>6</v>
+      </c>
+      <c r="AW117">
+        <v>8</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>21</v>
+      </c>
+      <c r="AZ117">
+        <v>11</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
+        <v>2</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>2.05</v>
+      </c>
+      <c r="BL117">
+        <v>1.7</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7453800</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>82</v>
+      </c>
+      <c r="H118" t="s">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P118" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>2.5</v>
+      </c>
+      <c r="S118">
+        <v>1.73</v>
+      </c>
+      <c r="T118">
+        <v>1.29</v>
+      </c>
+      <c r="U118">
+        <v>3.5</v>
+      </c>
+      <c r="V118">
+        <v>2.38</v>
+      </c>
+      <c r="W118">
+        <v>1.53</v>
+      </c>
+      <c r="X118">
+        <v>5</v>
+      </c>
+      <c r="Y118">
+        <v>1.14</v>
+      </c>
+      <c r="Z118">
+        <v>7.5</v>
+      </c>
+      <c r="AA118">
+        <v>5.25</v>
+      </c>
+      <c r="AB118">
+        <v>1.29</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>10</v>
+      </c>
+      <c r="AE118">
+        <v>1.17</v>
+      </c>
+      <c r="AF118">
+        <v>4.75</v>
+      </c>
+      <c r="AG118">
+        <v>1.57</v>
+      </c>
+      <c r="AH118">
+        <v>2.35</v>
+      </c>
+      <c r="AI118">
+        <v>1.91</v>
+      </c>
+      <c r="AJ118">
+        <v>1.8</v>
+      </c>
+      <c r="AK118">
+        <v>3.2</v>
+      </c>
+      <c r="AL118">
+        <v>1.1</v>
+      </c>
+      <c r="AM118">
+        <v>1.05</v>
+      </c>
+      <c r="AN118">
+        <v>1.67</v>
+      </c>
+      <c r="AO118">
+        <v>3</v>
+      </c>
+      <c r="AP118">
+        <v>1.43</v>
+      </c>
+      <c r="AQ118">
+        <v>3</v>
+      </c>
+      <c r="AR118">
+        <v>1.51</v>
+      </c>
+      <c r="AS118">
+        <v>2.21</v>
+      </c>
+      <c r="AT118">
+        <v>3.72</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>12</v>
+      </c>
+      <c r="AY118">
+        <v>8</v>
+      </c>
+      <c r="AZ118">
+        <v>25</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>6</v>
+      </c>
+      <c r="BC118">
+        <v>6</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>1.7</v>
+      </c>
+      <c r="BJ118">
+        <v>2.05</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -24596,10 +24596,10 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45605.875</v>
+        <v>45606.375</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
         <v>71</v>
@@ -24802,7 +24802,7 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F116">
         <v>15</v>
@@ -25008,7 +25008,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F117">
         <v>15</v>
@@ -25214,7 +25214,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45605.875</v>
+        <v>45606.54166666666</v>
       </c>
       <c r="F118">
         <v>15</v>
